--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E1E24-7EF4-480B-9B07-6B3DB3110F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBAF2C1-0B70-4D88-A6FB-2B346DCC3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="230">
   <si>
     <t>Output</t>
   </si>
@@ -697,7 +697,28 @@
     <t>termsmodal.accept</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</t>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavButton.vue</t>
+  </si>
+  <si>
+    <t>newBadge</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavMenu.vue</t>
+  </si>
+  <si>
+    <t>crisiscleanup_logo</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vue</t>
+  </si>
+  <si>
+    <t>pew_pew_logo</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1073,8 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,23 +6538,25 @@
       </c>
       <c r="B203" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>NavButton.vue</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
-      </c>
-      <c r="E203" t="str">
-        <f>IF(COUNTIF(C$2:C202,C203)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavButton.vuenewBadge</v>
+      </c>
+      <c r="D203" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" t="s">
+        <v>93</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>testNewBadgeIcon</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="testNewBadgeIcon"</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,178 +6565,195 @@
       </c>
       <c r="B204" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>NavButton.vue</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavButton.vue:several_calculated</v>
+      </c>
+      <c r="D204" t="s">
+        <v>104</v>
       </c>
       <c r="E204" t="str">
         <f>IF(COUNTIF(C$2:C203,C204)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>NavMenu.vue</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavMenu.vue:several_calculated</v>
+      </c>
+      <c r="D205" t="s">
+        <v>104</v>
       </c>
       <c r="E205" t="str">
         <f>IF(COUNTIF(C$2:C204,C205)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G205" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>NavMenu.vue</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
-      </c>
-      <c r="E206" t="str">
-        <f>IF(COUNTIF(C$2:C205,C206)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavMenu.vuecrisiscleanup_logo</v>
+      </c>
+      <c r="D206" t="s">
+        <v>225</v>
+      </c>
+      <c r="E206" t="s">
+        <v>93</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>testCrisiscleanupLogoIcon</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="testCrisiscleanupLogoIcon"</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>PewPewNavBar.vue</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
-      </c>
-      <c r="E207" t="str">
-        <f>IF(COUNTIF(C$2:C206,C207)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vuepew_pew_logo</v>
+      </c>
+      <c r="D207" t="s">
+        <v>227</v>
+      </c>
+      <c r="E207" t="s">
+        <v>93</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>testPewPewLogoIcon</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="testPewPewLogoIcon"</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>PewPewNavBar.vue</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
-      </c>
-      <c r="E208" t="str">
-        <f>IF(COUNTIF(C$2:C207,C208)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vuecrisiscleanup_logo</v>
+      </c>
+      <c r="D208" t="s">
+        <v>225</v>
+      </c>
+      <c r="E208" t="s">
+        <v>93</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>testCrisiscleanupLogoIcon</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="testCrisiscleanupLogoIcon"</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>PewPewNavBar.vue</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vue:several_calculated</v>
+      </c>
+      <c r="D209" t="s">
+        <v>104</v>
       </c>
       <c r="E209" t="str">
         <f>IF(COUNTIF(C$2:C208,C209)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F209" t="str">
         <f t="shared" ref="F209:F272" si="16">IF(D209="","","test"&amp;IF(ISNUMBER(SEARCH(".",D209)),UPPER(LEFT(D209,1))&amp;RIGHT(LEFT(D209,SEARCH(".",D209)-1),LEN(LEFT(D209,SEARCH(".",D209)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D209,LEN(D209)-SEARCH(".",D209))),"_",""),IF(EXACT(LOWER(D209),D209),TRIM(SUBSTITUTE(PROPER(D209),"_","")),UPPER(LEFT(D209,1))&amp;RIGHT(D209,LEN(D209)-1)))&amp;E209)</f>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>PewPewNavBar.vue</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
-      </c>
-      <c r="E210" t="str">
-        <f>IF(COUNTIF(C$2:C209,C210)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vueregister</v>
+      </c>
+      <c r="D210" t="s">
+        <v>228</v>
+      </c>
+      <c r="E210" t="s">
+        <v>15</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testRegisterButton</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>data-testid="testRegisterButton"</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="13"/>
@@ -6721,11 +6761,11 @@
       </c>
       <c r="C211" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E211" t="str">
         <f>IF(COUNTIF(C$2:C210,C211)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="16"/>
@@ -6738,7 +6778,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="13"/>
@@ -6746,7 +6786,7 @@
       </c>
       <c r="C212" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E212" t="str">
         <f>IF(COUNTIF(C$2:C211,C212)&gt;0,"Button","")</f>
@@ -6763,7 +6803,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="13"/>
@@ -6771,7 +6811,7 @@
       </c>
       <c r="C213" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E213" t="str">
         <f>IF(COUNTIF(C$2:C212,C213)&gt;0,"Button","")</f>
@@ -6788,7 +6828,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="13"/>
@@ -6796,7 +6836,7 @@
       </c>
       <c r="C214" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E214" t="str">
         <f>IF(COUNTIF(C$2:C213,C214)&gt;0,"Button","")</f>
@@ -6813,7 +6853,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="13"/>
@@ -6821,7 +6861,7 @@
       </c>
       <c r="C215" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E215" t="str">
         <f>IF(COUNTIF(C$2:C214,C215)&gt;0,"Button","")</f>
@@ -6838,7 +6878,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="13"/>
@@ -6846,7 +6886,7 @@
       </c>
       <c r="C216" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E216" t="str">
         <f>IF(COUNTIF(C$2:C215,C216)&gt;0,"Button","")</f>
@@ -6862,13 +6902,16 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>229</v>
+      </c>
       <c r="B217" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E217" t="str">
         <f>IF(COUNTIF(C$2:C216,C217)&gt;0,"Button","")</f>
@@ -6884,13 +6927,16 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>229</v>
+      </c>
       <c r="B218" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E218" t="str">
         <f>IF(COUNTIF(C$2:C217,C218)&gt;0,"Button","")</f>
@@ -6906,13 +6952,16 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>229</v>
+      </c>
       <c r="B219" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E219" t="str">
         <f>IF(COUNTIF(C$2:C218,C219)&gt;0,"Button","")</f>
@@ -6928,13 +6977,16 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>229</v>
+      </c>
       <c r="B220" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E220" t="str">
         <f>IF(COUNTIF(C$2:C219,C220)&gt;0,"Button","")</f>
@@ -6950,13 +7002,16 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>229</v>
+      </c>
       <c r="B221" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E221" t="str">
         <f>IF(COUNTIF(C$2:C220,C221)&gt;0,"Button","")</f>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBAF2C1-0B70-4D88-A6FB-2B346DCC3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CCF5F-F9C8-42E6-891B-C3EC28E63849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="267">
   <si>
     <t>Output</t>
   </si>
@@ -538,6 +538,9 @@
     <t>Range</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>buffer_save</t>
   </si>
   <si>
@@ -719,6 +722,114 @@
   </si>
   <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vue</t>
+  </si>
+  <si>
+    <t>isConnecting</t>
+  </si>
+  <si>
+    <t>isOnCall</t>
+  </si>
+  <si>
+    <t>isInboundCall</t>
+  </si>
+  <si>
+    <t>isOutboundCall</t>
+  </si>
+  <si>
+    <t>isCompleted</t>
+  </si>
+  <si>
+    <t>currentScriptHeader</t>
+  </si>
+  <si>
+    <t>currentScript.value</t>
+  </si>
+  <si>
+    <t>caller</t>
+  </si>
+  <si>
+    <t>caller.dnis</t>
+  </si>
+  <si>
+    <t>caller.location_name_state_name</t>
+  </si>
+  <si>
+    <t>number_of_inbound_calls</t>
+  </si>
+  <si>
+    <t>existing_cases</t>
+  </si>
+  <si>
+    <t>new_case</t>
+  </si>
+  <si>
+    <t>worktypeSVG</t>
+  </si>
+  <si>
+    <t>caseNumber</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>case_address_state</t>
+  </si>
+  <si>
+    <t>hangup</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vue</t>
+  </si>
+  <si>
+    <t>currentUser.mobile</t>
+  </si>
+  <si>
+    <t>phoneDashboard.languages</t>
+  </si>
+  <si>
+    <t>language_edit</t>
+  </si>
+  <si>
+    <t>isNotTakingCalls</t>
+  </si>
+  <si>
+    <t>isNotOnCall</t>
+  </si>
+  <si>
+    <t>serve_outbound_calls</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vue</t>
+  </si>
+  <si>
+    <t>inbound_count</t>
+  </si>
+  <si>
+    <t>outbound_count</t>
+  </si>
+  <si>
+    <t>total_login_time</t>
+  </si>
+  <si>
+    <t>total_call_time</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vue</t>
+  </si>
+  <si>
+    <t>update_agent</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>languages</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1184,8 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,7 +5278,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\locations\LocationTool.vuebuffer_save</v>
       </c>
       <c r="D152" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -5194,7 +5305,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\locations\LocationTool.vueadd_poly</v>
       </c>
       <c r="D153" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E153" t="s">
         <v>15</v>
@@ -5221,7 +5332,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\locations\LocationTool.vuesubtract_poly</v>
       </c>
       <c r="D154" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E154" t="s">
         <v>15</v>
@@ -5237,7 +5348,7 @@
     </row>
     <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="9"/>
@@ -5265,7 +5376,7 @@
     </row>
     <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="9"/>
@@ -5276,7 +5387,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuechange_organization</v>
       </c>
       <c r="D156" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E156" t="s">
         <v>69</v>
@@ -5292,7 +5403,7 @@
     </row>
     <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="9"/>
@@ -5303,7 +5414,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuewhere_move_to</v>
       </c>
       <c r="D157" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E157" t="s">
         <v>92</v>
@@ -5319,7 +5430,7 @@
     </row>
     <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="9"/>
@@ -5330,10 +5441,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuemove_new_organization</v>
       </c>
       <c r="D158" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E158" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="12"/>
@@ -5346,7 +5457,7 @@
     </row>
     <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="9"/>
@@ -5357,7 +5468,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuemove_new_organization</v>
       </c>
       <c r="D159" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E159" t="s">
         <v>93</v>
@@ -5373,7 +5484,7 @@
     </row>
     <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="9"/>
@@ -5384,7 +5495,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuemove_existing_organization</v>
       </c>
       <c r="D160" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E160" t="s">
         <v>69</v>
@@ -5400,7 +5511,7 @@
     </row>
     <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="9"/>
@@ -5411,7 +5522,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuemove_existing_organization</v>
       </c>
       <c r="D161" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E161" t="s">
         <v>93</v>
@@ -5427,7 +5538,7 @@
     </row>
     <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="9"/>
@@ -5438,7 +5549,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueplease_select_target_organization</v>
       </c>
       <c r="D162" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E162" t="s">
         <v>69</v>
@@ -5454,7 +5565,7 @@
     </row>
     <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="9"/>
@@ -5465,7 +5576,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueselect_organization_tab</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E163" t="s">
         <v>69</v>
@@ -5481,7 +5592,7 @@
     </row>
     <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="9"/>
@@ -5492,7 +5603,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueselectedOrganization</v>
       </c>
       <c r="D164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E164" t="s">
         <v>87</v>
@@ -5508,7 +5619,7 @@
     </row>
     <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="9"/>
@@ -5519,7 +5630,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueselect_users_tab</v>
       </c>
       <c r="D165" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E165" t="s">
         <v>69</v>
@@ -5535,7 +5646,7 @@
     </row>
     <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="9"/>
@@ -5546,7 +5657,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueselect_all_users</v>
       </c>
       <c r="D166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E166" t="s">
         <v>66</v>
@@ -5562,7 +5673,7 @@
     </row>
     <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="9"/>
@@ -5573,10 +5684,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuenestedUsers</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E167" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="12"/>
@@ -5589,7 +5700,7 @@
     </row>
     <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="9"/>
@@ -5600,7 +5711,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueselect_cases_tab</v>
       </c>
       <c r="D168" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E168" t="s">
         <v>69</v>
@@ -5616,7 +5727,7 @@
     </row>
     <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="9"/>
@@ -5627,7 +5738,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueclaimedCases</v>
       </c>
       <c r="D169" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E169" t="s">
         <v>69</v>
@@ -5643,7 +5754,7 @@
     </row>
     <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="9"/>
@@ -5670,7 +5781,7 @@
     </row>
     <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="9"/>
@@ -5681,7 +5792,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueselect_all_cases</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E171" t="s">
         <v>66</v>
@@ -5697,7 +5808,7 @@
     </row>
     <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="9"/>
@@ -5708,7 +5819,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuework_type</v>
       </c>
       <c r="D172" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E172" t="s">
         <v>69</v>
@@ -5724,7 +5835,7 @@
     </row>
     <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="9"/>
@@ -5735,7 +5846,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuework_type</v>
       </c>
       <c r="D173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E173" t="s">
         <v>66</v>
@@ -5751,7 +5862,7 @@
     </row>
     <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="9"/>
@@ -5778,7 +5889,7 @@
     </row>
     <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="9"/>
@@ -5789,7 +5900,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueback</v>
       </c>
       <c r="D175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E175" t="s">
         <v>91</v>
@@ -5805,7 +5916,7 @@
     </row>
     <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="9"/>
@@ -5816,7 +5927,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuenext</v>
       </c>
       <c r="D176" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E176" t="s">
         <v>91</v>
@@ -5832,7 +5943,7 @@
     </row>
     <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="9"/>
@@ -5843,7 +5954,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vuemove</v>
       </c>
       <c r="D177" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E177" t="s">
         <v>15</v>
@@ -5859,7 +5970,7 @@
     </row>
     <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="9"/>
@@ -5870,7 +5981,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ChangeOrganizationModal.vueOrganizationSearchInput</v>
       </c>
       <c r="D178" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E178" t="s">
         <v>87</v>
@@ -5886,7 +5997,7 @@
     </row>
     <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="9"/>
@@ -5897,7 +6008,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\CompletedTransferModal.vueyou_have_been_moved</v>
       </c>
       <c r="D179" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E179" t="s">
         <v>98</v>
@@ -5913,7 +6024,7 @@
     </row>
     <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="9"/>
@@ -5924,7 +6035,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\CompletedTransferModal.vueyou_have_been_moved_to</v>
       </c>
       <c r="D180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E180" t="s">
         <v>69</v>
@@ -5940,7 +6051,7 @@
     </row>
     <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="9"/>
@@ -5951,7 +6062,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\CompletedTransferModal.vuemove_back</v>
       </c>
       <c r="D181" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E181" t="s">
         <v>15</v>
@@ -5967,7 +6078,7 @@
     </row>
     <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="9"/>
@@ -5978,7 +6089,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\CompletedTransferModal.vuestay</v>
       </c>
       <c r="D182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E182" t="s">
         <v>15</v>
@@ -5994,7 +6105,7 @@
     </row>
     <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="9"/>
@@ -6005,7 +6116,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\InviteUsers.vueinvite_new_user</v>
       </c>
       <c r="D183" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E183" t="s">
         <v>15</v>
@@ -6021,7 +6132,7 @@
     </row>
     <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="9"/>
@@ -6032,7 +6143,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\InviteUsers.vueinvite_user</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E184" t="s">
         <v>98</v>
@@ -6048,7 +6159,7 @@
     </row>
     <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="9"/>
@@ -6059,7 +6170,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\InviteUsers.vueinvite_teammates_instructions</v>
       </c>
       <c r="D185" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E185" t="s">
         <v>69</v>
@@ -6075,7 +6186,7 @@
     </row>
     <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="9"/>
@@ -6086,7 +6197,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\InviteUsers.vueuserEmailsToInvite</v>
       </c>
       <c r="D186" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E186" t="s">
         <v>68</v>
@@ -6102,7 +6213,7 @@
     </row>
     <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="9"/>
@@ -6113,7 +6224,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\InviteUsers.vueOrganizationSearch</v>
       </c>
       <c r="D187" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E187" t="s">
         <v>68</v>
@@ -6129,7 +6240,7 @@
     </row>
     <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="9"/>
@@ -6156,7 +6267,7 @@
     </row>
     <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="9"/>
@@ -6167,7 +6278,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\InviteUsers.vuesubmit_invites</v>
       </c>
       <c r="D189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E189" t="s">
         <v>15</v>
@@ -6183,7 +6294,7 @@
     </row>
     <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="9"/>
@@ -6194,7 +6305,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\RedeployRequest.vuerequest_redeploy</v>
       </c>
       <c r="D190" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
@@ -6210,7 +6321,7 @@
     </row>
     <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="9"/>
@@ -6221,7 +6332,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\RedeployRequest.vueshowRedeploy</v>
       </c>
       <c r="D191" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E191" t="s">
         <v>98</v>
@@ -6237,7 +6348,7 @@
     </row>
     <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="9"/>
@@ -6248,7 +6359,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\RedeployRequest.vuechoose_an_incident</v>
       </c>
       <c r="D192" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E192" t="s">
         <v>69</v>
@@ -6264,7 +6375,7 @@
     </row>
     <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="9"/>
@@ -6275,7 +6386,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\RedeployRequest.vueselect_incident</v>
       </c>
       <c r="D193" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E193" t="s">
         <v>87</v>
@@ -6291,7 +6402,7 @@
     </row>
     <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="9"/>
@@ -6318,7 +6429,7 @@
     </row>
     <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="9"/>
@@ -6329,7 +6440,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\RedeployRequest.vuesubmit</v>
       </c>
       <c r="D195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E195" t="s">
         <v>15</v>
@@ -6343,9 +6454,9 @@
         <v>data-testid="testSubmitButton"</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" ref="B196:B259" si="13">IF(A196="","",MID(A196,FIND("@",SUBSTITUTE(A196,"\","@",LEN(A196)-LEN(SUBSTITUTE(A196,"\",""))))+1,LEN(A196)))</f>
@@ -6356,7 +6467,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ShareWorksite.vuemanually_enter_emails</v>
       </c>
       <c r="D196" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E196" t="s">
         <v>68</v>
@@ -6370,9 +6481,9 @@
         <v>data-testid="testManuallyEnterEmailsTextInput"</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="13"/>
@@ -6383,10 +6494,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ShareWorksite.vuesearch_emails</v>
       </c>
       <c r="D197" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E197" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="12"/>
@@ -6397,9 +6508,9 @@
         <v>data-testid="testSearchEmailsSearch"</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="13"/>
@@ -6410,7 +6521,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ShareWorksite.vuemanually_enter_phones</v>
       </c>
       <c r="D198" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E198" t="s">
         <v>68</v>
@@ -6424,9 +6535,9 @@
         <v>data-testid="testManuallyEnterPhonesTextInput"</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="13"/>
@@ -6437,10 +6548,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ShareWorksite.vuesearch_phones</v>
       </c>
       <c r="D199" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E199" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="12"/>
@@ -6451,9 +6562,9 @@
         <v>data-testid="testSearchPhonesSearch"</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="13"/>
@@ -6464,7 +6575,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\ShareWorksite.vueadd_message_to_invite</v>
       </c>
       <c r="D200" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E200" t="s">
         <v>67</v>
@@ -6478,9 +6589,9 @@
         <v>data-testid="testAddMessageToInviteTextarea"</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="13"/>
@@ -6491,7 +6602,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\TermsandConditionsModal.vueterms_conditions_title</v>
       </c>
       <c r="D201" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E201" t="s">
         <v>98</v>
@@ -6505,9 +6616,9 @@
         <v>data-testid="testTermsConditionsTitleModal"</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="13"/>
@@ -6518,7 +6629,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\modals\TermsandConditionsModal.vuetermsmodal.accept</v>
       </c>
       <c r="D202" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E202" t="s">
         <v>15</v>
@@ -6532,9 +6643,9 @@
         <v>data-testid="testTermsmodalAcceptButton"</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="13"/>
@@ -6545,7 +6656,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavButton.vuenewBadge</v>
       </c>
       <c r="D203" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E203" t="s">
         <v>93</v>
@@ -6559,9 +6670,9 @@
         <v>data-testid="testNewBadgeIcon"</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="13"/>
@@ -6587,9 +6698,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="13"/>
@@ -6615,9 +6726,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="13"/>
@@ -6628,7 +6739,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\NavMenu.vuecrisiscleanup_logo</v>
       </c>
       <c r="D206" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E206" t="s">
         <v>93</v>
@@ -6642,9 +6753,9 @@
         <v>data-testid="testCrisiscleanupLogoIcon"</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="13"/>
@@ -6655,7 +6766,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vuepew_pew_logo</v>
       </c>
       <c r="D207" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E207" t="s">
         <v>93</v>
@@ -6669,9 +6780,9 @@
         <v>data-testid="testPewPewLogoIcon"</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="13"/>
@@ -6682,7 +6793,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vuecrisiscleanup_logo</v>
       </c>
       <c r="D208" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E208" t="s">
         <v>93</v>
@@ -6696,9 +6807,9 @@
         <v>data-testid="testCrisiscleanupLogoIcon"</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="13"/>
@@ -6724,9 +6835,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="13"/>
@@ -6737,7 +6848,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\navigation\PewPewNavBar.vueregister</v>
       </c>
       <c r="D210" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E210" t="s">
         <v>15</v>
@@ -6751,865 +6862,1021 @@
         <v>data-testid="testRegisterButton"</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E211" t="str">
-        <f>IF(COUNTIF(C$2:C210,C211)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisConnecting</v>
+      </c>
+      <c r="D211" t="s">
+        <v>232</v>
+      </c>
+      <c r="E211" t="s">
+        <v>69</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsConnectingDiv</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsConnectingDiv"</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E212" t="str">
-        <f>IF(COUNTIF(C$2:C211,C212)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisOnCall</v>
+      </c>
+      <c r="D212" t="s">
+        <v>233</v>
+      </c>
+      <c r="E212" t="s">
+        <v>69</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsOnCallDiv</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsOnCallDiv"</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E213" t="str">
-        <f>IF(COUNTIF(C$2:C212,C213)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisInboundCall</v>
+      </c>
+      <c r="D213" t="s">
+        <v>234</v>
+      </c>
+      <c r="E213" t="s">
+        <v>69</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsInboundCallDiv</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsInboundCallDiv"</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E214" t="str">
-        <f>IF(COUNTIF(C$2:C213,C214)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisOutboundCall</v>
+      </c>
+      <c r="D214" t="s">
+        <v>235</v>
+      </c>
+      <c r="E214" t="s">
+        <v>69</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsOutboundCallDiv</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsOutboundCallDiv"</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E215" t="str">
-        <f>IF(COUNTIF(C$2:C214,C215)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisCompleted</v>
+      </c>
+      <c r="D215" t="s">
+        <v>236</v>
+      </c>
+      <c r="E215" t="s">
+        <v>69</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsCompletedDiv</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsCompletedDiv"</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E216" t="str">
-        <f>IF(COUNTIF(C$2:C215,C216)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecurrentScriptHeader</v>
+      </c>
+      <c r="D216" t="s">
+        <v>237</v>
+      </c>
+      <c r="E216" t="s">
+        <v>92</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCurrentScriptHeaderContent</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentScriptHeaderContent"</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E217" t="str">
-        <f>IF(COUNTIF(C$2:C216,C217)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecurrentScript.value</v>
+      </c>
+      <c r="D217" t="s">
+        <v>238</v>
+      </c>
+      <c r="E217" t="s">
+        <v>92</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCurrentScriptValueContent</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentScriptValueContent"</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E218" t="str">
-        <f>IF(COUNTIF(C$2:C217,C218)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaller</v>
+      </c>
+      <c r="D218" t="s">
+        <v>239</v>
+      </c>
+      <c r="E218" t="s">
+        <v>69</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCallerDiv</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCallerDiv"</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E219" t="str">
-        <f>IF(COUNTIF(C$2:C218,C219)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaller.dnis</v>
+      </c>
+      <c r="D219" t="s">
+        <v>240</v>
+      </c>
+      <c r="E219" t="s">
+        <v>92</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCallerDnisContent</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCallerDnisContent"</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E220" t="str">
-        <f>IF(COUNTIF(C$2:C219,C220)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaller.location_name_state_name</v>
+      </c>
+      <c r="D220" t="s">
+        <v>241</v>
+      </c>
+      <c r="E220" t="s">
+        <v>92</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCallerLocationNameStateNameContent</v>
       </c>
       <c r="G220" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCallerLocationNameStateNameContent"</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E221" t="str">
-        <f>IF(COUNTIF(C$2:C220,C221)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuenumber_of_inbound_calls</v>
+      </c>
+      <c r="D221" t="s">
+        <v>242</v>
+      </c>
+      <c r="E221" t="s">
+        <v>69</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testNumberOfInboundCallsDiv</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNumberOfInboundCallsDiv"</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>231</v>
+      </c>
       <c r="B222" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E222" t="str">
-        <f>IF(COUNTIF(C$2:C221,C222)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueexisting_cases</v>
+      </c>
+      <c r="D222" t="s">
+        <v>243</v>
+      </c>
+      <c r="E222" t="s">
+        <v>69</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testExistingCasesDiv</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testExistingCasesDiv"</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>231</v>
+      </c>
       <c r="B223" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E223" t="str">
-        <f>IF(COUNTIF(C$2:C222,C223)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuenew_case</v>
+      </c>
+      <c r="D223" t="s">
+        <v>244</v>
+      </c>
+      <c r="E223" t="s">
+        <v>92</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testNewCaseContent</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNewCaseContent"</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
       <c r="B224" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vue:several_calculated</v>
+      </c>
+      <c r="D224" t="s">
+        <v>104</v>
       </c>
       <c r="E224" t="str">
         <f>IF(COUNTIF(C$2:C223,C224)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
       <c r="B225" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E225" t="str">
-        <f>IF(COUNTIF(C$2:C224,C225)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueworktypeSVG</v>
+      </c>
+      <c r="D225" t="s">
+        <v>245</v>
+      </c>
+      <c r="E225" t="s">
+        <v>93</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testWorktypeSVGIcon</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorktypeSVGIcon"</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
       <c r="B226" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E226" t="str">
-        <f>IF(COUNTIF(C$2:C225,C226)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaseNumber</v>
+      </c>
+      <c r="D226" t="s">
+        <v>246</v>
+      </c>
+      <c r="E226" t="s">
+        <v>69</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCaseNumberDiv</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCaseNumberDiv"</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>231</v>
+      </c>
       <c r="B227" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E227" t="str">
-        <f>IF(COUNTIF(C$2:C226,C227)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecase_name</v>
+      </c>
+      <c r="D227" t="s">
+        <v>247</v>
+      </c>
+      <c r="E227" t="s">
+        <v>69</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCaseNameDiv</v>
       </c>
       <c r="G227" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCaseNameDiv"</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
       <c r="B228" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E228" t="str">
-        <f>IF(COUNTIF(C$2:C227,C228)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecase_address_state</v>
+      </c>
+      <c r="D228" t="s">
+        <v>248</v>
+      </c>
+      <c r="E228" t="s">
+        <v>69</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCaseAddressStateDiv</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCaseAddressStateDiv"</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
       <c r="B229" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>ActiveCall.vue</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E229" t="str">
-        <f>IF(COUNTIF(C$2:C228,C229)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuehangup</v>
+      </c>
+      <c r="D229" t="s">
+        <v>249</v>
+      </c>
+      <c r="E229" t="s">
+        <v>93</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testHangupIcon</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testHangupIcon"</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>250</v>
+      </c>
       <c r="B230" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E230" t="str">
-        <f>IF(COUNTIF(C$2:C229,C230)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuecurrentUser.mobile</v>
+      </c>
+      <c r="D230" t="s">
+        <v>251</v>
+      </c>
+      <c r="E230" t="s">
+        <v>92</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCurrentUserMobileContent</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentUserMobileContent"</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>250</v>
+      </c>
       <c r="B231" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E231" t="str">
-        <f>IF(COUNTIF(C$2:C230,C231)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuephoneDashboard.languages</v>
+      </c>
+      <c r="D231" t="s">
+        <v>252</v>
+      </c>
+      <c r="E231" t="s">
+        <v>69</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testPhoneDashboardLanguagesDiv</v>
       </c>
       <c r="G231" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneDashboardLanguagesDiv"</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>250</v>
+      </c>
       <c r="B232" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E232" t="str">
-        <f>IF(COUNTIF(C$2:C231,C232)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuelanguage_edit</v>
+      </c>
+      <c r="D232" t="s">
+        <v>253</v>
+      </c>
+      <c r="E232" t="s">
+        <v>93</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testLanguageEditIcon</v>
       </c>
       <c r="G232" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLanguageEditIcon"</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>250</v>
+      </c>
       <c r="B233" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E233" t="str">
-        <f>IF(COUNTIF(C$2:C232,C233)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueisOnCall</v>
+      </c>
+      <c r="D233" t="s">
+        <v>233</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsOnCallButton</v>
       </c>
       <c r="G233" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsOnCallButton"</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>250</v>
+      </c>
       <c r="B234" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E234" t="str">
-        <f>IF(COUNTIF(C$2:C233,C234)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueisNotTakingCalls</v>
+      </c>
+      <c r="D234" t="s">
+        <v>254</v>
+      </c>
+      <c r="E234" t="s">
+        <v>15</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsNotTakingCallsButton</v>
       </c>
       <c r="G234" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsNotTakingCallsButton"</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>250</v>
+      </c>
       <c r="B235" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E235" t="str">
-        <f>IF(COUNTIF(C$2:C234,C235)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueisNotOnCall</v>
+      </c>
+      <c r="D235" t="s">
+        <v>255</v>
+      </c>
+      <c r="E235" t="s">
+        <v>15</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIsNotOnCallButton</v>
       </c>
       <c r="G235" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsNotOnCallButton"</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>250</v>
+      </c>
       <c r="B236" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E236" t="str">
-        <f>IF(COUNTIF(C$2:C235,C236)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueserve_outbound_calls</v>
+      </c>
+      <c r="D236" t="s">
+        <v>256</v>
+      </c>
+      <c r="E236" t="s">
+        <v>66</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testServeOutboundCallsCheckbox</v>
       </c>
       <c r="G236" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testServeOutboundCallsCheckbox"</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>250</v>
+      </c>
       <c r="B237" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Agent.vue</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E237" t="str">
-        <f>IF(COUNTIF(C$2:C236,C237)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuehangup</v>
+      </c>
+      <c r="D237" t="s">
+        <v>249</v>
+      </c>
+      <c r="E237" t="s">
+        <v>93</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testHangupIcon</v>
       </c>
       <c r="G237" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testHangupIcon"</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>257</v>
+      </c>
       <c r="B238" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>AgentStats.vue</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E238" t="str">
-        <f>IF(COUNTIF(C$2:C237,C238)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vueinbound_count</v>
+      </c>
+      <c r="D238" t="s">
+        <v>258</v>
+      </c>
+      <c r="E238" t="s">
+        <v>69</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testInboundCountDiv</v>
       </c>
       <c r="G238" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInboundCountDiv"</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>257</v>
+      </c>
       <c r="B239" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>AgentStats.vue</v>
       </c>
       <c r="C239" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E239" t="str">
-        <f>IF(COUNTIF(C$2:C238,C239)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vueoutbound_count</v>
+      </c>
+      <c r="D239" t="s">
+        <v>259</v>
+      </c>
+      <c r="E239" t="s">
+        <v>69</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testOutboundCountDiv</v>
       </c>
       <c r="G239" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOutboundCountDiv"</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>257</v>
+      </c>
       <c r="B240" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>AgentStats.vue</v>
       </c>
       <c r="C240" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E240" t="str">
-        <f>IF(COUNTIF(C$2:C239,C240)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vuetotal_login_time</v>
+      </c>
+      <c r="D240" t="s">
+        <v>260</v>
+      </c>
+      <c r="E240" t="s">
+        <v>69</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testTotalLoginTimeDiv</v>
       </c>
       <c r="G240" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTotalLoginTimeDiv"</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>257</v>
+      </c>
       <c r="B241" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>AgentStats.vue</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E241" t="str">
-        <f>IF(COUNTIF(C$2:C240,C241)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vuetotal_call_time</v>
+      </c>
+      <c r="D241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="s">
+        <v>69</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testTotalCallTimeDiv</v>
       </c>
       <c r="G241" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTotalCallTimeDiv"</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>262</v>
+      </c>
       <c r="B242" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>EditAgentModal.vue</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E242" t="str">
-        <f>IF(COUNTIF(C$2:C241,C242)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vueupdate_agent</v>
+      </c>
+      <c r="D242" t="s">
+        <v>263</v>
+      </c>
+      <c r="E242" t="s">
+        <v>69</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testUpdateAgentDiv</v>
       </c>
       <c r="G242" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUpdateAgentDiv"</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>230</v>
+      </c>
       <c r="B243" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E243" t="str">
-        <f>IF(COUNTIF(C$2:C242,C243)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\phone_number</v>
+      </c>
+      <c r="D243" t="s">
+        <v>264</v>
+      </c>
+      <c r="E243" t="s">
+        <v>92</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testPhoneNumberContent</v>
       </c>
       <c r="G243" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneNumberContent"</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>230</v>
+      </c>
       <c r="B244" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E244" t="str">
-        <f>IF(COUNTIF(C$2:C243,C244)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\phoneNumber</v>
+      </c>
+      <c r="D244" t="s">
+        <v>265</v>
+      </c>
+      <c r="E244" t="s">
+        <v>68</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testPhoneNumberTextInput</v>
       </c>
       <c r="G244" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneNumberTextInput"</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>230</v>
+      </c>
       <c r="B245" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E245" t="str">
-        <f>IF(COUNTIF(C$2:C244,C245)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\languages</v>
+      </c>
+      <c r="D245" t="s">
+        <v>266</v>
+      </c>
+      <c r="E245" t="s">
+        <v>92</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testLanguagesContent</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLanguagesContent"</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>230</v>
+      </c>
       <c r="B246" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E246" t="str">
-        <f>IF(COUNTIF(C$2:C245,C246)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\languages</v>
+      </c>
+      <c r="D246" t="s">
+        <v>266</v>
+      </c>
+      <c r="E246" t="s">
+        <v>87</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testLanguagesSelect</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLanguagesSelect"</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>230</v>
+      </c>
       <c r="B247" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E247" t="str">
-        <f>IF(COUNTIF(C$2:C246,C247)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\save</v>
+      </c>
+      <c r="D247" t="s">
+        <v>169</v>
+      </c>
+      <c r="E247" t="s">
+        <v>15</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testSaveButton</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveButton"</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>230</v>
+      </c>
       <c r="B248" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E248" t="str">
         <f>IF(COUNTIF(C$2:C247,C248)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="16"/>
@@ -7620,14 +7887,17 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>230</v>
+      </c>
       <c r="B249" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E249" t="str">
         <f>IF(COUNTIF(C$2:C248,C249)&gt;0,"Button","")</f>
@@ -7642,14 +7912,17 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>230</v>
+      </c>
       <c r="B250" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E250" t="str">
         <f>IF(COUNTIF(C$2:C249,C250)&gt;0,"Button","")</f>
@@ -7664,14 +7937,17 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>230</v>
+      </c>
       <c r="B251" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E251" t="str">
         <f>IF(COUNTIF(C$2:C250,C251)&gt;0,"Button","")</f>
@@ -7686,14 +7962,17 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>230</v>
+      </c>
       <c r="B252" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E252" t="str">
         <f>IF(COUNTIF(C$2:C251,C252)&gt;0,"Button","")</f>
@@ -7708,14 +7987,17 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>230</v>
+      </c>
       <c r="B253" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E253" t="str">
         <f>IF(COUNTIF(C$2:C252,C253)&gt;0,"Button","")</f>
@@ -7730,14 +8012,17 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>230</v>
+      </c>
       <c r="B254" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E254" t="str">
         <f>IF(COUNTIF(C$2:C253,C254)&gt;0,"Button","")</f>
@@ -7752,14 +8037,17 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>230</v>
+      </c>
       <c r="B255" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E255" t="str">
         <f>IF(COUNTIF(C$2:C254,C255)&gt;0,"Button","")</f>
@@ -7774,7 +8062,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B256" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -13306,12 +13594,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CCF5F-F9C8-42E6-891B-C3EC28E63849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B10085-DD84-4652-A747-47C73A91D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
+    <workbookView xWindow="3345" yWindow="1500" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="306">
   <si>
     <t>Output</t>
   </si>
@@ -830,6 +830,123 @@
   </si>
   <si>
     <t>languages</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vue</t>
+  </si>
+  <si>
+    <t>AgentStats</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>phone_classic</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vue</t>
+  </si>
+  <si>
+    <t>general_statistics</t>
+  </si>
+  <si>
+    <t>stats_delayed</t>
+  </si>
+  <si>
+    <t>on_phone_now</t>
+  </si>
+  <si>
+    <t>remaining_callbacks</t>
+  </si>
+  <si>
+    <t>showOutboundsModal</t>
+  </si>
+  <si>
+    <t>remaining_calldowns</t>
+  </si>
+  <si>
+    <t>showOutboundsModalCalldown</t>
+  </si>
+  <si>
+    <t>agents_online</t>
+  </si>
+  <si>
+    <t>leaderboard</t>
+  </si>
+  <si>
+    <t>userInfo</t>
+  </si>
+  <si>
+    <t>total_count</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vue</t>
+  </si>
+  <si>
+    <t>manual_dialer</t>
+  </si>
+  <si>
+    <t>manual_dial_hidden_caller_id</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>dialing</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vue</t>
+  </si>
+  <si>
+    <t>phone_system_action</t>
+  </si>
+  <si>
+    <t>phone_system_action_content</t>
+  </si>
+  <si>
+    <t>phone_system_action_button</t>
+  </si>
+  <si>
+    <t>phone_system_action_close</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneIndicator.vue</t>
+  </si>
+  <si>
+    <t>isTakingCalls</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneNews.vue</t>
+  </si>
+  <si>
+    <t>phoneNews</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneToolBar.vue</t>
+  </si>
+  <si>
+    <t>phoneToolBar</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vue</t>
+  </si>
+  <si>
+    <t>statusSelector</t>
+  </si>
+  <si>
+    <t>callNote</t>
+  </si>
+  <si>
+    <t>complete_call</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282:A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7376,7 +7493,7 @@
         <v>data-testid="testHangupIcon"</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -7403,7 +7520,7 @@
         <v>data-testid="testCurrentUserMobileContent"</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>250</v>
       </c>
@@ -7430,7 +7547,7 @@
         <v>data-testid="testPhoneDashboardLanguagesDiv"</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>250</v>
       </c>
@@ -7457,7 +7574,7 @@
         <v>data-testid="testLanguageEditIcon"</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>250</v>
       </c>
@@ -7484,7 +7601,7 @@
         <v>data-testid="testIsOnCallButton"</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -7511,7 +7628,7 @@
         <v>data-testid="testIsNotTakingCallsButton"</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>250</v>
       </c>
@@ -7538,7 +7655,7 @@
         <v>data-testid="testIsNotOnCallButton"</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>250</v>
       </c>
@@ -7565,7 +7682,7 @@
         <v>data-testid="testServeOutboundCallsCheckbox"</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>250</v>
       </c>
@@ -7592,7 +7709,7 @@
         <v>data-testid="testHangupIcon"</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -7619,7 +7736,7 @@
         <v>data-testid="testInboundCountDiv"</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>257</v>
       </c>
@@ -7646,7 +7763,7 @@
         <v>data-testid="testOutboundCountDiv"</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>257</v>
       </c>
@@ -7673,7 +7790,7 @@
         <v>data-testid="testTotalLoginTimeDiv"</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -7700,7 +7817,7 @@
         <v>data-testid="testTotalCallTimeDiv"</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>262</v>
       </c>
@@ -7727,17 +7844,17 @@
         <v>data-testid="testUpdateAgentDiv"</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>EditAgentModal.vue</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\phone_number</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuephone_number</v>
       </c>
       <c r="D243" t="s">
         <v>264</v>
@@ -7754,17 +7871,17 @@
         <v>data-testid="testPhoneNumberContent"</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>EditAgentModal.vue</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\phoneNumber</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuephoneNumber</v>
       </c>
       <c r="D244" t="s">
         <v>265</v>
@@ -7781,17 +7898,17 @@
         <v>data-testid="testPhoneNumberTextInput"</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>EditAgentModal.vue</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\languages</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuelanguages</v>
       </c>
       <c r="D245" t="s">
         <v>266</v>
@@ -7808,17 +7925,17 @@
         <v>data-testid="testLanguagesContent"</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>EditAgentModal.vue</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\languages</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuelanguages</v>
       </c>
       <c r="D246" t="s">
         <v>266</v>
@@ -7835,17 +7952,17 @@
         <v>data-testid="testLanguagesSelect"</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>EditAgentModal.vue</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\save</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuesave</v>
       </c>
       <c r="D247" t="s">
         <v>169</v>
@@ -7862,856 +7979,1018 @@
         <v>data-testid="testSaveButton"</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>CallHistory.vue</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E248" t="str">
-        <f>IF(COUNTIF(C$2:C247,C248)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vueAgentStats</v>
+      </c>
+      <c r="D248" t="s">
+        <v>268</v>
+      </c>
+      <c r="E248" t="s">
+        <v>269</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testAgentStatsTable</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAgentStatsTable"</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>CallHistory.vue</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E249" t="str">
-        <f>IF(COUNTIF(C$2:C248,C249)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vueincident</v>
+      </c>
+      <c r="D249" t="s">
+        <v>23</v>
+      </c>
+      <c r="E249" t="s">
+        <v>178</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testIncidentdiv</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentdiv"</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>CallHistory.vue</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E250" t="str">
-        <f>IF(COUNTIF(C$2:C249,C250)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vuephone_classic</v>
+      </c>
+      <c r="D250" t="s">
+        <v>270</v>
+      </c>
+      <c r="E250" t="s">
+        <v>271</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testPhoneClassicicon</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneClassicicon"</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>CallHistory.vue</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E251" t="str">
-        <f>IF(COUNTIF(C$2:C250,C251)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vue:several_calculated</v>
+      </c>
+      <c r="D251" t="s">
+        <v>104</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E252" t="str">
-        <f>IF(COUNTIF(C$2:C251,C252)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vuegeneral_statistics</v>
+      </c>
+      <c r="D252" t="s">
+        <v>273</v>
+      </c>
+      <c r="E252" t="s">
+        <v>92</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testGeneralStatisticsContent</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGeneralStatisticsContent"</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E253" t="str">
-        <f>IF(COUNTIF(C$2:C252,C253)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vuestats_delayed</v>
+      </c>
+      <c r="D253" t="s">
+        <v>274</v>
+      </c>
+      <c r="E253" t="s">
+        <v>92</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testStatsDelayedContent</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testStatsDelayedContent"</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E254" t="str">
-        <f>IF(COUNTIF(C$2:C253,C254)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueon_phone_now</v>
+      </c>
+      <c r="D254" t="s">
+        <v>275</v>
+      </c>
+      <c r="E254" t="s">
+        <v>69</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testOnPhoneNowDiv</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOnPhoneNowDiv"</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="14"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E255" t="str">
-        <f>IF(COUNTIF(C$2:C254,C255)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueremaining_callbacks</v>
+      </c>
+      <c r="D255" t="s">
+        <v>276</v>
+      </c>
+      <c r="E255" t="s">
+        <v>69</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testRemainingCallbacksDiv</v>
       </c>
       <c r="G255" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRemainingCallbacksDiv"</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>272</v>
+      </c>
       <c r="B256" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E256" t="str">
-        <f>IF(COUNTIF(C$2:C255,C256)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueshowOutboundsModal</v>
+      </c>
+      <c r="D256" t="s">
+        <v>277</v>
+      </c>
+      <c r="E256" t="s">
+        <v>15</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testShowOutboundsModalButton</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowOutboundsModalButton"</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>272</v>
+      </c>
       <c r="B257" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E257" t="str">
-        <f>IF(COUNTIF(C$2:C256,C257)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueremaining_calldowns</v>
+      </c>
+      <c r="D257" t="s">
+        <v>278</v>
+      </c>
+      <c r="E257" t="s">
+        <v>69</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testRemainingCalldownsDiv</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRemainingCalldownsDiv"</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>272</v>
+      </c>
       <c r="B258" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E258" t="str">
-        <f>IF(COUNTIF(C$2:C257,C258)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueshowOutboundsModalCalldown</v>
+      </c>
+      <c r="D258" t="s">
+        <v>279</v>
+      </c>
+      <c r="E258" t="s">
+        <v>15</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testShowOutboundsModalCalldownButton</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowOutboundsModalCalldownButton"</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>272</v>
+      </c>
       <c r="B259" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="E259" t="str">
-        <f>IF(COUNTIF(C$2:C258,C259)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueagents_online</v>
+      </c>
+      <c r="D259" t="s">
+        <v>280</v>
+      </c>
+      <c r="E259" t="s">
+        <v>69</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testAgentsOnlineDiv</v>
       </c>
       <c r="G259" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAgentsOnlineDiv"</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>272</v>
+      </c>
       <c r="B260" t="str">
         <f t="shared" ref="B260:B323" si="17">IF(A260="","",MID(A260,FIND("@",SUBSTITUTE(A260,"\","@",LEN(A260)-LEN(SUBSTITUTE(A260,"\",""))))+1,LEN(A260)))</f>
-        <v/>
+        <v>GeneralStats.vue</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" ref="C260:C323" si="18">A260&amp;D260</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vue:several_calculated</v>
+      </c>
+      <c r="D260" t="s">
+        <v>104</v>
       </c>
       <c r="E260" t="str">
         <f>IF(COUNTIF(C$2:C259,C260)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" ref="G260:G323" si="19">IF(D260="","","data-testid="""&amp;F260&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>285</v>
+      </c>
       <c r="B261" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C261" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E261" t="str">
-        <f>IF(COUNTIF(C$2:C260,C261)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueleaderboard</v>
+      </c>
+      <c r="D261" t="s">
+        <v>281</v>
+      </c>
+      <c r="E261" t="s">
+        <v>69</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testLeaderboardDiv</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLeaderboardDiv"</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>285</v>
+      </c>
       <c r="B262" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E262" t="str">
-        <f>IF(COUNTIF(C$2:C261,C262)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueAvatar</v>
+      </c>
+      <c r="D262" t="s">
+        <v>114</v>
+      </c>
+      <c r="E262" t="s">
+        <v>93</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testAvatarIcon</v>
       </c>
       <c r="G262" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAvatarIcon"</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>285</v>
+      </c>
       <c r="B263" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E263" t="str">
-        <f>IF(COUNTIF(C$2:C262,C263)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueuserInfo</v>
+      </c>
+      <c r="D263" t="s">
+        <v>282</v>
+      </c>
+      <c r="E263" t="s">
+        <v>99</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testUserInfoTooltip</v>
       </c>
       <c r="G263" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUserInfoTooltip"</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>285</v>
+      </c>
       <c r="B264" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E264" t="str">
-        <f>IF(COUNTIF(C$2:C263,C264)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueinbound_count</v>
+      </c>
+      <c r="D264" t="s">
+        <v>258</v>
+      </c>
+      <c r="E264" t="s">
+        <v>69</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testInboundCountDiv</v>
       </c>
       <c r="G264" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInboundCountDiv"</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>285</v>
+      </c>
       <c r="B265" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E265" t="str">
-        <f>IF(COUNTIF(C$2:C264,C265)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueoutbound_count</v>
+      </c>
+      <c r="D265" t="s">
+        <v>259</v>
+      </c>
+      <c r="E265" t="s">
+        <v>69</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testOutboundCountDiv</v>
       </c>
       <c r="G265" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOutboundCountDiv"</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>285</v>
+      </c>
       <c r="B266" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E266" t="str">
-        <f>IF(COUNTIF(C$2:C265,C266)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vuetotal_count</v>
+      </c>
+      <c r="D266" t="s">
+        <v>283</v>
+      </c>
+      <c r="E266" t="s">
+        <v>178</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testTotalCountdiv</v>
       </c>
       <c r="G266" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTotalCountdiv"</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>285</v>
+      </c>
       <c r="B267" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E267" t="str">
-        <f>IF(COUNTIF(C$2:C266,C267)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueprevious</v>
+      </c>
+      <c r="D267" t="s">
+        <v>284</v>
+      </c>
+      <c r="E267" t="s">
+        <v>15</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testPreviousButton</v>
       </c>
       <c r="G267" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPreviousButton"</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>285</v>
+      </c>
       <c r="B268" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Leaderboard.vue</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E268" t="str">
-        <f>IF(COUNTIF(C$2:C267,C268)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vuenext</v>
+      </c>
+      <c r="D268" t="s">
+        <v>192</v>
+      </c>
+      <c r="E268" t="s">
+        <v>15</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testNextButton</v>
       </c>
       <c r="G268" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNextButton"</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>286</v>
+      </c>
       <c r="B269" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ManualDialer.vue</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E269" t="str">
-        <f>IF(COUNTIF(C$2:C268,C269)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuemanual_dialer</v>
+      </c>
+      <c r="D269" t="s">
+        <v>287</v>
+      </c>
+      <c r="E269" t="s">
+        <v>92</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testManualDialerContent</v>
       </c>
       <c r="G269" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testManualDialerContent"</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>286</v>
+      </c>
       <c r="B270" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ManualDialer.vue</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E270" t="str">
-        <f>IF(COUNTIF(C$2:C269,C270)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuemanual_dial_hidden_caller_id</v>
+      </c>
+      <c r="D270" t="s">
+        <v>288</v>
+      </c>
+      <c r="E270" t="s">
+        <v>92</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testManualDialHiddenCallerIdContent</v>
       </c>
       <c r="G270" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testManualDialHiddenCallerIdContent"</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>286</v>
+      </c>
       <c r="B271" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ManualDialer.vue</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E271" t="str">
-        <f>IF(COUNTIF(C$2:C270,C271)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuecountryCode</v>
+      </c>
+      <c r="D271" t="s">
+        <v>289</v>
+      </c>
+      <c r="E271" t="s">
+        <v>87</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testCountryCodeSelect</v>
       </c>
       <c r="G271" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCountryCodeSelect"</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>286</v>
+      </c>
       <c r="B272" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ManualDialer.vue</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E272" t="str">
-        <f>IF(COUNTIF(C$2:C271,C272)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuephoneNumber</v>
+      </c>
+      <c r="D272" t="s">
+        <v>265</v>
+      </c>
+      <c r="E272" t="s">
+        <v>68</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>testPhoneNumberTextInput</v>
       </c>
       <c r="G272" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneNumberTextInput"</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>286</v>
+      </c>
       <c r="B273" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ManualDialer.vue</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E273" t="str">
-        <f>IF(COUNTIF(C$2:C272,C273)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuedialing</v>
+      </c>
+      <c r="D273" t="s">
+        <v>290</v>
+      </c>
+      <c r="E273" t="s">
+        <v>15</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" ref="F273:F336" si="20">IF(D273="","","test"&amp;IF(ISNUMBER(SEARCH(".",D273)),UPPER(LEFT(D273,1))&amp;RIGHT(LEFT(D273,SEARCH(".",D273)-1),LEN(LEFT(D273,SEARCH(".",D273)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D273,LEN(D273)-SEARCH(".",D273))),"_",""),IF(EXACT(LOWER(D273),D273),TRIM(SUBSTITUTE(PROPER(D273),"_","")),UPPER(LEFT(D273,1))&amp;RIGHT(D273,LEN(D273)-1)))&amp;E273)</f>
-        <v/>
+        <v>testDialingButton</v>
       </c>
       <c r="G273" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDialingButton"</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>291</v>
+      </c>
       <c r="B274" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneComponentButton.vue</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E274" t="str">
-        <f>IF(COUNTIF(C$2:C273,C274)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action_button</v>
+      </c>
+      <c r="D274" t="s">
+        <v>294</v>
+      </c>
+      <c r="E274" t="s">
+        <v>69</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPhoneSystemActionButtonDiv</v>
       </c>
       <c r="G274" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneSystemActionButtonDiv"</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>291</v>
+      </c>
       <c r="B275" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneComponentButton.vue</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E275" t="str">
-        <f>IF(COUNTIF(C$2:C274,C275)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action_content</v>
+      </c>
+      <c r="D275" t="s">
+        <v>293</v>
+      </c>
+      <c r="E275" t="s">
+        <v>69</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPhoneSystemActionContentDiv</v>
       </c>
       <c r="G275" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneSystemActionContentDiv"</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>291</v>
+      </c>
       <c r="B276" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneComponentButton.vue</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E276" t="str">
-        <f>IF(COUNTIF(C$2:C275,C276)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action_close</v>
+      </c>
+      <c r="D276" t="s">
+        <v>295</v>
+      </c>
+      <c r="E276" t="s">
+        <v>93</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPhoneSystemActionCloseIcon</v>
       </c>
       <c r="G276" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneSystemActionCloseIcon"</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>291</v>
+      </c>
       <c r="B277" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneComponentButton.vue</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E277" t="str">
-        <f>IF(COUNTIF(C$2:C276,C277)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action</v>
+      </c>
+      <c r="D277" t="s">
+        <v>292</v>
+      </c>
+      <c r="E277" t="s">
+        <v>93</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPhoneSystemActionIcon</v>
       </c>
       <c r="G277" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneSystemActionIcon"</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>296</v>
+      </c>
       <c r="B278" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneIndicator.vue</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E278" t="str">
-        <f>IF(COUNTIF(C$2:C277,C278)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneIndicator.vueisTakingCalls</v>
+      </c>
+      <c r="D278" t="s">
+        <v>297</v>
+      </c>
+      <c r="E278" t="s">
+        <v>69</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testIsTakingCallsDiv</v>
       </c>
       <c r="G278" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsTakingCallsDiv"</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>296</v>
+      </c>
       <c r="B279" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneIndicator.vue</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E279" t="str">
-        <f>IF(COUNTIF(C$2:C278,C279)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneIndicator.vueisTakingCalls</v>
+      </c>
+      <c r="D279" t="s">
+        <v>297</v>
+      </c>
+      <c r="E279" t="s">
+        <v>93</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testIsTakingCallsIcon</v>
       </c>
       <c r="G279" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsTakingCallsIcon"</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>298</v>
+      </c>
       <c r="B280" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneNews.vue</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E280" t="str">
-        <f>IF(COUNTIF(C$2:C279,C280)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneNews.vuephoneNews</v>
+      </c>
+      <c r="D280" t="s">
+        <v>299</v>
+      </c>
+      <c r="E280" t="s">
+        <v>69</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPhoneNewsDiv</v>
       </c>
       <c r="G280" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneNewsDiv"</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>300</v>
+      </c>
       <c r="B281" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>PhoneToolBar.vue</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E281" t="str">
-        <f>IF(COUNTIF(C$2:C280,C281)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneToolBar.vuephoneToolBar</v>
+      </c>
+      <c r="D281" t="s">
+        <v>301</v>
+      </c>
+      <c r="E281" t="s">
+        <v>69</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPhoneToolBarDiv</v>
       </c>
       <c r="G281" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneToolBarDiv"</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>302</v>
+      </c>
       <c r="B282" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>UpdateStatus.vue</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E282" t="str">
-        <f>IF(COUNTIF(C$2:C281,C282)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vuestatusSelector</v>
+      </c>
+      <c r="D282" t="s">
+        <v>303</v>
+      </c>
+      <c r="E282" t="s">
+        <v>69</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testStatusSelectorDiv</v>
       </c>
       <c r="G282" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testStatusSelectorDiv"</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>302</v>
+      </c>
       <c r="B283" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>UpdateStatus.vue</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E283" t="str">
-        <f>IF(COUNTIF(C$2:C282,C283)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vuecallNote</v>
+      </c>
+      <c r="D283" t="s">
+        <v>304</v>
+      </c>
+      <c r="E283" t="s">
+        <v>67</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCallNoteTextarea</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCallNoteTextarea"</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>302</v>
+      </c>
       <c r="B284" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>UpdateStatus.vue</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E284" t="str">
-        <f>IF(COUNTIF(C$2:C283,C284)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vuecomplete_call</v>
+      </c>
+      <c r="D284" t="s">
+        <v>305</v>
+      </c>
+      <c r="E284" t="s">
+        <v>15</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCompleteCallButton</v>
       </c>
       <c r="G284" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCompleteCallButton"</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>230</v>
+      </c>
       <c r="B285" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E285" t="str">
         <f>IF(COUNTIF(C$2:C284,C285)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="20"/>
@@ -8722,14 +9001,17 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>230</v>
+      </c>
       <c r="B286" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E286" t="str">
         <f>IF(COUNTIF(C$2:C285,C286)&gt;0,"Button","")</f>
@@ -8744,14 +9026,17 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>230</v>
+      </c>
       <c r="B287" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E287" t="str">
         <f>IF(COUNTIF(C$2:C286,C287)&gt;0,"Button","")</f>
@@ -8766,14 +9051,17 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>230</v>
+      </c>
       <c r="B288" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E288" t="str">
         <f>IF(COUNTIF(C$2:C287,C288)&gt;0,"Button","")</f>
@@ -8788,14 +9076,17 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>230</v>
+      </c>
       <c r="B289" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E289" t="str">
         <f>IF(COUNTIF(C$2:C288,C289)&gt;0,"Button","")</f>
@@ -8810,14 +9101,17 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>230</v>
+      </c>
       <c r="B290" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E290" t="str">
         <f>IF(COUNTIF(C$2:C289,C290)&gt;0,"Button","")</f>
@@ -8832,14 +9126,17 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>230</v>
+      </c>
       <c r="B291" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E291" t="str">
         <f>IF(COUNTIF(C$2:C290,C291)&gt;0,"Button","")</f>
@@ -8854,14 +9151,17 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>230</v>
+      </c>
       <c r="B292" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
       </c>
       <c r="E292" t="str">
         <f>IF(COUNTIF(C$2:C291,C292)&gt;0,"Button","")</f>
@@ -8876,7 +9176,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B293" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8898,7 +9198,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B294" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8920,7 +9220,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B295" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8942,7 +9242,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B296" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8964,7 +9264,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B297" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8986,7 +9286,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B298" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9008,7 +9308,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B299" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9030,7 +9330,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B300" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9052,7 +9352,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B301" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9074,7 +9374,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B302" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9096,7 +9396,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B303" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9118,7 +9418,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B304" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -13482,7 +13782,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{327767B8-8659-437C-88B9-CB7802412428}">
           <x14:formula1>
-            <xm:f>Var!$A$2:$A$20</xm:f>
+            <xm:f>Var!$A$2:$A$30</xm:f>
           </x14:formula1>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -13494,10 +13794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33023C95-D182-42DB-83B8-6A7DF68CBC37}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13602,6 +13902,11 @@
         <v>216</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B10085-DD84-4652-A747-47C73A91D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD488E-DD8E-4ABF-A378-69E3A9D65C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1500" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
+    <workbookView xWindow="3720" yWindow="510" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="415">
   <si>
     <t>Output</t>
   </si>
@@ -721,9 +721,6 @@
     <t>register</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vue</t>
   </si>
   <si>
@@ -947,6 +944,336 @@
   </si>
   <si>
     <t>complete_call</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vue</t>
+  </si>
+  <si>
+    <t>datePicker</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>organizationSearch</t>
+  </si>
+  <si>
+    <t>workTypes</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>printReport</t>
+  </si>
+  <si>
+    <t>downloadCSV</t>
+  </si>
+  <si>
+    <t>applyFilters</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportWidget.vue</t>
+  </si>
+  <si>
+    <t>downloadWidgetCsv</t>
+  </si>
+  <si>
+    <t>printWidget</t>
+  </si>
+  <si>
+    <t>add_to_dashboard</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\tabs\Tabs.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\tags\LanguageTag.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\user\DetailsTooltip.vue</t>
+  </si>
+  <si>
+    <t>userFullName</t>
+  </si>
+  <si>
+    <t>userOrganization</t>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>userMobile</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\wizard\Wizard.vue</t>
+  </si>
+  <si>
+    <t>incidentBuilder.completed</t>
+  </si>
+  <si>
+    <t>previous_step</t>
+  </si>
+  <si>
+    <t>save_or_next</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vue</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>flag.choose_problem</t>
+  </si>
+  <si>
+    <t>currentFlag.is_high_priority</t>
+  </si>
+  <si>
+    <t>flag.please_describe_why_high_priority</t>
+  </si>
+  <si>
+    <t>currentFlag.is_high_priority_notes</t>
+  </si>
+  <si>
+    <t>flag.nearby_organizations</t>
+  </si>
+  <si>
+    <t>flag.worksite_wrong_incident</t>
+  </si>
+  <si>
+    <t>flag.choose_correct_incident</t>
+  </si>
+  <si>
+    <t>incidentNotFound</t>
+  </si>
+  <si>
+    <t>flag.worksite_wrong_location</t>
+  </si>
+  <si>
+    <t>flag.move_case_pin</t>
+  </si>
+  <si>
+    <t>flag.google_map_url</t>
+  </si>
+  <si>
+    <t>flag.location_unknown</t>
+  </si>
+  <si>
+    <t>flag.worksite_upset_client</t>
+  </si>
+  <si>
+    <t>flag.explain_why_client_upset</t>
+  </si>
+  <si>
+    <t>currentFlag.notes_upset</t>
+  </si>
+  <si>
+    <t>flag.does_issue_involve_you_yes</t>
+  </si>
+  <si>
+    <t>flag.does_issue_involve_you_no</t>
+  </si>
+  <si>
+    <t>flag.worksite_abuse</t>
+  </si>
+  <si>
+    <t>must_contact_org_first</t>
+  </si>
+  <si>
+    <t>flag.have_you_contacted_org_yes</t>
+  </si>
+  <si>
+    <t>flag.have_you_contacted_org_no</t>
+  </si>
+  <si>
+    <t>flag.outcome_of_contact</t>
+  </si>
+  <si>
+    <t>currentFlag.notes_contact_organization</t>
+  </si>
+  <si>
+    <t>flag.suggested_outcome_contact_organization</t>
+  </si>
+  <si>
+    <t>update_location</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vue</t>
+  </si>
+  <si>
+    <t>closeWorksite</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>is_not_member_of_my_org</t>
+  </si>
+  <si>
+    <t>is_member_of_my_org</t>
+  </si>
+  <si>
+    <t>is_high_priority</t>
+  </si>
+  <si>
+    <t>is_not_high_priority</t>
+  </si>
+  <si>
+    <t>jump_to_case</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vue</t>
+  </si>
+  <si>
+    <t>caseHistory</t>
+  </si>
+  <si>
+    <t>do_not_share_contact_warning</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\SectionHeading.vue</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vue</t>
+  </si>
+  <si>
+    <t>pda_heatmap</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>boundary_political_us_state</t>
+  </si>
+  <si>
+    <t>boundary_political_us_congress</t>
+  </si>
+  <si>
+    <t>boundary_political_us_county</t>
+  </si>
+  <si>
+    <t>primary_response_area</t>
+  </si>
+  <si>
+    <t>secondary_response_area</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>WorksiteFilters</t>
+  </si>
+  <si>
+    <t>download_csv</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vue</t>
+  </si>
+  <si>
+    <t>clear_filters</t>
+  </si>
+  <si>
+    <t>generalSection</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>personalSection</t>
+  </si>
+  <si>
+    <t>flagsSection</t>
+  </si>
+  <si>
+    <t>workSection</t>
+  </si>
+  <si>
+    <t>teamsSection</t>
+  </si>
+  <si>
+    <t>locationsSection</t>
+  </si>
+  <si>
+    <t>dateSection</t>
+  </si>
+  <si>
+    <t>organization_primary_location</t>
+  </si>
+  <si>
+    <t>organization_secondary_location</t>
+  </si>
+  <si>
+    <t>my_team</t>
+  </si>
+  <si>
+    <t>unclaimed</t>
+  </si>
+  <si>
+    <t>claimed_by_org</t>
+  </si>
+  <si>
+    <t>reported_by_org</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>member_of_my_organization</t>
+  </si>
+  <si>
+    <t>missing_work_type</t>
+  </si>
+  <si>
+    <t>organization_primary_location2</t>
+  </si>
+  <si>
+    <t>organization_secondary_location2</t>
+  </si>
+  <si>
+    <t>my_locations</t>
+  </si>
+  <si>
+    <t>createdDatePicker</t>
+  </si>
+  <si>
+    <t>updatedDatePicker</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vue</t>
+  </si>
+  <si>
+    <t>imageUploader</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vue</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A282" sqref="A282:A284"/>
+      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6981,7 +7308,7 @@
     </row>
     <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="13"/>
@@ -6992,7 +7319,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisConnecting</v>
       </c>
       <c r="D211" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E211" t="s">
         <v>69</v>
@@ -7008,7 +7335,7 @@
     </row>
     <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="13"/>
@@ -7019,7 +7346,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisOnCall</v>
       </c>
       <c r="D212" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E212" t="s">
         <v>69</v>
@@ -7035,7 +7362,7 @@
     </row>
     <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="13"/>
@@ -7046,7 +7373,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisInboundCall</v>
       </c>
       <c r="D213" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E213" t="s">
         <v>69</v>
@@ -7062,7 +7389,7 @@
     </row>
     <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="13"/>
@@ -7073,7 +7400,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisOutboundCall</v>
       </c>
       <c r="D214" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E214" t="s">
         <v>69</v>
@@ -7089,7 +7416,7 @@
     </row>
     <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="13"/>
@@ -7100,7 +7427,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueisCompleted</v>
       </c>
       <c r="D215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E215" t="s">
         <v>69</v>
@@ -7116,7 +7443,7 @@
     </row>
     <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="13"/>
@@ -7127,7 +7454,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecurrentScriptHeader</v>
       </c>
       <c r="D216" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E216" t="s">
         <v>92</v>
@@ -7143,7 +7470,7 @@
     </row>
     <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="13"/>
@@ -7154,7 +7481,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecurrentScript.value</v>
       </c>
       <c r="D217" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E217" t="s">
         <v>92</v>
@@ -7170,7 +7497,7 @@
     </row>
     <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="13"/>
@@ -7181,7 +7508,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaller</v>
       </c>
       <c r="D218" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E218" t="s">
         <v>69</v>
@@ -7197,7 +7524,7 @@
     </row>
     <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="13"/>
@@ -7208,7 +7535,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaller.dnis</v>
       </c>
       <c r="D219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E219" t="s">
         <v>92</v>
@@ -7224,7 +7551,7 @@
     </row>
     <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="13"/>
@@ -7235,7 +7562,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaller.location_name_state_name</v>
       </c>
       <c r="D220" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E220" t="s">
         <v>92</v>
@@ -7251,7 +7578,7 @@
     </row>
     <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="13"/>
@@ -7262,7 +7589,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuenumber_of_inbound_calls</v>
       </c>
       <c r="D221" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E221" t="s">
         <v>69</v>
@@ -7278,7 +7605,7 @@
     </row>
     <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="13"/>
@@ -7289,7 +7616,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueexisting_cases</v>
       </c>
       <c r="D222" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E222" t="s">
         <v>69</v>
@@ -7305,7 +7632,7 @@
     </row>
     <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="13"/>
@@ -7316,7 +7643,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuenew_case</v>
       </c>
       <c r="D223" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E223" t="s">
         <v>92</v>
@@ -7332,7 +7659,7 @@
     </row>
     <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="13"/>
@@ -7360,7 +7687,7 @@
     </row>
     <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="13"/>
@@ -7371,7 +7698,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vueworktypeSVG</v>
       </c>
       <c r="D225" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E225" t="s">
         <v>93</v>
@@ -7387,7 +7714,7 @@
     </row>
     <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="13"/>
@@ -7398,7 +7725,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecaseNumber</v>
       </c>
       <c r="D226" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E226" t="s">
         <v>69</v>
@@ -7414,7 +7741,7 @@
     </row>
     <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="13"/>
@@ -7425,7 +7752,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecase_name</v>
       </c>
       <c r="D227" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E227" t="s">
         <v>69</v>
@@ -7441,7 +7768,7 @@
     </row>
     <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="13"/>
@@ -7452,7 +7779,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuecase_address_state</v>
       </c>
       <c r="D228" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E228" t="s">
         <v>69</v>
@@ -7468,7 +7795,7 @@
     </row>
     <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="13"/>
@@ -7479,7 +7806,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ActiveCall.vuehangup</v>
       </c>
       <c r="D229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E229" t="s">
         <v>93</v>
@@ -7495,7 +7822,7 @@
     </row>
     <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="13"/>
@@ -7506,7 +7833,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuecurrentUser.mobile</v>
       </c>
       <c r="D230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E230" t="s">
         <v>92</v>
@@ -7522,7 +7849,7 @@
     </row>
     <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="13"/>
@@ -7533,7 +7860,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuephoneDashboard.languages</v>
       </c>
       <c r="D231" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E231" t="s">
         <v>69</v>
@@ -7549,7 +7876,7 @@
     </row>
     <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="13"/>
@@ -7560,7 +7887,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuelanguage_edit</v>
       </c>
       <c r="D232" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E232" t="s">
         <v>93</v>
@@ -7576,7 +7903,7 @@
     </row>
     <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="13"/>
@@ -7587,7 +7914,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueisOnCall</v>
       </c>
       <c r="D233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E233" t="s">
         <v>15</v>
@@ -7603,7 +7930,7 @@
     </row>
     <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="13"/>
@@ -7614,7 +7941,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueisNotTakingCalls</v>
       </c>
       <c r="D234" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E234" t="s">
         <v>15</v>
@@ -7630,7 +7957,7 @@
     </row>
     <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="13"/>
@@ -7641,7 +7968,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueisNotOnCall</v>
       </c>
       <c r="D235" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E235" t="s">
         <v>15</v>
@@ -7657,7 +7984,7 @@
     </row>
     <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="13"/>
@@ -7668,7 +7995,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vueserve_outbound_calls</v>
       </c>
       <c r="D236" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E236" t="s">
         <v>66</v>
@@ -7684,7 +8011,7 @@
     </row>
     <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="13"/>
@@ -7695,7 +8022,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Agent.vuehangup</v>
       </c>
       <c r="D237" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E237" t="s">
         <v>93</v>
@@ -7711,7 +8038,7 @@
     </row>
     <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="13"/>
@@ -7722,7 +8049,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vueinbound_count</v>
       </c>
       <c r="D238" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E238" t="s">
         <v>69</v>
@@ -7738,7 +8065,7 @@
     </row>
     <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="13"/>
@@ -7749,7 +8076,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vueoutbound_count</v>
       </c>
       <c r="D239" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E239" t="s">
         <v>69</v>
@@ -7765,7 +8092,7 @@
     </row>
     <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="13"/>
@@ -7776,7 +8103,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vuetotal_login_time</v>
       </c>
       <c r="D240" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E240" t="s">
         <v>69</v>
@@ -7792,7 +8119,7 @@
     </row>
     <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="13"/>
@@ -7803,7 +8130,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\AgentStats.vuetotal_call_time</v>
       </c>
       <c r="D241" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E241" t="s">
         <v>69</v>
@@ -7819,7 +8146,7 @@
     </row>
     <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="13"/>
@@ -7830,7 +8157,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vueupdate_agent</v>
       </c>
       <c r="D242" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E242" t="s">
         <v>69</v>
@@ -7846,7 +8173,7 @@
     </row>
     <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="13"/>
@@ -7857,7 +8184,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuephone_number</v>
       </c>
       <c r="D243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E243" t="s">
         <v>92</v>
@@ -7873,7 +8200,7 @@
     </row>
     <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="13"/>
@@ -7884,7 +8211,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuephoneNumber</v>
       </c>
       <c r="D244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E244" t="s">
         <v>68</v>
@@ -7900,7 +8227,7 @@
     </row>
     <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="13"/>
@@ -7911,7 +8238,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuelanguages</v>
       </c>
       <c r="D245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E245" t="s">
         <v>92</v>
@@ -7927,7 +8254,7 @@
     </row>
     <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="13"/>
@@ -7938,7 +8265,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\EditAgentModal.vuelanguages</v>
       </c>
       <c r="D246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E246" t="s">
         <v>87</v>
@@ -7954,7 +8281,7 @@
     </row>
     <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="13"/>
@@ -7981,7 +8308,7 @@
     </row>
     <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="13"/>
@@ -7992,10 +8319,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vueAgentStats</v>
       </c>
       <c r="D248" t="s">
+        <v>267</v>
+      </c>
+      <c r="E248" t="s">
         <v>268</v>
-      </c>
-      <c r="E248" t="s">
-        <v>269</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="16"/>
@@ -8008,7 +8335,7 @@
     </row>
     <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="13"/>
@@ -8035,7 +8362,7 @@
     </row>
     <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="13"/>
@@ -8046,10 +8373,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\CallHistory.vuephone_classic</v>
       </c>
       <c r="D250" t="s">
+        <v>269</v>
+      </c>
+      <c r="E250" t="s">
         <v>270</v>
-      </c>
-      <c r="E250" t="s">
-        <v>271</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="16"/>
@@ -8062,7 +8389,7 @@
     </row>
     <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="13"/>
@@ -8086,7 +8413,7 @@
     </row>
     <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="13"/>
@@ -8097,7 +8424,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vuegeneral_statistics</v>
       </c>
       <c r="D252" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E252" t="s">
         <v>92</v>
@@ -8113,7 +8440,7 @@
     </row>
     <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="13"/>
@@ -8124,7 +8451,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vuestats_delayed</v>
       </c>
       <c r="D253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E253" t="s">
         <v>92</v>
@@ -8140,7 +8467,7 @@
     </row>
     <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="13"/>
@@ -8151,7 +8478,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueon_phone_now</v>
       </c>
       <c r="D254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E254" t="s">
         <v>69</v>
@@ -8167,7 +8494,7 @@
     </row>
     <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="13"/>
@@ -8178,7 +8505,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueremaining_callbacks</v>
       </c>
       <c r="D255" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E255" t="s">
         <v>69</v>
@@ -8194,7 +8521,7 @@
     </row>
     <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="13"/>
@@ -8205,7 +8532,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueshowOutboundsModal</v>
       </c>
       <c r="D256" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E256" t="s">
         <v>15</v>
@@ -8221,7 +8548,7 @@
     </row>
     <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="13"/>
@@ -8232,7 +8559,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueremaining_calldowns</v>
       </c>
       <c r="D257" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E257" t="s">
         <v>69</v>
@@ -8248,7 +8575,7 @@
     </row>
     <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" si="13"/>
@@ -8259,7 +8586,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueshowOutboundsModalCalldown</v>
       </c>
       <c r="D258" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E258" t="s">
         <v>15</v>
@@ -8275,7 +8602,7 @@
     </row>
     <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="13"/>
@@ -8286,7 +8613,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\GeneralStats.vueagents_online</v>
       </c>
       <c r="D259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E259" t="s">
         <v>69</v>
@@ -8302,7 +8629,7 @@
     </row>
     <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" ref="B260:B323" si="17">IF(A260="","",MID(A260,FIND("@",SUBSTITUTE(A260,"\","@",LEN(A260)-LEN(SUBSTITUTE(A260,"\",""))))+1,LEN(A260)))</f>
@@ -8330,7 +8657,7 @@
     </row>
     <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="17"/>
@@ -8341,7 +8668,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueleaderboard</v>
       </c>
       <c r="D261" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E261" t="s">
         <v>69</v>
@@ -8357,7 +8684,7 @@
     </row>
     <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="17"/>
@@ -8384,7 +8711,7 @@
     </row>
     <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="17"/>
@@ -8395,7 +8722,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueuserInfo</v>
       </c>
       <c r="D263" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E263" t="s">
         <v>99</v>
@@ -8411,7 +8738,7 @@
     </row>
     <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="17"/>
@@ -8422,7 +8749,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueinbound_count</v>
       </c>
       <c r="D264" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E264" t="s">
         <v>69</v>
@@ -8438,7 +8765,7 @@
     </row>
     <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="17"/>
@@ -8449,7 +8776,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueoutbound_count</v>
       </c>
       <c r="D265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E265" t="s">
         <v>69</v>
@@ -8465,7 +8792,7 @@
     </row>
     <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="17"/>
@@ -8476,7 +8803,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vuetotal_count</v>
       </c>
       <c r="D266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E266" t="s">
         <v>178</v>
@@ -8492,7 +8819,7 @@
     </row>
     <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="17"/>
@@ -8503,7 +8830,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\Leaderboard.vueprevious</v>
       </c>
       <c r="D267" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E267" t="s">
         <v>15</v>
@@ -8519,7 +8846,7 @@
     </row>
     <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="17"/>
@@ -8544,9 +8871,9 @@
         <v>data-testid="testNextButton"</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="17"/>
@@ -8557,7 +8884,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuemanual_dialer</v>
       </c>
       <c r="D269" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E269" t="s">
         <v>92</v>
@@ -8571,9 +8898,9 @@
         <v>data-testid="testManualDialerContent"</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="17"/>
@@ -8584,7 +8911,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuemanual_dial_hidden_caller_id</v>
       </c>
       <c r="D270" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E270" t="s">
         <v>92</v>
@@ -8598,9 +8925,9 @@
         <v>data-testid="testManualDialHiddenCallerIdContent"</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="17"/>
@@ -8611,7 +8938,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuecountryCode</v>
       </c>
       <c r="D271" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E271" t="s">
         <v>87</v>
@@ -8625,9 +8952,9 @@
         <v>data-testid="testCountryCodeSelect"</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="17"/>
@@ -8638,7 +8965,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuephoneNumber</v>
       </c>
       <c r="D272" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E272" t="s">
         <v>68</v>
@@ -8652,9 +8979,9 @@
         <v>data-testid="testPhoneNumberTextInput"</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="17"/>
@@ -8665,7 +8992,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\ManualDialer.vuedialing</v>
       </c>
       <c r="D273" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E273" t="s">
         <v>15</v>
@@ -8679,9 +9006,9 @@
         <v>data-testid="testDialingButton"</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="17"/>
@@ -8692,7 +9019,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action_button</v>
       </c>
       <c r="D274" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E274" t="s">
         <v>69</v>
@@ -8706,9 +9033,9 @@
         <v>data-testid="testPhoneSystemActionButtonDiv"</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="17"/>
@@ -8719,7 +9046,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action_content</v>
       </c>
       <c r="D275" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E275" t="s">
         <v>69</v>
@@ -8733,9 +9060,9 @@
         <v>data-testid="testPhoneSystemActionContentDiv"</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="17"/>
@@ -8746,7 +9073,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action_close</v>
       </c>
       <c r="D276" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E276" t="s">
         <v>93</v>
@@ -8760,9 +9087,9 @@
         <v>data-testid="testPhoneSystemActionCloseIcon"</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="17"/>
@@ -8773,7 +9100,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneComponentButton.vuephone_system_action</v>
       </c>
       <c r="D277" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E277" t="s">
         <v>93</v>
@@ -8787,9 +9114,9 @@
         <v>data-testid="testPhoneSystemActionIcon"</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="17"/>
@@ -8800,7 +9127,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneIndicator.vueisTakingCalls</v>
       </c>
       <c r="D278" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E278" t="s">
         <v>69</v>
@@ -8814,9 +9141,9 @@
         <v>data-testid="testIsTakingCallsDiv"</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="17"/>
@@ -8827,7 +9154,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneIndicator.vueisTakingCalls</v>
       </c>
       <c r="D279" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E279" t="s">
         <v>93</v>
@@ -8841,9 +9168,9 @@
         <v>data-testid="testIsTakingCallsIcon"</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="17"/>
@@ -8854,7 +9181,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneNews.vuephoneNews</v>
       </c>
       <c r="D280" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E280" t="s">
         <v>69</v>
@@ -8868,9 +9195,9 @@
         <v>data-testid="testPhoneNewsDiv"</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="17"/>
@@ -8881,7 +9208,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\PhoneToolBar.vuephoneToolBar</v>
       </c>
       <c r="D281" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E281" t="s">
         <v>69</v>
@@ -8895,9 +9222,9 @@
         <v>data-testid="testPhoneToolBarDiv"</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="17"/>
@@ -8908,7 +9235,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vuestatusSelector</v>
       </c>
       <c r="D282" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E282" t="s">
         <v>69</v>
@@ -8922,9 +9249,9 @@
         <v>data-testid="testStatusSelectorDiv"</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="17"/>
@@ -8935,7 +9262,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vuecallNote</v>
       </c>
       <c r="D283" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E283" t="s">
         <v>67</v>
@@ -8949,9 +9276,9 @@
         <v>data-testid="testCallNoteTextarea"</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="17"/>
@@ -8962,7 +9289,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\UpdateStatus.vuecomplete_call</v>
       </c>
       <c r="D284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E284" t="s">
         <v>15</v>
@@ -8976,2770 +9303,3357 @@
         <v>data-testid="testCompleteCallButton"</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E285" t="str">
-        <f>IF(COUNTIF(C$2:C284,C285)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vuedatePicker</v>
+      </c>
+      <c r="D285" t="s">
+        <v>306</v>
+      </c>
+      <c r="E285" t="s">
+        <v>307</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testDatePickerInput</v>
       </c>
       <c r="G285" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDatePickerInput"</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E286" t="str">
-        <f>IF(COUNTIF(C$2:C285,C286)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vueorganizationSearch</v>
+      </c>
+      <c r="D286" t="s">
+        <v>308</v>
+      </c>
+      <c r="E286" t="s">
+        <v>87</v>
       </c>
       <c r="F286" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testOrganizationSearchSelect</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationSearchSelect"</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E287" t="str">
-        <f>IF(COUNTIF(C$2:C286,C287)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vueworkTypes</v>
+      </c>
+      <c r="D287" t="s">
+        <v>309</v>
+      </c>
+      <c r="E287" t="s">
+        <v>87</v>
       </c>
       <c r="F287" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testWorkTypesSelect</v>
       </c>
       <c r="G287" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorkTypesSelect"</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E288" t="str">
-        <f>IF(COUNTIF(C$2:C287,C288)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vuelocation</v>
+      </c>
+      <c r="D288" t="s">
+        <v>310</v>
+      </c>
+      <c r="E288" t="s">
+        <v>87</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testLocationSelect</v>
       </c>
       <c r="G288" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLocationSelect"</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E289" t="str">
-        <f>IF(COUNTIF(C$2:C288,C289)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vueprintReport</v>
+      </c>
+      <c r="D289" t="s">
+        <v>311</v>
+      </c>
+      <c r="E289" t="s">
+        <v>15</v>
       </c>
       <c r="F289" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPrintReportButton</v>
       </c>
       <c r="G289" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrintReportButton"</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E290" t="str">
-        <f>IF(COUNTIF(C$2:C289,C290)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vuedownloadCSV</v>
+      </c>
+      <c r="D290" t="s">
+        <v>312</v>
+      </c>
+      <c r="E290" t="s">
+        <v>15</v>
       </c>
       <c r="F290" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testDownloadCSVButton</v>
       </c>
       <c r="G290" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDownloadCSVButton"</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportFilters.vue</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E291" t="str">
-        <f>IF(COUNTIF(C$2:C290,C291)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportFilters.vueapplyFilters</v>
+      </c>
+      <c r="D291" t="s">
+        <v>313</v>
+      </c>
+      <c r="E291" t="s">
+        <v>15</v>
       </c>
       <c r="F291" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testApplyFiltersButton</v>
       </c>
       <c r="G291" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApplyFiltersButton"</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportWidget.vue</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="18"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\phone\</v>
-      </c>
-      <c r="E292" t="str">
-        <f>IF(COUNTIF(C$2:C291,C292)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportWidget.vuedownloadWidgetCsv</v>
+      </c>
+      <c r="D292" t="s">
+        <v>315</v>
+      </c>
+      <c r="E292" t="s">
+        <v>15</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testDownloadWidgetCsvButton</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDownloadWidgetCsvButton"</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>314</v>
+      </c>
       <c r="B293" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportWidget.vue</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E293" t="str">
-        <f>IF(COUNTIF(C$2:C292,C293)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportWidget.vueprintWidget</v>
+      </c>
+      <c r="D293" t="s">
+        <v>316</v>
+      </c>
+      <c r="E293" t="s">
+        <v>15</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPrintWidgetButton</v>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrintWidgetButton"</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>314</v>
+      </c>
       <c r="B294" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportWidget.vue</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E294" t="str">
-        <f>IF(COUNTIF(C$2:C293,C294)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportWidget.vueadd_to_dashboard</v>
+      </c>
+      <c r="D294" t="s">
+        <v>317</v>
+      </c>
+      <c r="E294" t="s">
+        <v>66</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testAddToDashboardCheckbox</v>
       </c>
       <c r="G294" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddToDashboardCheckbox"</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>314</v>
+      </c>
       <c r="B295" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>ReportWidget.vue</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\reports\ReportWidget.vue:several_calculated</v>
+      </c>
+      <c r="D295" t="s">
+        <v>104</v>
       </c>
       <c r="E295" t="str">
         <f>IF(COUNTIF(C$2:C294,C295)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G295" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>318</v>
+      </c>
       <c r="B296" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Tabs.vue</v>
       </c>
       <c r="C296" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\tabs\Tabs.vue:several_calculated</v>
+      </c>
+      <c r="D296" t="s">
+        <v>104</v>
       </c>
       <c r="E296" t="str">
         <f>IF(COUNTIF(C$2:C295,C296)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>319</v>
+      </c>
       <c r="B297" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>LanguageTag.vue</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\tags\LanguageTag.vue:several_calculated</v>
+      </c>
+      <c r="D297" t="s">
+        <v>104</v>
       </c>
       <c r="E297" t="str">
         <f>IF(COUNTIF(C$2:C296,C297)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>320</v>
+      </c>
       <c r="B298" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>DetailsTooltip.vue</v>
       </c>
       <c r="C298" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E298" t="str">
-        <f>IF(COUNTIF(C$2:C297,C298)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\user\DetailsTooltip.vueuserFullName</v>
+      </c>
+      <c r="D298" t="s">
+        <v>321</v>
+      </c>
+      <c r="E298" t="s">
+        <v>92</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testUserFullNameContent</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUserFullNameContent"</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>320</v>
+      </c>
       <c r="B299" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>DetailsTooltip.vue</v>
       </c>
       <c r="C299" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E299" t="str">
-        <f>IF(COUNTIF(C$2:C298,C299)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\user\DetailsTooltip.vueuserOrganization</v>
+      </c>
+      <c r="D299" t="s">
+        <v>322</v>
+      </c>
+      <c r="E299" t="s">
+        <v>69</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testUserOrganizationDiv</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUserOrganizationDiv"</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>320</v>
+      </c>
       <c r="B300" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>DetailsTooltip.vue</v>
       </c>
       <c r="C300" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E300" t="str">
-        <f>IF(COUNTIF(C$2:C299,C300)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\user\DetailsTooltip.vueuserEmail</v>
+      </c>
+      <c r="D300" t="s">
+        <v>323</v>
+      </c>
+      <c r="E300" t="s">
+        <v>69</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testUserEmailDiv</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUserEmailDiv"</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>320</v>
+      </c>
       <c r="B301" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>DetailsTooltip.vue</v>
       </c>
       <c r="C301" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E301" t="str">
-        <f>IF(COUNTIF(C$2:C300,C301)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\user\DetailsTooltip.vueuserMobile</v>
+      </c>
+      <c r="D301" t="s">
+        <v>324</v>
+      </c>
+      <c r="E301" t="s">
+        <v>69</v>
       </c>
       <c r="F301" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testUserMobileDiv</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUserMobileDiv"</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>326</v>
+      </c>
       <c r="B302" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Wizard.vue</v>
       </c>
       <c r="C302" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E302" t="str">
-        <f>IF(COUNTIF(C$2:C301,C302)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\wizard\Wizard.vuesteps</v>
+      </c>
+      <c r="D302" t="s">
+        <v>325</v>
+      </c>
+      <c r="E302" t="s">
+        <v>69</v>
       </c>
       <c r="F302" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testStepsDiv</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testStepsDiv"</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>326</v>
+      </c>
       <c r="B303" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Wizard.vue</v>
       </c>
       <c r="C303" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E303" t="str">
-        <f>IF(COUNTIF(C$2:C302,C303)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\wizard\Wizard.vueincidentBuilder.completed</v>
+      </c>
+      <c r="D303" t="s">
+        <v>327</v>
+      </c>
+      <c r="E303" t="s">
+        <v>93</v>
       </c>
       <c r="F303" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testIncidentBuilderCompletedIcon</v>
       </c>
       <c r="G303" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentBuilderCompletedIcon"</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>326</v>
+      </c>
       <c r="B304" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Wizard.vue</v>
       </c>
       <c r="C304" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E304" t="str">
-        <f>IF(COUNTIF(C$2:C303,C304)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\wizard\Wizard.vueprevious_step</v>
+      </c>
+      <c r="D304" t="s">
+        <v>328</v>
+      </c>
+      <c r="E304" t="s">
+        <v>15</v>
       </c>
       <c r="F304" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testPreviousStepButton</v>
       </c>
       <c r="G304" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPreviousStepButton"</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>326</v>
+      </c>
       <c r="B305" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Wizard.vue</v>
       </c>
       <c r="C305" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E305" t="str">
-        <f>IF(COUNTIF(C$2:C304,C305)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\wizard\Wizard.vuesave_or_next</v>
+      </c>
+      <c r="D305" t="s">
+        <v>329</v>
+      </c>
+      <c r="E305" t="s">
+        <v>15</v>
       </c>
       <c r="F305" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testSaveOrNextButton</v>
       </c>
       <c r="G305" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveOrNextButton"</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>331</v>
+      </c>
       <c r="B306" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C306" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E306" t="str">
-        <f>IF(COUNTIF(C$2:C305,C306)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag</v>
+      </c>
+      <c r="D306" t="s">
+        <v>332</v>
+      </c>
+      <c r="E306" t="s">
+        <v>69</v>
       </c>
       <c r="F306" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagDiv</v>
       </c>
       <c r="G306" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagDiv"</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>331</v>
+      </c>
       <c r="B307" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E307" t="str">
-        <f>IF(COUNTIF(C$2:C306,C307)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.choose_problem</v>
+      </c>
+      <c r="D307" t="s">
+        <v>333</v>
+      </c>
+      <c r="E307" t="s">
+        <v>87</v>
       </c>
       <c r="F307" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagChooseProblemSelect</v>
       </c>
       <c r="G307" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+        <f>IF(D307="","","data-testid="""&amp;F307&amp;"""")</f>
+        <v>data-testid="testFlagChooseProblemSelect"</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>331</v>
+      </c>
       <c r="B308" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E308" t="str">
-        <f>IF(COUNTIF(C$2:C307,C308)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.is_high_priority</v>
+      </c>
+      <c r="D308" t="s">
+        <v>334</v>
+      </c>
+      <c r="E308" t="s">
+        <v>66</v>
       </c>
       <c r="F308" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCurrentFlagIsHighPriorityCheckbox</v>
       </c>
       <c r="G308" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentFlagIsHighPriorityCheckbox"</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>331</v>
+      </c>
       <c r="B309" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C309" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E309" t="str">
-        <f>IF(COUNTIF(C$2:C308,C309)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.please_describe_why_high_priority</v>
+      </c>
+      <c r="D309" t="s">
+        <v>335</v>
+      </c>
+      <c r="E309" t="s">
+        <v>92</v>
       </c>
       <c r="F309" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagPleaseDescribeWhyHighPriorityContent</v>
       </c>
       <c r="G309" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagPleaseDescribeWhyHighPriorityContent"</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>331</v>
+      </c>
       <c r="B310" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C310" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E310" t="str">
-        <f>IF(COUNTIF(C$2:C309,C310)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.is_high_priority_notes</v>
+      </c>
+      <c r="D310" t="s">
+        <v>336</v>
+      </c>
+      <c r="E310" t="s">
+        <v>67</v>
       </c>
       <c r="F310" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCurrentFlagIsHighPriorityNotesTextarea</v>
       </c>
       <c r="G310" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentFlagIsHighPriorityNotesTextarea"</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>331</v>
+      </c>
       <c r="B311" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C311" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E311" t="str">
-        <f>IF(COUNTIF(C$2:C310,C311)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.nearby_organizations</v>
+      </c>
+      <c r="D311" t="s">
+        <v>337</v>
+      </c>
+      <c r="E311" t="s">
+        <v>92</v>
       </c>
       <c r="F311" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagNearbyOrganizationsContent</v>
       </c>
       <c r="G311" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagNearbyOrganizationsContent"</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>331</v>
+      </c>
       <c r="B312" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C312" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E312" t="str">
-        <f>IF(COUNTIF(C$2:C311,C312)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.nearby_organizations</v>
+      </c>
+      <c r="D312" t="s">
+        <v>337</v>
+      </c>
+      <c r="E312" t="s">
+        <v>69</v>
       </c>
       <c r="F312" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagNearbyOrganizationsDiv</v>
       </c>
       <c r="G312" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagNearbyOrganizationsDiv"</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>331</v>
+      </c>
       <c r="B313" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C313" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E313" t="str">
-        <f>IF(COUNTIF(C$2:C312,C313)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_wrong_incident</v>
+      </c>
+      <c r="D313" t="s">
+        <v>338</v>
+      </c>
+      <c r="E313" t="s">
+        <v>69</v>
       </c>
       <c r="F313" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagWorksiteWrongIncidentDiv</v>
       </c>
       <c r="G313" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagWorksiteWrongIncidentDiv"</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>331</v>
+      </c>
       <c r="B314" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C314" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E314" t="str">
-        <f>IF(COUNTIF(C$2:C313,C314)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.choose_correct_incident</v>
+      </c>
+      <c r="D314" t="s">
+        <v>339</v>
+      </c>
+      <c r="E314" t="s">
+        <v>92</v>
       </c>
       <c r="F314" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagChooseCorrectIncidentContent</v>
       </c>
       <c r="G314" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagChooseCorrectIncidentContent"</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>331</v>
+      </c>
       <c r="B315" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C315" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E315" t="str">
-        <f>IF(COUNTIF(C$2:C314,C315)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.choose_correct_incident</v>
+      </c>
+      <c r="D315" t="s">
+        <v>339</v>
+      </c>
+      <c r="E315" t="s">
+        <v>87</v>
       </c>
       <c r="F315" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagChooseCorrectIncidentSelect</v>
       </c>
       <c r="G315" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagChooseCorrectIncidentSelect"</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>331</v>
+      </c>
       <c r="B316" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C316" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E316" t="str">
-        <f>IF(COUNTIF(C$2:C315,C316)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueincidentNotFound</v>
+      </c>
+      <c r="D316" t="s">
+        <v>340</v>
+      </c>
+      <c r="E316" t="s">
+        <v>66</v>
       </c>
       <c r="F316" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testIncidentNotFoundCheckbox</v>
       </c>
       <c r="G316" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentNotFoundCheckbox"</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>331</v>
+      </c>
       <c r="B317" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C317" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E317" t="str">
-        <f>IF(COUNTIF(C$2:C316,C317)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_wrong_location</v>
+      </c>
+      <c r="D317" t="s">
+        <v>341</v>
+      </c>
+      <c r="E317" t="s">
+        <v>69</v>
       </c>
       <c r="F317" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagWorksiteWrongLocationDiv</v>
       </c>
       <c r="G317" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagWorksiteWrongLocationDiv"</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>331</v>
+      </c>
       <c r="B318" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E318" t="str">
-        <f>IF(COUNTIF(C$2:C317,C318)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.move_case_pin</v>
+      </c>
+      <c r="D318" t="s">
+        <v>342</v>
+      </c>
+      <c r="E318" t="s">
+        <v>92</v>
       </c>
       <c r="F318" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagMoveCasePinContent</v>
       </c>
       <c r="G318" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagMoveCasePinContent"</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>331</v>
+      </c>
       <c r="B319" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C319" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E319" t="str">
-        <f>IF(COUNTIF(C$2:C318,C319)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.google_map_url</v>
+      </c>
+      <c r="D319" t="s">
+        <v>343</v>
+      </c>
+      <c r="E319" t="s">
+        <v>68</v>
       </c>
       <c r="F319" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagGoogleMapUrlTextInput</v>
       </c>
       <c r="G319" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagGoogleMapUrlTextInput"</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>331</v>
+      </c>
       <c r="B320" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C320" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E320" t="str">
-        <f>IF(COUNTIF(C$2:C319,C320)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.location_unknown</v>
+      </c>
+      <c r="D320" t="s">
+        <v>344</v>
+      </c>
+      <c r="E320" t="s">
+        <v>15</v>
       </c>
       <c r="F320" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagLocationUnknownButton</v>
       </c>
       <c r="G320" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagLocationUnknownButton"</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>331</v>
+      </c>
       <c r="B321" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C321" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E321" t="str">
-        <f>IF(COUNTIF(C$2:C320,C321)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_upset_client</v>
+      </c>
+      <c r="D321" t="s">
+        <v>345</v>
+      </c>
+      <c r="E321" t="s">
+        <v>69</v>
       </c>
       <c r="F321" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagWorksiteUpsetClientDiv</v>
       </c>
       <c r="G321" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagWorksiteUpsetClientDiv"</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>331</v>
+      </c>
       <c r="B322" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C322" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E322" t="str">
-        <f>IF(COUNTIF(C$2:C321,C322)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.explain_why_client_upset</v>
+      </c>
+      <c r="D322" t="s">
+        <v>346</v>
+      </c>
+      <c r="E322" t="s">
+        <v>69</v>
       </c>
       <c r="F322" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagExplainWhyClientUpsetDiv</v>
       </c>
       <c r="G322" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagExplainWhyClientUpsetDiv"</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>331</v>
+      </c>
       <c r="B323" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C323" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E323" t="str">
-        <f>IF(COUNTIF(C$2:C322,C323)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.notes_upset</v>
+      </c>
+      <c r="D323" t="s">
+        <v>347</v>
+      </c>
+      <c r="E323" t="s">
+        <v>67</v>
       </c>
       <c r="F323" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCurrentFlagNotesUpsetTextarea</v>
       </c>
       <c r="G323" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentFlagNotesUpsetTextarea"</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>331</v>
+      </c>
       <c r="B324" t="str">
         <f t="shared" ref="B324:B387" si="21">IF(A324="","",MID(A324,FIND("@",SUBSTITUTE(A324,"\","@",LEN(A324)-LEN(SUBSTITUTE(A324,"\",""))))+1,LEN(A324)))</f>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C324" t="str">
         <f t="shared" ref="C324:C387" si="22">A324&amp;D324</f>
-        <v/>
-      </c>
-      <c r="E324" t="str">
-        <f>IF(COUNTIF(C$2:C323,C324)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.does_issue_involve_you_yes</v>
+      </c>
+      <c r="D324" t="s">
+        <v>348</v>
+      </c>
+      <c r="E324" t="s">
+        <v>70</v>
       </c>
       <c r="F324" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagDoesIssueInvolveYouYesRadio</v>
       </c>
       <c r="G324" t="str">
         <f t="shared" ref="G324:G387" si="23">IF(D324="","","data-testid="""&amp;F324&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagDoesIssueInvolveYouYesRadio"</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>331</v>
+      </c>
       <c r="B325" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C325" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E325" t="str">
-        <f>IF(COUNTIF(C$2:C324,C325)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.does_issue_involve_you_no</v>
+      </c>
+      <c r="D325" t="s">
+        <v>349</v>
+      </c>
+      <c r="E325" t="s">
+        <v>70</v>
       </c>
       <c r="F325" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagDoesIssueInvolveYouNoRadio</v>
       </c>
       <c r="G325" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagDoesIssueInvolveYouNoRadio"</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>331</v>
+      </c>
       <c r="B326" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C326" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E326" t="str">
-        <f>IF(COUNTIF(C$2:C325,C326)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueOrganizationSearchInput</v>
+      </c>
+      <c r="D326" t="s">
+        <v>194</v>
+      </c>
+      <c r="E326" t="s">
+        <v>87</v>
       </c>
       <c r="F326" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testOrganizationSearchInputSelect</v>
       </c>
       <c r="G326" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationSearchInputSelect"</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>331</v>
+      </c>
       <c r="B327" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E327" t="str">
-        <f>IF(COUNTIF(C$2:C326,C327)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_abuse</v>
+      </c>
+      <c r="D327" t="s">
+        <v>350</v>
+      </c>
+      <c r="E327" t="s">
+        <v>69</v>
       </c>
       <c r="F327" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagWorksiteAbuseDiv</v>
       </c>
       <c r="G327" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagWorksiteAbuseDiv"</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>331</v>
+      </c>
       <c r="B328" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C328" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E328" t="str">
-        <f>IF(COUNTIF(C$2:C327,C328)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_abuse</v>
+      </c>
+      <c r="D328" t="s">
+        <v>350</v>
+      </c>
+      <c r="E328" t="s">
+        <v>92</v>
       </c>
       <c r="F328" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagWorksiteAbuseContent</v>
       </c>
       <c r="G328" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagWorksiteAbuseContent"</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>331</v>
+      </c>
       <c r="B329" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C329" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E329" t="str">
-        <f>IF(COUNTIF(C$2:C328,C329)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueorganization</v>
+      </c>
+      <c r="D329" t="s">
+        <v>33</v>
+      </c>
+      <c r="E329" t="s">
+        <v>216</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testOrganizationSearch</v>
       </c>
       <c r="G329" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationSearch"</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
       <c r="B330" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C330" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E330" t="str">
-        <f>IF(COUNTIF(C$2:C329,C330)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuemust_contact_org_first</v>
+      </c>
+      <c r="D330" t="s">
+        <v>351</v>
+      </c>
+      <c r="E330" t="s">
+        <v>92</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testMustContactOrgFirstContent</v>
       </c>
       <c r="G330" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMustContactOrgFirstContent"</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
       <c r="B331" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C331" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E331" t="str">
-        <f>IF(COUNTIF(C$2:C330,C331)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.have_you_contacted_org_yes</v>
+      </c>
+      <c r="D331" t="s">
+        <v>352</v>
+      </c>
+      <c r="E331" t="s">
+        <v>70</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagHaveYouContactedOrgYesRadio</v>
       </c>
       <c r="G331" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagHaveYouContactedOrgYesRadio"</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
       <c r="B332" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C332" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E332" t="str">
-        <f>IF(COUNTIF(C$2:C331,C332)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.have_you_contacted_org_no</v>
+      </c>
+      <c r="D332" t="s">
+        <v>353</v>
+      </c>
+      <c r="E332" t="s">
+        <v>70</v>
       </c>
       <c r="F332" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagHaveYouContactedOrgNoRadio</v>
       </c>
       <c r="G332" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagHaveYouContactedOrgNoRadio"</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>331</v>
+      </c>
       <c r="B333" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C333" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E333" t="str">
-        <f>IF(COUNTIF(C$2:C332,C333)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.outcome_of_contact</v>
+      </c>
+      <c r="D333" t="s">
+        <v>354</v>
+      </c>
+      <c r="E333" t="s">
+        <v>67</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagOutcomeOfContactTextarea</v>
       </c>
       <c r="G333" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagOutcomeOfContactTextarea"</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>331</v>
+      </c>
       <c r="B334" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C334" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E334" t="str">
-        <f>IF(COUNTIF(C$2:C333,C334)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.notes_contact_organization</v>
+      </c>
+      <c r="D334" t="s">
+        <v>355</v>
+      </c>
+      <c r="E334" t="s">
+        <v>67</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCurrentFlagNotesContactOrganizationTextarea</v>
       </c>
       <c r="G334" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentFlagNotesContactOrganizationTextarea"</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>331</v>
+      </c>
       <c r="B335" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E335" t="str">
-        <f>IF(COUNTIF(C$2:C334,C335)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.suggested_outcome_contact_organization</v>
+      </c>
+      <c r="D335" t="s">
+        <v>356</v>
+      </c>
+      <c r="E335" t="s">
+        <v>67</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testFlagSuggestedOutcomeContactOrganizationTextarea</v>
       </c>
       <c r="G335" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagSuggestedOutcomeContactOrganizationTextarea"</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>331</v>
+      </c>
       <c r="B336" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C336" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E336" t="str">
-        <f>IF(COUNTIF(C$2:C335,C336)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecancel</v>
+      </c>
+      <c r="D336" t="s">
+        <v>40</v>
+      </c>
+      <c r="E336" t="s">
+        <v>15</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>testCancelButton</v>
       </c>
       <c r="G336" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCancelButton"</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>331</v>
+      </c>
       <c r="B337" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C337" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E337" t="str">
-        <f>IF(COUNTIF(C$2:C336,C337)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueupdate_location</v>
+      </c>
+      <c r="D337" t="s">
+        <v>357</v>
+      </c>
+      <c r="E337" t="s">
+        <v>15</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" ref="F337:F400" si="24">IF(D337="","","test"&amp;IF(ISNUMBER(SEARCH(".",D337)),UPPER(LEFT(D337,1))&amp;RIGHT(LEFT(D337,SEARCH(".",D337)-1),LEN(LEFT(D337,SEARCH(".",D337)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D337,LEN(D337)-SEARCH(".",D337))),"_",""),IF(EXACT(LOWER(D337),D337),TRIM(SUBSTITUTE(PROPER(D337),"_","")),UPPER(LEFT(D337,1))&amp;RIGHT(D337,LEN(D337)-1)))&amp;E337)</f>
-        <v/>
+        <v>testUpdateLocationButton</v>
       </c>
       <c r="G337" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUpdateLocationButton"</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>331</v>
+      </c>
       <c r="B338" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseFlag.vue</v>
       </c>
       <c r="C338" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E338" t="str">
-        <f>IF(COUNTIF(C$2:C337,C338)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuesubmit</v>
+      </c>
+      <c r="D338" t="s">
+        <v>212</v>
+      </c>
+      <c r="E338" t="s">
+        <v>15</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testSubmitButton</v>
       </c>
       <c r="G338" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSubmitButton"</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>358</v>
+      </c>
       <c r="B339" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C339" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E339" t="str">
-        <f>IF(COUNTIF(C$2:C338,C339)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuecloseWorksite</v>
+      </c>
+      <c r="D339" t="s">
+        <v>359</v>
+      </c>
+      <c r="E339" t="s">
+        <v>69</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testCloseWorksiteDiv</v>
       </c>
       <c r="G339" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCloseWorksiteDiv"</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>358</v>
+      </c>
       <c r="B340" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C340" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E340" t="str">
-        <f>IF(COUNTIF(C$2:C339,C340)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuenew_case</v>
+      </c>
+      <c r="D340" t="s">
+        <v>243</v>
+      </c>
+      <c r="E340" t="s">
+        <v>93</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testNewCaseIcon</v>
       </c>
       <c r="G340" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNewCaseIcon"</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>358</v>
+      </c>
       <c r="B341" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C341" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E341" t="str">
-        <f>IF(COUNTIF(C$2:C340,C341)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuenew_case</v>
+      </c>
+      <c r="D341" t="s">
+        <v>243</v>
+      </c>
+      <c r="E341" t="s">
+        <v>92</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testNewCaseContent</v>
       </c>
       <c r="G341" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNewCaseContent"</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>358</v>
+      </c>
       <c r="B342" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C342" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E342" t="str">
-        <f>IF(COUNTIF(C$2:C341,C342)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuecase</v>
+      </c>
+      <c r="D342" t="s">
+        <v>360</v>
+      </c>
+      <c r="E342" t="s">
+        <v>69</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testCaseDiv</v>
       </c>
       <c r="G342" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCaseDiv"</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>358</v>
+      </c>
       <c r="B343" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C343" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E343" t="str">
-        <f>IF(COUNTIF(C$2:C342,C343)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuecloseWorksite</v>
+      </c>
+      <c r="D343" t="s">
+        <v>359</v>
+      </c>
+      <c r="E343" t="s">
+        <v>93</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testCloseWorksiteIcon</v>
       </c>
       <c r="G343" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCloseWorksiteIcon"</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>358</v>
+      </c>
       <c r="B344" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C344" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E344" t="str">
-        <f>IF(COUNTIF(C$2:C343,C344)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_not_member_of_my_org</v>
+      </c>
+      <c r="D344" t="s">
+        <v>361</v>
+      </c>
+      <c r="E344" t="s">
+        <v>93</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testIsNotMemberOfMyOrgIcon</v>
       </c>
       <c r="G344" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsNotMemberOfMyOrgIcon"</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>358</v>
+      </c>
       <c r="B345" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C345" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E345" t="str">
-        <f>IF(COUNTIF(C$2:C344,C345)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_member_of_my_org</v>
+      </c>
+      <c r="D345" t="s">
+        <v>362</v>
+      </c>
+      <c r="E345" t="s">
+        <v>93</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testIsMemberOfMyOrgIcon</v>
       </c>
       <c r="G345" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsMemberOfMyOrgIcon"</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>358</v>
+      </c>
       <c r="B346" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C346" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E346" t="str">
-        <f>IF(COUNTIF(C$2:C345,C346)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_high_priority</v>
+      </c>
+      <c r="D346" t="s">
+        <v>363</v>
+      </c>
+      <c r="E346" t="s">
+        <v>93</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testIsHighPriorityIcon</v>
       </c>
       <c r="G346" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsHighPriorityIcon"</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>358</v>
+      </c>
       <c r="B347" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C347" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E347" t="str">
-        <f>IF(COUNTIF(C$2:C346,C347)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_not_high_priority</v>
+      </c>
+      <c r="D347" t="s">
+        <v>364</v>
+      </c>
+      <c r="E347" t="s">
+        <v>93</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testIsNotHighPriorityIcon</v>
       </c>
       <c r="G347" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsNotHighPriorityIcon"</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>358</v>
+      </c>
       <c r="B348" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C348" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E348" t="str">
-        <f>IF(COUNTIF(C$2:C347,C348)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueflag</v>
+      </c>
+      <c r="D348" t="s">
+        <v>332</v>
+      </c>
+      <c r="E348" t="s">
+        <v>93</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testFlagIcon</v>
       </c>
       <c r="G348" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagIcon"</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>358</v>
+      </c>
       <c r="B349" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C349" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E349" t="str">
-        <f>IF(COUNTIF(C$2:C348,C349)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuejump_to_case</v>
+      </c>
+      <c r="D349" t="s">
+        <v>365</v>
+      </c>
+      <c r="E349" t="s">
+        <v>93</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testJumpToCaseIcon</v>
       </c>
       <c r="G349" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testJumpToCaseIcon"</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>358</v>
+      </c>
       <c r="B350" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C350" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E350" t="str">
-        <f>IF(COUNTIF(C$2:C349,C350)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuehistory</v>
+      </c>
+      <c r="D350" t="s">
+        <v>366</v>
+      </c>
+      <c r="E350" t="s">
+        <v>93</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testHistoryIcon</v>
       </c>
       <c r="G350" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testHistoryIcon"</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>358</v>
+      </c>
       <c r="B351" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C351" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E351" t="str">
-        <f>IF(COUNTIF(C$2:C350,C351)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuedownload</v>
+      </c>
+      <c r="D351" t="s">
+        <v>367</v>
+      </c>
+      <c r="E351" t="s">
+        <v>93</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testDownloadIcon</v>
       </c>
       <c r="G351" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDownloadIcon"</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>358</v>
+      </c>
       <c r="B352" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C352" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E352" t="str">
-        <f>IF(COUNTIF(C$2:C351,C352)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueshare</v>
+      </c>
+      <c r="D352" t="s">
+        <v>368</v>
+      </c>
+      <c r="E352" t="s">
+        <v>93</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testShareIcon</v>
       </c>
       <c r="G352" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShareIcon"</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>358</v>
+      </c>
       <c r="B353" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C353" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E353" t="str">
-        <f>IF(COUNTIF(C$2:C352,C353)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueprint</v>
+      </c>
+      <c r="D353" t="s">
+        <v>369</v>
+      </c>
+      <c r="E353" t="s">
+        <v>93</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testPrintIcon</v>
       </c>
       <c r="G353" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrintIcon"</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>358</v>
+      </c>
       <c r="B354" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C354" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E354" t="str">
-        <f>IF(COUNTIF(C$2:C353,C354)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueedit</v>
+      </c>
+      <c r="D354" t="s">
+        <v>370</v>
+      </c>
+      <c r="E354" t="s">
+        <v>93</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testEditIcon</v>
       </c>
       <c r="G354" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEditIcon"</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>358</v>
+      </c>
       <c r="B355" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHeader.vue</v>
       </c>
       <c r="C355" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E355" t="str">
-        <f>IF(COUNTIF(C$2:C354,C355)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuenew_case</v>
+      </c>
+      <c r="D355" t="s">
+        <v>243</v>
+      </c>
+      <c r="E355" t="s">
+        <v>69</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testNewCaseDiv</v>
       </c>
       <c r="G355" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNewCaseDiv"</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>371</v>
+      </c>
       <c r="B356" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHistory.vue</v>
       </c>
       <c r="C356" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E356" t="str">
-        <f>IF(COUNTIF(C$2:C355,C356)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vuecaseHistory</v>
+      </c>
+      <c r="D356" t="s">
+        <v>372</v>
+      </c>
+      <c r="E356" t="s">
+        <v>69</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testCaseHistoryDiv</v>
       </c>
       <c r="G356" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCaseHistoryDiv"</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>371</v>
+      </c>
       <c r="B357" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>CaseHistory.vue</v>
       </c>
       <c r="C357" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E357" t="str">
-        <f>IF(COUNTIF(C$2:C356,C357)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vuedo_not_share_contact_warning</v>
+      </c>
+      <c r="D357" t="s">
+        <v>373</v>
+      </c>
+      <c r="E357" t="s">
+        <v>69</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testDoNotShareContactWarningDiv</v>
       </c>
       <c r="G357" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDoNotShareContactWarningDiv"</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>374</v>
+      </c>
       <c r="B358" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>SectionHeading.vue</v>
       </c>
       <c r="C358" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E358" t="str">
-        <f>IF(COUNTIF(C$2:C357,C358)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\SectionHeading.vuehelp</v>
+      </c>
+      <c r="D358" t="s">
+        <v>375</v>
+      </c>
+      <c r="E358" t="s">
+        <v>99</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testHelpTooltip</v>
       </c>
       <c r="G358" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testHelpTooltip"</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>376</v>
+      </c>
       <c r="B359" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C359" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E359" t="str">
-        <f>IF(COUNTIF(C$2:C358,C359)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuepda_heatmap</v>
+      </c>
+      <c r="D359" t="s">
+        <v>377</v>
+      </c>
+      <c r="E359" t="s">
+        <v>66</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testPdaHeatmapCheckbox</v>
       </c>
       <c r="G359" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPdaHeatmapCheckbox"</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>376</v>
+      </c>
       <c r="B360" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C360" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E360" t="str">
-        <f>IF(COUNTIF(C$2:C359,C360)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuepda_heatmap</v>
+      </c>
+      <c r="D360" t="s">
+        <v>377</v>
+      </c>
+      <c r="E360" t="s">
+        <v>93</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testPdaHeatmapIcon</v>
       </c>
       <c r="G360" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPdaHeatmapIcon"</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>376</v>
+      </c>
       <c r="B361" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C361" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E361" t="str">
-        <f>IF(COUNTIF(C$2:C360,C361)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuelayers</v>
+      </c>
+      <c r="D361" t="s">
+        <v>378</v>
+      </c>
+      <c r="E361" t="s">
+        <v>15</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testLayersButton</v>
       </c>
       <c r="G361" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLayersButton"</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>376</v>
+      </c>
       <c r="B362" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C362" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E362" t="str">
-        <f>IF(COUNTIF(C$2:C361,C362)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_state</v>
+      </c>
+      <c r="D362" t="s">
+        <v>379</v>
+      </c>
+      <c r="E362" t="s">
+        <v>69</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testBoundaryPoliticalUsStateDiv</v>
       </c>
       <c r="G362" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBoundaryPoliticalUsStateDiv"</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>376</v>
+      </c>
       <c r="B363" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C363" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E363" t="str">
-        <f>IF(COUNTIF(C$2:C362,C363)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_state</v>
+      </c>
+      <c r="D363" t="s">
+        <v>379</v>
+      </c>
+      <c r="E363" t="s">
+        <v>66</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testBoundaryPoliticalUsStateCheckbox</v>
       </c>
       <c r="G363" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBoundaryPoliticalUsStateCheckbox"</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>376</v>
+      </c>
       <c r="B364" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C364" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E364" t="str">
-        <f>IF(COUNTIF(C$2:C363,C364)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_congress</v>
+      </c>
+      <c r="D364" t="s">
+        <v>380</v>
+      </c>
+      <c r="E364" t="s">
+        <v>69</v>
       </c>
       <c r="F364" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testBoundaryPoliticalUsCongressDiv</v>
       </c>
       <c r="G364" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBoundaryPoliticalUsCongressDiv"</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>376</v>
+      </c>
       <c r="B365" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C365" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E365" t="str">
-        <f>IF(COUNTIF(C$2:C364,C365)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_congress</v>
+      </c>
+      <c r="D365" t="s">
+        <v>380</v>
+      </c>
+      <c r="E365" t="s">
+        <v>66</v>
       </c>
       <c r="F365" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testBoundaryPoliticalUsCongressCheckbox</v>
       </c>
       <c r="G365" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBoundaryPoliticalUsCongressCheckbox"</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>376</v>
+      </c>
       <c r="B366" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C366" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E366" t="str">
-        <f>IF(COUNTIF(C$2:C365,C366)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_county</v>
+      </c>
+      <c r="D366" t="s">
+        <v>381</v>
+      </c>
+      <c r="E366" t="s">
+        <v>69</v>
       </c>
       <c r="F366" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testBoundaryPoliticalUsCountyDiv</v>
       </c>
       <c r="G366" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBoundaryPoliticalUsCountyDiv"</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>376</v>
+      </c>
       <c r="B367" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C367" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E367" t="str">
-        <f>IF(COUNTIF(C$2:C366,C367)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_county</v>
+      </c>
+      <c r="D367" t="s">
+        <v>381</v>
+      </c>
+      <c r="E367" t="s">
+        <v>66</v>
       </c>
       <c r="F367" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testBoundaryPoliticalUsCountyCheckbox</v>
       </c>
       <c r="G367" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBoundaryPoliticalUsCountyCheckbox"</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>376</v>
+      </c>
       <c r="B368" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C368" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E368" t="str">
-        <f>IF(COUNTIF(C$2:C367,C368)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueincident</v>
+      </c>
+      <c r="D368" t="s">
+        <v>23</v>
+      </c>
+      <c r="E368" t="s">
+        <v>69</v>
       </c>
       <c r="F368" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testIncidentDiv</v>
       </c>
       <c r="G368" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentDiv"</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>376</v>
+      </c>
       <c r="B369" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C369" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E369" t="str">
-        <f>IF(COUNTIF(C$2:C368,C369)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueincident</v>
+      </c>
+      <c r="D369" t="s">
+        <v>23</v>
+      </c>
+      <c r="E369" t="s">
+        <v>66</v>
       </c>
       <c r="F369" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testIncidentCheckbox</v>
       </c>
       <c r="G369" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentCheckbox"</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>376</v>
+      </c>
       <c r="B370" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C370" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E370" t="str">
-        <f>IF(COUNTIF(C$2:C369,C370)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueprimary_response_area</v>
+      </c>
+      <c r="D370" t="s">
+        <v>382</v>
+      </c>
+      <c r="E370" t="s">
+        <v>66</v>
       </c>
       <c r="F370" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testPrimaryResponseAreaCheckbox</v>
       </c>
       <c r="G370" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryResponseAreaCheckbox"</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>376</v>
+      </c>
       <c r="B371" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C371" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E371" t="str">
-        <f>IF(COUNTIF(C$2:C370,C371)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuesecondary_response_area</v>
+      </c>
+      <c r="D371" t="s">
+        <v>383</v>
+      </c>
+      <c r="E371" t="s">
+        <v>66</v>
       </c>
       <c r="F371" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testSecondaryResponseAreaCheckbox</v>
       </c>
       <c r="G371" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSecondaryResponseAreaCheckbox"</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>376</v>
+      </c>
       <c r="B372" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C372" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E372" t="str">
-        <f>IF(COUNTIF(C$2:C371,C372)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuefilters</v>
+      </c>
+      <c r="D372" t="s">
+        <v>384</v>
+      </c>
+      <c r="E372" t="s">
+        <v>15</v>
       </c>
       <c r="F372" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testFiltersButton</v>
       </c>
       <c r="G372" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFiltersButton"</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>376</v>
+      </c>
       <c r="B373" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C373" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E373" t="str">
-        <f>IF(COUNTIF(C$2:C372,C373)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueWorksiteFilters</v>
+      </c>
+      <c r="D373" t="s">
+        <v>385</v>
+      </c>
+      <c r="E373" t="s">
+        <v>15</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testWorksiteFiltersButton</v>
       </c>
       <c r="G373" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteFiltersButton"</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>376</v>
+      </c>
       <c r="B374" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteActions.vue</v>
       </c>
       <c r="C374" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E374" t="str">
-        <f>IF(COUNTIF(C$2:C373,C374)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuedownload_csv</v>
+      </c>
+      <c r="D374" t="s">
+        <v>386</v>
+      </c>
+      <c r="E374" t="s">
+        <v>15</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testDownloadCsvButton</v>
       </c>
       <c r="G374" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDownloadCsvButton"</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>387</v>
+      </c>
       <c r="B375" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C375" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E375" t="str">
-        <f>IF(COUNTIF(C$2:C374,C375)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuefilters</v>
+      </c>
+      <c r="D375" t="s">
+        <v>384</v>
+      </c>
+      <c r="E375" t="s">
+        <v>98</v>
       </c>
       <c r="F375" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testFiltersModal</v>
       </c>
       <c r="G375" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFiltersModal"</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>387</v>
+      </c>
       <c r="B376" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C376" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E376" t="str">
-        <f>IF(COUNTIF(C$2:C375,C376)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vue:several_calculated</v>
+      </c>
+      <c r="D376" t="s">
+        <v>104</v>
       </c>
       <c r="F376" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G376" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>387</v>
+      </c>
       <c r="B377" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E377" t="str">
-        <f>IF(COUNTIF(C$2:C376,C377)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclear_filters</v>
+      </c>
+      <c r="D377" t="s">
+        <v>388</v>
+      </c>
+      <c r="E377" t="s">
+        <v>15</v>
       </c>
       <c r="F377" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testClearFiltersButton</v>
       </c>
       <c r="G377" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClearFiltersButton"</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>387</v>
+      </c>
       <c r="B378" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C378" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E378" t="str">
-        <f>IF(COUNTIF(C$2:C377,C378)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuegeneralSection</v>
+      </c>
+      <c r="D378" t="s">
+        <v>389</v>
+      </c>
+      <c r="E378" t="s">
+        <v>69</v>
       </c>
       <c r="F378" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testGeneralSectionDiv</v>
       </c>
       <c r="G378" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGeneralSectionDiv"</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>387</v>
+      </c>
       <c r="B379" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C379" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E379" t="str">
-        <f>IF(COUNTIF(C$2:C378,C379)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuepersonalSection</v>
+      </c>
+      <c r="D379" t="s">
+        <v>391</v>
+      </c>
+      <c r="E379" t="s">
+        <v>69</v>
       </c>
       <c r="F379" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testPersonalSectionDiv</v>
       </c>
       <c r="G379" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPersonalSectionDiv"</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>387</v>
+      </c>
       <c r="B380" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C380" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E380" t="str">
-        <f>IF(COUNTIF(C$2:C379,C380)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueflagsSection</v>
+      </c>
+      <c r="D380" t="s">
+        <v>392</v>
+      </c>
+      <c r="E380" t="s">
+        <v>69</v>
       </c>
       <c r="F380" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testFlagsSectionDiv</v>
       </c>
       <c r="G380" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+        <f>IF(D380="","","data-testid="""&amp;F380&amp;"""")</f>
+        <v>data-testid="testFlagsSectionDiv"</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>387</v>
+      </c>
       <c r="B381" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C381" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E381" t="str">
-        <f>IF(COUNTIF(C$2:C380,C381)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueworkSection</v>
+      </c>
+      <c r="D381" t="s">
+        <v>393</v>
+      </c>
+      <c r="E381" t="s">
+        <v>69</v>
       </c>
       <c r="F381" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testWorkSectionDiv</v>
       </c>
       <c r="G381" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorkSectionDiv"</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>387</v>
+      </c>
       <c r="B382" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C382" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E382" t="str">
-        <f>IF(COUNTIF(C$2:C381,C382)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueteamsSection</v>
+      </c>
+      <c r="D382" t="s">
+        <v>394</v>
+      </c>
+      <c r="E382" t="s">
+        <v>69</v>
       </c>
       <c r="F382" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testTeamsSectionDiv</v>
       </c>
       <c r="G382" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTeamsSectionDiv"</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>387</v>
+      </c>
       <c r="B383" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C383" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E383" t="str">
-        <f>IF(COUNTIF(C$2:C382,C383)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuelocationsSection</v>
+      </c>
+      <c r="D383" t="s">
+        <v>395</v>
+      </c>
+      <c r="E383" t="s">
+        <v>69</v>
       </c>
       <c r="F383" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testLocationsSectionDiv</v>
       </c>
       <c r="G383" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLocationsSectionDiv"</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>387</v>
+      </c>
       <c r="B384" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E384" t="str">
-        <f>IF(COUNTIF(C$2:C383,C384)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuedateSection</v>
+      </c>
+      <c r="D384" t="s">
+        <v>396</v>
+      </c>
+      <c r="E384" t="s">
+        <v>69</v>
       </c>
       <c r="F384" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testDateSectionDiv</v>
       </c>
       <c r="G384" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDateSectionDiv"</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>387</v>
+      </c>
       <c r="B385" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C385" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E385" t="str">
-        <f>IF(COUNTIF(C$2:C384,C385)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_primary_location</v>
+      </c>
+      <c r="D385" t="s">
+        <v>397</v>
+      </c>
+      <c r="E385" t="s">
+        <v>66</v>
       </c>
       <c r="F385" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testOrganizationPrimaryLocationCheckbox</v>
       </c>
       <c r="G385" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationPrimaryLocationCheckbox"</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
       <c r="B386" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C386" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E386" t="str">
-        <f>IF(COUNTIF(C$2:C385,C386)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_secondary_location</v>
+      </c>
+      <c r="D386" t="s">
+        <v>398</v>
+      </c>
+      <c r="E386" t="s">
+        <v>66</v>
       </c>
       <c r="F386" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testOrganizationSecondaryLocationCheckbox</v>
       </c>
       <c r="G386" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationSecondaryLocationCheckbox"</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
       <c r="B387" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C387" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E387" t="str">
-        <f>IF(COUNTIF(C$2:C386,C387)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemy_team</v>
+      </c>
+      <c r="D387" t="s">
+        <v>399</v>
+      </c>
+      <c r="E387" t="s">
+        <v>66</v>
       </c>
       <c r="F387" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testMyTeamCheckbox</v>
       </c>
       <c r="G387" t="str">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMyTeamCheckbox"</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
       <c r="B388" t="str">
         <f t="shared" ref="B388:B451" si="25">IF(A388="","",MID(A388,FIND("@",SUBSTITUTE(A388,"\","@",LEN(A388)-LEN(SUBSTITUTE(A388,"\",""))))+1,LEN(A388)))</f>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C388" t="str">
         <f t="shared" ref="C388:C451" si="26">A388&amp;D388</f>
-        <v/>
-      </c>
-      <c r="E388" t="str">
-        <f>IF(COUNTIF(C$2:C387,C388)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueunclaimed</v>
+      </c>
+      <c r="D388" t="s">
+        <v>400</v>
+      </c>
+      <c r="E388" t="s">
+        <v>66</v>
       </c>
       <c r="F388" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testUnclaimedCheckbox</v>
       </c>
       <c r="G388" t="str">
         <f t="shared" ref="G388:G451" si="27">IF(D388="","","data-testid="""&amp;F388&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUnclaimedCheckbox"</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>387</v>
+      </c>
       <c r="B389" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C389" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E389" t="str">
-        <f>IF(COUNTIF(C$2:C388,C389)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclaimed_by_org</v>
+      </c>
+      <c r="D389" t="s">
+        <v>401</v>
+      </c>
+      <c r="E389" t="s">
+        <v>66</v>
       </c>
       <c r="F389" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testClaimedByOrgCheckbox</v>
       </c>
       <c r="G389" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClaimedByOrgCheckbox"</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>387</v>
+      </c>
       <c r="B390" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C390" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E390" t="str">
-        <f>IF(COUNTIF(C$2:C389,C390)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuereported_by_org</v>
+      </c>
+      <c r="D390" t="s">
+        <v>402</v>
+      </c>
+      <c r="E390" t="s">
+        <v>66</v>
       </c>
       <c r="F390" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testReportedByOrgCheckbox</v>
       </c>
       <c r="G390" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testReportedByOrgCheckbox"</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>387</v>
+      </c>
       <c r="B391" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E391" t="str">
-        <f>IF(COUNTIF(C$2:C390,C391)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueopen</v>
+      </c>
+      <c r="D391" t="s">
+        <v>403</v>
+      </c>
+      <c r="E391" t="s">
+        <v>66</v>
       </c>
       <c r="F391" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testOpenCheckbox</v>
       </c>
       <c r="G391" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOpenCheckbox"</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>387</v>
+      </c>
       <c r="B392" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C392" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E392" t="str">
-        <f>IF(COUNTIF(C$2:C391,C392)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclosed</v>
+      </c>
+      <c r="D392" t="s">
+        <v>404</v>
+      </c>
+      <c r="E392" t="s">
+        <v>66</v>
       </c>
       <c r="F392" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testClosedCheckbox</v>
       </c>
       <c r="G392" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClosedCheckbox"</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>387</v>
+      </c>
       <c r="B393" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C393" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E393" t="str">
-        <f>IF(COUNTIF(C$2:C392,C393)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vue:several_calculated</v>
+      </c>
+      <c r="D393" t="s">
+        <v>104</v>
       </c>
       <c r="F393" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G393" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>387</v>
+      </c>
       <c r="B394" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C394" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E394" t="str">
-        <f>IF(COUNTIF(C$2:C393,C394)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueflags</v>
+      </c>
+      <c r="D394" t="s">
+        <v>390</v>
+      </c>
+      <c r="E394" t="s">
+        <v>66</v>
       </c>
       <c r="F394" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testFlagsCheckbox</v>
       </c>
       <c r="G394" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFlagsCheckbox"</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>387</v>
+      </c>
       <c r="B395" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C395" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E395" t="str">
-        <f>IF(COUNTIF(C$2:C394,C395)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemember_of_my_organization</v>
+      </c>
+      <c r="D395" t="s">
+        <v>405</v>
+      </c>
+      <c r="E395" t="s">
+        <v>66</v>
       </c>
       <c r="F395" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testMemberOfMyOrganizationCheckbox</v>
       </c>
       <c r="G395" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMemberOfMyOrganizationCheckbox"</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>387</v>
+      </c>
       <c r="B396" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C396" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E396" t="str">
-        <f>IF(COUNTIF(C$2:C395,C396)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vue:several_calculated</v>
+      </c>
+      <c r="D396" t="s">
+        <v>104</v>
       </c>
       <c r="F396" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G396" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>387</v>
+      </c>
       <c r="B397" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C397" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E397" t="str">
-        <f>IF(COUNTIF(C$2:C396,C397)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemissing_work_type</v>
+      </c>
+      <c r="D397" t="s">
+        <v>406</v>
+      </c>
+      <c r="E397" t="s">
+        <v>66</v>
       </c>
       <c r="F397" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testMissingWorkTypeCheckbox</v>
       </c>
       <c r="G397" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMissingWorkTypeCheckbox"</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>387</v>
+      </c>
       <c r="B398" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C398" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E398" t="str">
-        <f>IF(COUNTIF(C$2:C397,C398)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vue:several_calculated</v>
+      </c>
+      <c r="D398" t="s">
+        <v>104</v>
       </c>
       <c r="F398" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G398" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>387</v>
+      </c>
       <c r="B399" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C399" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E399" t="str">
-        <f>IF(COUNTIF(C$2:C398,C399)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_primary_location2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>407</v>
+      </c>
+      <c r="E399" t="s">
+        <v>66</v>
       </c>
       <c r="F399" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testOrganizationPrimaryLocation2Checkbox</v>
       </c>
       <c r="G399" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationPrimaryLocation2Checkbox"</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>387</v>
+      </c>
       <c r="B400" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C400" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E400" t="str">
-        <f>IF(COUNTIF(C$2:C399,C400)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_secondary_location2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>408</v>
+      </c>
+      <c r="E400" t="s">
+        <v>66</v>
       </c>
       <c r="F400" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>testOrganizationSecondaryLocation2Checkbox</v>
       </c>
       <c r="G400" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationSecondaryLocation2Checkbox"</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>387</v>
+      </c>
       <c r="B401" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C401" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E401" t="str">
-        <f>IF(COUNTIF(C$2:C400,C401)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemy_locations</v>
+      </c>
+      <c r="D401" t="s">
+        <v>409</v>
+      </c>
+      <c r="E401" t="s">
+        <v>69</v>
       </c>
       <c r="F401" t="str">
         <f t="shared" ref="F401:F464" si="28">IF(D401="","","test"&amp;IF(ISNUMBER(SEARCH(".",D401)),UPPER(LEFT(D401,1))&amp;RIGHT(LEFT(D401,SEARCH(".",D401)-1),LEN(LEFT(D401,SEARCH(".",D401)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D401,LEN(D401)-SEARCH(".",D401))),"_",""),IF(EXACT(LOWER(D401),D401),TRIM(SUBSTITUTE(PROPER(D401),"_","")),UPPER(LEFT(D401,1))&amp;RIGHT(D401,LEN(D401)-1)))&amp;E401)</f>
-        <v/>
+        <v>testMyLocationsDiv</v>
       </c>
       <c r="G401" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMyLocationsDiv"</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>387</v>
+      </c>
       <c r="B402" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E402" t="str">
-        <f>IF(COUNTIF(C$2:C401,C402)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vue:several_calculated</v>
+      </c>
+      <c r="D402" t="s">
+        <v>104</v>
       </c>
       <c r="F402" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G402" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>387</v>
+      </c>
       <c r="B403" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C403" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E403" t="str">
-        <f>IF(COUNTIF(C$2:C402,C403)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuecreatedDatePicker</v>
+      </c>
+      <c r="D403" t="s">
+        <v>410</v>
+      </c>
+      <c r="E403" t="s">
+        <v>307</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCreatedDatePickerInput</v>
       </c>
       <c r="G403" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCreatedDatePickerInput"</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>387</v>
+      </c>
       <c r="B404" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C404" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E404" t="str">
-        <f>IF(COUNTIF(C$2:C403,C404)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueupdatedDatePicker</v>
+      </c>
+      <c r="D404" t="s">
+        <v>411</v>
+      </c>
+      <c r="E404" t="s">
+        <v>307</v>
       </c>
       <c r="F404" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testUpdatedDatePickerInput</v>
       </c>
       <c r="G404" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUpdatedDatePickerInput"</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>387</v>
+      </c>
       <c r="B405" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C405" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E405" t="str">
-        <f>IF(COUNTIF(C$2:C404,C405)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuecancel</v>
+      </c>
+      <c r="D405" t="s">
+        <v>40</v>
+      </c>
+      <c r="E405" t="s">
+        <v>15</v>
       </c>
       <c r="F405" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCancelButton</v>
       </c>
       <c r="G405" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCancelButton"</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>387</v>
+      </c>
       <c r="B406" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteFilters.vue</v>
       </c>
       <c r="C406" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E406" t="str">
-        <f>IF(COUNTIF(C$2:C405,C406)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueapplyFilters</v>
+      </c>
+      <c r="D406" t="s">
+        <v>313</v>
+      </c>
+      <c r="E406" t="s">
+        <v>15</v>
       </c>
       <c r="F406" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testApplyFiltersButton</v>
       </c>
       <c r="G406" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApplyFiltersButton"</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>412</v>
+      </c>
       <c r="B407" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteImageSection.vue</v>
       </c>
       <c r="C407" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E407" t="str">
-        <f>IF(COUNTIF(C$2:C406,C407)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vueimageUploader</v>
+      </c>
+      <c r="D407" t="s">
+        <v>413</v>
+      </c>
+      <c r="E407" t="s">
+        <v>3</v>
       </c>
       <c r="F407" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testImageUploaderFile</v>
       </c>
       <c r="G407" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testImageUploaderFile"</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>412</v>
+      </c>
       <c r="B408" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteImageSection.vue</v>
       </c>
       <c r="C408" t="str">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="E408" t="str">
-        <f>IF(COUNTIF(C$2:C407,C408)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vueimageUploader</v>
+      </c>
+      <c r="D408" t="s">
+        <v>413</v>
+      </c>
+      <c r="E408" t="s">
+        <v>98</v>
       </c>
       <c r="F408" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testImageUploaderModal</v>
       </c>
       <c r="G408" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testImageUploaderModal"</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>414</v>
+      </c>
       <c r="B409" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C409" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vue</v>
       </c>
       <c r="E409" t="str">
         <f>IF(COUNTIF(C$2:C408,C409)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F409" t="str">
         <f t="shared" si="28"/>
@@ -11750,18 +12664,21 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>330</v>
+      </c>
       <c r="B410" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C410" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E410" t="str">
         <f>IF(COUNTIF(C$2:C409,C410)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F410" t="str">
         <f t="shared" si="28"/>
@@ -11772,14 +12689,17 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>330</v>
+      </c>
       <c r="B411" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C411" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E411" t="str">
         <f>IF(COUNTIF(C$2:C410,C411)&gt;0,"Button","")</f>
@@ -11794,14 +12714,17 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>330</v>
+      </c>
       <c r="B412" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C412" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E412" t="str">
         <f>IF(COUNTIF(C$2:C411,C412)&gt;0,"Button","")</f>
@@ -11816,14 +12739,17 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>330</v>
+      </c>
       <c r="B413" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C413" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E413" t="str">
         <f>IF(COUNTIF(C$2:C412,C413)&gt;0,"Button","")</f>
@@ -11838,14 +12764,17 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>330</v>
+      </c>
       <c r="B414" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C414" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E414" t="str">
         <f>IF(COUNTIF(C$2:C413,C414)&gt;0,"Button","")</f>
@@ -11860,14 +12789,17 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>330</v>
+      </c>
       <c r="B415" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C415" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E415" t="str">
         <f>IF(COUNTIF(C$2:C414,C415)&gt;0,"Button","")</f>
@@ -11882,14 +12814,17 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>330</v>
+      </c>
       <c r="B416" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E416" t="str">
         <f>IF(COUNTIF(C$2:C415,C416)&gt;0,"Button","")</f>
@@ -11904,14 +12839,17 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>330</v>
+      </c>
       <c r="B417" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E417" t="str">
         <f>IF(COUNTIF(C$2:C416,C417)&gt;0,"Button","")</f>
@@ -11926,14 +12864,17 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>330</v>
+      </c>
       <c r="B418" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E418" t="str">
         <f>IF(COUNTIF(C$2:C417,C418)&gt;0,"Button","")</f>
@@ -11948,14 +12889,17 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>330</v>
+      </c>
       <c r="B419" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E419" t="str">
         <f>IF(COUNTIF(C$2:C418,C419)&gt;0,"Button","")</f>
@@ -11970,14 +12914,17 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>330</v>
+      </c>
       <c r="B420" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E420" t="str">
         <f>IF(COUNTIF(C$2:C419,C420)&gt;0,"Button","")</f>
@@ -11992,14 +12939,17 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>330</v>
+      </c>
       <c r="B421" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C421" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E421" t="str">
         <f>IF(COUNTIF(C$2:C420,C421)&gt;0,"Button","")</f>
@@ -12014,14 +12964,17 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>330</v>
+      </c>
       <c r="B422" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C422" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E422" t="str">
         <f>IF(COUNTIF(C$2:C421,C422)&gt;0,"Button","")</f>
@@ -12036,14 +12989,17 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>330</v>
+      </c>
       <c r="B423" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C423" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E423" t="str">
         <f>IF(COUNTIF(C$2:C422,C423)&gt;0,"Button","")</f>
@@ -12058,14 +13014,17 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>330</v>
+      </c>
       <c r="B424" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C424" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E424" t="str">
         <f>IF(COUNTIF(C$2:C423,C424)&gt;0,"Button","")</f>
@@ -12080,14 +13039,17 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>330</v>
+      </c>
       <c r="B425" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C425" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E425" t="str">
         <f>IF(COUNTIF(C$2:C424,C425)&gt;0,"Button","")</f>
@@ -12102,14 +13064,17 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>330</v>
+      </c>
       <c r="B426" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C426" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E426" t="str">
         <f>IF(COUNTIF(C$2:C425,C426)&gt;0,"Button","")</f>
@@ -12124,14 +13089,17 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>330</v>
+      </c>
       <c r="B427" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C427" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E427" t="str">
         <f>IF(COUNTIF(C$2:C426,C427)&gt;0,"Button","")</f>
@@ -12146,14 +13114,17 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>330</v>
+      </c>
       <c r="B428" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C428" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E428" t="str">
         <f>IF(COUNTIF(C$2:C427,C428)&gt;0,"Button","")</f>
@@ -12168,14 +13139,17 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>330</v>
+      </c>
       <c r="B429" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C429" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E429" t="str">
         <f>IF(COUNTIF(C$2:C428,C429)&gt;0,"Button","")</f>
@@ -12190,14 +13164,17 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>330</v>
+      </c>
       <c r="B430" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C430" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E430" t="str">
         <f>IF(COUNTIF(C$2:C429,C430)&gt;0,"Button","")</f>
@@ -12212,14 +13189,17 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>330</v>
+      </c>
       <c r="B431" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C431" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E431" t="str">
         <f>IF(COUNTIF(C$2:C430,C431)&gt;0,"Button","")</f>
@@ -12234,14 +13214,17 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>330</v>
+      </c>
       <c r="B432" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C432" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E432" t="str">
         <f>IF(COUNTIF(C$2:C431,C432)&gt;0,"Button","")</f>
@@ -12256,14 +13239,17 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>330</v>
+      </c>
       <c r="B433" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C433" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E433" t="str">
         <f>IF(COUNTIF(C$2:C432,C433)&gt;0,"Button","")</f>
@@ -12278,14 +13264,17 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>330</v>
+      </c>
       <c r="B434" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C434" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E434" t="str">
         <f>IF(COUNTIF(C$2:C433,C434)&gt;0,"Button","")</f>
@@ -12300,14 +13289,17 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>330</v>
+      </c>
       <c r="B435" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C435" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E435" t="str">
         <f>IF(COUNTIF(C$2:C434,C435)&gt;0,"Button","")</f>
@@ -12322,14 +13314,17 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>330</v>
+      </c>
       <c r="B436" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C436" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E436" t="str">
         <f>IF(COUNTIF(C$2:C435,C436)&gt;0,"Button","")</f>
@@ -12344,14 +13339,17 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>330</v>
+      </c>
       <c r="B437" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C437" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E437" t="str">
         <f>IF(COUNTIF(C$2:C436,C437)&gt;0,"Button","")</f>
@@ -12366,14 +13364,17 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>330</v>
+      </c>
       <c r="B438" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C438" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E438" t="str">
         <f>IF(COUNTIF(C$2:C437,C438)&gt;0,"Button","")</f>
@@ -12388,14 +13389,17 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>330</v>
+      </c>
       <c r="B439" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C439" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E439" t="str">
         <f>IF(COUNTIF(C$2:C438,C439)&gt;0,"Button","")</f>
@@ -12410,14 +13414,17 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>330</v>
+      </c>
       <c r="B440" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C440" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E440" t="str">
         <f>IF(COUNTIF(C$2:C439,C440)&gt;0,"Button","")</f>
@@ -12432,14 +13439,17 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>330</v>
+      </c>
       <c r="B441" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C441" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E441" t="str">
         <f>IF(COUNTIF(C$2:C440,C441)&gt;0,"Button","")</f>
@@ -12454,14 +13464,17 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>330</v>
+      </c>
       <c r="B442" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C442" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E442" t="str">
         <f>IF(COUNTIF(C$2:C441,C442)&gt;0,"Button","")</f>
@@ -12476,14 +13489,17 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>330</v>
+      </c>
       <c r="B443" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C443" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E443" t="str">
         <f>IF(COUNTIF(C$2:C442,C443)&gt;0,"Button","")</f>
@@ -12498,14 +13514,17 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>330</v>
+      </c>
       <c r="B444" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C444" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E444" t="str">
         <f>IF(COUNTIF(C$2:C443,C444)&gt;0,"Button","")</f>
@@ -12520,14 +13539,17 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>330</v>
+      </c>
       <c r="B445" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C445" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E445" t="str">
         <f>IF(COUNTIF(C$2:C444,C445)&gt;0,"Button","")</f>
@@ -12542,14 +13564,17 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>330</v>
+      </c>
       <c r="B446" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C446" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E446" t="str">
         <f>IF(COUNTIF(C$2:C445,C446)&gt;0,"Button","")</f>
@@ -12564,14 +13589,17 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>330</v>
+      </c>
       <c r="B447" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C447" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E447" t="str">
         <f>IF(COUNTIF(C$2:C446,C447)&gt;0,"Button","")</f>
@@ -12586,14 +13614,17 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>330</v>
+      </c>
       <c r="B448" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C448" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E448" t="str">
         <f>IF(COUNTIF(C$2:C447,C448)&gt;0,"Button","")</f>
@@ -12608,14 +13639,17 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>330</v>
+      </c>
       <c r="B449" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C449" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E449" t="str">
         <f>IF(COUNTIF(C$2:C448,C449)&gt;0,"Button","")</f>
@@ -12630,14 +13664,17 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>330</v>
+      </c>
       <c r="B450" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C450" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E450" t="str">
         <f>IF(COUNTIF(C$2:C449,C450)&gt;0,"Button","")</f>
@@ -12652,14 +13689,17 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>330</v>
+      </c>
       <c r="B451" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="C451" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E451" t="str">
         <f>IF(COUNTIF(C$2:C450,C451)&gt;0,"Button","")</f>
@@ -12674,14 +13714,17 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>330</v>
+      </c>
       <c r="B452" t="str">
         <f t="shared" ref="B452:B501" si="29">IF(A452="","",MID(A452,FIND("@",SUBSTITUTE(A452,"\","@",LEN(A452)-LEN(SUBSTITUTE(A452,"\",""))))+1,LEN(A452)))</f>
         <v/>
       </c>
       <c r="C452" t="str">
         <f t="shared" ref="C452:C501" si="30">A452&amp;D452</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E452" t="str">
         <f>IF(COUNTIF(C$2:C451,C452)&gt;0,"Button","")</f>
@@ -12696,14 +13739,17 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>330</v>
+      </c>
       <c r="B453" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C453" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E453" t="str">
         <f>IF(COUNTIF(C$2:C452,C453)&gt;0,"Button","")</f>
@@ -12718,14 +13764,17 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>330</v>
+      </c>
       <c r="B454" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C454" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E454" t="str">
         <f>IF(COUNTIF(C$2:C453,C454)&gt;0,"Button","")</f>
@@ -12740,14 +13789,17 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>330</v>
+      </c>
       <c r="B455" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C455" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E455" t="str">
         <f>IF(COUNTIF(C$2:C454,C455)&gt;0,"Button","")</f>
@@ -12762,14 +13814,17 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>330</v>
+      </c>
       <c r="B456" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C456" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E456" t="str">
         <f>IF(COUNTIF(C$2:C455,C456)&gt;0,"Button","")</f>
@@ -12784,14 +13839,17 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>330</v>
+      </c>
       <c r="B457" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C457" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E457" t="str">
         <f>IF(COUNTIF(C$2:C456,C457)&gt;0,"Button","")</f>
@@ -12806,14 +13864,17 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>330</v>
+      </c>
       <c r="B458" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C458" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E458" t="str">
         <f>IF(COUNTIF(C$2:C457,C458)&gt;0,"Button","")</f>
@@ -12828,14 +13889,17 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>330</v>
+      </c>
       <c r="B459" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C459" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E459" t="str">
         <f>IF(COUNTIF(C$2:C458,C459)&gt;0,"Button","")</f>
@@ -12850,14 +13914,17 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>330</v>
+      </c>
       <c r="B460" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C460" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E460" t="str">
         <f>IF(COUNTIF(C$2:C459,C460)&gt;0,"Button","")</f>
@@ -12872,14 +13939,17 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>330</v>
+      </c>
       <c r="B461" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C461" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E461" t="str">
         <f>IF(COUNTIF(C$2:C460,C461)&gt;0,"Button","")</f>
@@ -12894,14 +13964,17 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>330</v>
+      </c>
       <c r="B462" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C462" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E462" t="str">
         <f>IF(COUNTIF(C$2:C461,C462)&gt;0,"Button","")</f>
@@ -12916,14 +13989,17 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>330</v>
+      </c>
       <c r="B463" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C463" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E463" t="str">
         <f>IF(COUNTIF(C$2:C462,C463)&gt;0,"Button","")</f>
@@ -12938,14 +14014,17 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>330</v>
+      </c>
       <c r="B464" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C464" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E464" t="str">
         <f>IF(COUNTIF(C$2:C463,C464)&gt;0,"Button","")</f>
@@ -12960,14 +14039,17 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>330</v>
+      </c>
       <c r="B465" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C465" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E465" t="str">
         <f>IF(COUNTIF(C$2:C464,C465)&gt;0,"Button","")</f>
@@ -12982,14 +14064,17 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>330</v>
+      </c>
       <c r="B466" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C466" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E466" t="str">
         <f>IF(COUNTIF(C$2:C465,C466)&gt;0,"Button","")</f>
@@ -13004,14 +14089,17 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>330</v>
+      </c>
       <c r="B467" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C467" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E467" t="str">
         <f>IF(COUNTIF(C$2:C466,C467)&gt;0,"Button","")</f>
@@ -13026,14 +14114,17 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>330</v>
+      </c>
       <c r="B468" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C468" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E468" t="str">
         <f>IF(COUNTIF(C$2:C467,C468)&gt;0,"Button","")</f>
@@ -13048,14 +14139,17 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>330</v>
+      </c>
       <c r="B469" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C469" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E469" t="str">
         <f>IF(COUNTIF(C$2:C468,C469)&gt;0,"Button","")</f>
@@ -13070,14 +14164,17 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>330</v>
+      </c>
       <c r="B470" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C470" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E470" t="str">
         <f>IF(COUNTIF(C$2:C469,C470)&gt;0,"Button","")</f>
@@ -13092,14 +14189,17 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>330</v>
+      </c>
       <c r="B471" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C471" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E471" t="str">
         <f>IF(COUNTIF(C$2:C470,C471)&gt;0,"Button","")</f>
@@ -13114,14 +14214,17 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>330</v>
+      </c>
       <c r="B472" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C472" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E472" t="str">
         <f>IF(COUNTIF(C$2:C471,C472)&gt;0,"Button","")</f>
@@ -13136,14 +14239,17 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>330</v>
+      </c>
       <c r="B473" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C473" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E473" t="str">
         <f>IF(COUNTIF(C$2:C472,C473)&gt;0,"Button","")</f>
@@ -13158,14 +14264,17 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>330</v>
+      </c>
       <c r="B474" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C474" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E474" t="str">
         <f>IF(COUNTIF(C$2:C473,C474)&gt;0,"Button","")</f>
@@ -13180,14 +14289,17 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>330</v>
+      </c>
       <c r="B475" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C475" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E475" t="str">
         <f>IF(COUNTIF(C$2:C474,C475)&gt;0,"Button","")</f>
@@ -13202,14 +14314,17 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>330</v>
+      </c>
       <c r="B476" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C476" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E476" t="str">
         <f>IF(COUNTIF(C$2:C475,C476)&gt;0,"Button","")</f>
@@ -13224,14 +14339,17 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>330</v>
+      </c>
       <c r="B477" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C477" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E477" t="str">
         <f>IF(COUNTIF(C$2:C476,C477)&gt;0,"Button","")</f>
@@ -13246,14 +14364,17 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>330</v>
+      </c>
       <c r="B478" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C478" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E478" t="str">
         <f>IF(COUNTIF(C$2:C477,C478)&gt;0,"Button","")</f>
@@ -13268,14 +14389,17 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>330</v>
+      </c>
       <c r="B479" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C479" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E479" t="str">
         <f>IF(COUNTIF(C$2:C478,C479)&gt;0,"Button","")</f>
@@ -13290,14 +14414,17 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>330</v>
+      </c>
       <c r="B480" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C480" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E480" t="str">
         <f>IF(COUNTIF(C$2:C479,C480)&gt;0,"Button","")</f>
@@ -13312,14 +14439,17 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>330</v>
+      </c>
       <c r="B481" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C481" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E481" t="str">
         <f>IF(COUNTIF(C$2:C480,C481)&gt;0,"Button","")</f>
@@ -13334,14 +14464,17 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>330</v>
+      </c>
       <c r="B482" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C482" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E482" t="str">
         <f>IF(COUNTIF(C$2:C481,C482)&gt;0,"Button","")</f>
@@ -13356,14 +14489,17 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>330</v>
+      </c>
       <c r="B483" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C483" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E483" t="str">
         <f>IF(COUNTIF(C$2:C482,C483)&gt;0,"Button","")</f>
@@ -13378,14 +14514,17 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>330</v>
+      </c>
       <c r="B484" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C484" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E484" t="str">
         <f>IF(COUNTIF(C$2:C483,C484)&gt;0,"Button","")</f>
@@ -13400,14 +14539,17 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>330</v>
+      </c>
       <c r="B485" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C485" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E485" t="str">
         <f>IF(COUNTIF(C$2:C484,C485)&gt;0,"Button","")</f>
@@ -13422,14 +14564,17 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>330</v>
+      </c>
       <c r="B486" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C486" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E486" t="str">
         <f>IF(COUNTIF(C$2:C485,C486)&gt;0,"Button","")</f>
@@ -13444,14 +14589,17 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>330</v>
+      </c>
       <c r="B487" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C487" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E487" t="str">
         <f>IF(COUNTIF(C$2:C486,C487)&gt;0,"Button","")</f>
@@ -13466,14 +14614,17 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>330</v>
+      </c>
       <c r="B488" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C488" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E488" t="str">
         <f>IF(COUNTIF(C$2:C487,C488)&gt;0,"Button","")</f>
@@ -13488,14 +14639,17 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>330</v>
+      </c>
       <c r="B489" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C489" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E489" t="str">
         <f>IF(COUNTIF(C$2:C488,C489)&gt;0,"Button","")</f>
@@ -13510,14 +14664,17 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>330</v>
+      </c>
       <c r="B490" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C490" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E490" t="str">
         <f>IF(COUNTIF(C$2:C489,C490)&gt;0,"Button","")</f>
@@ -13532,14 +14689,17 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>330</v>
+      </c>
       <c r="B491" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C491" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E491" t="str">
         <f>IF(COUNTIF(C$2:C490,C491)&gt;0,"Button","")</f>
@@ -13554,14 +14714,17 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>330</v>
+      </c>
       <c r="B492" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C492" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E492" t="str">
         <f>IF(COUNTIF(C$2:C491,C492)&gt;0,"Button","")</f>
@@ -13576,14 +14739,17 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>330</v>
+      </c>
       <c r="B493" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C493" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E493" t="str">
         <f>IF(COUNTIF(C$2:C492,C493)&gt;0,"Button","")</f>
@@ -13598,14 +14764,17 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>330</v>
+      </c>
       <c r="B494" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C494" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E494" t="str">
         <f>IF(COUNTIF(C$2:C493,C494)&gt;0,"Button","")</f>
@@ -13620,14 +14789,17 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>330</v>
+      </c>
       <c r="B495" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C495" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E495" t="str">
         <f>IF(COUNTIF(C$2:C494,C495)&gt;0,"Button","")</f>
@@ -13642,14 +14814,17 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>330</v>
+      </c>
       <c r="B496" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C496" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E496" t="str">
         <f>IF(COUNTIF(C$2:C495,C496)&gt;0,"Button","")</f>
@@ -13664,14 +14839,17 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>330</v>
+      </c>
       <c r="B497" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C497" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E497" t="str">
         <f>IF(COUNTIF(C$2:C496,C497)&gt;0,"Button","")</f>
@@ -13686,14 +14864,17 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>330</v>
+      </c>
       <c r="B498" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C498" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E498" t="str">
         <f>IF(COUNTIF(C$2:C497,C498)&gt;0,"Button","")</f>
@@ -13708,14 +14889,17 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>330</v>
+      </c>
       <c r="B499" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C499" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E499" t="str">
         <f>IF(COUNTIF(C$2:C498,C499)&gt;0,"Button","")</f>
@@ -13730,14 +14914,17 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>330</v>
+      </c>
       <c r="B500" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C500" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E500" t="str">
         <f>IF(COUNTIF(C$2:C499,C500)&gt;0,"Button","")</f>
@@ -13752,14 +14939,17 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>330</v>
+      </c>
       <c r="B501" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C501" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
       </c>
       <c r="E501" t="str">
         <f>IF(COUNTIF(C$2:C500,C501)&gt;0,"Button","")</f>
@@ -13794,10 +14984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33023C95-D182-42DB-83B8-6A7DF68CBC37}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13904,7 +15094,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD488E-DD8E-4ABF-A378-69E3A9D65C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B57E00E-2220-475B-9C88-0CBA5F06381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="510" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="468">
   <si>
     <t>Output</t>
   </si>
@@ -1114,6 +1114,12 @@
     <t>case</t>
   </si>
   <si>
+    <t>member_of_my_org</t>
+  </si>
+  <si>
+    <t>isHighPriority</t>
+  </si>
+  <si>
     <t>is_not_member_of_my_org</t>
   </si>
   <si>
@@ -1274,6 +1280,159 @@
   </si>
   <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vue</t>
+  </si>
+  <si>
+    <t>intake_form</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone1</t>
+  </si>
+  <si>
+    <t>phone2</t>
+  </si>
+  <si>
+    <t>add_phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>primary_language</t>
+  </si>
+  <si>
+    <t>auto_contact_frequency</t>
+  </si>
+  <si>
+    <t>location_instructions</t>
+  </si>
+  <si>
+    <t>clear_location</t>
+  </si>
+  <si>
+    <t>manually_edit_address</t>
+  </si>
+  <si>
+    <t>full_address</t>
+  </si>
+  <si>
+    <t>WorksiteSearchInput</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>what3words</t>
+  </si>
+  <si>
+    <t>use_my_location</t>
+  </si>
+  <si>
+    <t>toggleSelectOnMap</t>
+  </si>
+  <si>
+    <t>saveNote</t>
+  </si>
+  <si>
+    <t>address_problems</t>
+  </si>
+  <si>
+    <t>worksite.total_time</t>
+  </si>
+  <si>
+    <t>worksiteImageSection</t>
+  </si>
+  <si>
+    <t>save_claim</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vue</t>
+  </si>
+  <si>
+    <t>worksite_notes</t>
+  </si>
+  <si>
+    <t>showAllNotes</t>
+  </si>
+  <si>
+    <t>showNotes</t>
+  </si>
+  <si>
+    <t>add_note</t>
+  </si>
+  <si>
+    <t>sticky_note</t>
+  </si>
+  <si>
+    <t>currentNote</t>
+  </si>
+  <si>
+    <t>cancelNote</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vue</t>
+  </si>
+  <si>
+    <t>volunteersToAdd</t>
+  </si>
+  <si>
+    <t>hoursPerVolunteer</t>
+  </si>
+  <si>
+    <t>addTime</t>
+  </si>
+  <si>
+    <t>total_volunteers</t>
+  </si>
+  <si>
+    <t>currentTimeEdit</t>
+  </si>
+  <si>
+    <t>currentTimeSave</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteSearchInput.vue</t>
+  </si>
+  <si>
+    <t>worsiteSearchResults</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteTable.vue</t>
+  </si>
+  <si>
+    <t>worksiteTable</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vue</t>
+  </si>
+  <si>
+    <t>worksiteFormContent</t>
+  </si>
+  <si>
+    <t>WorksiteNotes</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>call_number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>claim_all</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A410" sqref="A410"/>
+      <selection pane="bottomLeft" activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10912,7 +11071,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_not_member_of_my_org</v>
       </c>
       <c r="D344" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E344" t="s">
         <v>93</v>
@@ -10939,7 +11098,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_member_of_my_org</v>
       </c>
       <c r="D345" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E345" t="s">
         <v>93</v>
@@ -10966,7 +11125,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_high_priority</v>
       </c>
       <c r="D346" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E346" t="s">
         <v>93</v>
@@ -10993,7 +11152,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_not_high_priority</v>
       </c>
       <c r="D347" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E347" t="s">
         <v>93</v>
@@ -11047,7 +11206,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuejump_to_case</v>
       </c>
       <c r="D349" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E349" t="s">
         <v>93</v>
@@ -11074,7 +11233,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuehistory</v>
       </c>
       <c r="D350" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E350" t="s">
         <v>93</v>
@@ -11101,7 +11260,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuedownload</v>
       </c>
       <c r="D351" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E351" t="s">
         <v>93</v>
@@ -11128,7 +11287,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueshare</v>
       </c>
       <c r="D352" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E352" t="s">
         <v>93</v>
@@ -11155,7 +11314,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueprint</v>
       </c>
       <c r="D353" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E353" t="s">
         <v>93</v>
@@ -11182,7 +11341,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueedit</v>
       </c>
       <c r="D354" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E354" t="s">
         <v>93</v>
@@ -11225,7 +11384,7 @@
     </row>
     <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B356" t="str">
         <f t="shared" si="21"/>
@@ -11236,7 +11395,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vuecaseHistory</v>
       </c>
       <c r="D356" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E356" t="s">
         <v>69</v>
@@ -11252,7 +11411,7 @@
     </row>
     <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B357" t="str">
         <f t="shared" si="21"/>
@@ -11263,7 +11422,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vuedo_not_share_contact_warning</v>
       </c>
       <c r="D357" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E357" t="s">
         <v>69</v>
@@ -11279,7 +11438,7 @@
     </row>
     <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B358" t="str">
         <f t="shared" si="21"/>
@@ -11290,7 +11449,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\SectionHeading.vuehelp</v>
       </c>
       <c r="D358" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E358" t="s">
         <v>99</v>
@@ -11306,7 +11465,7 @@
     </row>
     <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B359" t="str">
         <f t="shared" si="21"/>
@@ -11317,7 +11476,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuepda_heatmap</v>
       </c>
       <c r="D359" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E359" t="s">
         <v>66</v>
@@ -11333,7 +11492,7 @@
     </row>
     <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B360" t="str">
         <f t="shared" si="21"/>
@@ -11344,7 +11503,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuepda_heatmap</v>
       </c>
       <c r="D360" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E360" t="s">
         <v>93</v>
@@ -11360,7 +11519,7 @@
     </row>
     <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B361" t="str">
         <f t="shared" si="21"/>
@@ -11371,7 +11530,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuelayers</v>
       </c>
       <c r="D361" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E361" t="s">
         <v>15</v>
@@ -11387,7 +11546,7 @@
     </row>
     <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B362" t="str">
         <f t="shared" si="21"/>
@@ -11398,7 +11557,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_state</v>
       </c>
       <c r="D362" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E362" t="s">
         <v>69</v>
@@ -11414,7 +11573,7 @@
     </row>
     <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B363" t="str">
         <f t="shared" si="21"/>
@@ -11425,7 +11584,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_state</v>
       </c>
       <c r="D363" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E363" t="s">
         <v>66</v>
@@ -11441,7 +11600,7 @@
     </row>
     <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B364" t="str">
         <f t="shared" si="21"/>
@@ -11452,7 +11611,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_congress</v>
       </c>
       <c r="D364" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E364" t="s">
         <v>69</v>
@@ -11468,7 +11627,7 @@
     </row>
     <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B365" t="str">
         <f t="shared" si="21"/>
@@ -11479,7 +11638,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_congress</v>
       </c>
       <c r="D365" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E365" t="s">
         <v>66</v>
@@ -11495,7 +11654,7 @@
     </row>
     <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B366" t="str">
         <f t="shared" si="21"/>
@@ -11506,7 +11665,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_county</v>
       </c>
       <c r="D366" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E366" t="s">
         <v>69</v>
@@ -11522,7 +11681,7 @@
     </row>
     <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B367" t="str">
         <f t="shared" si="21"/>
@@ -11533,7 +11692,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_county</v>
       </c>
       <c r="D367" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E367" t="s">
         <v>66</v>
@@ -11549,7 +11708,7 @@
     </row>
     <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B368" t="str">
         <f t="shared" si="21"/>
@@ -11576,7 +11735,7 @@
     </row>
     <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B369" t="str">
         <f t="shared" si="21"/>
@@ -11603,7 +11762,7 @@
     </row>
     <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B370" t="str">
         <f t="shared" si="21"/>
@@ -11614,7 +11773,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueprimary_response_area</v>
       </c>
       <c r="D370" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E370" t="s">
         <v>66</v>
@@ -11630,7 +11789,7 @@
     </row>
     <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B371" t="str">
         <f t="shared" si="21"/>
@@ -11641,7 +11800,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuesecondary_response_area</v>
       </c>
       <c r="D371" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E371" t="s">
         <v>66</v>
@@ -11657,7 +11816,7 @@
     </row>
     <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B372" t="str">
         <f t="shared" si="21"/>
@@ -11668,7 +11827,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuefilters</v>
       </c>
       <c r="D372" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E372" t="s">
         <v>15</v>
@@ -11684,7 +11843,7 @@
     </row>
     <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B373" t="str">
         <f t="shared" si="21"/>
@@ -11695,7 +11854,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueWorksiteFilters</v>
       </c>
       <c r="D373" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E373" t="s">
         <v>15</v>
@@ -11711,7 +11870,7 @@
     </row>
     <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B374" t="str">
         <f t="shared" si="21"/>
@@ -11722,7 +11881,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuedownload_csv</v>
       </c>
       <c r="D374" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E374" t="s">
         <v>15</v>
@@ -11738,7 +11897,7 @@
     </row>
     <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B375" t="str">
         <f t="shared" si="21"/>
@@ -11749,7 +11908,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuefilters</v>
       </c>
       <c r="D375" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E375" t="s">
         <v>98</v>
@@ -11765,7 +11924,7 @@
     </row>
     <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B376" t="str">
         <f t="shared" si="21"/>
@@ -11789,7 +11948,7 @@
     </row>
     <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B377" t="str">
         <f t="shared" si="21"/>
@@ -11800,7 +11959,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclear_filters</v>
       </c>
       <c r="D377" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E377" t="s">
         <v>15</v>
@@ -11816,7 +11975,7 @@
     </row>
     <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B378" t="str">
         <f t="shared" si="21"/>
@@ -11827,7 +11986,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuegeneralSection</v>
       </c>
       <c r="D378" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E378" t="s">
         <v>69</v>
@@ -11843,7 +12002,7 @@
     </row>
     <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B379" t="str">
         <f t="shared" si="21"/>
@@ -11854,7 +12013,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuepersonalSection</v>
       </c>
       <c r="D379" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E379" t="s">
         <v>69</v>
@@ -11870,7 +12029,7 @@
     </row>
     <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B380" t="str">
         <f t="shared" si="21"/>
@@ -11881,7 +12040,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueflagsSection</v>
       </c>
       <c r="D380" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E380" t="s">
         <v>69</v>
@@ -11897,7 +12056,7 @@
     </row>
     <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B381" t="str">
         <f t="shared" si="21"/>
@@ -11908,7 +12067,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueworkSection</v>
       </c>
       <c r="D381" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E381" t="s">
         <v>69</v>
@@ -11924,7 +12083,7 @@
     </row>
     <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B382" t="str">
         <f t="shared" si="21"/>
@@ -11935,7 +12094,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueteamsSection</v>
       </c>
       <c r="D382" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E382" t="s">
         <v>69</v>
@@ -11951,7 +12110,7 @@
     </row>
     <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B383" t="str">
         <f t="shared" si="21"/>
@@ -11962,7 +12121,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuelocationsSection</v>
       </c>
       <c r="D383" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E383" t="s">
         <v>69</v>
@@ -11978,7 +12137,7 @@
     </row>
     <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B384" t="str">
         <f t="shared" si="21"/>
@@ -11989,7 +12148,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuedateSection</v>
       </c>
       <c r="D384" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E384" t="s">
         <v>69</v>
@@ -12005,7 +12164,7 @@
     </row>
     <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B385" t="str">
         <f t="shared" si="21"/>
@@ -12016,7 +12175,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_primary_location</v>
       </c>
       <c r="D385" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E385" t="s">
         <v>66</v>
@@ -12032,7 +12191,7 @@
     </row>
     <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B386" t="str">
         <f t="shared" si="21"/>
@@ -12043,7 +12202,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_secondary_location</v>
       </c>
       <c r="D386" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E386" t="s">
         <v>66</v>
@@ -12059,7 +12218,7 @@
     </row>
     <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B387" t="str">
         <f t="shared" si="21"/>
@@ -12070,7 +12229,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemy_team</v>
       </c>
       <c r="D387" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E387" t="s">
         <v>66</v>
@@ -12086,7 +12245,7 @@
     </row>
     <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B388" t="str">
         <f t="shared" ref="B388:B451" si="25">IF(A388="","",MID(A388,FIND("@",SUBSTITUTE(A388,"\","@",LEN(A388)-LEN(SUBSTITUTE(A388,"\",""))))+1,LEN(A388)))</f>
@@ -12097,7 +12256,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueunclaimed</v>
       </c>
       <c r="D388" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E388" t="s">
         <v>66</v>
@@ -12113,7 +12272,7 @@
     </row>
     <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B389" t="str">
         <f t="shared" si="25"/>
@@ -12124,7 +12283,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclaimed_by_org</v>
       </c>
       <c r="D389" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E389" t="s">
         <v>66</v>
@@ -12140,7 +12299,7 @@
     </row>
     <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B390" t="str">
         <f t="shared" si="25"/>
@@ -12151,7 +12310,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuereported_by_org</v>
       </c>
       <c r="D390" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E390" t="s">
         <v>66</v>
@@ -12167,7 +12326,7 @@
     </row>
     <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B391" t="str">
         <f t="shared" si="25"/>
@@ -12178,7 +12337,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueopen</v>
       </c>
       <c r="D391" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E391" t="s">
         <v>66</v>
@@ -12194,7 +12353,7 @@
     </row>
     <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B392" t="str">
         <f t="shared" si="25"/>
@@ -12205,7 +12364,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclosed</v>
       </c>
       <c r="D392" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E392" t="s">
         <v>66</v>
@@ -12221,7 +12380,7 @@
     </row>
     <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B393" t="str">
         <f t="shared" si="25"/>
@@ -12245,7 +12404,7 @@
     </row>
     <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B394" t="str">
         <f t="shared" si="25"/>
@@ -12256,7 +12415,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueflags</v>
       </c>
       <c r="D394" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E394" t="s">
         <v>66</v>
@@ -12272,7 +12431,7 @@
     </row>
     <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B395" t="str">
         <f t="shared" si="25"/>
@@ -12283,7 +12442,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemember_of_my_organization</v>
       </c>
       <c r="D395" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E395" t="s">
         <v>66</v>
@@ -12299,7 +12458,7 @@
     </row>
     <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B396" t="str">
         <f t="shared" si="25"/>
@@ -12323,7 +12482,7 @@
     </row>
     <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B397" t="str">
         <f t="shared" si="25"/>
@@ -12334,7 +12493,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemissing_work_type</v>
       </c>
       <c r="D397" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E397" t="s">
         <v>66</v>
@@ -12350,7 +12509,7 @@
     </row>
     <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B398" t="str">
         <f t="shared" si="25"/>
@@ -12374,7 +12533,7 @@
     </row>
     <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B399" t="str">
         <f t="shared" si="25"/>
@@ -12385,7 +12544,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_primary_location2</v>
       </c>
       <c r="D399" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E399" t="s">
         <v>66</v>
@@ -12401,7 +12560,7 @@
     </row>
     <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B400" t="str">
         <f t="shared" si="25"/>
@@ -12412,7 +12571,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_secondary_location2</v>
       </c>
       <c r="D400" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E400" t="s">
         <v>66</v>
@@ -12428,7 +12587,7 @@
     </row>
     <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B401" t="str">
         <f t="shared" si="25"/>
@@ -12439,7 +12598,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemy_locations</v>
       </c>
       <c r="D401" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E401" t="s">
         <v>69</v>
@@ -12455,7 +12614,7 @@
     </row>
     <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B402" t="str">
         <f t="shared" si="25"/>
@@ -12479,7 +12638,7 @@
     </row>
     <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B403" t="str">
         <f t="shared" si="25"/>
@@ -12490,7 +12649,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuecreatedDatePicker</v>
       </c>
       <c r="D403" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E403" t="s">
         <v>307</v>
@@ -12506,7 +12665,7 @@
     </row>
     <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B404" t="str">
         <f t="shared" si="25"/>
@@ -12517,7 +12676,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueupdatedDatePicker</v>
       </c>
       <c r="D404" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E404" t="s">
         <v>307</v>
@@ -12533,7 +12692,7 @@
     </row>
     <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B405" t="str">
         <f t="shared" si="25"/>
@@ -12560,7 +12719,7 @@
     </row>
     <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B406" t="str">
         <f t="shared" si="25"/>
@@ -12585,9 +12744,9 @@
         <v>data-testid="testApplyFiltersButton"</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B407" t="str">
         <f t="shared" si="25"/>
@@ -12598,7 +12757,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vueimageUploader</v>
       </c>
       <c r="D407" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E407" t="s">
         <v>3</v>
@@ -12612,9 +12771,9 @@
         <v>data-testid="testImageUploaderFile"</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B408" t="str">
         <f t="shared" si="25"/>
@@ -12625,7 +12784,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vueimageUploader</v>
       </c>
       <c r="D408" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E408" t="s">
         <v>98</v>
@@ -12639,9 +12798,9 @@
         <v>data-testid="testImageUploaderModal"</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B409" t="str">
         <f t="shared" si="25"/>
@@ -12649,1219 +12808,1319 @@
       </c>
       <c r="C409" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vue</v>
-      </c>
-      <c r="E409" t="str">
-        <f>IF(COUNTIF(C$2:C408,C409)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueintake_form</v>
+      </c>
+      <c r="D409" t="s">
+        <v>417</v>
+      </c>
+      <c r="E409" t="s">
+        <v>69</v>
       </c>
       <c r="F409" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testIntakeFormDiv</v>
       </c>
       <c r="G409" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIntakeFormDiv"</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B410" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C410" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E410" t="str">
-        <f>IF(COUNTIF(C$2:C409,C410)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuename</v>
+      </c>
+      <c r="D410" t="s">
+        <v>418</v>
+      </c>
+      <c r="E410" t="s">
+        <v>68</v>
       </c>
       <c r="F410" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testNameTextInput</v>
       </c>
       <c r="G410" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNameTextInput"</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B411" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C411" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E411" t="str">
-        <f>IF(COUNTIF(C$2:C410,C411)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuephone1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>419</v>
+      </c>
+      <c r="E411" t="s">
+        <v>68</v>
       </c>
       <c r="F411" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testPhone1TextInput</v>
       </c>
       <c r="G411" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhone1TextInput"</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B412" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C412" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E412" t="str">
-        <f>IF(COUNTIF(C$2:C411,C412)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuephone2</v>
+      </c>
+      <c r="D412" t="s">
+        <v>420</v>
+      </c>
+      <c r="E412" t="s">
+        <v>68</v>
       </c>
       <c r="F412" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testPhone2TextInput</v>
       </c>
       <c r="G412" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhone2TextInput"</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B413" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C413" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E413" t="str">
-        <f>IF(COUNTIF(C$2:C412,C413)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueadd_phone</v>
+      </c>
+      <c r="D413" t="s">
+        <v>421</v>
+      </c>
+      <c r="E413" t="s">
+        <v>91</v>
       </c>
       <c r="F413" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testAddPhoneLink</v>
       </c>
       <c r="G413" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddPhoneLink"</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B414" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C414" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E414" t="str">
-        <f>IF(COUNTIF(C$2:C413,C414)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueemail</v>
+      </c>
+      <c r="D414" t="s">
+        <v>422</v>
+      </c>
+      <c r="E414" t="s">
+        <v>68</v>
       </c>
       <c r="F414" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testEmailTextInput</v>
       </c>
       <c r="G414" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B415" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C415" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E415" t="str">
-        <f>IF(COUNTIF(C$2:C414,C415)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueprimary_language</v>
+      </c>
+      <c r="D415" t="s">
+        <v>423</v>
+      </c>
+      <c r="E415" t="s">
+        <v>68</v>
       </c>
       <c r="F415" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testPrimaryLanguageTextInput</v>
       </c>
       <c r="G415" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryLanguageTextInput"</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B416" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C416" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E416" t="str">
-        <f>IF(COUNTIF(C$2:C415,C416)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueauto_contact_frequency</v>
+      </c>
+      <c r="D416" t="s">
+        <v>424</v>
+      </c>
+      <c r="E416" t="s">
+        <v>87</v>
       </c>
       <c r="F416" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testAutoContactFrequencySelect</v>
       </c>
       <c r="G416" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAutoContactFrequencySelect"</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B417" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C417" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E417" t="str">
-        <f>IF(COUNTIF(C$2:C416,C417)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuelocation_instructions</v>
+      </c>
+      <c r="D417" t="s">
+        <v>425</v>
+      </c>
+      <c r="E417" t="s">
+        <v>93</v>
       </c>
       <c r="F417" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testLocationInstructionsIcon</v>
       </c>
       <c r="G417" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLocationInstructionsIcon"</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B418" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C418" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E418" t="str">
-        <f>IF(COUNTIF(C$2:C417,C418)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuelocation</v>
+      </c>
+      <c r="D418" t="s">
+        <v>310</v>
+      </c>
+      <c r="E418" t="s">
+        <v>93</v>
       </c>
       <c r="F418" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testLocationIcon</v>
       </c>
       <c r="G418" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLocationIcon"</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B419" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C419" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E419" t="str">
-        <f>IF(COUNTIF(C$2:C418,C419)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueclear_location</v>
+      </c>
+      <c r="D419" t="s">
+        <v>426</v>
+      </c>
+      <c r="E419" t="s">
+        <v>93</v>
       </c>
       <c r="F419" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testClearLocationIcon</v>
       </c>
       <c r="G419" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClearLocationIcon"</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B420" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C420" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E420" t="str">
-        <f>IF(COUNTIF(C$2:C419,C420)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuemanually_edit_address</v>
+      </c>
+      <c r="D420" t="s">
+        <v>427</v>
+      </c>
+      <c r="E420" t="s">
+        <v>93</v>
       </c>
       <c r="F420" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testManuallyEditAddressIcon</v>
       </c>
       <c r="G420" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testManuallyEditAddressIcon"</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B421" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C421" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E421" t="str">
-        <f>IF(COUNTIF(C$2:C420,C421)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuefull_address</v>
+      </c>
+      <c r="D421" t="s">
+        <v>428</v>
+      </c>
+      <c r="E421" t="s">
+        <v>68</v>
       </c>
       <c r="F421" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testFullAddressTextInput</v>
       </c>
       <c r="G421" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFullAddressTextInput"</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B422" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C422" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E422" t="str">
-        <f>IF(COUNTIF(C$2:C421,C422)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueWorksiteSearchInput</v>
+      </c>
+      <c r="D422" t="s">
+        <v>429</v>
+      </c>
+      <c r="E422" t="s">
+        <v>307</v>
       </c>
       <c r="F422" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteSearchInputInput</v>
       </c>
       <c r="G422" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteSearchInputInput"</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B423" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C423" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E423" t="str">
-        <f>IF(COUNTIF(C$2:C422,C423)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuecity</v>
+      </c>
+      <c r="D423" t="s">
+        <v>430</v>
+      </c>
+      <c r="E423" t="s">
+        <v>68</v>
       </c>
       <c r="F423" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCityTextInput</v>
       </c>
       <c r="G423" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCityTextInput"</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B424" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C424" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E424" t="str">
-        <f>IF(COUNTIF(C$2:C423,C424)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuecounty</v>
+      </c>
+      <c r="D424" t="s">
+        <v>431</v>
+      </c>
+      <c r="E424" t="s">
+        <v>68</v>
       </c>
       <c r="F424" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCountyTextInput</v>
       </c>
       <c r="G424" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCountyTextInput"</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B425" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C425" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E425" t="str">
-        <f>IF(COUNTIF(C$2:C424,C425)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuestate</v>
+      </c>
+      <c r="D425" t="s">
+        <v>432</v>
+      </c>
+      <c r="E425" t="s">
+        <v>68</v>
       </c>
       <c r="F425" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testStateTextInput</v>
       </c>
       <c r="G425" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testStateTextInput"</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B426" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C426" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E426" t="str">
-        <f>IF(COUNTIF(C$2:C425,C426)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuewhat3words</v>
+      </c>
+      <c r="D426" t="s">
+        <v>433</v>
+      </c>
+      <c r="E426" t="s">
+        <v>68</v>
       </c>
       <c r="F426" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWhat3WordsTextInput</v>
       </c>
       <c r="G426" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWhat3WordsTextInput"</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B427" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C427" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E427" t="str">
-        <f>IF(COUNTIF(C$2:C426,C427)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueuse_my_location</v>
+      </c>
+      <c r="D427" t="s">
+        <v>434</v>
+      </c>
+      <c r="E427" t="s">
+        <v>15</v>
       </c>
       <c r="F427" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testUseMyLocationButton</v>
       </c>
       <c r="G427" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUseMyLocationButton"</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B428" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C428" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E428" t="str">
-        <f>IF(COUNTIF(C$2:C427,C428)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuetoggleSelectOnMap</v>
+      </c>
+      <c r="D428" t="s">
+        <v>435</v>
+      </c>
+      <c r="E428" t="s">
+        <v>15</v>
       </c>
       <c r="F428" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testToggleSelectOnMapButton</v>
       </c>
       <c r="G428" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testToggleSelectOnMapButton"</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B429" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C429" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E429" t="str">
-        <f>IF(COUNTIF(C$2:C428,C429)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuesaveNote</v>
+      </c>
+      <c r="D429" t="s">
+        <v>436</v>
+      </c>
+      <c r="E429" t="s">
+        <v>307</v>
       </c>
       <c r="F429" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testSaveNoteInput</v>
       </c>
       <c r="G429" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveNoteInput"</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B430" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C430" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E430" t="str">
-        <f>IF(COUNTIF(C$2:C429,C430)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueaddress_problems</v>
+      </c>
+      <c r="D430" t="s">
+        <v>437</v>
+      </c>
+      <c r="E430" t="s">
+        <v>66</v>
       </c>
       <c r="F430" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testAddressProblemsCheckbox</v>
       </c>
       <c r="G430" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddressProblemsCheckbox"</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B431" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C431" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E431" t="str">
-        <f>IF(COUNTIF(C$2:C430,C431)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueisHighPriority</v>
+      </c>
+      <c r="D431" t="s">
+        <v>362</v>
+      </c>
+      <c r="E431" t="s">
+        <v>66</v>
       </c>
       <c r="F431" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testIsHighPriorityCheckbox</v>
       </c>
       <c r="G431" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsHighPriorityCheckbox"</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B432" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C432" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E432" t="str">
-        <f>IF(COUNTIF(C$2:C431,C432)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuemember_of_my_org</v>
+      </c>
+      <c r="D432" t="s">
+        <v>361</v>
+      </c>
+      <c r="E432" t="s">
+        <v>66</v>
       </c>
       <c r="F432" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testMemberOfMyOrgCheckbox</v>
       </c>
       <c r="G432" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMemberOfMyOrgCheckbox"</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B433" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C433" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vue:several_calculated</v>
+      </c>
+      <c r="D433" t="s">
+        <v>104</v>
       </c>
       <c r="E433" t="str">
         <f>IF(COUNTIF(C$2:C432,C433)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F433" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G433" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B434" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C434" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E434" t="str">
-        <f>IF(COUNTIF(C$2:C433,C434)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueworksite.total_time</v>
+      </c>
+      <c r="D434" t="s">
+        <v>438</v>
+      </c>
+      <c r="E434" t="s">
+        <v>69</v>
       </c>
       <c r="F434" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteTotalTimeDiv</v>
       </c>
       <c r="G434" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteTotalTimeDiv"</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B435" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C435" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E435" t="str">
-        <f>IF(COUNTIF(C$2:C434,C435)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueworksiteImageSection</v>
+      </c>
+      <c r="D435" t="s">
+        <v>439</v>
+      </c>
+      <c r="E435" t="s">
+        <v>69</v>
       </c>
       <c r="F435" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteImageSectionDiv</v>
       </c>
       <c r="G435" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteImageSectionDiv"</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B436" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C436" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E436" t="str">
-        <f>IF(COUNTIF(C$2:C435,C436)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuecloseWorksite</v>
+      </c>
+      <c r="D436" t="s">
+        <v>359</v>
+      </c>
+      <c r="E436" t="s">
+        <v>15</v>
       </c>
       <c r="F436" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCloseWorksiteButton</v>
       </c>
       <c r="G436" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCloseWorksiteButton"</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B437" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C437" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E437" t="str">
-        <f>IF(COUNTIF(C$2:C436,C437)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuesave</v>
+      </c>
+      <c r="D437" t="s">
+        <v>169</v>
+      </c>
+      <c r="E437" t="s">
+        <v>15</v>
       </c>
       <c r="F437" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testSaveButton</v>
       </c>
       <c r="G437" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveButton"</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B438" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C438" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E438" t="str">
-        <f>IF(COUNTIF(C$2:C437,C438)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuesave_claim</v>
+      </c>
+      <c r="D438" t="s">
+        <v>440</v>
+      </c>
+      <c r="E438" t="s">
+        <v>15</v>
       </c>
       <c r="F438" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testSaveClaimButton</v>
       </c>
       <c r="G438" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveClaimButton"</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B439" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteForm.vue</v>
       </c>
       <c r="C439" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E439" t="str">
-        <f>IF(COUNTIF(C$2:C438,C439)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuepostal_code</v>
+      </c>
+      <c r="D439" t="s">
+        <v>441</v>
+      </c>
+      <c r="E439" t="s">
+        <v>68</v>
       </c>
       <c r="F439" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testPostalCodeTextInput</v>
       </c>
       <c r="G439" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPostalCodeTextInput"</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B440" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C440" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E440" t="str">
-        <f>IF(COUNTIF(C$2:C439,C440)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueworksite_notes</v>
+      </c>
+      <c r="D440" t="s">
+        <v>443</v>
+      </c>
+      <c r="E440" t="s">
+        <v>69</v>
       </c>
       <c r="F440" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteNotesDiv</v>
       </c>
       <c r="G440" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteNotesDiv"</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B441" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C441" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E441" t="str">
-        <f>IF(COUNTIF(C$2:C440,C441)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueshowAllNotes</v>
+      </c>
+      <c r="D441" t="s">
+        <v>444</v>
+      </c>
+      <c r="E441" t="s">
+        <v>15</v>
       </c>
       <c r="F441" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testShowAllNotesButton</v>
       </c>
       <c r="G441" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowAllNotesButton"</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B442" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C442" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E442" t="str">
-        <f>IF(COUNTIF(C$2:C441,C442)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueshowNotes</v>
+      </c>
+      <c r="D442" t="s">
+        <v>445</v>
+      </c>
+      <c r="E442" t="s">
+        <v>69</v>
       </c>
       <c r="F442" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testShowNotesDiv</v>
       </c>
       <c r="G442" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowNotesDiv"</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B443" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C443" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E443" t="str">
-        <f>IF(COUNTIF(C$2:C442,C443)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueadd_note</v>
+      </c>
+      <c r="D443" t="s">
+        <v>446</v>
+      </c>
+      <c r="E443" t="s">
+        <v>15</v>
       </c>
       <c r="F443" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testAddNoteButton</v>
       </c>
       <c r="G443" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddNoteButton"</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B444" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C444" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E444" t="str">
-        <f>IF(COUNTIF(C$2:C443,C444)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuesticky_note</v>
+      </c>
+      <c r="D444" t="s">
+        <v>447</v>
+      </c>
+      <c r="E444" t="s">
+        <v>93</v>
       </c>
       <c r="F444" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testStickyNoteIcon</v>
       </c>
       <c r="G444" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testStickyNoteIcon"</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B445" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C445" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E445" t="str">
-        <f>IF(COUNTIF(C$2:C444,C445)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuecurrentNote</v>
+      </c>
+      <c r="D445" t="s">
+        <v>448</v>
+      </c>
+      <c r="E445" t="s">
+        <v>67</v>
       </c>
       <c r="F445" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCurrentNoteTextarea</v>
       </c>
       <c r="G445" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentNoteTextarea"</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B446" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C446" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E446" t="str">
-        <f>IF(COUNTIF(C$2:C445,C446)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuecancelNote</v>
+      </c>
+      <c r="D446" t="s">
+        <v>449</v>
+      </c>
+      <c r="E446" t="s">
+        <v>15</v>
       </c>
       <c r="F446" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCancelNoteButton</v>
       </c>
       <c r="G446" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCancelNoteButton"</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="B447" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteNotes.vue</v>
       </c>
       <c r="C447" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E447" t="str">
-        <f>IF(COUNTIF(C$2:C446,C447)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuesaveNote</v>
+      </c>
+      <c r="D447" t="s">
+        <v>436</v>
+      </c>
+      <c r="E447" t="s">
+        <v>15</v>
       </c>
       <c r="F447" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testSaveNoteButton</v>
       </c>
       <c r="G447" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveNoteButton"</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B448" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteReportSection.vue</v>
       </c>
       <c r="C448" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E448" t="str">
-        <f>IF(COUNTIF(C$2:C447,C448)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuevolunteersToAdd</v>
+      </c>
+      <c r="D448" t="s">
+        <v>451</v>
+      </c>
+      <c r="E448" t="s">
+        <v>68</v>
       </c>
       <c r="F448" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testVolunteersToAddTextInput</v>
       </c>
       <c r="G448" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testVolunteersToAddTextInput"</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B449" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteReportSection.vue</v>
       </c>
       <c r="C449" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E449" t="str">
-        <f>IF(COUNTIF(C$2:C448,C449)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuehoursPerVolunteer</v>
+      </c>
+      <c r="D449" t="s">
+        <v>452</v>
+      </c>
+      <c r="E449" t="s">
+        <v>68</v>
       </c>
       <c r="F449" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testHoursPerVolunteerTextInput</v>
       </c>
       <c r="G449" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testHoursPerVolunteerTextInput"</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B450" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteReportSection.vue</v>
       </c>
       <c r="C450" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E450" t="str">
-        <f>IF(COUNTIF(C$2:C449,C450)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vueaddTime</v>
+      </c>
+      <c r="D450" t="s">
+        <v>453</v>
+      </c>
+      <c r="E450" t="s">
+        <v>15</v>
       </c>
       <c r="F450" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testAddTimeButton</v>
       </c>
       <c r="G450" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddTimeButton"</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B451" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>WorksiteReportSection.vue</v>
       </c>
       <c r="C451" t="str">
         <f t="shared" si="26"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E451" t="str">
-        <f>IF(COUNTIF(C$2:C450,C451)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuetotal_volunteers</v>
+      </c>
+      <c r="D451" t="s">
+        <v>454</v>
+      </c>
+      <c r="E451" t="s">
+        <v>69</v>
       </c>
       <c r="F451" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testTotalVolunteersDiv</v>
       </c>
       <c r="G451" t="str">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTotalVolunteersDiv"</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B452" t="str">
         <f t="shared" ref="B452:B501" si="29">IF(A452="","",MID(A452,FIND("@",SUBSTITUTE(A452,"\","@",LEN(A452)-LEN(SUBSTITUTE(A452,"\",""))))+1,LEN(A452)))</f>
-        <v/>
+        <v>WorksiteReportSection.vue</v>
       </c>
       <c r="C452" t="str">
         <f t="shared" ref="C452:C501" si="30">A452&amp;D452</f>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E452" t="str">
-        <f>IF(COUNTIF(C$2:C451,C452)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuecurrentTimeEdit</v>
+      </c>
+      <c r="D452" t="s">
+        <v>455</v>
+      </c>
+      <c r="E452" t="s">
+        <v>93</v>
       </c>
       <c r="F452" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCurrentTimeEditIcon</v>
       </c>
       <c r="G452" t="str">
         <f t="shared" ref="G452:G501" si="31">IF(D452="","","data-testid="""&amp;F452&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentTimeEditIcon"</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="B453" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteReportSection.vue</v>
       </c>
       <c r="C453" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E453" t="str">
-        <f>IF(COUNTIF(C$2:C452,C453)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuecurrentTimeSave</v>
+      </c>
+      <c r="D453" t="s">
+        <v>456</v>
+      </c>
+      <c r="E453" t="s">
+        <v>93</v>
       </c>
       <c r="F453" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCurrentTimeSaveIcon</v>
       </c>
       <c r="G453" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCurrentTimeSaveIcon"</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>330</v>
+        <v>457</v>
       </c>
       <c r="B454" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteSearchInput.vue</v>
       </c>
       <c r="C454" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E454" t="str">
-        <f>IF(COUNTIF(C$2:C453,C454)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteSearchInput.vueWorksiteSearchInput</v>
+      </c>
+      <c r="D454" t="s">
+        <v>429</v>
+      </c>
+      <c r="E454" t="s">
+        <v>216</v>
       </c>
       <c r="F454" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteSearchInputSearch</v>
       </c>
       <c r="G454" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteSearchInputSearch"</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>330</v>
+        <v>457</v>
       </c>
       <c r="B455" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteSearchInput.vue</v>
       </c>
       <c r="C455" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E455" t="str">
-        <f>IF(COUNTIF(C$2:C454,C455)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteSearchInput.vueworsiteSearchResults</v>
+      </c>
+      <c r="D455" t="s">
+        <v>458</v>
+      </c>
+      <c r="E455" t="s">
+        <v>69</v>
       </c>
       <c r="F455" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorsiteSearchResultsDiv</v>
       </c>
       <c r="G455" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorsiteSearchResultsDiv"</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>330</v>
+        <v>459</v>
       </c>
       <c r="B456" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteTable.vue</v>
       </c>
       <c r="C456" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E456" t="str">
-        <f>IF(COUNTIF(C$2:C455,C456)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteTable.vueworksiteTable</v>
+      </c>
+      <c r="D456" t="s">
+        <v>460</v>
+      </c>
+      <c r="E456" t="s">
+        <v>69</v>
       </c>
       <c r="F456" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteTableDiv</v>
       </c>
       <c r="G456" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testWorksiteTableDiv"</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="B457" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C457" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vue:several_calculated</v>
+      </c>
+      <c r="D457" t="s">
+        <v>104</v>
       </c>
       <c r="E457" t="str">
         <f>IF(COUNTIF(C$2:C456,C457)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F457" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G457" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -13874,19 +14133,21 @@
       </c>
       <c r="C458" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E458" t="str">
-        <f>IF(COUNTIF(C$2:C457,C458)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\worksiteFormContent</v>
+      </c>
+      <c r="D458" t="s">
+        <v>462</v>
+      </c>
+      <c r="E458" t="s">
+        <v>69</v>
       </c>
       <c r="F458" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteFormContentDiv</v>
       </c>
       <c r="G458" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testWorksiteFormContentDiv"</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -13899,19 +14160,21 @@
       </c>
       <c r="C459" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E459" t="str">
-        <f>IF(COUNTIF(C$2:C458,C459)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes</v>
+      </c>
+      <c r="D459" t="s">
+        <v>463</v>
+      </c>
+      <c r="E459" t="s">
+        <v>92</v>
       </c>
       <c r="F459" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testWorksiteNotesContent</v>
       </c>
       <c r="G459" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testWorksiteNotesContent"</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -13924,19 +14187,21 @@
       </c>
       <c r="C460" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E460" t="str">
-        <f>IF(COUNTIF(C$2:C459,C460)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\name</v>
+      </c>
+      <c r="D460" t="s">
+        <v>418</v>
+      </c>
+      <c r="E460" t="s">
+        <v>92</v>
       </c>
       <c r="F460" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testNameContent</v>
       </c>
       <c r="G460" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testNameContent"</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -13949,19 +14214,21 @@
       </c>
       <c r="C461" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E461" t="str">
-        <f>IF(COUNTIF(C$2:C460,C461)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\phone</v>
+      </c>
+      <c r="D461" t="s">
+        <v>464</v>
+      </c>
+      <c r="E461" t="s">
+        <v>92</v>
       </c>
       <c r="F461" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testPhoneContent</v>
       </c>
       <c r="G461" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testPhoneContent"</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -13974,19 +14241,21 @@
       </c>
       <c r="C462" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E462" t="str">
-        <f>IF(COUNTIF(C$2:C461,C462)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\call_number</v>
+      </c>
+      <c r="D462" t="s">
+        <v>465</v>
+      </c>
+      <c r="E462" t="s">
+        <v>15</v>
       </c>
       <c r="F462" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testCallNumberButton</v>
       </c>
       <c r="G462" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testCallNumberButton"</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -13999,19 +14268,21 @@
       </c>
       <c r="C463" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E463" t="str">
-        <f>IF(COUNTIF(C$2:C462,C463)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\address</v>
+      </c>
+      <c r="D463" t="s">
+        <v>466</v>
+      </c>
+      <c r="E463" t="s">
+        <v>92</v>
       </c>
       <c r="F463" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testAddressContent</v>
       </c>
       <c r="G463" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testAddressContent"</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -14024,19 +14295,21 @@
       </c>
       <c r="C464" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E464" t="str">
-        <f>IF(COUNTIF(C$2:C463,C464)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\claim_all</v>
+      </c>
+      <c r="D464" t="s">
+        <v>467</v>
+      </c>
+      <c r="E464" t="s">
+        <v>15</v>
       </c>
       <c r="F464" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>testClaimAllButton</v>
       </c>
       <c r="G464" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testClaimAllButton"</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -14053,7 +14326,7 @@
       </c>
       <c r="E465" t="str">
         <f>IF(COUNTIF(C$2:C464,C465)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F465" t="str">
         <f t="shared" ref="F465:F501" si="32">IF(D465="","","test"&amp;IF(ISNUMBER(SEARCH(".",D465)),UPPER(LEFT(D465,1))&amp;RIGHT(LEFT(D465,SEARCH(".",D465)-1),LEN(LEFT(D465,SEARCH(".",D465)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D465,LEN(D465)-SEARCH(".",D465))),"_",""),IF(EXACT(LOWER(D465),D465),TRIM(SUBSTITUTE(PROPER(D465),"_","")),UPPER(LEFT(D465,1))&amp;RIGHT(D465,LEN(D465)-1)))&amp;E465)</f>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B57E00E-2220-475B-9C88-0CBA5F06381C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1BFC3F-227D-4F2B-8FFA-6D4C4C2B1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="510" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
+    <workbookView xWindow="-4245" yWindow="975" windowWidth="18810" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="488">
   <si>
     <t>Output</t>
   </si>
@@ -1021,9 +1021,6 @@
     <t>save_or_next</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vue</t>
   </si>
   <si>
@@ -1433,6 +1430,69 @@
   </si>
   <si>
     <t>claim_all</t>
+  </si>
+  <si>
+    <t>release_all</t>
+  </si>
+  <si>
+    <t>request_all</t>
+  </si>
+  <si>
+    <t>workTypesClaimedByOthers</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>requested</t>
+  </si>
+  <si>
+    <t>unclaim</t>
+  </si>
+  <si>
+    <t>WorksiteStatusDropdown</t>
+  </si>
+  <si>
+    <t>WorksiteStatusDropdown2</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>Next_recurrence2</t>
+  </si>
+  <si>
+    <t>unclaim2</t>
+  </si>
+  <si>
+    <t>claim2</t>
+  </si>
+  <si>
+    <t>request2</t>
+  </si>
+  <si>
+    <t>next_recurrence</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorkTypeRequestModal.vue</t>
+  </si>
+  <si>
+    <t>work_type_request</t>
+  </si>
+  <si>
+    <t>please_add_respectful_note</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\AjaxTable.vue</t>
+  </si>
+  <si>
+    <t>tableSearch</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
@@ -1784,11 +1844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC019DF0-768A-481C-98D6-79502FC4C9FD}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D466" sqref="D466"/>
+      <selection pane="bottomLeft" activeCell="F495" sqref="F495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10034,7 +10094,7 @@
     </row>
     <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="17"/>
@@ -10045,7 +10105,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag</v>
       </c>
       <c r="D306" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E306" t="s">
         <v>69</v>
@@ -10061,7 +10121,7 @@
     </row>
     <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="17"/>
@@ -10072,7 +10132,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.choose_problem</v>
       </c>
       <c r="D307" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E307" t="s">
         <v>87</v>
@@ -10088,7 +10148,7 @@
     </row>
     <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="17"/>
@@ -10099,7 +10159,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.is_high_priority</v>
       </c>
       <c r="D308" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E308" t="s">
         <v>66</v>
@@ -10115,7 +10175,7 @@
     </row>
     <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="17"/>
@@ -10126,7 +10186,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.please_describe_why_high_priority</v>
       </c>
       <c r="D309" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E309" t="s">
         <v>92</v>
@@ -10142,7 +10202,7 @@
     </row>
     <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="17"/>
@@ -10153,7 +10213,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.is_high_priority_notes</v>
       </c>
       <c r="D310" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E310" t="s">
         <v>67</v>
@@ -10169,7 +10229,7 @@
     </row>
     <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="17"/>
@@ -10180,7 +10240,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.nearby_organizations</v>
       </c>
       <c r="D311" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E311" t="s">
         <v>92</v>
@@ -10196,7 +10256,7 @@
     </row>
     <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B312" t="str">
         <f t="shared" si="17"/>
@@ -10207,7 +10267,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.nearby_organizations</v>
       </c>
       <c r="D312" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E312" t="s">
         <v>69</v>
@@ -10223,7 +10283,7 @@
     </row>
     <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="17"/>
@@ -10234,7 +10294,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_wrong_incident</v>
       </c>
       <c r="D313" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E313" t="s">
         <v>69</v>
@@ -10250,7 +10310,7 @@
     </row>
     <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="17"/>
@@ -10261,7 +10321,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.choose_correct_incident</v>
       </c>
       <c r="D314" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E314" t="s">
         <v>92</v>
@@ -10277,7 +10337,7 @@
     </row>
     <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B315" t="str">
         <f t="shared" si="17"/>
@@ -10288,7 +10348,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.choose_correct_incident</v>
       </c>
       <c r="D315" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E315" t="s">
         <v>87</v>
@@ -10304,7 +10364,7 @@
     </row>
     <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B316" t="str">
         <f t="shared" si="17"/>
@@ -10315,7 +10375,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueincidentNotFound</v>
       </c>
       <c r="D316" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E316" t="s">
         <v>66</v>
@@ -10331,7 +10391,7 @@
     </row>
     <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B317" t="str">
         <f t="shared" si="17"/>
@@ -10342,7 +10402,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_wrong_location</v>
       </c>
       <c r="D317" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E317" t="s">
         <v>69</v>
@@ -10358,7 +10418,7 @@
     </row>
     <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B318" t="str">
         <f t="shared" si="17"/>
@@ -10369,7 +10429,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.move_case_pin</v>
       </c>
       <c r="D318" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E318" t="s">
         <v>92</v>
@@ -10385,7 +10445,7 @@
     </row>
     <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B319" t="str">
         <f t="shared" si="17"/>
@@ -10396,7 +10456,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.google_map_url</v>
       </c>
       <c r="D319" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E319" t="s">
         <v>68</v>
@@ -10412,7 +10472,7 @@
     </row>
     <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B320" t="str">
         <f t="shared" si="17"/>
@@ -10423,7 +10483,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.location_unknown</v>
       </c>
       <c r="D320" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E320" t="s">
         <v>15</v>
@@ -10439,7 +10499,7 @@
     </row>
     <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B321" t="str">
         <f t="shared" si="17"/>
@@ -10450,7 +10510,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_upset_client</v>
       </c>
       <c r="D321" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E321" t="s">
         <v>69</v>
@@ -10466,7 +10526,7 @@
     </row>
     <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B322" t="str">
         <f t="shared" si="17"/>
@@ -10477,7 +10537,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.explain_why_client_upset</v>
       </c>
       <c r="D322" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E322" t="s">
         <v>69</v>
@@ -10493,7 +10553,7 @@
     </row>
     <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B323" t="str">
         <f t="shared" si="17"/>
@@ -10504,7 +10564,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.notes_upset</v>
       </c>
       <c r="D323" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E323" t="s">
         <v>67</v>
@@ -10520,7 +10580,7 @@
     </row>
     <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B324" t="str">
         <f t="shared" ref="B324:B387" si="21">IF(A324="","",MID(A324,FIND("@",SUBSTITUTE(A324,"\","@",LEN(A324)-LEN(SUBSTITUTE(A324,"\",""))))+1,LEN(A324)))</f>
@@ -10531,7 +10591,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.does_issue_involve_you_yes</v>
       </c>
       <c r="D324" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E324" t="s">
         <v>70</v>
@@ -10547,7 +10607,7 @@
     </row>
     <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B325" t="str">
         <f t="shared" si="21"/>
@@ -10558,7 +10618,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.does_issue_involve_you_no</v>
       </c>
       <c r="D325" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E325" t="s">
         <v>70</v>
@@ -10574,7 +10634,7 @@
     </row>
     <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B326" t="str">
         <f t="shared" si="21"/>
@@ -10601,7 +10661,7 @@
     </row>
     <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B327" t="str">
         <f t="shared" si="21"/>
@@ -10612,7 +10672,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_abuse</v>
       </c>
       <c r="D327" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E327" t="s">
         <v>69</v>
@@ -10628,7 +10688,7 @@
     </row>
     <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B328" t="str">
         <f t="shared" si="21"/>
@@ -10639,7 +10699,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.worksite_abuse</v>
       </c>
       <c r="D328" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E328" t="s">
         <v>92</v>
@@ -10655,7 +10715,7 @@
     </row>
     <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B329" t="str">
         <f t="shared" si="21"/>
@@ -10682,7 +10742,7 @@
     </row>
     <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330" t="str">
         <f t="shared" si="21"/>
@@ -10693,7 +10753,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuemust_contact_org_first</v>
       </c>
       <c r="D330" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E330" t="s">
         <v>92</v>
@@ -10709,7 +10769,7 @@
     </row>
     <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331" t="str">
         <f t="shared" si="21"/>
@@ -10720,7 +10780,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.have_you_contacted_org_yes</v>
       </c>
       <c r="D331" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E331" t="s">
         <v>70</v>
@@ -10736,7 +10796,7 @@
     </row>
     <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" t="str">
         <f t="shared" si="21"/>
@@ -10747,7 +10807,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.have_you_contacted_org_no</v>
       </c>
       <c r="D332" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E332" t="s">
         <v>70</v>
@@ -10763,7 +10823,7 @@
     </row>
     <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B333" t="str">
         <f t="shared" si="21"/>
@@ -10774,7 +10834,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.outcome_of_contact</v>
       </c>
       <c r="D333" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E333" t="s">
         <v>67</v>
@@ -10790,7 +10850,7 @@
     </row>
     <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B334" t="str">
         <f t="shared" si="21"/>
@@ -10801,7 +10861,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vuecurrentFlag.notes_contact_organization</v>
       </c>
       <c r="D334" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E334" t="s">
         <v>67</v>
@@ -10817,7 +10877,7 @@
     </row>
     <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B335" t="str">
         <f t="shared" si="21"/>
@@ -10828,7 +10888,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueflag.suggested_outcome_contact_organization</v>
       </c>
       <c r="D335" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E335" t="s">
         <v>67</v>
@@ -10844,7 +10904,7 @@
     </row>
     <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B336" t="str">
         <f t="shared" si="21"/>
@@ -10871,7 +10931,7 @@
     </row>
     <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B337" t="str">
         <f t="shared" si="21"/>
@@ -10882,7 +10942,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseFlag.vueupdate_location</v>
       </c>
       <c r="D337" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E337" t="s">
         <v>15</v>
@@ -10898,7 +10958,7 @@
     </row>
     <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B338" t="str">
         <f t="shared" si="21"/>
@@ -10925,7 +10985,7 @@
     </row>
     <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B339" t="str">
         <f t="shared" si="21"/>
@@ -10936,7 +10996,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuecloseWorksite</v>
       </c>
       <c r="D339" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E339" t="s">
         <v>69</v>
@@ -10952,7 +11012,7 @@
     </row>
     <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B340" t="str">
         <f t="shared" si="21"/>
@@ -10979,7 +11039,7 @@
     </row>
     <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B341" t="str">
         <f t="shared" si="21"/>
@@ -11006,7 +11066,7 @@
     </row>
     <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B342" t="str">
         <f t="shared" si="21"/>
@@ -11017,7 +11077,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuecase</v>
       </c>
       <c r="D342" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E342" t="s">
         <v>69</v>
@@ -11033,7 +11093,7 @@
     </row>
     <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B343" t="str">
         <f t="shared" si="21"/>
@@ -11044,7 +11104,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuecloseWorksite</v>
       </c>
       <c r="D343" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E343" t="s">
         <v>93</v>
@@ -11060,7 +11120,7 @@
     </row>
     <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B344" t="str">
         <f t="shared" si="21"/>
@@ -11071,7 +11131,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_not_member_of_my_org</v>
       </c>
       <c r="D344" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E344" t="s">
         <v>93</v>
@@ -11087,7 +11147,7 @@
     </row>
     <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B345" t="str">
         <f t="shared" si="21"/>
@@ -11098,7 +11158,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_member_of_my_org</v>
       </c>
       <c r="D345" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E345" t="s">
         <v>93</v>
@@ -11114,7 +11174,7 @@
     </row>
     <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B346" t="str">
         <f t="shared" si="21"/>
@@ -11125,7 +11185,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_high_priority</v>
       </c>
       <c r="D346" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E346" t="s">
         <v>93</v>
@@ -11141,7 +11201,7 @@
     </row>
     <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B347" t="str">
         <f t="shared" si="21"/>
@@ -11152,7 +11212,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueis_not_high_priority</v>
       </c>
       <c r="D347" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E347" t="s">
         <v>93</v>
@@ -11168,7 +11228,7 @@
     </row>
     <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B348" t="str">
         <f t="shared" si="21"/>
@@ -11179,7 +11239,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueflag</v>
       </c>
       <c r="D348" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E348" t="s">
         <v>93</v>
@@ -11195,7 +11255,7 @@
     </row>
     <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B349" t="str">
         <f t="shared" si="21"/>
@@ -11206,7 +11266,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuejump_to_case</v>
       </c>
       <c r="D349" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E349" t="s">
         <v>93</v>
@@ -11222,7 +11282,7 @@
     </row>
     <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B350" t="str">
         <f t="shared" si="21"/>
@@ -11233,7 +11293,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuehistory</v>
       </c>
       <c r="D350" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E350" t="s">
         <v>93</v>
@@ -11249,7 +11309,7 @@
     </row>
     <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B351" t="str">
         <f t="shared" si="21"/>
@@ -11260,7 +11320,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vuedownload</v>
       </c>
       <c r="D351" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E351" t="s">
         <v>93</v>
@@ -11276,7 +11336,7 @@
     </row>
     <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B352" t="str">
         <f t="shared" si="21"/>
@@ -11287,7 +11347,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueshare</v>
       </c>
       <c r="D352" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E352" t="s">
         <v>93</v>
@@ -11303,7 +11363,7 @@
     </row>
     <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B353" t="str">
         <f t="shared" si="21"/>
@@ -11314,7 +11374,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueprint</v>
       </c>
       <c r="D353" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E353" t="s">
         <v>93</v>
@@ -11330,7 +11390,7 @@
     </row>
     <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B354" t="str">
         <f t="shared" si="21"/>
@@ -11341,7 +11401,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHeader.vueedit</v>
       </c>
       <c r="D354" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E354" t="s">
         <v>93</v>
@@ -11357,7 +11417,7 @@
     </row>
     <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B355" t="str">
         <f t="shared" si="21"/>
@@ -11384,7 +11444,7 @@
     </row>
     <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B356" t="str">
         <f t="shared" si="21"/>
@@ -11395,7 +11455,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vuecaseHistory</v>
       </c>
       <c r="D356" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E356" t="s">
         <v>69</v>
@@ -11411,7 +11471,7 @@
     </row>
     <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B357" t="str">
         <f t="shared" si="21"/>
@@ -11422,7 +11482,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\CaseHistory.vuedo_not_share_contact_warning</v>
       </c>
       <c r="D357" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E357" t="s">
         <v>69</v>
@@ -11438,7 +11498,7 @@
     </row>
     <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B358" t="str">
         <f t="shared" si="21"/>
@@ -11449,7 +11509,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\SectionHeading.vuehelp</v>
       </c>
       <c r="D358" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E358" t="s">
         <v>99</v>
@@ -11465,7 +11525,7 @@
     </row>
     <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B359" t="str">
         <f t="shared" si="21"/>
@@ -11476,7 +11536,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuepda_heatmap</v>
       </c>
       <c r="D359" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E359" t="s">
         <v>66</v>
@@ -11492,7 +11552,7 @@
     </row>
     <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B360" t="str">
         <f t="shared" si="21"/>
@@ -11503,7 +11563,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuepda_heatmap</v>
       </c>
       <c r="D360" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E360" t="s">
         <v>93</v>
@@ -11519,7 +11579,7 @@
     </row>
     <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B361" t="str">
         <f t="shared" si="21"/>
@@ -11530,7 +11590,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuelayers</v>
       </c>
       <c r="D361" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E361" t="s">
         <v>15</v>
@@ -11546,7 +11606,7 @@
     </row>
     <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B362" t="str">
         <f t="shared" si="21"/>
@@ -11557,7 +11617,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_state</v>
       </c>
       <c r="D362" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E362" t="s">
         <v>69</v>
@@ -11573,7 +11633,7 @@
     </row>
     <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B363" t="str">
         <f t="shared" si="21"/>
@@ -11584,7 +11644,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_state</v>
       </c>
       <c r="D363" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E363" t="s">
         <v>66</v>
@@ -11600,7 +11660,7 @@
     </row>
     <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B364" t="str">
         <f t="shared" si="21"/>
@@ -11611,7 +11671,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_congress</v>
       </c>
       <c r="D364" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E364" t="s">
         <v>69</v>
@@ -11627,7 +11687,7 @@
     </row>
     <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B365" t="str">
         <f t="shared" si="21"/>
@@ -11638,7 +11698,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_congress</v>
       </c>
       <c r="D365" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E365" t="s">
         <v>66</v>
@@ -11654,7 +11714,7 @@
     </row>
     <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B366" t="str">
         <f t="shared" si="21"/>
@@ -11665,7 +11725,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_county</v>
       </c>
       <c r="D366" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E366" t="s">
         <v>69</v>
@@ -11681,7 +11741,7 @@
     </row>
     <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B367" t="str">
         <f t="shared" si="21"/>
@@ -11692,7 +11752,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueboundary_political_us_county</v>
       </c>
       <c r="D367" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E367" t="s">
         <v>66</v>
@@ -11708,7 +11768,7 @@
     </row>
     <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B368" t="str">
         <f t="shared" si="21"/>
@@ -11735,7 +11795,7 @@
     </row>
     <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B369" t="str">
         <f t="shared" si="21"/>
@@ -11762,7 +11822,7 @@
     </row>
     <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B370" t="str">
         <f t="shared" si="21"/>
@@ -11773,7 +11833,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueprimary_response_area</v>
       </c>
       <c r="D370" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E370" t="s">
         <v>66</v>
@@ -11789,7 +11849,7 @@
     </row>
     <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B371" t="str">
         <f t="shared" si="21"/>
@@ -11800,7 +11860,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuesecondary_response_area</v>
       </c>
       <c r="D371" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E371" t="s">
         <v>66</v>
@@ -11816,7 +11876,7 @@
     </row>
     <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B372" t="str">
         <f t="shared" si="21"/>
@@ -11827,7 +11887,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuefilters</v>
       </c>
       <c r="D372" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E372" t="s">
         <v>15</v>
@@ -11843,7 +11903,7 @@
     </row>
     <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B373" t="str">
         <f t="shared" si="21"/>
@@ -11854,7 +11914,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vueWorksiteFilters</v>
       </c>
       <c r="D373" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E373" t="s">
         <v>15</v>
@@ -11870,7 +11930,7 @@
     </row>
     <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B374" t="str">
         <f t="shared" si="21"/>
@@ -11881,7 +11941,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteActions.vuedownload_csv</v>
       </c>
       <c r="D374" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E374" t="s">
         <v>15</v>
@@ -11897,7 +11957,7 @@
     </row>
     <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B375" t="str">
         <f t="shared" si="21"/>
@@ -11908,7 +11968,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuefilters</v>
       </c>
       <c r="D375" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E375" t="s">
         <v>98</v>
@@ -11924,7 +11984,7 @@
     </row>
     <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B376" t="str">
         <f t="shared" si="21"/>
@@ -11948,7 +12008,7 @@
     </row>
     <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B377" t="str">
         <f t="shared" si="21"/>
@@ -11959,7 +12019,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclear_filters</v>
       </c>
       <c r="D377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E377" t="s">
         <v>15</v>
@@ -11975,7 +12035,7 @@
     </row>
     <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B378" t="str">
         <f t="shared" si="21"/>
@@ -11986,7 +12046,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuegeneralSection</v>
       </c>
       <c r="D378" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E378" t="s">
         <v>69</v>
@@ -12002,7 +12062,7 @@
     </row>
     <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B379" t="str">
         <f t="shared" si="21"/>
@@ -12013,7 +12073,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuepersonalSection</v>
       </c>
       <c r="D379" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E379" t="s">
         <v>69</v>
@@ -12029,7 +12089,7 @@
     </row>
     <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B380" t="str">
         <f t="shared" si="21"/>
@@ -12040,7 +12100,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueflagsSection</v>
       </c>
       <c r="D380" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E380" t="s">
         <v>69</v>
@@ -12056,7 +12116,7 @@
     </row>
     <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B381" t="str">
         <f t="shared" si="21"/>
@@ -12067,7 +12127,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueworkSection</v>
       </c>
       <c r="D381" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E381" t="s">
         <v>69</v>
@@ -12083,7 +12143,7 @@
     </row>
     <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B382" t="str">
         <f t="shared" si="21"/>
@@ -12094,7 +12154,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueteamsSection</v>
       </c>
       <c r="D382" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E382" t="s">
         <v>69</v>
@@ -12110,7 +12170,7 @@
     </row>
     <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B383" t="str">
         <f t="shared" si="21"/>
@@ -12121,7 +12181,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuelocationsSection</v>
       </c>
       <c r="D383" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E383" t="s">
         <v>69</v>
@@ -12137,7 +12197,7 @@
     </row>
     <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B384" t="str">
         <f t="shared" si="21"/>
@@ -12148,7 +12208,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuedateSection</v>
       </c>
       <c r="D384" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E384" t="s">
         <v>69</v>
@@ -12164,7 +12224,7 @@
     </row>
     <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B385" t="str">
         <f t="shared" si="21"/>
@@ -12175,7 +12235,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_primary_location</v>
       </c>
       <c r="D385" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E385" t="s">
         <v>66</v>
@@ -12191,7 +12251,7 @@
     </row>
     <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B386" t="str">
         <f t="shared" si="21"/>
@@ -12202,7 +12262,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_secondary_location</v>
       </c>
       <c r="D386" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E386" t="s">
         <v>66</v>
@@ -12218,7 +12278,7 @@
     </row>
     <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B387" t="str">
         <f t="shared" si="21"/>
@@ -12229,7 +12289,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemy_team</v>
       </c>
       <c r="D387" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E387" t="s">
         <v>66</v>
@@ -12245,7 +12305,7 @@
     </row>
     <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B388" t="str">
         <f t="shared" ref="B388:B451" si="25">IF(A388="","",MID(A388,FIND("@",SUBSTITUTE(A388,"\","@",LEN(A388)-LEN(SUBSTITUTE(A388,"\",""))))+1,LEN(A388)))</f>
@@ -12256,7 +12316,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueunclaimed</v>
       </c>
       <c r="D388" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E388" t="s">
         <v>66</v>
@@ -12272,7 +12332,7 @@
     </row>
     <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B389" t="str">
         <f t="shared" si="25"/>
@@ -12283,7 +12343,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclaimed_by_org</v>
       </c>
       <c r="D389" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E389" t="s">
         <v>66</v>
@@ -12299,7 +12359,7 @@
     </row>
     <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" t="str">
         <f t="shared" si="25"/>
@@ -12310,7 +12370,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuereported_by_org</v>
       </c>
       <c r="D390" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E390" t="s">
         <v>66</v>
@@ -12326,7 +12386,7 @@
     </row>
     <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B391" t="str">
         <f t="shared" si="25"/>
@@ -12337,7 +12397,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueopen</v>
       </c>
       <c r="D391" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E391" t="s">
         <v>66</v>
@@ -12353,7 +12413,7 @@
     </row>
     <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B392" t="str">
         <f t="shared" si="25"/>
@@ -12364,7 +12424,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueclosed</v>
       </c>
       <c r="D392" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E392" t="s">
         <v>66</v>
@@ -12380,7 +12440,7 @@
     </row>
     <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B393" t="str">
         <f t="shared" si="25"/>
@@ -12404,7 +12464,7 @@
     </row>
     <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B394" t="str">
         <f t="shared" si="25"/>
@@ -12415,7 +12475,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueflags</v>
       </c>
       <c r="D394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E394" t="s">
         <v>66</v>
@@ -12431,7 +12491,7 @@
     </row>
     <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B395" t="str">
         <f t="shared" si="25"/>
@@ -12442,7 +12502,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemember_of_my_organization</v>
       </c>
       <c r="D395" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E395" t="s">
         <v>66</v>
@@ -12458,7 +12518,7 @@
     </row>
     <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B396" t="str">
         <f t="shared" si="25"/>
@@ -12482,7 +12542,7 @@
     </row>
     <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B397" t="str">
         <f t="shared" si="25"/>
@@ -12493,7 +12553,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemissing_work_type</v>
       </c>
       <c r="D397" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E397" t="s">
         <v>66</v>
@@ -12509,7 +12569,7 @@
     </row>
     <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B398" t="str">
         <f t="shared" si="25"/>
@@ -12533,7 +12593,7 @@
     </row>
     <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B399" t="str">
         <f t="shared" si="25"/>
@@ -12544,7 +12604,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_primary_location2</v>
       </c>
       <c r="D399" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E399" t="s">
         <v>66</v>
@@ -12560,7 +12620,7 @@
     </row>
     <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B400" t="str">
         <f t="shared" si="25"/>
@@ -12571,7 +12631,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueorganization_secondary_location2</v>
       </c>
       <c r="D400" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E400" t="s">
         <v>66</v>
@@ -12587,7 +12647,7 @@
     </row>
     <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B401" t="str">
         <f t="shared" si="25"/>
@@ -12598,7 +12658,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuemy_locations</v>
       </c>
       <c r="D401" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E401" t="s">
         <v>69</v>
@@ -12614,7 +12674,7 @@
     </row>
     <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B402" t="str">
         <f t="shared" si="25"/>
@@ -12638,7 +12698,7 @@
     </row>
     <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B403" t="str">
         <f t="shared" si="25"/>
@@ -12649,7 +12709,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vuecreatedDatePicker</v>
       </c>
       <c r="D403" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E403" t="s">
         <v>307</v>
@@ -12665,7 +12725,7 @@
     </row>
     <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B404" t="str">
         <f t="shared" si="25"/>
@@ -12676,7 +12736,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteFilters.vueupdatedDatePicker</v>
       </c>
       <c r="D404" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E404" t="s">
         <v>307</v>
@@ -12692,7 +12752,7 @@
     </row>
     <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B405" t="str">
         <f t="shared" si="25"/>
@@ -12719,7 +12779,7 @@
     </row>
     <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B406" t="str">
         <f t="shared" si="25"/>
@@ -12746,7 +12806,7 @@
     </row>
     <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B407" t="str">
         <f t="shared" si="25"/>
@@ -12757,7 +12817,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vueimageUploader</v>
       </c>
       <c r="D407" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E407" t="s">
         <v>3</v>
@@ -12773,7 +12833,7 @@
     </row>
     <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B408" t="str">
         <f t="shared" si="25"/>
@@ -12784,7 +12844,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteImageSection.vueimageUploader</v>
       </c>
       <c r="D408" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E408" t="s">
         <v>98</v>
@@ -12800,7 +12860,7 @@
     </row>
     <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B409" t="str">
         <f t="shared" si="25"/>
@@ -12811,7 +12871,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueintake_form</v>
       </c>
       <c r="D409" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E409" t="s">
         <v>69</v>
@@ -12827,7 +12887,7 @@
     </row>
     <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B410" t="str">
         <f t="shared" si="25"/>
@@ -12838,7 +12898,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuename</v>
       </c>
       <c r="D410" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E410" t="s">
         <v>68</v>
@@ -12854,7 +12914,7 @@
     </row>
     <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B411" t="str">
         <f t="shared" si="25"/>
@@ -12865,7 +12925,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuephone1</v>
       </c>
       <c r="D411" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E411" t="s">
         <v>68</v>
@@ -12881,7 +12941,7 @@
     </row>
     <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B412" t="str">
         <f t="shared" si="25"/>
@@ -12892,7 +12952,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuephone2</v>
       </c>
       <c r="D412" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E412" t="s">
         <v>68</v>
@@ -12908,7 +12968,7 @@
     </row>
     <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B413" t="str">
         <f t="shared" si="25"/>
@@ -12919,7 +12979,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueadd_phone</v>
       </c>
       <c r="D413" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E413" t="s">
         <v>91</v>
@@ -12935,7 +12995,7 @@
     </row>
     <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414" t="str">
         <f t="shared" si="25"/>
@@ -12946,7 +13006,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueemail</v>
       </c>
       <c r="D414" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E414" t="s">
         <v>68</v>
@@ -12962,7 +13022,7 @@
     </row>
     <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B415" t="str">
         <f t="shared" si="25"/>
@@ -12973,7 +13033,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueprimary_language</v>
       </c>
       <c r="D415" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E415" t="s">
         <v>68</v>
@@ -12989,7 +13049,7 @@
     </row>
     <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B416" t="str">
         <f t="shared" si="25"/>
@@ -13000,7 +13060,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueauto_contact_frequency</v>
       </c>
       <c r="D416" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E416" t="s">
         <v>87</v>
@@ -13016,7 +13076,7 @@
     </row>
     <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" t="str">
         <f t="shared" si="25"/>
@@ -13027,7 +13087,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuelocation_instructions</v>
       </c>
       <c r="D417" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E417" t="s">
         <v>93</v>
@@ -13043,7 +13103,7 @@
     </row>
     <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B418" t="str">
         <f t="shared" si="25"/>
@@ -13070,7 +13130,7 @@
     </row>
     <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B419" t="str">
         <f t="shared" si="25"/>
@@ -13081,7 +13141,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueclear_location</v>
       </c>
       <c r="D419" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E419" t="s">
         <v>93</v>
@@ -13097,7 +13157,7 @@
     </row>
     <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B420" t="str">
         <f t="shared" si="25"/>
@@ -13108,7 +13168,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuemanually_edit_address</v>
       </c>
       <c r="D420" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E420" t="s">
         <v>93</v>
@@ -13124,7 +13184,7 @@
     </row>
     <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B421" t="str">
         <f t="shared" si="25"/>
@@ -13135,7 +13195,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuefull_address</v>
       </c>
       <c r="D421" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E421" t="s">
         <v>68</v>
@@ -13151,7 +13211,7 @@
     </row>
     <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B422" t="str">
         <f t="shared" si="25"/>
@@ -13162,7 +13222,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueWorksiteSearchInput</v>
       </c>
       <c r="D422" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E422" t="s">
         <v>307</v>
@@ -13178,7 +13238,7 @@
     </row>
     <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B423" t="str">
         <f t="shared" si="25"/>
@@ -13189,7 +13249,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuecity</v>
       </c>
       <c r="D423" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E423" t="s">
         <v>68</v>
@@ -13205,7 +13265,7 @@
     </row>
     <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B424" t="str">
         <f t="shared" si="25"/>
@@ -13216,7 +13276,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuecounty</v>
       </c>
       <c r="D424" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E424" t="s">
         <v>68</v>
@@ -13232,7 +13292,7 @@
     </row>
     <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B425" t="str">
         <f t="shared" si="25"/>
@@ -13243,7 +13303,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuestate</v>
       </c>
       <c r="D425" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E425" t="s">
         <v>68</v>
@@ -13259,7 +13319,7 @@
     </row>
     <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B426" t="str">
         <f t="shared" si="25"/>
@@ -13270,7 +13330,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuewhat3words</v>
       </c>
       <c r="D426" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E426" t="s">
         <v>68</v>
@@ -13286,7 +13346,7 @@
     </row>
     <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B427" t="str">
         <f t="shared" si="25"/>
@@ -13297,7 +13357,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueuse_my_location</v>
       </c>
       <c r="D427" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E427" t="s">
         <v>15</v>
@@ -13313,7 +13373,7 @@
     </row>
     <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B428" t="str">
         <f t="shared" si="25"/>
@@ -13324,7 +13384,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuetoggleSelectOnMap</v>
       </c>
       <c r="D428" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E428" t="s">
         <v>15</v>
@@ -13340,7 +13400,7 @@
     </row>
     <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B429" t="str">
         <f t="shared" si="25"/>
@@ -13351,7 +13411,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuesaveNote</v>
       </c>
       <c r="D429" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E429" t="s">
         <v>307</v>
@@ -13367,7 +13427,7 @@
     </row>
     <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B430" t="str">
         <f t="shared" si="25"/>
@@ -13378,7 +13438,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueaddress_problems</v>
       </c>
       <c r="D430" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E430" t="s">
         <v>66</v>
@@ -13394,7 +13454,7 @@
     </row>
     <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B431" t="str">
         <f t="shared" si="25"/>
@@ -13405,7 +13465,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueisHighPriority</v>
       </c>
       <c r="D431" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E431" t="s">
         <v>66</v>
@@ -13421,7 +13481,7 @@
     </row>
     <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B432" t="str">
         <f t="shared" si="25"/>
@@ -13432,7 +13492,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuemember_of_my_org</v>
       </c>
       <c r="D432" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E432" t="s">
         <v>66</v>
@@ -13448,7 +13508,7 @@
     </row>
     <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B433" t="str">
         <f t="shared" si="25"/>
@@ -13476,7 +13536,7 @@
     </row>
     <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B434" t="str">
         <f t="shared" si="25"/>
@@ -13487,7 +13547,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueworksite.total_time</v>
       </c>
       <c r="D434" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E434" t="s">
         <v>69</v>
@@ -13503,7 +13563,7 @@
     </row>
     <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B435" t="str">
         <f t="shared" si="25"/>
@@ -13514,7 +13574,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vueworksiteImageSection</v>
       </c>
       <c r="D435" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E435" t="s">
         <v>69</v>
@@ -13530,7 +13590,7 @@
     </row>
     <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B436" t="str">
         <f t="shared" si="25"/>
@@ -13541,7 +13601,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuecloseWorksite</v>
       </c>
       <c r="D436" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E436" t="s">
         <v>15</v>
@@ -13557,7 +13617,7 @@
     </row>
     <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B437" t="str">
         <f t="shared" si="25"/>
@@ -13584,7 +13644,7 @@
     </row>
     <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B438" t="str">
         <f t="shared" si="25"/>
@@ -13595,7 +13655,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuesave_claim</v>
       </c>
       <c r="D438" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E438" t="s">
         <v>15</v>
@@ -13611,7 +13671,7 @@
     </row>
     <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B439" t="str">
         <f t="shared" si="25"/>
@@ -13622,7 +13682,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteForm.vuepostal_code</v>
       </c>
       <c r="D439" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E439" t="s">
         <v>68</v>
@@ -13638,7 +13698,7 @@
     </row>
     <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B440" t="str">
         <f t="shared" si="25"/>
@@ -13649,7 +13709,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueworksite_notes</v>
       </c>
       <c r="D440" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E440" t="s">
         <v>69</v>
@@ -13665,7 +13725,7 @@
     </row>
     <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B441" t="str">
         <f t="shared" si="25"/>
@@ -13676,7 +13736,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueshowAllNotes</v>
       </c>
       <c r="D441" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E441" t="s">
         <v>15</v>
@@ -13692,7 +13752,7 @@
     </row>
     <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442" t="str">
         <f t="shared" si="25"/>
@@ -13703,7 +13763,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueshowNotes</v>
       </c>
       <c r="D442" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E442" t="s">
         <v>69</v>
@@ -13719,7 +13779,7 @@
     </row>
     <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" t="str">
         <f t="shared" si="25"/>
@@ -13730,7 +13790,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vueadd_note</v>
       </c>
       <c r="D443" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E443" t="s">
         <v>15</v>
@@ -13746,7 +13806,7 @@
     </row>
     <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B444" t="str">
         <f t="shared" si="25"/>
@@ -13757,7 +13817,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuesticky_note</v>
       </c>
       <c r="D444" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E444" t="s">
         <v>93</v>
@@ -13773,7 +13833,7 @@
     </row>
     <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B445" t="str">
         <f t="shared" si="25"/>
@@ -13784,7 +13844,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuecurrentNote</v>
       </c>
       <c r="D445" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E445" t="s">
         <v>67</v>
@@ -13800,7 +13860,7 @@
     </row>
     <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B446" t="str">
         <f t="shared" si="25"/>
@@ -13811,7 +13871,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuecancelNote</v>
       </c>
       <c r="D446" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E446" t="s">
         <v>15</v>
@@ -13827,7 +13887,7 @@
     </row>
     <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B447" t="str">
         <f t="shared" si="25"/>
@@ -13838,7 +13898,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes.vuesaveNote</v>
       </c>
       <c r="D447" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E447" t="s">
         <v>15</v>
@@ -13854,7 +13914,7 @@
     </row>
     <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B448" t="str">
         <f t="shared" si="25"/>
@@ -13865,7 +13925,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuevolunteersToAdd</v>
       </c>
       <c r="D448" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E448" t="s">
         <v>68</v>
@@ -13881,7 +13941,7 @@
     </row>
     <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B449" t="str">
         <f t="shared" si="25"/>
@@ -13892,7 +13952,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuehoursPerVolunteer</v>
       </c>
       <c r="D449" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E449" t="s">
         <v>68</v>
@@ -13908,7 +13968,7 @@
     </row>
     <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450" t="str">
         <f t="shared" si="25"/>
@@ -13919,7 +13979,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vueaddTime</v>
       </c>
       <c r="D450" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E450" t="s">
         <v>15</v>
@@ -13935,7 +13995,7 @@
     </row>
     <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" t="str">
         <f t="shared" si="25"/>
@@ -13946,7 +14006,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuetotal_volunteers</v>
       </c>
       <c r="D451" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E451" t="s">
         <v>69</v>
@@ -13962,7 +14022,7 @@
     </row>
     <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B452" t="str">
         <f t="shared" ref="B452:B501" si="29">IF(A452="","",MID(A452,FIND("@",SUBSTITUTE(A452,"\","@",LEN(A452)-LEN(SUBSTITUTE(A452,"\",""))))+1,LEN(A452)))</f>
@@ -13973,7 +14033,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuecurrentTimeEdit</v>
       </c>
       <c r="D452" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E452" t="s">
         <v>93</v>
@@ -13989,7 +14049,7 @@
     </row>
     <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B453" t="str">
         <f t="shared" si="29"/>
@@ -14000,7 +14060,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteReportSection.vuecurrentTimeSave</v>
       </c>
       <c r="D453" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E453" t="s">
         <v>93</v>
@@ -14016,7 +14076,7 @@
     </row>
     <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B454" t="str">
         <f t="shared" si="29"/>
@@ -14027,7 +14087,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteSearchInput.vueWorksiteSearchInput</v>
       </c>
       <c r="D454" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E454" t="s">
         <v>216</v>
@@ -14043,7 +14103,7 @@
     </row>
     <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B455" t="str">
         <f t="shared" si="29"/>
@@ -14054,7 +14114,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteSearchInput.vueworsiteSearchResults</v>
       </c>
       <c r="D455" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E455" t="s">
         <v>69</v>
@@ -14070,7 +14130,7 @@
     </row>
     <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B456" t="str">
         <f t="shared" si="29"/>
@@ -14081,7 +14141,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteTable.vueworksiteTable</v>
       </c>
       <c r="D456" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E456" t="s">
         <v>69</v>
@@ -14095,9 +14155,9 @@
         <v>data-testid="testWorksiteTableDiv"</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B457" t="str">
         <f t="shared" si="29"/>
@@ -14123,20 +14183,20 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B458" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C458" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\worksiteFormContent</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueworksiteFormContent</v>
       </c>
       <c r="D458" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E458" t="s">
         <v>69</v>
@@ -14150,20 +14210,20 @@
         <v>data-testid="testWorksiteFormContentDiv"</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B459" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C459" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteNotes</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueWorksiteNotes</v>
       </c>
       <c r="D459" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E459" t="s">
         <v>92</v>
@@ -14177,20 +14237,20 @@
         <v>data-testid="testWorksiteNotesContent"</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B460" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C460" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\name</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuename</v>
       </c>
       <c r="D460" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E460" t="s">
         <v>92</v>
@@ -14204,47 +14264,47 @@
         <v>data-testid="testNameContent"</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B461" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C461" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\phone</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuephone</v>
       </c>
       <c r="D461" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E461" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F461" t="str">
         <f t="shared" si="28"/>
-        <v>testPhoneContent</v>
+        <v>testPhoneDiv</v>
       </c>
       <c r="G461" t="str">
         <f t="shared" si="31"/>
-        <v>data-testid="testPhoneContent"</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhoneDiv"</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B462" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C462" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\call_number</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuecall_number</v>
       </c>
       <c r="D462" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E462" t="s">
         <v>15</v>
@@ -14258,47 +14318,47 @@
         <v>data-testid="testCallNumberButton"</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B463" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C463" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\address</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueaddress</v>
       </c>
       <c r="D463" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E463" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F463" t="str">
         <f t="shared" si="28"/>
-        <v>testAddressContent</v>
+        <v>testAddressDiv</v>
       </c>
       <c r="G463" t="str">
         <f t="shared" si="31"/>
-        <v>data-testid="testAddressContent"</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddressDiv"</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B464" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C464" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\claim_all</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueclaim_all</v>
       </c>
       <c r="D464" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E464" t="s">
         <v>15</v>
@@ -14312,559 +14372,604 @@
         <v>data-testid="testClaimAllButton"</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B465" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C465" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E465" t="str">
-        <f>IF(COUNTIF(C$2:C464,C465)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuerelease_all</v>
+      </c>
+      <c r="D465" t="s">
+        <v>467</v>
+      </c>
+      <c r="E465" t="s">
+        <v>15</v>
       </c>
       <c r="F465" t="str">
         <f t="shared" ref="F465:F501" si="32">IF(D465="","","test"&amp;IF(ISNUMBER(SEARCH(".",D465)),UPPER(LEFT(D465,1))&amp;RIGHT(LEFT(D465,SEARCH(".",D465)-1),LEN(LEFT(D465,SEARCH(".",D465)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D465,LEN(D465)-SEARCH(".",D465))),"_",""),IF(EXACT(LOWER(D465),D465),TRIM(SUBSTITUTE(PROPER(D465),"_","")),UPPER(LEFT(D465,1))&amp;RIGHT(D465,LEN(D465)-1)))&amp;E465)</f>
-        <v/>
+        <v>testReleaseAllButton</v>
       </c>
       <c r="G465" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testReleaseAllButton"</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B466" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C466" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E466" t="str">
-        <f>IF(COUNTIF(C$2:C465,C466)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuerequest_all</v>
+      </c>
+      <c r="D466" t="s">
+        <v>468</v>
+      </c>
+      <c r="E466" t="s">
+        <v>15</v>
       </c>
       <c r="F466" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testRequestAllButton</v>
       </c>
       <c r="G466" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestAllButton"</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B467" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C467" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E467" t="str">
-        <f>IF(COUNTIF(C$2:C466,C467)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueworkTypesClaimedByOthers</v>
+      </c>
+      <c r="D467" t="s">
+        <v>469</v>
+      </c>
+      <c r="E467" t="s">
+        <v>69</v>
       </c>
       <c r="F467" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testWorkTypesClaimedByOthersDiv</v>
       </c>
       <c r="G467" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorkTypesClaimedByOthersDiv"</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B468" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C468" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E468" t="str">
-        <f>IF(COUNTIF(C$2:C467,C468)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vue:several_calculated</v>
+      </c>
+      <c r="D468" t="s">
+        <v>104</v>
+      </c>
+      <c r="E468" t="s">
+        <v>15</v>
       </c>
       <c r="F468" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>test:SeveralCalculatedButton</v>
       </c>
       <c r="G468" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculatedButton"</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B469" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C469" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E469" t="str">
-        <f>IF(COUNTIF(C$2:C468,C469)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuerequest</v>
+      </c>
+      <c r="D469" t="s">
+        <v>470</v>
+      </c>
+      <c r="E469" t="s">
+        <v>15</v>
       </c>
       <c r="F469" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testRequestButton</v>
       </c>
       <c r="G469" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestButton"</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B470" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C470" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E470" t="str">
-        <f>IF(COUNTIF(C$2:C469,C470)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuerequested</v>
+      </c>
+      <c r="D470" t="s">
+        <v>471</v>
+      </c>
+      <c r="E470" t="s">
+        <v>69</v>
       </c>
       <c r="F470" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testRequestedDiv</v>
       </c>
       <c r="G470" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestedDiv"</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B471" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C471" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E471" t="str">
-        <f>IF(COUNTIF(C$2:C470,C471)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuenext_recurrence</v>
+      </c>
+      <c r="D471" t="s">
+        <v>480</v>
+      </c>
+      <c r="E471" t="s">
+        <v>69</v>
       </c>
       <c r="F471" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testNextRecurrenceDiv</v>
       </c>
       <c r="G471" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNextRecurrenceDiv"</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B472" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C472" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E472" t="str">
-        <f>IF(COUNTIF(C$2:C471,C472)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueWorksiteStatusDropdown</v>
+      </c>
+      <c r="D472" t="s">
+        <v>473</v>
+      </c>
+      <c r="E472" t="s">
+        <v>87</v>
       </c>
       <c r="F472" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testWorksiteStatusDropdownSelect</v>
       </c>
       <c r="G472" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteStatusDropdownSelect"</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B473" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C473" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E473" t="str">
-        <f>IF(COUNTIF(C$2:C472,C473)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueunclaim</v>
+      </c>
+      <c r="D473" t="s">
+        <v>472</v>
+      </c>
+      <c r="E473" t="s">
+        <v>15</v>
       </c>
       <c r="F473" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testUnclaimButton</v>
       </c>
       <c r="G473" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUnclaimButton"</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B474" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C474" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E474" t="str">
-        <f>IF(COUNTIF(C$2:C473,C474)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueWorksiteStatusDropdown2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>474</v>
+      </c>
+      <c r="E474" t="s">
+        <v>69</v>
       </c>
       <c r="F474" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testWorksiteStatusDropdown2Div</v>
       </c>
       <c r="G474" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteStatusDropdown2Div"</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B475" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C475" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E475" t="str">
-        <f>IF(COUNTIF(C$2:C474,C475)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueclaim</v>
+      </c>
+      <c r="D475" t="s">
+        <v>475</v>
+      </c>
+      <c r="E475" t="s">
+        <v>15</v>
       </c>
       <c r="F475" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testClaimButton</v>
       </c>
       <c r="G475" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClaimButton"</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B476" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C476" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E476" t="str">
-        <f>IF(COUNTIF(C$2:C475,C476)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueNext_recurrence2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>476</v>
+      </c>
+      <c r="E476" t="s">
+        <v>69</v>
       </c>
       <c r="F476" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testNext_recurrence2Div</v>
       </c>
       <c r="G476" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNext_recurrence2Div"</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B477" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C477" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E477" t="str">
-        <f>IF(COUNTIF(C$2:C476,C477)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueunclaim2</v>
+      </c>
+      <c r="D477" t="s">
+        <v>477</v>
+      </c>
+      <c r="E477" t="s">
+        <v>15</v>
       </c>
       <c r="F477" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testUnclaim2Button</v>
       </c>
       <c r="G477" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUnclaim2Button"</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B478" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C478" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E478" t="str">
-        <f>IF(COUNTIF(C$2:C477,C478)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vueclaim2</v>
+      </c>
+      <c r="D478" t="s">
+        <v>478</v>
+      </c>
+      <c r="E478" t="s">
+        <v>15</v>
       </c>
       <c r="F478" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testClaim2Button</v>
       </c>
       <c r="G478" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClaim2Button"</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B479" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C479" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E479" t="str">
-        <f>IF(COUNTIF(C$2:C478,C479)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuerequest2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>479</v>
+      </c>
+      <c r="E479" t="s">
+        <v>15</v>
       </c>
       <c r="F479" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testRequest2Button</v>
       </c>
       <c r="G479" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequest2Button"</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="B480" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorksiteView.vue</v>
       </c>
       <c r="C480" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E480" t="str">
-        <f>IF(COUNTIF(C$2:C479,C480)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorksiteView.vuecloseWorksite</v>
+      </c>
+      <c r="D480" t="s">
+        <v>358</v>
+      </c>
+      <c r="E480" t="s">
+        <v>15</v>
       </c>
       <c r="F480" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testCloseWorksiteButton</v>
       </c>
       <c r="G480" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCloseWorksiteButton"</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="B481" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorkTypeRequestModal.vue</v>
       </c>
       <c r="C481" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E481" t="str">
-        <f>IF(COUNTIF(C$2:C480,C481)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorkTypeRequestModal.vuework_type_request</v>
+      </c>
+      <c r="D481" t="s">
+        <v>482</v>
+      </c>
+      <c r="E481" t="s">
+        <v>98</v>
       </c>
       <c r="F481" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testWorkTypeRequestModal</v>
       </c>
       <c r="G481" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorkTypeRequestModal"</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="B482" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorkTypeRequestModal.vue</v>
       </c>
       <c r="C482" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E482" t="str">
-        <f>IF(COUNTIF(C$2:C481,C482)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorkTypeRequestModal.vueplease_add_respectful_note</v>
+      </c>
+      <c r="D482" t="s">
+        <v>483</v>
+      </c>
+      <c r="E482" t="s">
+        <v>69</v>
       </c>
       <c r="F482" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testPleaseAddRespectfulNoteDiv</v>
       </c>
       <c r="G482" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPleaseAddRespectfulNoteDiv"</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="B483" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorkTypeRequestModal.vue</v>
       </c>
       <c r="C483" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorkTypeRequestModal.vue:several_calculated</v>
+      </c>
+      <c r="D483" t="s">
+        <v>104</v>
       </c>
       <c r="E483" t="str">
         <f>IF(COUNTIF(C$2:C482,C483)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F483" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G483" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="B484" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorkTypeRequestModal.vue</v>
       </c>
       <c r="C484" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E484" t="str">
-        <f>IF(COUNTIF(C$2:C483,C484)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorkTypeRequestModal.vuecancel</v>
+      </c>
+      <c r="D484" t="s">
+        <v>40</v>
+      </c>
+      <c r="E484" t="s">
+        <v>15</v>
       </c>
       <c r="F484" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testCancelButton</v>
       </c>
       <c r="G484" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCancelButton"</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="B485" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>WorkTypeRequestModal.vue</v>
       </c>
       <c r="C485" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E485" t="str">
-        <f>IF(COUNTIF(C$2:C484,C485)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\WorkTypeRequestModal.vuerequest</v>
+      </c>
+      <c r="D485" t="s">
+        <v>470</v>
+      </c>
+      <c r="E485" t="s">
+        <v>15</v>
       </c>
       <c r="F485" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testRequestButton</v>
       </c>
       <c r="G485" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testRequestButton"</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="B486" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>AjaxTable.vue</v>
       </c>
       <c r="C486" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E486" t="str">
-        <f>IF(COUNTIF(C$2:C485,C486)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\AjaxTable.vuetableSearch</v>
+      </c>
+      <c r="D486" t="s">
+        <v>486</v>
+      </c>
+      <c r="E486" t="s">
+        <v>68</v>
       </c>
       <c r="F486" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testTableSearchTextInput</v>
       </c>
       <c r="G486" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testTableSearchTextInput"</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B487" t="str">
         <f t="shared" si="29"/>
@@ -14872,24 +14977,26 @@
       </c>
       <c r="C487" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
-      </c>
-      <c r="E487" t="str">
-        <f>IF(COUNTIF(C$2:C486,C487)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\table</v>
+      </c>
+      <c r="D487" t="s">
+        <v>487</v>
+      </c>
+      <c r="E487" t="s">
+        <v>92</v>
       </c>
       <c r="F487" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testTableContent</v>
       </c>
       <c r="G487" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>data-testid="testTableContent"</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B488" t="str">
         <f t="shared" si="29"/>
@@ -14897,11 +15004,11 @@
       </c>
       <c r="C488" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E488" t="str">
         <f>IF(COUNTIF(C$2:C487,C488)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F488" t="str">
         <f t="shared" si="32"/>
@@ -14914,7 +15021,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B489" t="str">
         <f t="shared" si="29"/>
@@ -14922,7 +15029,7 @@
       </c>
       <c r="C489" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E489" t="str">
         <f>IF(COUNTIF(C$2:C488,C489)&gt;0,"Button","")</f>
@@ -14939,7 +15046,7 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B490" t="str">
         <f t="shared" si="29"/>
@@ -14947,7 +15054,7 @@
       </c>
       <c r="C490" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E490" t="str">
         <f>IF(COUNTIF(C$2:C489,C490)&gt;0,"Button","")</f>
@@ -14964,7 +15071,7 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B491" t="str">
         <f t="shared" si="29"/>
@@ -14972,7 +15079,7 @@
       </c>
       <c r="C491" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E491" t="str">
         <f>IF(COUNTIF(C$2:C490,C491)&gt;0,"Button","")</f>
@@ -14989,7 +15096,7 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B492" t="str">
         <f t="shared" si="29"/>
@@ -14997,7 +15104,7 @@
       </c>
       <c r="C492" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E492" t="str">
         <f>IF(COUNTIF(C$2:C491,C492)&gt;0,"Button","")</f>
@@ -15014,7 +15121,7 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B493" t="str">
         <f t="shared" si="29"/>
@@ -15022,7 +15129,7 @@
       </c>
       <c r="C493" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E493" t="str">
         <f>IF(COUNTIF(C$2:C492,C493)&gt;0,"Button","")</f>
@@ -15039,7 +15146,7 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B494" t="str">
         <f t="shared" si="29"/>
@@ -15047,7 +15154,7 @@
       </c>
       <c r="C494" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E494" t="str">
         <f>IF(COUNTIF(C$2:C493,C494)&gt;0,"Button","")</f>
@@ -15064,7 +15171,7 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B495" t="str">
         <f t="shared" si="29"/>
@@ -15072,7 +15179,7 @@
       </c>
       <c r="C495" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E495" t="str">
         <f>IF(COUNTIF(C$2:C494,C495)&gt;0,"Button","")</f>
@@ -15089,7 +15196,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B496" t="str">
         <f t="shared" si="29"/>
@@ -15097,7 +15204,7 @@
       </c>
       <c r="C496" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E496" t="str">
         <f>IF(COUNTIF(C$2:C495,C496)&gt;0,"Button","")</f>
@@ -15114,7 +15221,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B497" t="str">
         <f t="shared" si="29"/>
@@ -15122,7 +15229,7 @@
       </c>
       <c r="C497" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E497" t="str">
         <f>IF(COUNTIF(C$2:C496,C497)&gt;0,"Button","")</f>
@@ -15139,7 +15246,7 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B498" t="str">
         <f t="shared" si="29"/>
@@ -15147,7 +15254,7 @@
       </c>
       <c r="C498" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E498" t="str">
         <f>IF(COUNTIF(C$2:C497,C498)&gt;0,"Button","")</f>
@@ -15164,7 +15271,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B499" t="str">
         <f t="shared" si="29"/>
@@ -15172,7 +15279,7 @@
       </c>
       <c r="C499" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E499" t="str">
         <f>IF(COUNTIF(C$2:C498,C499)&gt;0,"Button","")</f>
@@ -15189,7 +15296,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B500" t="str">
         <f t="shared" si="29"/>
@@ -15197,7 +15304,7 @@
       </c>
       <c r="C500" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E500" t="str">
         <f>IF(COUNTIF(C$2:C499,C500)&gt;0,"Button","")</f>
@@ -15214,7 +15321,7 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="B501" t="str">
         <f t="shared" si="29"/>
@@ -15222,7 +15329,7 @@
       </c>
       <c r="C501" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\work\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
       </c>
       <c r="E501" t="str">
         <f>IF(COUNTIF(C$2:C500,C501)&gt;0,"Button","")</f>
@@ -15234,6 +15341,5781 @@
       </c>
       <c r="G501" t="str">
         <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>484</v>
+      </c>
+      <c r="B502" t="str">
+        <f t="shared" ref="B502:B565" si="33">IF(A502="","",MID(A502,FIND("@",SUBSTITUTE(A502,"\","@",LEN(A502)-LEN(SUBSTITUTE(A502,"\",""))))+1,LEN(A502)))</f>
+        <v/>
+      </c>
+      <c r="C502" t="str">
+        <f t="shared" ref="C502:C565" si="34">A502&amp;D502</f>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E502" t="str">
+        <f>IF(COUNTIF(C$2:C501,C502)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F502" t="str">
+        <f t="shared" ref="F502:F565" si="35">IF(D502="","","test"&amp;IF(ISNUMBER(SEARCH(".",D502)),UPPER(LEFT(D502,1))&amp;RIGHT(LEFT(D502,SEARCH(".",D502)-1),LEN(LEFT(D502,SEARCH(".",D502)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D502,LEN(D502)-SEARCH(".",D502))),"_",""),IF(EXACT(LOWER(D502),D502),TRIM(SUBSTITUTE(PROPER(D502),"_","")),UPPER(LEFT(D502,1))&amp;RIGHT(D502,LEN(D502)-1)))&amp;E502)</f>
+        <v/>
+      </c>
+      <c r="G502" t="str">
+        <f t="shared" ref="G502:G565" si="36">IF(D502="","","data-testid="""&amp;F502&amp;"""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>484</v>
+      </c>
+      <c r="B503" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C503" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E503" t="str">
+        <f>IF(COUNTIF(C$2:C502,C503)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F503" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G503" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>484</v>
+      </c>
+      <c r="B504" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C504" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E504" t="str">
+        <f>IF(COUNTIF(C$2:C503,C504)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F504" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G504" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>484</v>
+      </c>
+      <c r="B505" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C505" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E505" t="str">
+        <f>IF(COUNTIF(C$2:C504,C505)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F505" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G505" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>484</v>
+      </c>
+      <c r="B506" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C506" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E506" t="str">
+        <f>IF(COUNTIF(C$2:C505,C506)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F506" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G506" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>484</v>
+      </c>
+      <c r="B507" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C507" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E507" t="str">
+        <f>IF(COUNTIF(C$2:C506,C507)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F507" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G507" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>484</v>
+      </c>
+      <c r="B508" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C508" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E508" t="str">
+        <f>IF(COUNTIF(C$2:C507,C508)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F508" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G508" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>484</v>
+      </c>
+      <c r="B509" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C509" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E509" t="str">
+        <f>IF(COUNTIF(C$2:C508,C509)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F509" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G509" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>484</v>
+      </c>
+      <c r="B510" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C510" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E510" t="str">
+        <f>IF(COUNTIF(C$2:C509,C510)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F510" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G510" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>484</v>
+      </c>
+      <c r="B511" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C511" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E511" t="str">
+        <f>IF(COUNTIF(C$2:C510,C511)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F511" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G511" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>484</v>
+      </c>
+      <c r="B512" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C512" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E512" t="str">
+        <f>IF(COUNTIF(C$2:C511,C512)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F512" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G512" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>484</v>
+      </c>
+      <c r="B513" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C513" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E513" t="str">
+        <f>IF(COUNTIF(C$2:C512,C513)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F513" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G513" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>484</v>
+      </c>
+      <c r="B514" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C514" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E514" t="str">
+        <f>IF(COUNTIF(C$2:C513,C514)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F514" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G514" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>484</v>
+      </c>
+      <c r="B515" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C515" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E515" t="str">
+        <f>IF(COUNTIF(C$2:C514,C515)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F515" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G515" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>484</v>
+      </c>
+      <c r="B516" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C516" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E516" t="str">
+        <f>IF(COUNTIF(C$2:C515,C516)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F516" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G516" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>484</v>
+      </c>
+      <c r="B517" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C517" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E517" t="str">
+        <f>IF(COUNTIF(C$2:C516,C517)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F517" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G517" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>484</v>
+      </c>
+      <c r="B518" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C518" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E518" t="str">
+        <f>IF(COUNTIF(C$2:C517,C518)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F518" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G518" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>484</v>
+      </c>
+      <c r="B519" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C519" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E519" t="str">
+        <f>IF(COUNTIF(C$2:C518,C519)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F519" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G519" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>484</v>
+      </c>
+      <c r="B520" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C520" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E520" t="str">
+        <f>IF(COUNTIF(C$2:C519,C520)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F520" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G520" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>484</v>
+      </c>
+      <c r="B521" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C521" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E521" t="str">
+        <f>IF(COUNTIF(C$2:C520,C521)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F521" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G521" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>484</v>
+      </c>
+      <c r="B522" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C522" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E522" t="str">
+        <f>IF(COUNTIF(C$2:C521,C522)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F522" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G522" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>484</v>
+      </c>
+      <c r="B523" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C523" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E523" t="str">
+        <f>IF(COUNTIF(C$2:C522,C523)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F523" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G523" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>484</v>
+      </c>
+      <c r="B524" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C524" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E524" t="str">
+        <f>IF(COUNTIF(C$2:C523,C524)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F524" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G524" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>484</v>
+      </c>
+      <c r="B525" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C525" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E525" t="str">
+        <f>IF(COUNTIF(C$2:C524,C525)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F525" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G525" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>484</v>
+      </c>
+      <c r="B526" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C526" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E526" t="str">
+        <f>IF(COUNTIF(C$2:C525,C526)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F526" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G526" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>484</v>
+      </c>
+      <c r="B527" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C527" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E527" t="str">
+        <f>IF(COUNTIF(C$2:C526,C527)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F527" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G527" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>484</v>
+      </c>
+      <c r="B528" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C528" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E528" t="str">
+        <f>IF(COUNTIF(C$2:C527,C528)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F528" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G528" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>484</v>
+      </c>
+      <c r="B529" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C529" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E529" t="str">
+        <f>IF(COUNTIF(C$2:C528,C529)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F529" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G529" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>484</v>
+      </c>
+      <c r="B530" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C530" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E530" t="str">
+        <f>IF(COUNTIF(C$2:C529,C530)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F530" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G530" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>484</v>
+      </c>
+      <c r="B531" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C531" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E531" t="str">
+        <f>IF(COUNTIF(C$2:C530,C531)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F531" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G531" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>484</v>
+      </c>
+      <c r="B532" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C532" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E532" t="str">
+        <f>IF(COUNTIF(C$2:C531,C532)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F532" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G532" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>484</v>
+      </c>
+      <c r="B533" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C533" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E533" t="str">
+        <f>IF(COUNTIF(C$2:C532,C533)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F533" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G533" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>484</v>
+      </c>
+      <c r="B534" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C534" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E534" t="str">
+        <f>IF(COUNTIF(C$2:C533,C534)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F534" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G534" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>484</v>
+      </c>
+      <c r="B535" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C535" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E535" t="str">
+        <f>IF(COUNTIF(C$2:C534,C535)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F535" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G535" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>484</v>
+      </c>
+      <c r="B536" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C536" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E536" t="str">
+        <f>IF(COUNTIF(C$2:C535,C536)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F536" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G536" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>484</v>
+      </c>
+      <c r="B537" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C537" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E537" t="str">
+        <f>IF(COUNTIF(C$2:C536,C537)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F537" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G537" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>484</v>
+      </c>
+      <c r="B538" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C538" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E538" t="str">
+        <f>IF(COUNTIF(C$2:C537,C538)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F538" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G538" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>484</v>
+      </c>
+      <c r="B539" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C539" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E539" t="str">
+        <f>IF(COUNTIF(C$2:C538,C539)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F539" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G539" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>484</v>
+      </c>
+      <c r="B540" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C540" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E540" t="str">
+        <f>IF(COUNTIF(C$2:C539,C540)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F540" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G540" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>484</v>
+      </c>
+      <c r="B541" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C541" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E541" t="str">
+        <f>IF(COUNTIF(C$2:C540,C541)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F541" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G541" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>484</v>
+      </c>
+      <c r="B542" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C542" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E542" t="str">
+        <f>IF(COUNTIF(C$2:C541,C542)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F542" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G542" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>484</v>
+      </c>
+      <c r="B543" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C543" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E543" t="str">
+        <f>IF(COUNTIF(C$2:C542,C543)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F543" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G543" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>484</v>
+      </c>
+      <c r="B544" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C544" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E544" t="str">
+        <f>IF(COUNTIF(C$2:C543,C544)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F544" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G544" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>484</v>
+      </c>
+      <c r="B545" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C545" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E545" t="str">
+        <f>IF(COUNTIF(C$2:C544,C545)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F545" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G545" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>484</v>
+      </c>
+      <c r="B546" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C546" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E546" t="str">
+        <f>IF(COUNTIF(C$2:C545,C546)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F546" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G546" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>484</v>
+      </c>
+      <c r="B547" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C547" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E547" t="str">
+        <f>IF(COUNTIF(C$2:C546,C547)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F547" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G547" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>484</v>
+      </c>
+      <c r="B548" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C548" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E548" t="str">
+        <f>IF(COUNTIF(C$2:C547,C548)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F548" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G548" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>484</v>
+      </c>
+      <c r="B549" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C549" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E549" t="str">
+        <f>IF(COUNTIF(C$2:C548,C549)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F549" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G549" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>484</v>
+      </c>
+      <c r="B550" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C550" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E550" t="str">
+        <f>IF(COUNTIF(C$2:C549,C550)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F550" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G550" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>484</v>
+      </c>
+      <c r="B551" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C551" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E551" t="str">
+        <f>IF(COUNTIF(C$2:C550,C551)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F551" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G551" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>484</v>
+      </c>
+      <c r="B552" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C552" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E552" t="str">
+        <f>IF(COUNTIF(C$2:C551,C552)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F552" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G552" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>484</v>
+      </c>
+      <c r="B553" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C553" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E553" t="str">
+        <f>IF(COUNTIF(C$2:C552,C553)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F553" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G553" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>484</v>
+      </c>
+      <c r="B554" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C554" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E554" t="str">
+        <f>IF(COUNTIF(C$2:C553,C554)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F554" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G554" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>484</v>
+      </c>
+      <c r="B555" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C555" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E555" t="str">
+        <f>IF(COUNTIF(C$2:C554,C555)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F555" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G555" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>484</v>
+      </c>
+      <c r="B556" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C556" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E556" t="str">
+        <f>IF(COUNTIF(C$2:C555,C556)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F556" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G556" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>484</v>
+      </c>
+      <c r="B557" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C557" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E557" t="str">
+        <f>IF(COUNTIF(C$2:C556,C557)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F557" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G557" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>484</v>
+      </c>
+      <c r="B558" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C558" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E558" t="str">
+        <f>IF(COUNTIF(C$2:C557,C558)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F558" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G558" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>484</v>
+      </c>
+      <c r="B559" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C559" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E559" t="str">
+        <f>IF(COUNTIF(C$2:C558,C559)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F559" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G559" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>484</v>
+      </c>
+      <c r="B560" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C560" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E560" t="str">
+        <f>IF(COUNTIF(C$2:C559,C560)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F560" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G560" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>484</v>
+      </c>
+      <c r="B561" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C561" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E561" t="str">
+        <f>IF(COUNTIF(C$2:C560,C561)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F561" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G561" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>484</v>
+      </c>
+      <c r="B562" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C562" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E562" t="str">
+        <f>IF(COUNTIF(C$2:C561,C562)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F562" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G562" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>484</v>
+      </c>
+      <c r="B563" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C563" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E563" t="str">
+        <f>IF(COUNTIF(C$2:C562,C563)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F563" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G563" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>484</v>
+      </c>
+      <c r="B564" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C564" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E564" t="str">
+        <f>IF(COUNTIF(C$2:C563,C564)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F564" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G564" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>484</v>
+      </c>
+      <c r="B565" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="C565" t="str">
+        <f t="shared" si="34"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E565" t="str">
+        <f>IF(COUNTIF(C$2:C564,C565)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F565" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G565" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>484</v>
+      </c>
+      <c r="B566" t="str">
+        <f t="shared" ref="B566:B629" si="37">IF(A566="","",MID(A566,FIND("@",SUBSTITUTE(A566,"\","@",LEN(A566)-LEN(SUBSTITUTE(A566,"\",""))))+1,LEN(A566)))</f>
+        <v/>
+      </c>
+      <c r="C566" t="str">
+        <f t="shared" ref="C566:C629" si="38">A566&amp;D566</f>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E566" t="str">
+        <f>IF(COUNTIF(C$2:C565,C566)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F566" t="str">
+        <f t="shared" ref="F566:F629" si="39">IF(D566="","","test"&amp;IF(ISNUMBER(SEARCH(".",D566)),UPPER(LEFT(D566,1))&amp;RIGHT(LEFT(D566,SEARCH(".",D566)-1),LEN(LEFT(D566,SEARCH(".",D566)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D566,LEN(D566)-SEARCH(".",D566))),"_",""),IF(EXACT(LOWER(D566),D566),TRIM(SUBSTITUTE(PROPER(D566),"_","")),UPPER(LEFT(D566,1))&amp;RIGHT(D566,LEN(D566)-1)))&amp;E566)</f>
+        <v/>
+      </c>
+      <c r="G566" t="str">
+        <f t="shared" ref="G566:G629" si="40">IF(D566="","","data-testid="""&amp;F566&amp;"""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>484</v>
+      </c>
+      <c r="B567" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C567" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E567" t="str">
+        <f>IF(COUNTIF(C$2:C566,C567)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F567" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G567" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>484</v>
+      </c>
+      <c r="B568" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C568" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E568" t="str">
+        <f>IF(COUNTIF(C$2:C567,C568)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F568" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G568" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>484</v>
+      </c>
+      <c r="B569" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C569" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E569" t="str">
+        <f>IF(COUNTIF(C$2:C568,C569)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F569" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G569" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>484</v>
+      </c>
+      <c r="B570" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C570" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E570" t="str">
+        <f>IF(COUNTIF(C$2:C569,C570)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F570" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G570" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>484</v>
+      </c>
+      <c r="B571" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C571" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E571" t="str">
+        <f>IF(COUNTIF(C$2:C570,C571)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F571" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G571" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>484</v>
+      </c>
+      <c r="B572" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C572" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E572" t="str">
+        <f>IF(COUNTIF(C$2:C571,C572)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F572" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G572" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>484</v>
+      </c>
+      <c r="B573" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C573" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E573" t="str">
+        <f>IF(COUNTIF(C$2:C572,C573)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F573" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G573" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>484</v>
+      </c>
+      <c r="B574" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C574" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E574" t="str">
+        <f>IF(COUNTIF(C$2:C573,C574)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F574" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G574" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>484</v>
+      </c>
+      <c r="B575" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C575" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E575" t="str">
+        <f>IF(COUNTIF(C$2:C574,C575)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F575" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G575" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>484</v>
+      </c>
+      <c r="B576" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C576" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E576" t="str">
+        <f>IF(COUNTIF(C$2:C575,C576)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F576" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G576" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>484</v>
+      </c>
+      <c r="B577" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C577" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E577" t="str">
+        <f>IF(COUNTIF(C$2:C576,C577)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F577" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G577" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>484</v>
+      </c>
+      <c r="B578" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C578" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E578" t="str">
+        <f>IF(COUNTIF(C$2:C577,C578)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F578" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G578" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>484</v>
+      </c>
+      <c r="B579" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C579" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E579" t="str">
+        <f>IF(COUNTIF(C$2:C578,C579)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F579" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G579" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>484</v>
+      </c>
+      <c r="B580" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C580" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E580" t="str">
+        <f>IF(COUNTIF(C$2:C579,C580)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F580" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G580" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>484</v>
+      </c>
+      <c r="B581" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C581" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E581" t="str">
+        <f>IF(COUNTIF(C$2:C580,C581)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F581" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G581" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>484</v>
+      </c>
+      <c r="B582" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C582" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E582" t="str">
+        <f>IF(COUNTIF(C$2:C581,C582)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F582" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G582" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>484</v>
+      </c>
+      <c r="B583" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C583" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E583" t="str">
+        <f>IF(COUNTIF(C$2:C582,C583)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F583" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G583" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>484</v>
+      </c>
+      <c r="B584" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C584" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E584" t="str">
+        <f>IF(COUNTIF(C$2:C583,C584)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F584" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G584" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>484</v>
+      </c>
+      <c r="B585" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C585" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E585" t="str">
+        <f>IF(COUNTIF(C$2:C584,C585)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F585" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G585" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>484</v>
+      </c>
+      <c r="B586" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C586" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E586" t="str">
+        <f>IF(COUNTIF(C$2:C585,C586)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F586" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G586" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>484</v>
+      </c>
+      <c r="B587" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C587" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E587" t="str">
+        <f>IF(COUNTIF(C$2:C586,C587)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F587" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G587" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>484</v>
+      </c>
+      <c r="B588" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C588" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E588" t="str">
+        <f>IF(COUNTIF(C$2:C587,C588)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F588" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G588" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>484</v>
+      </c>
+      <c r="B589" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C589" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E589" t="str">
+        <f>IF(COUNTIF(C$2:C588,C589)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F589" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G589" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>484</v>
+      </c>
+      <c r="B590" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C590" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E590" t="str">
+        <f>IF(COUNTIF(C$2:C589,C590)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F590" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G590" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>484</v>
+      </c>
+      <c r="B591" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C591" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E591" t="str">
+        <f>IF(COUNTIF(C$2:C590,C591)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F591" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G591" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>484</v>
+      </c>
+      <c r="B592" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C592" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E592" t="str">
+        <f>IF(COUNTIF(C$2:C591,C592)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F592" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G592" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>484</v>
+      </c>
+      <c r="B593" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C593" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E593" t="str">
+        <f>IF(COUNTIF(C$2:C592,C593)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F593" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G593" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>484</v>
+      </c>
+      <c r="B594" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C594" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E594" t="str">
+        <f>IF(COUNTIF(C$2:C593,C594)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F594" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G594" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>484</v>
+      </c>
+      <c r="B595" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C595" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E595" t="str">
+        <f>IF(COUNTIF(C$2:C594,C595)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F595" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G595" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>484</v>
+      </c>
+      <c r="B596" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C596" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E596" t="str">
+        <f>IF(COUNTIF(C$2:C595,C596)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F596" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G596" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>484</v>
+      </c>
+      <c r="B597" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C597" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E597" t="str">
+        <f>IF(COUNTIF(C$2:C596,C597)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F597" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G597" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>484</v>
+      </c>
+      <c r="B598" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C598" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E598" t="str">
+        <f>IF(COUNTIF(C$2:C597,C598)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F598" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G598" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>484</v>
+      </c>
+      <c r="B599" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C599" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E599" t="str">
+        <f>IF(COUNTIF(C$2:C598,C599)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F599" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G599" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>484</v>
+      </c>
+      <c r="B600" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C600" t="str">
+        <f t="shared" si="38"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+      </c>
+      <c r="E600" t="str">
+        <f>IF(COUNTIF(C$2:C599,C600)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F600" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G600" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B601" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C601" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E601" t="str">
+        <f>IF(COUNTIF(C$2:C600,C601)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F601" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G601" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B602" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C602" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E602" t="str">
+        <f>IF(COUNTIF(C$2:C601,C602)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F602" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G602" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B603" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C603" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E603" t="str">
+        <f>IF(COUNTIF(C$2:C602,C603)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F603" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G603" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B604" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C604" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E604" t="str">
+        <f>IF(COUNTIF(C$2:C603,C604)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F604" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G604" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B605" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C605" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E605" t="str">
+        <f>IF(COUNTIF(C$2:C604,C605)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F605" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G605" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B606" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C606" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E606" t="str">
+        <f>IF(COUNTIF(C$2:C605,C606)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F606" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G606" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B607" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C607" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E607" t="str">
+        <f>IF(COUNTIF(C$2:C606,C607)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F607" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G607" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B608" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C608" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E608" t="str">
+        <f>IF(COUNTIF(C$2:C607,C608)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F608" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G608" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B609" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C609" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E609" t="str">
+        <f>IF(COUNTIF(C$2:C608,C609)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F609" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G609" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B610" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C610" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E610" t="str">
+        <f>IF(COUNTIF(C$2:C609,C610)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F610" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G610" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B611" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C611" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E611" t="str">
+        <f>IF(COUNTIF(C$2:C610,C611)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F611" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G611" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B612" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C612" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E612" t="str">
+        <f>IF(COUNTIF(C$2:C611,C612)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F612" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G612" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B613" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C613" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E613" t="str">
+        <f>IF(COUNTIF(C$2:C612,C613)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F613" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G613" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B614" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C614" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E614" t="str">
+        <f>IF(COUNTIF(C$2:C613,C614)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F614" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G614" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B615" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C615" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E615" t="str">
+        <f>IF(COUNTIF(C$2:C614,C615)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F615" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G615" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B616" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C616" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E616" t="str">
+        <f>IF(COUNTIF(C$2:C615,C616)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F616" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G616" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B617" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C617" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E617" t="str">
+        <f>IF(COUNTIF(C$2:C616,C617)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F617" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G617" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B618" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C618" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E618" t="str">
+        <f>IF(COUNTIF(C$2:C617,C618)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F618" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G618" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B619" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C619" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E619" t="str">
+        <f>IF(COUNTIF(C$2:C618,C619)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F619" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G619" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B620" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C620" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E620" t="str">
+        <f>IF(COUNTIF(C$2:C619,C620)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F620" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G620" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B621" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C621" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E621" t="str">
+        <f>IF(COUNTIF(C$2:C620,C621)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F621" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G621" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B622" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C622" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E622" t="str">
+        <f>IF(COUNTIF(C$2:C621,C622)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F622" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G622" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B623" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C623" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E623" t="str">
+        <f>IF(COUNTIF(C$2:C622,C623)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F623" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G623" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B624" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C624" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E624" t="str">
+        <f>IF(COUNTIF(C$2:C623,C624)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F624" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G624" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B625" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C625" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E625" t="str">
+        <f>IF(COUNTIF(C$2:C624,C625)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F625" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G625" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B626" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C626" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E626" t="str">
+        <f>IF(COUNTIF(C$2:C625,C626)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F626" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G626" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B627" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C627" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E627" t="str">
+        <f>IF(COUNTIF(C$2:C626,C627)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F627" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G627" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B628" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C628" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E628" t="str">
+        <f>IF(COUNTIF(C$2:C627,C628)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F628" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G628" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B629" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="C629" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E629" t="str">
+        <f>IF(COUNTIF(C$2:C628,C629)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F629" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G629" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B630" t="str">
+        <f t="shared" ref="B630:B693" si="41">IF(A630="","",MID(A630,FIND("@",SUBSTITUTE(A630,"\","@",LEN(A630)-LEN(SUBSTITUTE(A630,"\",""))))+1,LEN(A630)))</f>
+        <v/>
+      </c>
+      <c r="C630" t="str">
+        <f t="shared" ref="C630:C693" si="42">A630&amp;D630</f>
+        <v/>
+      </c>
+      <c r="E630" t="str">
+        <f>IF(COUNTIF(C$2:C629,C630)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F630" t="str">
+        <f t="shared" ref="F630:F693" si="43">IF(D630="","","test"&amp;IF(ISNUMBER(SEARCH(".",D630)),UPPER(LEFT(D630,1))&amp;RIGHT(LEFT(D630,SEARCH(".",D630)-1),LEN(LEFT(D630,SEARCH(".",D630)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D630,LEN(D630)-SEARCH(".",D630))),"_",""),IF(EXACT(LOWER(D630),D630),TRIM(SUBSTITUTE(PROPER(D630),"_","")),UPPER(LEFT(D630,1))&amp;RIGHT(D630,LEN(D630)-1)))&amp;E630)</f>
+        <v/>
+      </c>
+      <c r="G630" t="str">
+        <f t="shared" ref="G630:G693" si="44">IF(D630="","","data-testid="""&amp;F630&amp;"""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B631" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C631" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E631" t="str">
+        <f>IF(COUNTIF(C$2:C630,C631)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F631" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G631" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B632" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C632" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E632" t="str">
+        <f>IF(COUNTIF(C$2:C631,C632)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F632" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G632" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B633" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C633" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E633" t="str">
+        <f>IF(COUNTIF(C$2:C632,C633)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F633" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G633" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B634" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C634" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E634" t="str">
+        <f>IF(COUNTIF(C$2:C633,C634)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F634" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G634" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B635" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C635" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E635" t="str">
+        <f>IF(COUNTIF(C$2:C634,C635)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F635" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G635" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B636" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C636" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E636" t="str">
+        <f>IF(COUNTIF(C$2:C635,C636)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F636" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G636" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B637" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C637" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E637" t="str">
+        <f>IF(COUNTIF(C$2:C636,C637)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F637" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G637" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B638" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C638" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E638" t="str">
+        <f>IF(COUNTIF(C$2:C637,C638)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F638" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G638" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B639" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C639" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E639" t="str">
+        <f>IF(COUNTIF(C$2:C638,C639)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F639" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G639" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B640" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C640" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E640" t="str">
+        <f>IF(COUNTIF(C$2:C639,C640)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F640" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G640" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B641" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C641" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E641" t="str">
+        <f>IF(COUNTIF(C$2:C640,C641)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F641" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G641" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B642" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C642" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E642" t="str">
+        <f>IF(COUNTIF(C$2:C641,C642)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F642" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G642" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B643" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C643" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E643" t="str">
+        <f>IF(COUNTIF(C$2:C642,C643)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F643" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G643" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B644" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C644" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E644" t="str">
+        <f>IF(COUNTIF(C$2:C643,C644)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F644" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G644" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B645" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C645" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E645" t="str">
+        <f>IF(COUNTIF(C$2:C644,C645)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F645" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G645" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B646" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C646" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E646" t="str">
+        <f>IF(COUNTIF(C$2:C645,C646)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F646" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G646" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B647" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C647" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E647" t="str">
+        <f>IF(COUNTIF(C$2:C646,C647)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F647" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G647" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B648" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C648" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E648" t="str">
+        <f>IF(COUNTIF(C$2:C647,C648)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F648" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G648" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B649" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C649" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E649" t="str">
+        <f>IF(COUNTIF(C$2:C648,C649)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F649" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G649" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B650" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C650" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E650" t="str">
+        <f>IF(COUNTIF(C$2:C649,C650)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F650" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G650" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B651" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C651" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E651" t="str">
+        <f>IF(COUNTIF(C$2:C650,C651)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F651" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G651" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B652" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C652" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E652" t="str">
+        <f>IF(COUNTIF(C$2:C651,C652)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F652" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G652" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B653" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C653" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E653" t="str">
+        <f>IF(COUNTIF(C$2:C652,C653)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F653" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G653" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B654" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C654" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E654" t="str">
+        <f>IF(COUNTIF(C$2:C653,C654)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F654" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G654" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B655" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C655" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E655" t="str">
+        <f>IF(COUNTIF(C$2:C654,C655)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F655" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G655" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B656" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C656" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E656" t="str">
+        <f>IF(COUNTIF(C$2:C655,C656)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F656" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G656" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B657" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C657" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E657" t="str">
+        <f>IF(COUNTIF(C$2:C656,C657)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F657" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G657" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B658" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C658" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E658" t="str">
+        <f>IF(COUNTIF(C$2:C657,C658)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F658" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G658" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B659" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C659" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E659" t="str">
+        <f>IF(COUNTIF(C$2:C658,C659)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F659" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G659" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B660" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C660" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E660" t="str">
+        <f>IF(COUNTIF(C$2:C659,C660)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F660" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G660" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B661" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C661" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E661" t="str">
+        <f>IF(COUNTIF(C$2:C660,C661)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F661" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G661" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B662" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C662" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E662" t="str">
+        <f>IF(COUNTIF(C$2:C661,C662)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F662" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G662" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B663" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C663" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E663" t="str">
+        <f>IF(COUNTIF(C$2:C662,C663)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F663" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G663" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B664" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C664" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E664" t="str">
+        <f>IF(COUNTIF(C$2:C663,C664)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F664" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G664" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B665" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C665" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E665" t="str">
+        <f>IF(COUNTIF(C$2:C664,C665)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F665" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G665" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B666" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C666" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E666" t="str">
+        <f>IF(COUNTIF(C$2:C665,C666)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F666" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G666" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B667" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C667" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E667" t="str">
+        <f>IF(COUNTIF(C$2:C666,C667)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F667" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G667" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B668" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C668" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E668" t="str">
+        <f>IF(COUNTIF(C$2:C667,C668)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F668" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G668" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B669" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C669" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E669" t="str">
+        <f>IF(COUNTIF(C$2:C668,C669)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F669" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G669" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B670" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C670" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E670" t="str">
+        <f>IF(COUNTIF(C$2:C669,C670)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F670" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G670" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B671" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C671" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E671" t="str">
+        <f>IF(COUNTIF(C$2:C670,C671)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F671" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G671" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B672" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C672" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E672" t="str">
+        <f>IF(COUNTIF(C$2:C671,C672)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F672" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G672" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B673" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C673" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E673" t="str">
+        <f>IF(COUNTIF(C$2:C672,C673)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F673" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G673" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B674" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C674" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E674" t="str">
+        <f>IF(COUNTIF(C$2:C673,C674)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F674" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G674" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B675" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C675" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E675" t="str">
+        <f>IF(COUNTIF(C$2:C674,C675)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F675" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G675" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B676" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C676" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E676" t="str">
+        <f>IF(COUNTIF(C$2:C675,C676)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F676" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G676" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B677" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C677" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E677" t="str">
+        <f>IF(COUNTIF(C$2:C676,C677)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F677" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G677" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B678" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C678" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E678" t="str">
+        <f>IF(COUNTIF(C$2:C677,C678)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F678" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G678" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B679" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C679" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E679" t="str">
+        <f>IF(COUNTIF(C$2:C678,C679)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F679" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G679" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B680" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C680" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E680" t="str">
+        <f>IF(COUNTIF(C$2:C679,C680)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F680" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G680" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B681" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C681" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E681" t="str">
+        <f>IF(COUNTIF(C$2:C680,C681)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F681" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G681" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B682" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C682" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E682" t="str">
+        <f>IF(COUNTIF(C$2:C681,C682)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F682" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G682" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B683" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C683" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E683" t="str">
+        <f>IF(COUNTIF(C$2:C682,C683)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F683" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G683" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B684" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C684" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E684" t="str">
+        <f>IF(COUNTIF(C$2:C683,C684)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F684" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G684" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B685" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C685" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E685" t="str">
+        <f>IF(COUNTIF(C$2:C684,C685)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F685" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G685" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B686" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C686" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E686" t="str">
+        <f>IF(COUNTIF(C$2:C685,C686)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F686" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G686" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B687" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C687" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E687" t="str">
+        <f>IF(COUNTIF(C$2:C686,C687)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F687" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G687" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B688" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C688" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E688" t="str">
+        <f>IF(COUNTIF(C$2:C687,C688)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F688" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G688" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B689" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C689" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E689" t="str">
+        <f>IF(COUNTIF(C$2:C688,C689)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F689" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G689" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B690" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C690" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E690" t="str">
+        <f>IF(COUNTIF(C$2:C689,C690)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F690" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G690" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B691" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C691" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E691" t="str">
+        <f>IF(COUNTIF(C$2:C690,C691)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F691" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G691" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B692" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C692" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E692" t="str">
+        <f>IF(COUNTIF(C$2:C691,C692)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F692" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G692" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B693" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="C693" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E693" t="str">
+        <f>IF(COUNTIF(C$2:C692,C693)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F693" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G693" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B694" t="str">
+        <f t="shared" ref="B694:B750" si="45">IF(A694="","",MID(A694,FIND("@",SUBSTITUTE(A694,"\","@",LEN(A694)-LEN(SUBSTITUTE(A694,"\",""))))+1,LEN(A694)))</f>
+        <v/>
+      </c>
+      <c r="C694" t="str">
+        <f t="shared" ref="C694:C750" si="46">A694&amp;D694</f>
+        <v/>
+      </c>
+      <c r="E694" t="str">
+        <f>IF(COUNTIF(C$2:C693,C694)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F694" t="str">
+        <f t="shared" ref="F694:F750" si="47">IF(D694="","","test"&amp;IF(ISNUMBER(SEARCH(".",D694)),UPPER(LEFT(D694,1))&amp;RIGHT(LEFT(D694,SEARCH(".",D694)-1),LEN(LEFT(D694,SEARCH(".",D694)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D694,LEN(D694)-SEARCH(".",D694))),"_",""),IF(EXACT(LOWER(D694),D694),TRIM(SUBSTITUTE(PROPER(D694),"_","")),UPPER(LEFT(D694,1))&amp;RIGHT(D694,LEN(D694)-1)))&amp;E694)</f>
+        <v/>
+      </c>
+      <c r="G694" t="str">
+        <f t="shared" ref="G694:G750" si="48">IF(D694="","","data-testid="""&amp;F694&amp;"""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B695" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C695" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E695" t="str">
+        <f>IF(COUNTIF(C$2:C694,C695)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F695" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G695" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B696" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C696" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E696" t="str">
+        <f>IF(COUNTIF(C$2:C695,C696)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F696" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G696" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B697" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C697" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E697" t="str">
+        <f>IF(COUNTIF(C$2:C696,C697)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F697" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G697" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B698" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C698" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E698" t="str">
+        <f>IF(COUNTIF(C$2:C697,C698)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F698" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G698" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B699" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C699" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E699" t="str">
+        <f>IF(COUNTIF(C$2:C698,C699)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F699" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G699" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B700" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C700" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E700" t="str">
+        <f>IF(COUNTIF(C$2:C699,C700)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F700" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G700" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B701" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C701" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E701" t="str">
+        <f>IF(COUNTIF(C$2:C700,C701)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F701" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G701" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B702" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C702" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E702" t="str">
+        <f>IF(COUNTIF(C$2:C701,C702)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F702" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G702" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B703" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C703" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E703" t="str">
+        <f>IF(COUNTIF(C$2:C702,C703)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F703" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G703" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B704" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C704" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E704" t="str">
+        <f>IF(COUNTIF(C$2:C703,C704)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F704" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G704" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B705" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C705" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E705" t="str">
+        <f>IF(COUNTIF(C$2:C704,C705)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F705" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G705" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B706" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C706" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E706" t="str">
+        <f>IF(COUNTIF(C$2:C705,C706)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F706" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G706" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B707" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C707" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E707" t="str">
+        <f>IF(COUNTIF(C$2:C706,C707)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F707" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G707" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B708" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C708" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E708" t="str">
+        <f>IF(COUNTIF(C$2:C707,C708)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F708" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G708" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B709" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C709" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E709" t="str">
+        <f>IF(COUNTIF(C$2:C708,C709)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F709" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G709" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B710" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C710" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E710" t="str">
+        <f>IF(COUNTIF(C$2:C709,C710)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F710" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G710" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B711" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C711" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E711" t="str">
+        <f>IF(COUNTIF(C$2:C710,C711)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F711" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G711" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B712" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C712" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E712" t="str">
+        <f>IF(COUNTIF(C$2:C711,C712)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F712" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G712" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B713" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C713" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E713" t="str">
+        <f>IF(COUNTIF(C$2:C712,C713)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F713" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G713" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B714" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C714" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E714" t="str">
+        <f>IF(COUNTIF(C$2:C713,C714)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F714" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G714" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B715" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C715" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E715" t="str">
+        <f>IF(COUNTIF(C$2:C714,C715)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F715" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G715" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B716" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C716" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E716" t="str">
+        <f>IF(COUNTIF(C$2:C715,C716)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F716" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G716" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B717" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C717" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E717" t="str">
+        <f>IF(COUNTIF(C$2:C716,C717)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F717" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G717" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B718" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C718" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E718" t="str">
+        <f>IF(COUNTIF(C$2:C717,C718)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F718" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G718" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B719" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C719" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E719" t="str">
+        <f>IF(COUNTIF(C$2:C718,C719)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F719" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G719" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B720" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C720" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E720" t="str">
+        <f>IF(COUNTIF(C$2:C719,C720)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F720" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G720" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B721" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C721" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E721" t="str">
+        <f>IF(COUNTIF(C$2:C720,C721)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F721" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G721" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B722" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C722" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E722" t="str">
+        <f>IF(COUNTIF(C$2:C721,C722)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F722" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G722" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B723" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C723" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E723" t="str">
+        <f>IF(COUNTIF(C$2:C722,C723)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F723" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G723" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B724" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C724" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E724" t="str">
+        <f>IF(COUNTIF(C$2:C723,C724)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F724" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G724" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B725" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C725" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E725" t="str">
+        <f>IF(COUNTIF(C$2:C724,C725)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F725" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G725" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B726" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C726" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E726" t="str">
+        <f>IF(COUNTIF(C$2:C725,C726)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F726" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G726" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B727" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C727" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E727" t="str">
+        <f>IF(COUNTIF(C$2:C726,C727)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F727" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G727" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B728" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C728" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E728" t="str">
+        <f>IF(COUNTIF(C$2:C727,C728)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F728" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G728" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B729" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C729" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E729" t="str">
+        <f>IF(COUNTIF(C$2:C728,C729)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F729" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G729" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B730" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C730" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E730" t="str">
+        <f>IF(COUNTIF(C$2:C729,C730)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F730" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G730" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B731" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C731" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E731" t="str">
+        <f>IF(COUNTIF(C$2:C730,C731)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F731" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G731" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B732" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C732" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E732" t="str">
+        <f>IF(COUNTIF(C$2:C731,C732)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F732" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G732" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B733" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C733" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E733" t="str">
+        <f>IF(COUNTIF(C$2:C732,C733)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F733" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G733" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B734" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C734" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E734" t="str">
+        <f>IF(COUNTIF(C$2:C733,C734)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F734" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G734" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B735" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C735" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E735" t="str">
+        <f>IF(COUNTIF(C$2:C734,C735)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F735" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G735" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B736" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C736" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E736" t="str">
+        <f>IF(COUNTIF(C$2:C735,C736)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F736" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G736" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B737" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C737" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E737" t="str">
+        <f>IF(COUNTIF(C$2:C736,C737)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F737" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G737" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B738" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C738" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E738" t="str">
+        <f>IF(COUNTIF(C$2:C737,C738)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F738" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G738" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B739" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C739" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E739" t="str">
+        <f>IF(COUNTIF(C$2:C738,C739)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F739" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G739" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B740" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C740" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E740" t="str">
+        <f>IF(COUNTIF(C$2:C739,C740)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F740" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G740" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B741" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C741" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E741" t="str">
+        <f>IF(COUNTIF(C$2:C740,C741)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F741" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G741" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B742" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C742" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E742" t="str">
+        <f>IF(COUNTIF(C$2:C741,C742)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F742" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G742" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B743" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C743" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E743" t="str">
+        <f>IF(COUNTIF(C$2:C742,C743)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F743" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G743" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B744" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C744" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E744" t="str">
+        <f>IF(COUNTIF(C$2:C743,C744)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F744" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G744" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B745" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C745" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E745" t="str">
+        <f>IF(COUNTIF(C$2:C744,C745)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F745" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G745" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B746" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C746" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E746" t="str">
+        <f>IF(COUNTIF(C$2:C745,C746)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F746" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G746" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B747" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C747" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E747" t="str">
+        <f>IF(COUNTIF(C$2:C746,C747)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F747" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G747" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B748" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C748" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E748" t="str">
+        <f>IF(COUNTIF(C$2:C747,C748)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F748" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G748" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B749" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C749" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E749" t="str">
+        <f>IF(COUNTIF(C$2:C748,C749)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F749" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G749" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
+    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B750" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="C750" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E750" t="str">
+        <f>IF(COUNTIF(C$2:C749,C750)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F750" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G750" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1BFC3F-227D-4F2B-8FFA-6D4C4C2B1EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0735F8-D499-4CD1-A448-BA42F1FA0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4245" yWindow="975" windowWidth="18810" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
+    <workbookView xWindow="60" yWindow="840" windowWidth="14580" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="553">
   <si>
     <t>Output</t>
   </si>
@@ -1493,6 +1493,201 @@
   </si>
   <si>
     <t>table</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Badge.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Avatar.vue</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vue</t>
+  </si>
+  <si>
+    <t>BugTitle</t>
+  </si>
+  <si>
+    <t>bug.description</t>
+  </si>
+  <si>
+    <t>bug.upload</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Capability.vue</t>
+  </si>
+  <si>
+    <t>capabilityTable</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityItem.vue</t>
+  </si>
+  <si>
+    <t>capability</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityGrid.vue</t>
+  </si>
+  <si>
+    <t>capabilityGrid</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\EventTimeline.vue</t>
+  </si>
+  <si>
+    <t>UserDetails</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ImageModal.vue</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vue</t>
+  </si>
+  <si>
+    <t>survivorContact</t>
+  </si>
+  <si>
+    <t>spinnerLoading</t>
+  </si>
+  <si>
+    <t>IncidentPhone</t>
+  </si>
+  <si>
+    <t>NoPhone</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ItemEditor.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vue</t>
+  </si>
+  <si>
+    <t>login_text</t>
+  </si>
+  <si>
+    <t>signin_text</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>request_password_reset</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>request_access</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vue</t>
+  </si>
+  <si>
+    <t>modalCancel</t>
+  </si>
+  <si>
+    <t>modalCancel2</t>
+  </si>
+  <si>
+    <t>modalOk</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\PdfViewer.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\OrganizationSearchInput.vue</t>
+  </si>
+  <si>
+    <t>organization_name</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vue</t>
+  </si>
+  <si>
+    <t>schedule_frequency</t>
+  </si>
+  <si>
+    <t>dailyOption</t>
+  </si>
+  <si>
+    <t>dayInterval</t>
+  </si>
+  <si>
+    <t>every_weekday_interval</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>endDatePicker</t>
+  </si>
+  <si>
+    <t>add_schedule</t>
+  </si>
+  <si>
+    <t>requestIncident</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RequestRedeploy.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vue</t>
+  </si>
+  <si>
+    <t>zoom_out</t>
+  </si>
+  <si>
+    <t>zoom_to_make_interactive</t>
+  </si>
+  <si>
+    <t>zoom_to_incident</t>
+  </si>
+  <si>
+    <t>showLegend</t>
+  </si>
+  <si>
+    <t>zoom_in</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\DisasterIcon.vue</t>
+  </si>
+  <si>
+    <t>randomEasterEgg</t>
+  </si>
+  <si>
+    <t>incidentImage</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Slider.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Tag.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vue</t>
+  </si>
+  <si>
+    <t>setAllChecked</t>
+  </si>
+  <si>
+    <t>no_items_found</t>
+  </si>
+  <si>
+    <t>pagination.pageSize</t>
+  </si>
+  <si>
+    <t>pagination.prev</t>
+  </si>
+  <si>
+    <t>pagination.next</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +2043,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F495" sqref="F495"/>
+      <selection pane="bottomLeft" activeCell="B541" sqref="B541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14940,7 +15135,7 @@
         <v>data-testid="testRequestButton"</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -14967,17 +15162,17 @@
         <v>data-testid="testTableSearchTextInput"</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B487" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>AjaxTable.vue</v>
       </c>
       <c r="C487" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\table</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\AjaxTable.vuetable</v>
       </c>
       <c r="D487" t="s">
         <v>487</v>
@@ -14994,1404 +15189,1517 @@
         <v>data-testid="testTableContent"</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B488" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>Avatar.vue</v>
       </c>
       <c r="C488" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E488" t="str">
-        <f>IF(COUNTIF(C$2:C487,C488)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Avatar.vueavatar</v>
+      </c>
+      <c r="D488" t="s">
+        <v>490</v>
+      </c>
+      <c r="E488" t="s">
+        <v>93</v>
       </c>
       <c r="F488" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testAvatarIcon</v>
       </c>
       <c r="G488" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAvatarIcon"</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B489" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>Badge.vue</v>
       </c>
       <c r="C489" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E489" t="str">
-        <f>IF(COUNTIF(C$2:C488,C489)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Badge.vuebadge</v>
+      </c>
+      <c r="D489" t="s">
+        <v>491</v>
+      </c>
+      <c r="E489" t="s">
+        <v>69</v>
       </c>
       <c r="F489" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testBadgeDiv</v>
       </c>
       <c r="G489" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBadgeDiv"</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B490" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>BugReport.vue</v>
       </c>
       <c r="C490" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E490" t="str">
-        <f>IF(COUNTIF(C$2:C489,C490)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vueBugTitle</v>
+      </c>
+      <c r="D490" t="s">
+        <v>493</v>
+      </c>
+      <c r="E490" t="s">
+        <v>68</v>
       </c>
       <c r="F490" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testBugTitleTextInput</v>
       </c>
       <c r="G490" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBugTitleTextInput"</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B491" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>BugReport.vue</v>
       </c>
       <c r="C491" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E491" t="str">
-        <f>IF(COUNTIF(C$2:C490,C491)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vuebug.description</v>
+      </c>
+      <c r="D491" t="s">
+        <v>494</v>
+      </c>
+      <c r="E491" t="s">
+        <v>68</v>
       </c>
       <c r="F491" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testBugDescriptionTextInput</v>
       </c>
       <c r="G491" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBugDescriptionTextInput"</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B492" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>BugReport.vue</v>
       </c>
       <c r="C492" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E492" t="str">
-        <f>IF(COUNTIF(C$2:C491,C492)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vuebug.upload</v>
+      </c>
+      <c r="D492" t="s">
+        <v>495</v>
+      </c>
+      <c r="E492" t="s">
+        <v>3</v>
       </c>
       <c r="F492" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testBugUploadFile</v>
       </c>
       <c r="G492" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBugUploadFile"</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B493" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>BugReport.vue</v>
       </c>
       <c r="C493" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E493" t="str">
-        <f>IF(COUNTIF(C$2:C492,C493)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vuesubmit</v>
+      </c>
+      <c r="D493" t="s">
+        <v>212</v>
+      </c>
+      <c r="E493" t="s">
+        <v>15</v>
       </c>
       <c r="F493" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testSubmitButton</v>
       </c>
       <c r="G493" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSubmitButton"</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B494" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>Capability.vue</v>
       </c>
       <c r="C494" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E494" t="str">
-        <f>IF(COUNTIF(C$2:C493,C494)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Capability.vuecapabilityTable</v>
+      </c>
+      <c r="D494" t="s">
+        <v>497</v>
+      </c>
+      <c r="E494" t="s">
+        <v>69</v>
       </c>
       <c r="F494" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testCapabilityTableDiv</v>
       </c>
       <c r="G494" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCapabilityTableDiv"</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B495" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>Capability.vue</v>
       </c>
       <c r="C495" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Capability.vue:several_calculated</v>
+      </c>
+      <c r="D495" t="s">
+        <v>104</v>
       </c>
       <c r="E495" t="str">
         <f>IF(COUNTIF(C$2:C494,C495)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F495" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G495" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B496" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>CapabilityItem.vue</v>
       </c>
       <c r="C496" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E496" t="str">
-        <f>IF(COUNTIF(C$2:C495,C496)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityItem.vuecapability</v>
+      </c>
+      <c r="D496" t="s">
+        <v>499</v>
+      </c>
+      <c r="E496" t="s">
+        <v>99</v>
       </c>
       <c r="F496" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testCapabilityTooltip</v>
       </c>
       <c r="G496" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCapabilityTooltip"</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B497" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>CapabilityItem.vue</v>
       </c>
       <c r="C497" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityItem.vue:several_calculated</v>
+      </c>
+      <c r="D497" t="s">
+        <v>104</v>
       </c>
       <c r="E497" t="str">
         <f>IF(COUNTIF(C$2:C496,C497)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F497" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G497" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B498" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>CapabilityGrid.vue</v>
       </c>
       <c r="C498" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E498" t="str">
-        <f>IF(COUNTIF(C$2:C497,C498)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityGrid.vuecapabilityGrid</v>
+      </c>
+      <c r="D498" t="s">
+        <v>501</v>
+      </c>
+      <c r="E498" t="s">
+        <v>69</v>
       </c>
       <c r="F498" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testCapabilityGridDiv</v>
       </c>
       <c r="G498" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCapabilityGridDiv"</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B499" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>CapabilityGrid.vue</v>
       </c>
       <c r="C499" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityGrid.vue:several_calculated</v>
+      </c>
+      <c r="D499" t="s">
+        <v>104</v>
       </c>
       <c r="E499" t="str">
         <f>IF(COUNTIF(C$2:C498,C499)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F499" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G499" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B500" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>EventTimeline.vue</v>
       </c>
       <c r="C500" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E500" t="str">
-        <f>IF(COUNTIF(C$2:C499,C500)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\EventTimeline.vueUserDetails</v>
+      </c>
+      <c r="D500" t="s">
+        <v>503</v>
+      </c>
+      <c r="E500" t="s">
+        <v>99</v>
       </c>
       <c r="F500" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testUserDetailsTooltip</v>
       </c>
       <c r="G500" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUserDetailsTooltip"</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B501" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>ImageModal.vue</v>
       </c>
       <c r="C501" t="str">
         <f t="shared" si="30"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E501" t="str">
-        <f>IF(COUNTIF(C$2:C500,C501)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ImageModal.vuedelete</v>
+      </c>
+      <c r="D501" t="s">
+        <v>505</v>
+      </c>
+      <c r="E501" t="s">
+        <v>15</v>
       </c>
       <c r="F501" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>testDeleteButton</v>
       </c>
       <c r="G501" t="str">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDeleteButton"</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B502" t="str">
         <f t="shared" ref="B502:B565" si="33">IF(A502="","",MID(A502,FIND("@",SUBSTITUTE(A502,"\","@",LEN(A502)-LEN(SUBSTITUTE(A502,"\",""))))+1,LEN(A502)))</f>
-        <v/>
+        <v>IncidentContact.vue</v>
       </c>
       <c r="C502" t="str">
         <f t="shared" ref="C502:C565" si="34">A502&amp;D502</f>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E502" t="str">
-        <f>IF(COUNTIF(C$2:C501,C502)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vuesurvivorContact</v>
+      </c>
+      <c r="D502" t="s">
+        <v>507</v>
+      </c>
+      <c r="E502" t="s">
+        <v>69</v>
       </c>
       <c r="F502" t="str">
         <f t="shared" ref="F502:F565" si="35">IF(D502="","","test"&amp;IF(ISNUMBER(SEARCH(".",D502)),UPPER(LEFT(D502,1))&amp;RIGHT(LEFT(D502,SEARCH(".",D502)-1),LEN(LEFT(D502,SEARCH(".",D502)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D502,LEN(D502)-SEARCH(".",D502))),"_",""),IF(EXACT(LOWER(D502),D502),TRIM(SUBSTITUTE(PROPER(D502),"_","")),UPPER(LEFT(D502,1))&amp;RIGHT(D502,LEN(D502)-1)))&amp;E502)</f>
-        <v/>
+        <v>testSurvivorContactDiv</v>
       </c>
       <c r="G502" t="str">
         <f t="shared" ref="G502:G565" si="36">IF(D502="","","data-testid="""&amp;F502&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSurvivorContactDiv"</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B503" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>IncidentContact.vue</v>
       </c>
       <c r="C503" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E503" t="str">
-        <f>IF(COUNTIF(C$2:C502,C503)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vuespinnerLoading</v>
+      </c>
+      <c r="D503" t="s">
+        <v>508</v>
+      </c>
+      <c r="E503" t="s">
+        <v>93</v>
       </c>
       <c r="F503" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testSpinnerLoadingIcon</v>
       </c>
       <c r="G503" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSpinnerLoadingIcon"</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B504" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>IncidentContact.vue</v>
       </c>
       <c r="C504" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E504" t="str">
-        <f>IF(COUNTIF(C$2:C503,C504)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vueIncidentPhone</v>
+      </c>
+      <c r="D504" t="s">
+        <v>509</v>
+      </c>
+      <c r="E504" t="s">
+        <v>69</v>
       </c>
       <c r="F504" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testIncidentPhoneDiv</v>
       </c>
       <c r="G504" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentPhoneDiv"</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B505" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>IncidentContact.vue</v>
       </c>
       <c r="C505" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E505" t="str">
-        <f>IF(COUNTIF(C$2:C504,C505)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vueNoPhone</v>
+      </c>
+      <c r="D505" t="s">
+        <v>510</v>
+      </c>
+      <c r="E505" t="s">
+        <v>69</v>
       </c>
       <c r="F505" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testNoPhoneDiv</v>
       </c>
       <c r="G505" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNoPhoneDiv"</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="B506" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>ItemEditor.vue</v>
       </c>
       <c r="C506" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E506" t="str">
-        <f>IF(COUNTIF(C$2:C505,C506)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ItemEditor.vueedit</v>
+      </c>
+      <c r="D506" t="s">
+        <v>371</v>
+      </c>
+      <c r="E506" t="s">
+        <v>15</v>
       </c>
       <c r="F506" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testEditButton</v>
       </c>
       <c r="G506" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEditButton"</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="B507" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>ItemEditor.vue</v>
       </c>
       <c r="C507" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E507" t="str">
-        <f>IF(COUNTIF(C$2:C506,C507)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ItemEditor.vuedelete</v>
+      </c>
+      <c r="D507" t="s">
+        <v>505</v>
+      </c>
+      <c r="E507" t="s">
+        <v>15</v>
       </c>
       <c r="F507" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testDeleteButton</v>
       </c>
       <c r="G507" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDeleteButton"</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B508" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C508" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E508" t="str">
-        <f>IF(COUNTIF(C$2:C507,C508)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuelogin_text</v>
+      </c>
+      <c r="D508" t="s">
+        <v>513</v>
+      </c>
+      <c r="E508" t="s">
+        <v>92</v>
       </c>
       <c r="F508" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testLoginTextContent</v>
       </c>
       <c r="G508" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLoginTextContent"</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B509" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C509" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E509" t="str">
-        <f>IF(COUNTIF(C$2:C508,C509)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuesignin_text</v>
+      </c>
+      <c r="D509" t="s">
+        <v>514</v>
+      </c>
+      <c r="E509" t="s">
+        <v>92</v>
       </c>
       <c r="F509" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testSigninTextContent</v>
       </c>
       <c r="G509" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSigninTextContent"</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B510" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C510" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E510" t="str">
-        <f>IF(COUNTIF(C$2:C509,C510)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vueemail</v>
+      </c>
+      <c r="D510" t="s">
+        <v>421</v>
+      </c>
+      <c r="E510" t="s">
+        <v>68</v>
       </c>
       <c r="F510" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testEmailTextInput</v>
       </c>
       <c r="G510" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B511" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C511" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E511" t="str">
-        <f>IF(COUNTIF(C$2:C510,C511)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuepassword</v>
+      </c>
+      <c r="D511" t="s">
+        <v>515</v>
+      </c>
+      <c r="E511" t="s">
+        <v>68</v>
       </c>
       <c r="F511" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testPasswordTextInput</v>
       </c>
       <c r="G511" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPasswordTextInput"</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B512" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C512" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E512" t="str">
-        <f>IF(COUNTIF(C$2:C511,C512)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuerequest_password_reset</v>
+      </c>
+      <c r="D512" t="s">
+        <v>516</v>
+      </c>
+      <c r="E512" t="s">
+        <v>91</v>
       </c>
       <c r="F512" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testRequestPasswordResetLink</v>
       </c>
       <c r="G512" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestPasswordResetLink"</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B513" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C513" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E513" t="str">
-        <f>IF(COUNTIF(C$2:C512,C513)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuelogin</v>
+      </c>
+      <c r="D513" t="s">
+        <v>517</v>
+      </c>
+      <c r="E513" t="s">
+        <v>15</v>
       </c>
       <c r="F513" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testLoginButton</v>
       </c>
       <c r="G513" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLoginButton"</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="B514" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>LoginForm.vue</v>
       </c>
       <c r="C514" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E514" t="str">
-        <f>IF(COUNTIF(C$2:C513,C514)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuerequest_access</v>
+      </c>
+      <c r="D514" t="s">
+        <v>518</v>
+      </c>
+      <c r="E514" t="s">
+        <v>15</v>
       </c>
       <c r="F514" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testRequestAccessButton</v>
       </c>
       <c r="G514" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestAccessButton"</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="B515" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Modal.vue</v>
       </c>
       <c r="C515" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E515" t="str">
-        <f>IF(COUNTIF(C$2:C514,C515)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vuemodalCancel</v>
+      </c>
+      <c r="D515" t="s">
+        <v>520</v>
+      </c>
+      <c r="E515" t="s">
+        <v>93</v>
       </c>
       <c r="F515" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testModalCancelIcon</v>
       </c>
       <c r="G515" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testModalCancelIcon"</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="B516" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Modal.vue</v>
       </c>
       <c r="C516" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E516" t="str">
-        <f>IF(COUNTIF(C$2:C515,C516)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vuemodalCancel2</v>
+      </c>
+      <c r="D516" t="s">
+        <v>521</v>
+      </c>
+      <c r="E516" t="s">
+        <v>93</v>
       </c>
       <c r="F516" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testModalCancel2Icon</v>
       </c>
       <c r="G516" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testModalCancel2Icon"</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="B517" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Modal.vue</v>
       </c>
       <c r="C517" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E517" t="str">
-        <f>IF(COUNTIF(C$2:C516,C517)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vuemodalOk</v>
+      </c>
+      <c r="D517" t="s">
+        <v>522</v>
+      </c>
+      <c r="E517" t="s">
+        <v>15</v>
       </c>
       <c r="F517" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testModalOkButton</v>
       </c>
       <c r="G517" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testModalOkButton"</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="B518" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>PdfViewer.vue</v>
       </c>
       <c r="C518" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E518" t="str">
-        <f>IF(COUNTIF(C$2:C517,C518)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\PdfViewer.vuedownload</v>
+      </c>
+      <c r="D518" t="s">
+        <v>368</v>
+      </c>
+      <c r="E518" t="s">
+        <v>91</v>
       </c>
       <c r="F518" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testDownloadLink</v>
       </c>
       <c r="G518" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDownloadLink"</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="B519" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>OrganizationSearchInput.vue</v>
       </c>
       <c r="C519" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E519" t="str">
-        <f>IF(COUNTIF(C$2:C518,C519)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\OrganizationSearchInput.vueorganization_name</v>
+      </c>
+      <c r="D519" t="s">
+        <v>525</v>
+      </c>
+      <c r="E519" t="s">
+        <v>87</v>
       </c>
       <c r="F519" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testOrganizationNameSelect</v>
       </c>
       <c r="G519" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationNameSelect"</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B520" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C520" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E520" t="str">
-        <f>IF(COUNTIF(C$2:C519,C520)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueschedule_frequency</v>
+      </c>
+      <c r="D520" t="s">
+        <v>527</v>
+      </c>
+      <c r="E520" t="s">
+        <v>87</v>
       </c>
       <c r="F520" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testScheduleFrequencySelect</v>
       </c>
       <c r="G520" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testScheduleFrequencySelect"</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B521" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C521" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E521" t="str">
-        <f>IF(COUNTIF(C$2:C520,C521)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vuedailyOption</v>
+      </c>
+      <c r="D521" t="s">
+        <v>528</v>
+      </c>
+      <c r="E521" t="s">
+        <v>70</v>
       </c>
       <c r="F521" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testDailyOptionRadio</v>
       </c>
       <c r="G521" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDailyOptionRadio"</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B522" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C522" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E522" t="str">
-        <f>IF(COUNTIF(C$2:C521,C522)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vuedayInterval</v>
+      </c>
+      <c r="D522" t="s">
+        <v>529</v>
+      </c>
+      <c r="E522" t="s">
+        <v>68</v>
       </c>
       <c r="F522" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testDayIntervalTextInput</v>
       </c>
       <c r="G522" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDayIntervalTextInput"</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B523" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C523" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E523" t="str">
-        <f>IF(COUNTIF(C$2:C522,C523)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueevery_weekday_interval</v>
+      </c>
+      <c r="D523" t="s">
+        <v>530</v>
+      </c>
+      <c r="E523" t="s">
+        <v>70</v>
       </c>
       <c r="F523" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testEveryWeekdayIntervalRadio</v>
       </c>
       <c r="G523" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEveryWeekdayIntervalRadio"</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B524" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C524" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E524" t="str">
-        <f>IF(COUNTIF(C$2:C523,C524)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vuecalendar</v>
+      </c>
+      <c r="D524" t="s">
+        <v>531</v>
+      </c>
+      <c r="E524" t="s">
+        <v>93</v>
       </c>
       <c r="F524" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testCalendarIcon</v>
       </c>
       <c r="G524" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCalendarIcon"</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B525" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C525" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E525" t="str">
-        <f>IF(COUNTIF(C$2:C524,C525)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueendDatePicker</v>
+      </c>
+      <c r="D525" t="s">
+        <v>532</v>
+      </c>
+      <c r="E525" t="s">
+        <v>307</v>
       </c>
       <c r="F525" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testEndDatePickerInput</v>
       </c>
       <c r="G525" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEndDatePickerInput"</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="B526" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RecurringSchedule.vue</v>
       </c>
       <c r="C526" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E526" t="str">
-        <f>IF(COUNTIF(C$2:C525,C526)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueadd_schedule</v>
+      </c>
+      <c r="D526" t="s">
+        <v>533</v>
+      </c>
+      <c r="E526" t="s">
+        <v>15</v>
       </c>
       <c r="F526" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testAddScheduleButton</v>
       </c>
       <c r="G526" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddScheduleButton"</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="B527" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RequestRedeploy.vue</v>
       </c>
       <c r="C527" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E527" t="str">
-        <f>IF(COUNTIF(C$2:C526,C527)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RequestRedeploy.vueselect_incident</v>
+      </c>
+      <c r="D527" t="s">
+        <v>211</v>
+      </c>
+      <c r="E527" t="s">
+        <v>87</v>
       </c>
       <c r="F527" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testSelectIncidentSelect</v>
       </c>
       <c r="G527" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSelectIncidentSelect"</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="B528" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>RequestRedeploy.vue</v>
       </c>
       <c r="C528" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E528" t="str">
-        <f>IF(COUNTIF(C$2:C527,C528)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RequestRedeploy.vuerequestIncident</v>
+      </c>
+      <c r="D528" t="s">
+        <v>534</v>
+      </c>
+      <c r="E528" t="s">
+        <v>15</v>
       </c>
       <c r="F528" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testRequestIncidentButton</v>
       </c>
       <c r="G528" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestIncidentButton"</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B529" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>SimpleMap.vue</v>
       </c>
       <c r="C529" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E529" t="str">
-        <f>IF(COUNTIF(C$2:C528,C529)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_in</v>
+      </c>
+      <c r="D529" t="s">
+        <v>541</v>
+      </c>
+      <c r="E529" t="s">
+        <v>15</v>
       </c>
       <c r="F529" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testZoomInButton</v>
       </c>
       <c r="G529" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testZoomInButton"</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B530" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>SimpleMap.vue</v>
       </c>
       <c r="C530" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E530" t="str">
-        <f>IF(COUNTIF(C$2:C529,C530)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_out</v>
+      </c>
+      <c r="D530" t="s">
+        <v>537</v>
+      </c>
+      <c r="E530" t="s">
+        <v>15</v>
       </c>
       <c r="F530" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testZoomOutButton</v>
       </c>
       <c r="G530" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testZoomOutButton"</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B531" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>SimpleMap.vue</v>
       </c>
       <c r="C531" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E531" t="str">
-        <f>IF(COUNTIF(C$2:C530,C531)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_to_make_interactive</v>
+      </c>
+      <c r="D531" t="s">
+        <v>538</v>
+      </c>
+      <c r="E531" t="s">
+        <v>15</v>
       </c>
       <c r="F531" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testZoomToMakeInteractiveButton</v>
       </c>
       <c r="G531" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testZoomToMakeInteractiveButton"</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B532" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>SimpleMap.vue</v>
       </c>
       <c r="C532" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E532" t="str">
-        <f>IF(COUNTIF(C$2:C531,C532)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_to_incident</v>
+      </c>
+      <c r="D532" t="s">
+        <v>539</v>
+      </c>
+      <c r="E532" t="s">
+        <v>15</v>
       </c>
       <c r="F532" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testZoomToIncidentButton</v>
       </c>
       <c r="G532" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testZoomToIncidentButton"</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B533" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>SimpleMap.vue</v>
       </c>
       <c r="C533" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E533" t="str">
-        <f>IF(COUNTIF(C$2:C532,C533)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vueshowLegend</v>
+      </c>
+      <c r="D533" t="s">
+        <v>540</v>
+      </c>
+      <c r="E533" t="s">
+        <v>69</v>
       </c>
       <c r="F533" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testShowLegendDiv</v>
       </c>
       <c r="G533" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testShowLegendDiv"</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="B534" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Slider.vue</v>
       </c>
       <c r="C534" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E534" t="str">
-        <f>IF(COUNTIF(C$2:C533,C534)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Slider.vue:several_calculated</v>
+      </c>
+      <c r="D534" t="s">
+        <v>104</v>
       </c>
       <c r="F534" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G534" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="B535" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>DisasterIcon.vue</v>
       </c>
       <c r="C535" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E535" t="str">
-        <f>IF(COUNTIF(C$2:C534,C535)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\DisasterIcon.vuerandomEasterEgg</v>
+      </c>
+      <c r="D535" t="s">
+        <v>543</v>
+      </c>
+      <c r="E535" t="s">
+        <v>93</v>
       </c>
       <c r="F535" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testRandomEasterEggIcon</v>
       </c>
       <c r="G535" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testRandomEasterEggIcon"</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="B536" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>DisasterIcon.vue</v>
       </c>
       <c r="C536" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E536" t="str">
-        <f>IF(COUNTIF(C$2:C535,C536)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\DisasterIcon.vueincidentImage</v>
+      </c>
+      <c r="D536" t="s">
+        <v>544</v>
+      </c>
+      <c r="E536" t="s">
+        <v>93</v>
       </c>
       <c r="F536" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testIncidentImageIcon</v>
       </c>
       <c r="G536" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testIncidentImageIcon"</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="B537" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Tag.vue</v>
       </c>
       <c r="C537" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E537" t="str">
-        <f>IF(COUNTIF(C$2:C536,C537)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Tag.vuecancel</v>
+      </c>
+      <c r="D537" t="s">
+        <v>40</v>
+      </c>
+      <c r="E537" t="s">
+        <v>93</v>
       </c>
       <c r="F537" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testCancelIcon</v>
       </c>
       <c r="G537" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testCancelIcon"</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="B538" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Table.vue</v>
       </c>
       <c r="C538" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E538" t="str">
-        <f>IF(COUNTIF(C$2:C537,C538)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuesetAllChecked</v>
+      </c>
+      <c r="D538" t="s">
+        <v>548</v>
+      </c>
+      <c r="E538" t="s">
+        <v>66</v>
       </c>
       <c r="F538" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testSetAllCheckedCheckbox</v>
       </c>
       <c r="G538" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testSetAllCheckedCheckbox"</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="B539" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Table.vue</v>
       </c>
       <c r="C539" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vue:several_calculated</v>
+      </c>
+      <c r="D539" t="s">
+        <v>104</v>
       </c>
       <c r="E539" t="str">
         <f>IF(COUNTIF(C$2:C538,C539)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F539" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G539" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="B540" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Table.vue</v>
       </c>
       <c r="C540" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E540" t="str">
-        <f>IF(COUNTIF(C$2:C539,C540)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vueno_items_found</v>
+      </c>
+      <c r="D540" t="s">
+        <v>549</v>
+      </c>
+      <c r="E540" t="s">
+        <v>69</v>
       </c>
       <c r="F540" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testNoItemsFoundDiv</v>
       </c>
       <c r="G540" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testNoItemsFoundDiv"</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="B541" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Table.vue</v>
       </c>
       <c r="C541" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E541" t="str">
-        <f>IF(COUNTIF(C$2:C540,C541)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuepagination.pageSize</v>
+      </c>
+      <c r="D541" t="s">
+        <v>550</v>
+      </c>
+      <c r="E541" t="s">
+        <v>87</v>
       </c>
       <c r="F541" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testPaginationPagesizeSelect</v>
       </c>
       <c r="G541" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testPaginationPagesizeSelect"</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="B542" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Table.vue</v>
       </c>
       <c r="C542" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E542" t="str">
-        <f>IF(COUNTIF(C$2:C541,C542)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuepagination.prev</v>
+      </c>
+      <c r="D542" t="s">
+        <v>551</v>
+      </c>
+      <c r="E542" t="s">
+        <v>15</v>
       </c>
       <c r="F542" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testPaginationPrevButton</v>
       </c>
       <c r="G542" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testPaginationPrevButton"</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="B543" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Table.vue</v>
       </c>
       <c r="C543" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E543" t="str">
-        <f>IF(COUNTIF(C$2:C542,C543)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuepagination.next</v>
+      </c>
+      <c r="D543" t="s">
+        <v>552</v>
+      </c>
+      <c r="E543" t="s">
+        <v>15</v>
       </c>
       <c r="F543" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testPaginationNextButton</v>
       </c>
       <c r="G543" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testPaginationNextButton"</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -16408,7 +16716,7 @@
       </c>
       <c r="E544" t="str">
         <f>IF(COUNTIF(C$2:C543,C544)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F544" t="str">
         <f t="shared" si="35"/>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0735F8-D499-4CD1-A448-BA42F1FA0134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98627AC-F7A5-48C4-8792-97AF035A363C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="840" windowWidth="14580" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="573">
   <si>
     <t>Output</t>
   </si>
@@ -1688,6 +1688,66 @@
   </si>
   <si>
     <t>pagination.next</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Timeline.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\TreeMenu.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vue</t>
+  </si>
+  <si>
+    <t>bulk_unclaim_reassign_status</t>
+  </si>
+  <si>
+    <t>bulk_unclaim_no_change_status</t>
+  </si>
+  <si>
+    <t>bulk_unclaim_open_unassigned_status</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UpdateCaseStatus.vue</t>
+  </si>
+  <si>
+    <t>select_status</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserRolesSelect.vue</t>
+  </si>
+  <si>
+    <t>userRoles</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserSearchInput.vue</t>
+  </si>
+  <si>
+    <t>userSearch</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserTransferRequestTable.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteLegend.vue</t>
+  </si>
+  <si>
+    <t>showingLegend</t>
+  </si>
+  <si>
+    <t>hide_legend</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteStatusDropdown.vue</t>
+  </si>
+  <si>
+    <t>currentWorkType.status</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorkTypeMap.vue</t>
+  </si>
+  <si>
+    <t>workTypeMap</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B541" sqref="B541"/>
+      <selection pane="bottomLeft" activeCell="G557" sqref="G557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16434,7 +16494,7 @@
         <v>data-testid="testShowLegendDiv"</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>545</v>
       </c>
@@ -16458,7 +16518,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>542</v>
       </c>
@@ -16485,7 +16545,7 @@
         <v>data-testid="testRandomEasterEggIcon"</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>542</v>
       </c>
@@ -16512,7 +16572,7 @@
         <v>data-testid="testIncidentImageIcon"</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>546</v>
       </c>
@@ -16539,7 +16599,7 @@
         <v>data-testid="testCancelIcon"</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>547</v>
       </c>
@@ -16566,7 +16626,7 @@
         <v>data-testid="testSetAllCheckedCheckbox"</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>547</v>
       </c>
@@ -16594,7 +16654,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>547</v>
       </c>
@@ -16621,7 +16681,7 @@
         <v>data-testid="testNoItemsFoundDiv"</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>547</v>
       </c>
@@ -16648,7 +16708,7 @@
         <v>data-testid="testPaginationPagesizeSelect"</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>547</v>
       </c>
@@ -16675,7 +16735,7 @@
         <v>data-testid="testPaginationPrevButton"</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>547</v>
       </c>
@@ -16704,15 +16764,18 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="B544" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Timeline.vue</v>
       </c>
       <c r="C544" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Timeline.vue:several_calculated</v>
+      </c>
+      <c r="D544" t="s">
+        <v>104</v>
       </c>
       <c r="E544" t="str">
         <f>IF(COUNTIF(C$2:C543,C544)&gt;0,"Button","")</f>
@@ -16720,336 +16783,365 @@
       </c>
       <c r="F544" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G544" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="B545" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>TreeMenu.vue</v>
       </c>
       <c r="C545" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\TreeMenu.vue:several_calculated</v>
+      </c>
+      <c r="D545" t="s">
+        <v>104</v>
       </c>
       <c r="E545" t="str">
         <f>IF(COUNTIF(C$2:C544,C545)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F545" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G545" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="B546" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UnclaimCase.vue</v>
       </c>
       <c r="C546" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E546" t="str">
-        <f>IF(COUNTIF(C$2:C545,C546)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vuebulk_unclaim_reassign_status</v>
+      </c>
+      <c r="D546" t="s">
+        <v>556</v>
+      </c>
+      <c r="E546" t="s">
+        <v>69</v>
       </c>
       <c r="F546" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testBulkUnclaimReassignStatusDiv</v>
       </c>
       <c r="G546" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testBulkUnclaimReassignStatusDiv"</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="B547" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UnclaimCase.vue</v>
       </c>
       <c r="C547" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E547" t="str">
-        <f>IF(COUNTIF(C$2:C546,C547)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vuebulk_unclaim_no_change_status</v>
+      </c>
+      <c r="D547" t="s">
+        <v>557</v>
+      </c>
+      <c r="E547" t="s">
+        <v>66</v>
       </c>
       <c r="F547" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testBulkUnclaimNoChangeStatusCheckbox</v>
       </c>
       <c r="G547" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testBulkUnclaimNoChangeStatusCheckbox"</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="B548" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UnclaimCase.vue</v>
       </c>
       <c r="C548" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E548" t="str">
-        <f>IF(COUNTIF(C$2:C547,C548)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vuebulk_unclaim_open_unassigned_status</v>
+      </c>
+      <c r="D548" t="s">
+        <v>558</v>
+      </c>
+      <c r="E548" t="s">
+        <v>66</v>
       </c>
       <c r="F548" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testBulkUnclaimOpenUnassignedStatusCheckbox</v>
       </c>
       <c r="G548" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testBulkUnclaimOpenUnassignedStatusCheckbox"</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
       <c r="B549" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UpdateCaseStatus.vue</v>
       </c>
       <c r="C549" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E549" t="str">
-        <f>IF(COUNTIF(C$2:C548,C549)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UpdateCaseStatus.vueselect_status</v>
+      </c>
+      <c r="D549" t="s">
+        <v>560</v>
+      </c>
+      <c r="E549" t="s">
+        <v>87</v>
       </c>
       <c r="F549" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testSelectStatusSelect</v>
       </c>
       <c r="G549" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testSelectStatusSelect"</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
       <c r="B550" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UserRolesSelect.vue</v>
       </c>
       <c r="C550" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E550" t="str">
-        <f>IF(COUNTIF(C$2:C549,C550)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserRolesSelect.vueuserRoles</v>
+      </c>
+      <c r="D550" t="s">
+        <v>562</v>
+      </c>
+      <c r="E550" t="s">
+        <v>87</v>
       </c>
       <c r="F550" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testUserRolesSelect</v>
       </c>
       <c r="G550" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testUserRolesSelect"</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="B551" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UserSearchInput.vue</v>
       </c>
       <c r="C551" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E551" t="str">
-        <f>IF(COUNTIF(C$2:C550,C551)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserSearchInput.vueuserSearch</v>
+      </c>
+      <c r="D551" t="s">
+        <v>564</v>
+      </c>
+      <c r="E551" t="s">
+        <v>87</v>
       </c>
       <c r="F551" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testUserSearchSelect</v>
       </c>
       <c r="G551" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testUserSearchSelect"</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="B552" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>UserTransferRequestTable.vue</v>
       </c>
       <c r="C552" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserTransferRequestTable.vue:several_calculated</v>
+      </c>
+      <c r="D552" t="s">
+        <v>104</v>
       </c>
       <c r="E552" t="str">
         <f>IF(COUNTIF(C$2:C551,C552)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F552" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G552" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="B553" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>WorksiteLegend.vue</v>
       </c>
       <c r="C553" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E553" t="str">
-        <f>IF(COUNTIF(C$2:C552,C553)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteLegend.vueshowingLegend</v>
+      </c>
+      <c r="D553" t="s">
+        <v>567</v>
+      </c>
+      <c r="E553" t="s">
+        <v>69</v>
       </c>
       <c r="F553" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testShowingLegendDiv</v>
       </c>
       <c r="G553" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testShowingLegendDiv"</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="B554" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>WorksiteLegend.vue</v>
       </c>
       <c r="C554" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E554" t="str">
-        <f>IF(COUNTIF(C$2:C553,C554)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteLegend.vuehide_legend</v>
+      </c>
+      <c r="D554" t="s">
+        <v>568</v>
+      </c>
+      <c r="E554" t="s">
+        <v>93</v>
       </c>
       <c r="F554" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testHideLegendIcon</v>
       </c>
       <c r="G554" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testHideLegendIcon"</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="B555" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>WorksiteStatusDropdown.vue</v>
       </c>
       <c r="C555" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E555" t="str">
-        <f>IF(COUNTIF(C$2:C554,C555)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteStatusDropdown.vuecurrentWorkType.status</v>
+      </c>
+      <c r="D555" t="s">
+        <v>570</v>
+      </c>
+      <c r="E555" t="s">
+        <v>69</v>
       </c>
       <c r="F555" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testCurrentWorkTypeStatusDiv</v>
       </c>
       <c r="G555" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testCurrentWorkTypeStatusDiv"</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="B556" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>WorksiteStatusDropdown.vue</v>
       </c>
       <c r="C556" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteStatusDropdown.vue:several_calculated</v>
+      </c>
+      <c r="D556" t="s">
+        <v>104</v>
       </c>
       <c r="E556" t="str">
         <f>IF(COUNTIF(C$2:C555,C556)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F556" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G556" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>484</v>
+        <v>571</v>
       </c>
       <c r="B557" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>WorkTypeMap.vue</v>
       </c>
       <c r="C557" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E557" t="str">
-        <f>IF(COUNTIF(C$2:C556,C557)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorkTypeMap.vueworkTypeMap</v>
+      </c>
+      <c r="D557" t="s">
+        <v>572</v>
+      </c>
+      <c r="E557" t="s">
+        <v>69</v>
       </c>
       <c r="F557" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testWorkTypeMapDiv</v>
       </c>
       <c r="G557" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>data-testid="testWorkTypeMapDiv"</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -17066,7 +17158,7 @@
       </c>
       <c r="E558" t="str">
         <f>IF(COUNTIF(C$2:C557,C558)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F558" t="str">
         <f t="shared" si="35"/>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98627AC-F7A5-48C4-8792-97AF035A363C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB16DBC-9544-4621-9C8F-A572E5277DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="840" windowWidth="14580" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="621">
   <si>
     <t>Output</t>
   </si>
@@ -1483,9 +1483,6 @@
     <t>please_add_respectful_note</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\AjaxTable.vue</t>
   </si>
   <si>
@@ -1748,6 +1745,153 @@
   </si>
   <si>
     <t>workTypeMap</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\page\Page.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Authenticated.vue</t>
+  </si>
+  <si>
+    <t>isAuthenticated</t>
+  </si>
+  <si>
+    <t>authenticatedToggle</t>
+  </si>
+  <si>
+    <t>hamburger</t>
+  </si>
+  <si>
+    <t>showAcceptTerms</t>
+  </si>
+  <si>
+    <t>CompletedTransfer</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Unauthenticated.vue</t>
+  </si>
+  <si>
+    <t>isUnauthenticated</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vue</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>bottomSection</t>
+  </si>
+  <si>
+    <t>awsImg</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vue</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>toggle_regular_advanced_mode</t>
+  </si>
+  <si>
+    <t>cms_help</t>
+  </si>
+  <si>
+    <t>publish_at_date_picker</t>
+  </si>
+  <si>
+    <t>list_order</t>
+  </si>
+  <si>
+    <t>add_tags</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>upload_thumbnail</t>
+  </si>
+  <si>
+    <t>thumbnail_file</t>
+  </si>
+  <si>
+    <t>clearItem</t>
+  </si>
+  <si>
+    <t>show_preview</t>
+  </si>
+  <si>
+    <t>cms_table</t>
+  </si>
+  <si>
+    <t>active_only</t>
+  </si>
+  <si>
+    <t>tagList</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vue</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>arcgis_upload</t>
+  </si>
+  <si>
+    <t>pending_organizations</t>
+  </si>
+  <si>
+    <t>refresh_pending_organizations</t>
+  </si>
+  <si>
+    <t>redeploy_requests</t>
+  </si>
+  <si>
+    <t>pending_organizations_action_required</t>
+  </si>
+  <si>
+    <t>pending_organizations_recently_approved</t>
+  </si>
+  <si>
+    <t>pending_organizations_recently_rejected</t>
+  </si>
+  <si>
+    <t>redeploy_requests_action_required</t>
+  </si>
+  <si>
+    <t>redeploy_requests_recently_approved</t>
+  </si>
+  <si>
+    <t>redeploy_requests_recently_rejected</t>
+  </si>
+  <si>
+    <t>WorksiteImport</t>
+  </si>
+  <si>
+    <t>organizations</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ghost_users</t>
+  </si>
+  <si>
+    <t>invitation_requests</t>
+  </si>
+  <si>
+    <t>invitations</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminIncidentWizard.vue</t>
   </si>
 </sst>
 </file>
@@ -2103,12 +2247,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G557" sqref="G557"/>
+      <selection pane="bottomLeft" activeCell="B613" sqref="B613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -15197,7 +15341,7 @@
     </row>
     <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" t="str">
         <f t="shared" si="29"/>
@@ -15208,7 +15352,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\AjaxTable.vuetableSearch</v>
       </c>
       <c r="D486" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E486" t="s">
         <v>68</v>
@@ -15224,7 +15368,7 @@
     </row>
     <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B487" t="str">
         <f t="shared" si="29"/>
@@ -15235,7 +15379,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\AjaxTable.vuetable</v>
       </c>
       <c r="D487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E487" t="s">
         <v>92</v>
@@ -15251,7 +15395,7 @@
     </row>
     <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B488" t="str">
         <f t="shared" si="29"/>
@@ -15262,7 +15406,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Avatar.vueavatar</v>
       </c>
       <c r="D488" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E488" t="s">
         <v>93</v>
@@ -15278,7 +15422,7 @@
     </row>
     <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" t="str">
         <f t="shared" si="29"/>
@@ -15289,7 +15433,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Badge.vuebadge</v>
       </c>
       <c r="D489" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E489" t="s">
         <v>69</v>
@@ -15305,7 +15449,7 @@
     </row>
     <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B490" t="str">
         <f t="shared" si="29"/>
@@ -15316,7 +15460,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vueBugTitle</v>
       </c>
       <c r="D490" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E490" t="s">
         <v>68</v>
@@ -15332,7 +15476,7 @@
     </row>
     <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B491" t="str">
         <f t="shared" si="29"/>
@@ -15343,7 +15487,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vuebug.description</v>
       </c>
       <c r="D491" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E491" t="s">
         <v>68</v>
@@ -15359,7 +15503,7 @@
     </row>
     <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B492" t="str">
         <f t="shared" si="29"/>
@@ -15370,7 +15514,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\BugReport.vuebug.upload</v>
       </c>
       <c r="D492" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E492" t="s">
         <v>3</v>
@@ -15386,7 +15530,7 @@
     </row>
     <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" t="str">
         <f t="shared" si="29"/>
@@ -15413,7 +15557,7 @@
     </row>
     <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B494" t="str">
         <f t="shared" si="29"/>
@@ -15424,7 +15568,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Capability.vuecapabilityTable</v>
       </c>
       <c r="D494" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E494" t="s">
         <v>69</v>
@@ -15440,7 +15584,7 @@
     </row>
     <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B495" t="str">
         <f t="shared" si="29"/>
@@ -15468,7 +15612,7 @@
     </row>
     <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B496" t="str">
         <f t="shared" si="29"/>
@@ -15479,7 +15623,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityItem.vuecapability</v>
       </c>
       <c r="D496" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E496" t="s">
         <v>99</v>
@@ -15495,7 +15639,7 @@
     </row>
     <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B497" t="str">
         <f t="shared" si="29"/>
@@ -15523,7 +15667,7 @@
     </row>
     <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B498" t="str">
         <f t="shared" si="29"/>
@@ -15534,7 +15678,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\CapabilityGrid.vuecapabilityGrid</v>
       </c>
       <c r="D498" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E498" t="s">
         <v>69</v>
@@ -15550,7 +15694,7 @@
     </row>
     <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B499" t="str">
         <f t="shared" si="29"/>
@@ -15578,7 +15722,7 @@
     </row>
     <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B500" t="str">
         <f t="shared" si="29"/>
@@ -15589,7 +15733,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\EventTimeline.vueUserDetails</v>
       </c>
       <c r="D500" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E500" t="s">
         <v>99</v>
@@ -15605,7 +15749,7 @@
     </row>
     <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B501" t="str">
         <f t="shared" si="29"/>
@@ -15616,7 +15760,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ImageModal.vuedelete</v>
       </c>
       <c r="D501" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E501" t="s">
         <v>15</v>
@@ -15632,7 +15776,7 @@
     </row>
     <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B502" t="str">
         <f t="shared" ref="B502:B565" si="33">IF(A502="","",MID(A502,FIND("@",SUBSTITUTE(A502,"\","@",LEN(A502)-LEN(SUBSTITUTE(A502,"\",""))))+1,LEN(A502)))</f>
@@ -15643,7 +15787,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vuesurvivorContact</v>
       </c>
       <c r="D502" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E502" t="s">
         <v>69</v>
@@ -15659,7 +15803,7 @@
     </row>
     <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B503" t="str">
         <f t="shared" si="33"/>
@@ -15670,7 +15814,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vuespinnerLoading</v>
       </c>
       <c r="D503" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E503" t="s">
         <v>93</v>
@@ -15686,7 +15830,7 @@
     </row>
     <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B504" t="str">
         <f t="shared" si="33"/>
@@ -15697,7 +15841,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vueIncidentPhone</v>
       </c>
       <c r="D504" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E504" t="s">
         <v>69</v>
@@ -15713,7 +15857,7 @@
     </row>
     <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B505" t="str">
         <f t="shared" si="33"/>
@@ -15724,7 +15868,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\IncidentContact.vueNoPhone</v>
       </c>
       <c r="D505" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E505" t="s">
         <v>69</v>
@@ -15740,7 +15884,7 @@
     </row>
     <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B506" t="str">
         <f t="shared" si="33"/>
@@ -15767,7 +15911,7 @@
     </row>
     <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B507" t="str">
         <f t="shared" si="33"/>
@@ -15778,7 +15922,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\ItemEditor.vuedelete</v>
       </c>
       <c r="D507" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E507" t="s">
         <v>15</v>
@@ -15794,7 +15938,7 @@
     </row>
     <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B508" t="str">
         <f t="shared" si="33"/>
@@ -15805,7 +15949,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuelogin_text</v>
       </c>
       <c r="D508" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E508" t="s">
         <v>92</v>
@@ -15821,7 +15965,7 @@
     </row>
     <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B509" t="str">
         <f t="shared" si="33"/>
@@ -15832,7 +15976,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuesignin_text</v>
       </c>
       <c r="D509" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E509" t="s">
         <v>92</v>
@@ -15848,7 +15992,7 @@
     </row>
     <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B510" t="str">
         <f t="shared" si="33"/>
@@ -15875,7 +16019,7 @@
     </row>
     <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B511" t="str">
         <f t="shared" si="33"/>
@@ -15886,7 +16030,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuepassword</v>
       </c>
       <c r="D511" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E511" t="s">
         <v>68</v>
@@ -15902,7 +16046,7 @@
     </row>
     <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B512" t="str">
         <f t="shared" si="33"/>
@@ -15913,7 +16057,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuerequest_password_reset</v>
       </c>
       <c r="D512" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E512" t="s">
         <v>91</v>
@@ -15929,7 +16073,7 @@
     </row>
     <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B513" t="str">
         <f t="shared" si="33"/>
@@ -15940,7 +16084,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuelogin</v>
       </c>
       <c r="D513" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E513" t="s">
         <v>15</v>
@@ -15956,7 +16100,7 @@
     </row>
     <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B514" t="str">
         <f t="shared" si="33"/>
@@ -15967,7 +16111,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\LoginForm.vuerequest_access</v>
       </c>
       <c r="D514" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E514" t="s">
         <v>15</v>
@@ -15983,7 +16127,7 @@
     </row>
     <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B515" t="str">
         <f t="shared" si="33"/>
@@ -15994,7 +16138,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vuemodalCancel</v>
       </c>
       <c r="D515" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E515" t="s">
         <v>93</v>
@@ -16010,7 +16154,7 @@
     </row>
     <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B516" t="str">
         <f t="shared" si="33"/>
@@ -16021,7 +16165,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vuemodalCancel2</v>
       </c>
       <c r="D516" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E516" t="s">
         <v>93</v>
@@ -16037,7 +16181,7 @@
     </row>
     <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B517" t="str">
         <f t="shared" si="33"/>
@@ -16048,7 +16192,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Modal.vuemodalOk</v>
       </c>
       <c r="D517" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E517" t="s">
         <v>15</v>
@@ -16064,7 +16208,7 @@
     </row>
     <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B518" t="str">
         <f t="shared" si="33"/>
@@ -16091,7 +16235,7 @@
     </row>
     <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B519" t="str">
         <f t="shared" si="33"/>
@@ -16102,7 +16246,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\OrganizationSearchInput.vueorganization_name</v>
       </c>
       <c r="D519" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E519" t="s">
         <v>87</v>
@@ -16118,7 +16262,7 @@
     </row>
     <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B520" t="str">
         <f t="shared" si="33"/>
@@ -16129,7 +16273,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueschedule_frequency</v>
       </c>
       <c r="D520" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E520" t="s">
         <v>87</v>
@@ -16145,7 +16289,7 @@
     </row>
     <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B521" t="str">
         <f t="shared" si="33"/>
@@ -16156,7 +16300,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vuedailyOption</v>
       </c>
       <c r="D521" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E521" t="s">
         <v>70</v>
@@ -16172,7 +16316,7 @@
     </row>
     <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B522" t="str">
         <f t="shared" si="33"/>
@@ -16183,7 +16327,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vuedayInterval</v>
       </c>
       <c r="D522" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E522" t="s">
         <v>68</v>
@@ -16199,7 +16343,7 @@
     </row>
     <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B523" t="str">
         <f t="shared" si="33"/>
@@ -16210,7 +16354,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueevery_weekday_interval</v>
       </c>
       <c r="D523" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E523" t="s">
         <v>70</v>
@@ -16226,7 +16370,7 @@
     </row>
     <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B524" t="str">
         <f t="shared" si="33"/>
@@ -16237,7 +16381,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vuecalendar</v>
       </c>
       <c r="D524" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E524" t="s">
         <v>93</v>
@@ -16253,7 +16397,7 @@
     </row>
     <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B525" t="str">
         <f t="shared" si="33"/>
@@ -16264,7 +16408,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueendDatePicker</v>
       </c>
       <c r="D525" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E525" t="s">
         <v>307</v>
@@ -16280,7 +16424,7 @@
     </row>
     <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B526" t="str">
         <f t="shared" si="33"/>
@@ -16291,7 +16435,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RecurringSchedule.vueadd_schedule</v>
       </c>
       <c r="D526" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E526" t="s">
         <v>15</v>
@@ -16307,7 +16451,7 @@
     </row>
     <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B527" t="str">
         <f t="shared" si="33"/>
@@ -16334,7 +16478,7 @@
     </row>
     <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B528" t="str">
         <f t="shared" si="33"/>
@@ -16345,7 +16489,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\RequestRedeploy.vuerequestIncident</v>
       </c>
       <c r="D528" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E528" t="s">
         <v>15</v>
@@ -16361,7 +16505,7 @@
     </row>
     <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B529" t="str">
         <f t="shared" si="33"/>
@@ -16372,7 +16516,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_in</v>
       </c>
       <c r="D529" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E529" t="s">
         <v>15</v>
@@ -16388,7 +16532,7 @@
     </row>
     <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B530" t="str">
         <f t="shared" si="33"/>
@@ -16399,7 +16543,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_out</v>
       </c>
       <c r="D530" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E530" t="s">
         <v>15</v>
@@ -16415,7 +16559,7 @@
     </row>
     <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B531" t="str">
         <f t="shared" si="33"/>
@@ -16426,7 +16570,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_to_make_interactive</v>
       </c>
       <c r="D531" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E531" t="s">
         <v>15</v>
@@ -16442,7 +16586,7 @@
     </row>
     <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B532" t="str">
         <f t="shared" si="33"/>
@@ -16453,7 +16597,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vuezoom_to_incident</v>
       </c>
       <c r="D532" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E532" t="s">
         <v>15</v>
@@ -16469,7 +16613,7 @@
     </row>
     <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B533" t="str">
         <f t="shared" si="33"/>
@@ -16480,7 +16624,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\SimpleMap.vueshowLegend</v>
       </c>
       <c r="D533" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E533" t="s">
         <v>69</v>
@@ -16496,7 +16640,7 @@
     </row>
     <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B534" t="str">
         <f t="shared" si="33"/>
@@ -16520,7 +16664,7 @@
     </row>
     <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B535" t="str">
         <f t="shared" si="33"/>
@@ -16531,7 +16675,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\DisasterIcon.vuerandomEasterEgg</v>
       </c>
       <c r="D535" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E535" t="s">
         <v>93</v>
@@ -16547,7 +16691,7 @@
     </row>
     <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B536" t="str">
         <f t="shared" si="33"/>
@@ -16558,7 +16702,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\DisasterIcon.vueincidentImage</v>
       </c>
       <c r="D536" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E536" t="s">
         <v>93</v>
@@ -16574,7 +16718,7 @@
     </row>
     <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B537" t="str">
         <f t="shared" si="33"/>
@@ -16601,7 +16745,7 @@
     </row>
     <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B538" t="str">
         <f t="shared" si="33"/>
@@ -16612,7 +16756,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuesetAllChecked</v>
       </c>
       <c r="D538" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E538" t="s">
         <v>66</v>
@@ -16628,7 +16772,7 @@
     </row>
     <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B539" t="str">
         <f t="shared" si="33"/>
@@ -16656,7 +16800,7 @@
     </row>
     <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B540" t="str">
         <f t="shared" si="33"/>
@@ -16667,7 +16811,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vueno_items_found</v>
       </c>
       <c r="D540" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E540" t="s">
         <v>69</v>
@@ -16683,7 +16827,7 @@
     </row>
     <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B541" t="str">
         <f t="shared" si="33"/>
@@ -16694,7 +16838,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuepagination.pageSize</v>
       </c>
       <c r="D541" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E541" t="s">
         <v>87</v>
@@ -16710,7 +16854,7 @@
     </row>
     <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B542" t="str">
         <f t="shared" si="33"/>
@@ -16721,7 +16865,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuepagination.prev</v>
       </c>
       <c r="D542" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E542" t="s">
         <v>15</v>
@@ -16737,7 +16881,7 @@
     </row>
     <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B543" t="str">
         <f t="shared" si="33"/>
@@ -16748,7 +16892,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\Table.vuepagination.next</v>
       </c>
       <c r="D543" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E543" t="s">
         <v>15</v>
@@ -16762,9 +16906,9 @@
         <v>data-testid="testPaginationNextButton"</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B544" t="str">
         <f t="shared" si="33"/>
@@ -16790,9 +16934,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B545" t="str">
         <f t="shared" si="33"/>
@@ -16818,9 +16962,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B546" t="str">
         <f t="shared" si="33"/>
@@ -16831,7 +16975,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vuebulk_unclaim_reassign_status</v>
       </c>
       <c r="D546" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E546" t="s">
         <v>69</v>
@@ -16845,9 +16989,9 @@
         <v>data-testid="testBulkUnclaimReassignStatusDiv"</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B547" t="str">
         <f t="shared" si="33"/>
@@ -16858,7 +17002,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vuebulk_unclaim_no_change_status</v>
       </c>
       <c r="D547" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E547" t="s">
         <v>66</v>
@@ -16872,9 +17016,9 @@
         <v>data-testid="testBulkUnclaimNoChangeStatusCheckbox"</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B548" t="str">
         <f t="shared" si="33"/>
@@ -16885,7 +17029,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UnclaimCase.vuebulk_unclaim_open_unassigned_status</v>
       </c>
       <c r="D548" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E548" t="s">
         <v>66</v>
@@ -16899,9 +17043,9 @@
         <v>data-testid="testBulkUnclaimOpenUnassignedStatusCheckbox"</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B549" t="str">
         <f t="shared" si="33"/>
@@ -16912,7 +17056,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UpdateCaseStatus.vueselect_status</v>
       </c>
       <c r="D549" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E549" t="s">
         <v>87</v>
@@ -16926,9 +17070,9 @@
         <v>data-testid="testSelectStatusSelect"</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B550" t="str">
         <f t="shared" si="33"/>
@@ -16939,7 +17083,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserRolesSelect.vueuserRoles</v>
       </c>
       <c r="D550" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E550" t="s">
         <v>87</v>
@@ -16953,9 +17097,9 @@
         <v>data-testid="testUserRolesSelect"</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B551" t="str">
         <f t="shared" si="33"/>
@@ -16966,7 +17110,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\UserSearchInput.vueuserSearch</v>
       </c>
       <c r="D551" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E551" t="s">
         <v>87</v>
@@ -16980,9 +17124,9 @@
         <v>data-testid="testUserSearchSelect"</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B552" t="str">
         <f t="shared" si="33"/>
@@ -17008,9 +17152,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B553" t="str">
         <f t="shared" si="33"/>
@@ -17021,7 +17165,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteLegend.vueshowingLegend</v>
       </c>
       <c r="D553" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E553" t="s">
         <v>69</v>
@@ -17035,9 +17179,9 @@
         <v>data-testid="testShowingLegendDiv"</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B554" t="str">
         <f t="shared" si="33"/>
@@ -17048,7 +17192,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteLegend.vuehide_legend</v>
       </c>
       <c r="D554" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E554" t="s">
         <v>93</v>
@@ -17062,9 +17206,9 @@
         <v>data-testid="testHideLegendIcon"</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B555" t="str">
         <f t="shared" si="33"/>
@@ -17075,7 +17219,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorksiteStatusDropdown.vuecurrentWorkType.status</v>
       </c>
       <c r="D555" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E555" t="s">
         <v>69</v>
@@ -17089,9 +17233,9 @@
         <v>data-testid="testCurrentWorkTypeStatusDiv"</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B556" t="str">
         <f t="shared" si="33"/>
@@ -17117,9 +17261,9 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B557" t="str">
         <f t="shared" si="33"/>
@@ -17130,7 +17274,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\WorkTypeMap.vueworkTypeMap</v>
       </c>
       <c r="D557" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E557" t="s">
         <v>69</v>
@@ -17144,1313 +17288,1453 @@
         <v>data-testid="testWorkTypeMapDiv"</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>484</v>
+        <v>572</v>
       </c>
       <c r="B558" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Page.vue</v>
       </c>
       <c r="C558" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E558" t="str">
-        <f>IF(COUNTIF(C$2:C557,C558)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\page\Page.vuespinnerLoading</v>
+      </c>
+      <c r="D558" t="s">
+        <v>507</v>
+      </c>
+      <c r="E558" t="s">
+        <v>93</v>
       </c>
       <c r="F558" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testSpinnerLoadingIcon</v>
       </c>
       <c r="G558" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSpinnerLoadingIcon"</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="B559" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Authenticated.vue</v>
       </c>
       <c r="C559" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E559" t="str">
-        <f>IF(COUNTIF(C$2:C558,C559)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Authenticated.vueisAuthenticated</v>
+      </c>
+      <c r="D559" t="s">
+        <v>574</v>
+      </c>
+      <c r="E559" t="s">
+        <v>69</v>
       </c>
       <c r="F559" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testIsAuthenticatedDiv</v>
       </c>
       <c r="G559" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsAuthenticatedDiv"</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="B560" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Authenticated.vue</v>
       </c>
       <c r="C560" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E560" t="str">
-        <f>IF(COUNTIF(C$2:C559,C560)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Authenticated.vueauthenticatedToggle</v>
+      </c>
+      <c r="D560" t="s">
+        <v>575</v>
+      </c>
+      <c r="E560" t="s">
+        <v>93</v>
       </c>
       <c r="F560" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testAuthenticatedToggleIcon</v>
       </c>
       <c r="G560" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAuthenticatedToggleIcon"</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="B561" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Authenticated.vue</v>
       </c>
       <c r="C561" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E561" t="str">
-        <f>IF(COUNTIF(C$2:C560,C561)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Authenticated.vuehamburger</v>
+      </c>
+      <c r="D561" t="s">
+        <v>576</v>
+      </c>
+      <c r="E561" t="s">
+        <v>93</v>
       </c>
       <c r="F561" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testHamburgerIcon</v>
       </c>
       <c r="G561" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testHamburgerIcon"</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="B562" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Authenticated.vue</v>
       </c>
       <c r="C562" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E562" t="str">
-        <f>IF(COUNTIF(C$2:C561,C562)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Authenticated.vueshowAcceptTerms</v>
+      </c>
+      <c r="D562" t="s">
+        <v>577</v>
+      </c>
+      <c r="E562" t="s">
+        <v>98</v>
       </c>
       <c r="F562" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testShowAcceptTermsModal</v>
       </c>
       <c r="G562" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowAcceptTermsModal"</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="B563" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Authenticated.vue</v>
       </c>
       <c r="C563" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E563" t="str">
-        <f>IF(COUNTIF(C$2:C562,C563)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Authenticated.vueCompletedTransfer</v>
+      </c>
+      <c r="D563" t="s">
+        <v>578</v>
+      </c>
+      <c r="E563" t="s">
+        <v>98</v>
       </c>
       <c r="F563" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testCompletedTransferModal</v>
       </c>
       <c r="G563" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCompletedTransferModal"</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="B564" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Unauthenticated.vue</v>
       </c>
       <c r="C564" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E564" t="str">
-        <f>IF(COUNTIF(C$2:C563,C564)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Unauthenticated.vueisUnauthenticated</v>
+      </c>
+      <c r="D564" t="s">
+        <v>580</v>
+      </c>
+      <c r="E564" t="s">
+        <v>69</v>
       </c>
       <c r="F564" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testIsUnauthenticatedDiv</v>
       </c>
       <c r="G564" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsUnauthenticatedDiv"</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="B565" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>Home.vue</v>
       </c>
       <c r="C565" t="str">
         <f t="shared" si="34"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E565" t="str">
-        <f>IF(COUNTIF(C$2:C564,C565)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vuelogo</v>
+      </c>
+      <c r="D565" t="s">
+        <v>582</v>
+      </c>
+      <c r="E565" t="s">
+        <v>93</v>
       </c>
       <c r="F565" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>testLogoIcon</v>
       </c>
       <c r="G565" t="str">
         <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLogoIcon"</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="B566" t="str">
         <f t="shared" ref="B566:B629" si="37">IF(A566="","",MID(A566,FIND("@",SUBSTITUTE(A566,"\","@",LEN(A566)-LEN(SUBSTITUTE(A566,"\",""))))+1,LEN(A566)))</f>
-        <v/>
+        <v>Home.vue</v>
       </c>
       <c r="C566" t="str">
         <f t="shared" ref="C566:C629" si="38">A566&amp;D566</f>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vue:several_calculated</v>
+      </c>
+      <c r="D566" t="s">
+        <v>104</v>
       </c>
       <c r="E566" t="str">
         <f>IF(COUNTIF(C$2:C565,C566)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F566" t="str">
         <f t="shared" ref="F566:F629" si="39">IF(D566="","","test"&amp;IF(ISNUMBER(SEARCH(".",D566)),UPPER(LEFT(D566,1))&amp;RIGHT(LEFT(D566,SEARCH(".",D566)-1),LEN(LEFT(D566,SEARCH(".",D566)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D566,LEN(D566)-SEARCH(".",D566))),"_",""),IF(EXACT(LOWER(D566),D566),TRIM(SUBSTITUTE(PROPER(D566),"_","")),UPPER(LEFT(D566,1))&amp;RIGHT(D566,LEN(D566)-1)))&amp;E566)</f>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G566" t="str">
         <f t="shared" ref="G566:G629" si="40">IF(D566="","","data-testid="""&amp;F566&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="B567" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>Home.vue</v>
       </c>
       <c r="C567" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E567" t="str">
-        <f>IF(COUNTIF(C$2:C566,C567)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vueregister</v>
+      </c>
+      <c r="D567" t="s">
+        <v>229</v>
+      </c>
+      <c r="E567" t="s">
+        <v>15</v>
       </c>
       <c r="F567" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testRegisterButton</v>
       </c>
       <c r="G567" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRegisterButton"</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="B568" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>Home.vue</v>
       </c>
       <c r="C568" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E568" t="str">
-        <f>IF(COUNTIF(C$2:C567,C568)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vuebottomSection</v>
+      </c>
+      <c r="D568" t="s">
+        <v>583</v>
+      </c>
+      <c r="E568" t="s">
+        <v>69</v>
       </c>
       <c r="F568" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testBottomSectionDiv</v>
       </c>
       <c r="G568" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testBottomSectionDiv"</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="B569" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>Home.vue</v>
       </c>
       <c r="C569" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E569" t="str">
-        <f>IF(COUNTIF(C$2:C568,C569)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vueaws</v>
+      </c>
+      <c r="D569" t="s">
+        <v>585</v>
+      </c>
+      <c r="E569" t="s">
+        <v>91</v>
       </c>
       <c r="F569" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testAwsLink</v>
       </c>
       <c r="G569" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAwsLink"</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="B570" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>Home.vue</v>
       </c>
       <c r="C570" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E570" t="str">
-        <f>IF(COUNTIF(C$2:C569,C570)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\layouts\Home.vueawsImg</v>
+      </c>
+      <c r="D570" t="s">
+        <v>584</v>
+      </c>
+      <c r="E570" t="s">
+        <v>93</v>
       </c>
       <c r="F570" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testAwsImgIcon</v>
       </c>
       <c r="G570" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAwsImgIcon"</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B571" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C571" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E571" t="str">
-        <f>IF(COUNTIF(C$2:C570,C571)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuetitle</v>
+      </c>
+      <c r="D571" t="s">
+        <v>588</v>
+      </c>
+      <c r="E571" t="s">
+        <v>68</v>
       </c>
       <c r="F571" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testTitleTextInput</v>
       </c>
       <c r="G571" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTitleTextInput"</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B572" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C572" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E572" t="str">
-        <f>IF(COUNTIF(C$2:C571,C572)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuecontent</v>
+      </c>
+      <c r="D572" t="s">
+        <v>62</v>
+      </c>
+      <c r="E572" t="s">
+        <v>68</v>
       </c>
       <c r="F572" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testContentTextInput</v>
       </c>
       <c r="G572" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testContentTextInput"</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B573" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C573" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E573" t="str">
-        <f>IF(COUNTIF(C$2:C572,C573)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuetoggle_regular_advanced_mode</v>
+      </c>
+      <c r="D573" t="s">
+        <v>589</v>
+      </c>
+      <c r="E573" t="s">
+        <v>15</v>
       </c>
       <c r="F573" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testToggleRegularAdvancedModeButton</v>
       </c>
       <c r="G573" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testToggleRegularAdvancedModeButton"</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B574" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C574" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E574" t="str">
-        <f>IF(COUNTIF(C$2:C573,C574)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuecms_help</v>
+      </c>
+      <c r="D574" t="s">
+        <v>590</v>
+      </c>
+      <c r="E574" t="s">
+        <v>93</v>
       </c>
       <c r="F574" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testCmsHelpIcon</v>
       </c>
       <c r="G574" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCmsHelpIcon"</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B575" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C575" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E575" t="str">
-        <f>IF(COUNTIF(C$2:C574,C575)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuepublish_at_date_picker</v>
+      </c>
+      <c r="D575" t="s">
+        <v>591</v>
+      </c>
+      <c r="E575" t="s">
+        <v>307</v>
       </c>
       <c r="F575" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testPublishAtDatePickerInput</v>
       </c>
       <c r="G575" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPublishAtDatePickerInput"</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B576" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C576" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E576" t="str">
-        <f>IF(COUNTIF(C$2:C575,C576)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuelist_order</v>
+      </c>
+      <c r="D576" t="s">
+        <v>592</v>
+      </c>
+      <c r="E576" t="s">
+        <v>68</v>
       </c>
       <c r="F576" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testListOrderTextInput</v>
       </c>
       <c r="G576" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testListOrderTextInput"</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B577" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C577" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E577" t="str">
-        <f>IF(COUNTIF(C$2:C576,C577)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueadd_tags</v>
+      </c>
+      <c r="D577" t="s">
+        <v>593</v>
+      </c>
+      <c r="E577" t="s">
+        <v>307</v>
       </c>
       <c r="F577" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testAddTagsInput</v>
       </c>
       <c r="G577" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddTagsInput"</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B578" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C578" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E578" t="str">
-        <f>IF(COUNTIF(C$2:C577,C578)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueis_active</v>
+      </c>
+      <c r="D578" t="s">
+        <v>594</v>
+      </c>
+      <c r="E578" t="s">
+        <v>66</v>
       </c>
       <c r="F578" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testIsActiveCheckbox</v>
       </c>
       <c r="G578" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsActiveCheckbox"</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B579" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C579" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E579" t="str">
-        <f>IF(COUNTIF(C$2:C578,C579)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueupload_thumbnail</v>
+      </c>
+      <c r="D579" t="s">
+        <v>595</v>
+      </c>
+      <c r="E579" t="s">
+        <v>3</v>
       </c>
       <c r="F579" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testUploadThumbnailFile</v>
       </c>
       <c r="G579" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUploadThumbnailFile"</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B580" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C580" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E580" t="str">
-        <f>IF(COUNTIF(C$2:C579,C580)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueupload_thumbnail</v>
+      </c>
+      <c r="D580" t="s">
+        <v>595</v>
+      </c>
+      <c r="E580" t="s">
+        <v>15</v>
       </c>
       <c r="F580" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testUploadThumbnailButton</v>
       </c>
       <c r="G580" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUploadThumbnailButton"</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B581" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C581" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E581" t="str">
-        <f>IF(COUNTIF(C$2:C580,C581)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuethumbnail_file</v>
+      </c>
+      <c r="D581" t="s">
+        <v>596</v>
+      </c>
+      <c r="E581" t="s">
+        <v>91</v>
       </c>
       <c r="F581" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testThumbnailFileLink</v>
       </c>
       <c r="G581" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testThumbnailFileLink"</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B582" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C582" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E582" t="str">
-        <f>IF(COUNTIF(C$2:C581,C582)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueclearItem</v>
+      </c>
+      <c r="D582" t="s">
+        <v>597</v>
+      </c>
+      <c r="E582" t="s">
+        <v>15</v>
       </c>
       <c r="F582" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testClearItemButton</v>
       </c>
       <c r="G582" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClearItemButton"</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B583" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C583" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E583" t="str">
-        <f>IF(COUNTIF(C$2:C582,C583)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueshow_preview</v>
+      </c>
+      <c r="D583" t="s">
+        <v>598</v>
+      </c>
+      <c r="E583" t="s">
+        <v>15</v>
       </c>
       <c r="F583" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testShowPreviewButton</v>
       </c>
       <c r="G583" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowPreviewButton"</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B584" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C584" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E584" t="str">
-        <f>IF(COUNTIF(C$2:C583,C584)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuesave</v>
+      </c>
+      <c r="D584" t="s">
+        <v>169</v>
+      </c>
+      <c r="E584" t="s">
+        <v>15</v>
       </c>
       <c r="F584" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testSaveButton</v>
       </c>
       <c r="G584" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveButton"</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B585" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C585" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E585" t="str">
-        <f>IF(COUNTIF(C$2:C584,C585)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuecms_table</v>
+      </c>
+      <c r="D585" t="s">
+        <v>599</v>
+      </c>
+      <c r="E585" t="s">
+        <v>268</v>
       </c>
       <c r="F585" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testCmsTableTable</v>
       </c>
       <c r="G585" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCmsTableTable"</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B586" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C586" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E586" t="str">
-        <f>IF(COUNTIF(C$2:C585,C586)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueactive_only</v>
+      </c>
+      <c r="D586" t="s">
+        <v>600</v>
+      </c>
+      <c r="E586" t="s">
+        <v>66</v>
       </c>
       <c r="F586" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testActiveOnlyCheckbox</v>
       </c>
       <c r="G586" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testActiveOnlyCheckbox"</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B587" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C587" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E587" t="str">
-        <f>IF(COUNTIF(C$2:C586,C587)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuedelete</v>
+      </c>
+      <c r="D587" t="s">
+        <v>504</v>
+      </c>
+      <c r="E587" t="s">
+        <v>93</v>
       </c>
       <c r="F587" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testDeleteIcon</v>
       </c>
       <c r="G587" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDeleteIcon"</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>484</v>
+        <v>587</v>
       </c>
       <c r="B588" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminCms.vue</v>
       </c>
       <c r="C588" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E588" t="str">
-        <f>IF(COUNTIF(C$2:C587,C588)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuetagList</v>
+      </c>
+      <c r="D588" t="s">
+        <v>601</v>
+      </c>
+      <c r="E588" t="s">
+        <v>92</v>
       </c>
       <c r="F588" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testTagListContent</v>
       </c>
       <c r="G588" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTagListContent"</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B589" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C589" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E589" t="str">
-        <f>IF(COUNTIF(C$2:C588,C589)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueglobal</v>
+      </c>
+      <c r="D589" t="s">
+        <v>603</v>
+      </c>
+      <c r="E589" t="s">
+        <v>216</v>
       </c>
       <c r="F589" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGlobalSearch</v>
       </c>
       <c r="G589" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGlobalSearch"</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B590" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C590" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E590" t="str">
-        <f>IF(COUNTIF(C$2:C589,C590)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuearcgis_upload</v>
+      </c>
+      <c r="D590" t="s">
+        <v>604</v>
+      </c>
+      <c r="E590" t="s">
+        <v>15</v>
       </c>
       <c r="F590" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testArcgisUploadButton</v>
       </c>
       <c r="G590" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testArcgisUploadButton"</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B591" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C591" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E591" t="str">
-        <f>IF(COUNTIF(C$2:C590,C591)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations</v>
+      </c>
+      <c r="D591" t="s">
+        <v>605</v>
+      </c>
+      <c r="E591" t="s">
+        <v>69</v>
       </c>
       <c r="F591" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testPendingOrganizationsDiv</v>
       </c>
       <c r="G591" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPendingOrganizationsDiv"</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B592" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C592" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E592" t="str">
-        <f>IF(COUNTIF(C$2:C591,C592)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuerefresh_pending_organizations</v>
+      </c>
+      <c r="D592" t="s">
+        <v>606</v>
+      </c>
+      <c r="E592" t="s">
+        <v>15</v>
       </c>
       <c r="F592" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testRefreshPendingOrganizationsButton</v>
       </c>
       <c r="G592" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRefreshPendingOrganizationsButton"</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B593" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C593" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E593" t="str">
-        <f>IF(COUNTIF(C$2:C592,C593)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations_action_required</v>
+      </c>
+      <c r="D593" t="s">
+        <v>608</v>
+      </c>
+      <c r="E593" t="s">
+        <v>15</v>
       </c>
       <c r="F593" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testPendingOrganizationsActionRequiredButton</v>
       </c>
       <c r="G593" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPendingOrganizationsActionRequiredButton"</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B594" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C594" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E594" t="str">
-        <f>IF(COUNTIF(C$2:C593,C594)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations_recently_approved</v>
+      </c>
+      <c r="D594" t="s">
+        <v>609</v>
+      </c>
+      <c r="E594" t="s">
+        <v>15</v>
       </c>
       <c r="F594" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testPendingOrganizationsRecentlyApprovedButton</v>
       </c>
       <c r="G594" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPendingOrganizationsRecentlyApprovedButton"</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B595" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C595" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E595" t="str">
-        <f>IF(COUNTIF(C$2:C594,C595)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations_recently_rejected</v>
+      </c>
+      <c r="D595" t="s">
+        <v>610</v>
+      </c>
+      <c r="E595" t="s">
+        <v>15</v>
       </c>
       <c r="F595" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testPendingOrganizationsRecentlyRejectedButton</v>
       </c>
       <c r="G595" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPendingOrganizationsRecentlyRejectedButton"</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B596" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C596" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E596" t="str">
-        <f>IF(COUNTIF(C$2:C595,C596)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests</v>
+      </c>
+      <c r="D596" t="s">
+        <v>607</v>
+      </c>
+      <c r="E596" t="s">
+        <v>69</v>
       </c>
       <c r="F596" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testRedeployRequestsDiv</v>
       </c>
       <c r="G596" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRedeployRequestsDiv"</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B597" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C597" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E597" t="str">
-        <f>IF(COUNTIF(C$2:C596,C597)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests_action_required</v>
+      </c>
+      <c r="D597" t="s">
+        <v>611</v>
+      </c>
+      <c r="E597" t="s">
+        <v>15</v>
       </c>
       <c r="F597" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testRedeployRequestsActionRequiredButton</v>
       </c>
       <c r="G597" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRedeployRequestsActionRequiredButton"</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B598" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C598" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E598" t="str">
-        <f>IF(COUNTIF(C$2:C597,C598)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests_recently_approved</v>
+      </c>
+      <c r="D598" t="s">
+        <v>612</v>
+      </c>
+      <c r="E598" t="s">
+        <v>15</v>
       </c>
       <c r="F598" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testRedeployRequestsRecentlyApprovedButton</v>
       </c>
       <c r="G598" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRedeployRequestsRecentlyApprovedButton"</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B599" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C599" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E599" t="str">
-        <f>IF(COUNTIF(C$2:C598,C599)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests_recently_rejected</v>
+      </c>
+      <c r="D599" t="s">
+        <v>613</v>
+      </c>
+      <c r="E599" t="s">
+        <v>15</v>
       </c>
       <c r="F599" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testRedeployRequestsRecentlyRejectedButton</v>
       </c>
       <c r="G599" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRedeployRequestsRecentlyRejectedButton"</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>484</v>
+        <v>602</v>
       </c>
       <c r="B600" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C600" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\components\</v>
-      </c>
-      <c r="E600" t="str">
-        <f>IF(COUNTIF(C$2:C599,C600)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueWorksiteImport</v>
+      </c>
+      <c r="D600" t="s">
+        <v>614</v>
+      </c>
+      <c r="E600" t="s">
+        <v>69</v>
       </c>
       <c r="F600" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testWorksiteImportDiv</v>
       </c>
       <c r="G600" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testWorksiteImportDiv"</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>602</v>
+      </c>
       <c r="B601" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C601" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E601" t="str">
-        <f>IF(COUNTIF(C$2:C600,C601)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueorganizations</v>
+      </c>
+      <c r="D601" t="s">
+        <v>615</v>
+      </c>
+      <c r="E601" t="s">
+        <v>69</v>
       </c>
       <c r="F601" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testOrganizationsDiv</v>
       </c>
       <c r="G601" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationsDiv"</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>602</v>
+      </c>
       <c r="B602" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C602" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E602" t="str">
-        <f>IF(COUNTIF(C$2:C601,C602)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueorganizations</v>
+      </c>
+      <c r="D602" t="s">
+        <v>615</v>
+      </c>
+      <c r="E602" t="s">
+        <v>216</v>
       </c>
       <c r="F602" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testOrganizationsSearch</v>
       </c>
       <c r="G602" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationsSearch"</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
       <c r="B603" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C603" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E603" t="str">
-        <f>IF(COUNTIF(C$2:C602,C603)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueusers</v>
+      </c>
+      <c r="D603" t="s">
+        <v>616</v>
+      </c>
+      <c r="E603" t="s">
+        <v>69</v>
       </c>
       <c r="F603" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testUsersDiv</v>
       </c>
       <c r="G603" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUsersDiv"</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>602</v>
+      </c>
       <c r="B604" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C604" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E604" t="str">
-        <f>IF(COUNTIF(C$2:C603,C604)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueusers</v>
+      </c>
+      <c r="D604" t="s">
+        <v>616</v>
+      </c>
+      <c r="E604" t="s">
+        <v>216</v>
       </c>
       <c r="F604" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testUsersSearch</v>
       </c>
       <c r="G604" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUsersSearch"</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>602</v>
+      </c>
       <c r="B605" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C605" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E605" t="str">
-        <f>IF(COUNTIF(C$2:C604,C605)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueghost_users</v>
+      </c>
+      <c r="D605" t="s">
+        <v>617</v>
+      </c>
+      <c r="E605" t="s">
+        <v>69</v>
       </c>
       <c r="F605" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGhostUsersDiv</v>
       </c>
       <c r="G605" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGhostUsersDiv"</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>602</v>
+      </c>
       <c r="B606" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C606" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E606" t="str">
-        <f>IF(COUNTIF(C$2:C605,C606)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueghost_users</v>
+      </c>
+      <c r="D606" t="s">
+        <v>617</v>
+      </c>
+      <c r="E606" t="s">
+        <v>216</v>
       </c>
       <c r="F606" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGhostUsersSearch</v>
       </c>
       <c r="G606" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGhostUsersSearch"</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>602</v>
+      </c>
       <c r="B607" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C607" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E607" t="str">
-        <f>IF(COUNTIF(C$2:C606,C607)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitation_requests</v>
+      </c>
+      <c r="D607" t="s">
+        <v>618</v>
+      </c>
+      <c r="E607" t="s">
+        <v>69</v>
       </c>
       <c r="F607" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testInvitationRequestsDiv</v>
       </c>
       <c r="G607" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInvitationRequestsDiv"</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>602</v>
+      </c>
       <c r="B608" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C608" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E608" t="str">
-        <f>IF(COUNTIF(C$2:C607,C608)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitation_requests</v>
+      </c>
+      <c r="D608" t="s">
+        <v>618</v>
+      </c>
+      <c r="E608" t="s">
+        <v>216</v>
       </c>
       <c r="F608" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testInvitationRequestsSearch</v>
       </c>
       <c r="G608" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInvitationRequestsSearch"</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>602</v>
+      </c>
       <c r="B609" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C609" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E609" t="str">
-        <f>IF(COUNTIF(C$2:C608,C609)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitations</v>
+      </c>
+      <c r="D609" t="s">
+        <v>619</v>
+      </c>
+      <c r="E609" t="s">
+        <v>69</v>
       </c>
       <c r="F609" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testInvitationsDiv</v>
       </c>
       <c r="G609" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInvitationsDiv"</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>602</v>
+      </c>
       <c r="B610" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminDashboard.vue</v>
       </c>
       <c r="C610" t="str">
         <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E610" t="str">
-        <f>IF(COUNTIF(C$2:C609,C610)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitations</v>
+      </c>
+      <c r="D610" t="s">
+        <v>619</v>
+      </c>
+      <c r="E610" t="s">
+        <v>216</v>
       </c>
       <c r="F610" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testInvitationsSearch</v>
       </c>
       <c r="G610" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInvitationsSearch"</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>620</v>
+      </c>
       <c r="B611" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminIncidentWizard.vue</v>
       </c>
       <c r="C611" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminIncidentWizard.vue</v>
       </c>
       <c r="E611" t="str">
         <f>IF(COUNTIF(C$2:C610,C611)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F611" t="str">
         <f t="shared" si="39"/>
@@ -18461,18 +18745,21 @@
         <v/>
       </c>
     </row>
-    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>586</v>
+      </c>
       <c r="B612" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C612" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E612" t="str">
         <f>IF(COUNTIF(C$2:C611,C612)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F612" t="str">
         <f t="shared" si="39"/>
@@ -18483,14 +18770,17 @@
         <v/>
       </c>
     </row>
-    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>586</v>
+      </c>
       <c r="B613" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C613" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E613" t="str">
         <f>IF(COUNTIF(C$2:C612,C613)&gt;0,"Button","")</f>
@@ -18505,14 +18795,17 @@
         <v/>
       </c>
     </row>
-    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>586</v>
+      </c>
       <c r="B614" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C614" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E614" t="str">
         <f>IF(COUNTIF(C$2:C613,C614)&gt;0,"Button","")</f>
@@ -18527,14 +18820,17 @@
         <v/>
       </c>
     </row>
-    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>586</v>
+      </c>
       <c r="B615" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C615" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E615" t="str">
         <f>IF(COUNTIF(C$2:C614,C615)&gt;0,"Button","")</f>
@@ -18549,14 +18845,17 @@
         <v/>
       </c>
     </row>
-    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>586</v>
+      </c>
       <c r="B616" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C616" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E616" t="str">
         <f>IF(COUNTIF(C$2:C615,C616)&gt;0,"Button","")</f>
@@ -18571,14 +18870,17 @@
         <v/>
       </c>
     </row>
-    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>586</v>
+      </c>
       <c r="B617" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C617" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E617" t="str">
         <f>IF(COUNTIF(C$2:C616,C617)&gt;0,"Button","")</f>
@@ -18593,14 +18895,17 @@
         <v/>
       </c>
     </row>
-    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>586</v>
+      </c>
       <c r="B618" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C618" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E618" t="str">
         <f>IF(COUNTIF(C$2:C617,C618)&gt;0,"Button","")</f>
@@ -18615,14 +18920,17 @@
         <v/>
       </c>
     </row>
-    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>586</v>
+      </c>
       <c r="B619" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C619" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E619" t="str">
         <f>IF(COUNTIF(C$2:C618,C619)&gt;0,"Button","")</f>
@@ -18637,14 +18945,17 @@
         <v/>
       </c>
     </row>
-    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>586</v>
+      </c>
       <c r="B620" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C620" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E620" t="str">
         <f>IF(COUNTIF(C$2:C619,C620)&gt;0,"Button","")</f>
@@ -18659,14 +18970,17 @@
         <v/>
       </c>
     </row>
-    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>586</v>
+      </c>
       <c r="B621" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C621" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E621" t="str">
         <f>IF(COUNTIF(C$2:C620,C621)&gt;0,"Button","")</f>
@@ -18681,14 +18995,17 @@
         <v/>
       </c>
     </row>
-    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>586</v>
+      </c>
       <c r="B622" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C622" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E622" t="str">
         <f>IF(COUNTIF(C$2:C621,C622)&gt;0,"Button","")</f>
@@ -18703,14 +19020,17 @@
         <v/>
       </c>
     </row>
-    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>586</v>
+      </c>
       <c r="B623" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C623" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E623" t="str">
         <f>IF(COUNTIF(C$2:C622,C623)&gt;0,"Button","")</f>
@@ -18725,14 +19045,17 @@
         <v/>
       </c>
     </row>
-    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>586</v>
+      </c>
       <c r="B624" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C624" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E624" t="str">
         <f>IF(COUNTIF(C$2:C623,C624)&gt;0,"Button","")</f>
@@ -18747,14 +19070,17 @@
         <v/>
       </c>
     </row>
-    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>586</v>
+      </c>
       <c r="B625" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C625" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E625" t="str">
         <f>IF(COUNTIF(C$2:C624,C625)&gt;0,"Button","")</f>
@@ -18769,14 +19095,17 @@
         <v/>
       </c>
     </row>
-    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>586</v>
+      </c>
       <c r="B626" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C626" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E626" t="str">
         <f>IF(COUNTIF(C$2:C625,C626)&gt;0,"Button","")</f>
@@ -18791,14 +19120,17 @@
         <v/>
       </c>
     </row>
-    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>586</v>
+      </c>
       <c r="B627" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C627" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E627" t="str">
         <f>IF(COUNTIF(C$2:C626,C627)&gt;0,"Button","")</f>
@@ -18813,14 +19145,17 @@
         <v/>
       </c>
     </row>
-    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>586</v>
+      </c>
       <c r="B628" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C628" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E628" t="str">
         <f>IF(COUNTIF(C$2:C627,C628)&gt;0,"Button","")</f>
@@ -18835,14 +19170,17 @@
         <v/>
       </c>
     </row>
-    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>586</v>
+      </c>
       <c r="B629" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="C629" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E629" t="str">
         <f>IF(COUNTIF(C$2:C628,C629)&gt;0,"Button","")</f>
@@ -18857,14 +19195,17 @@
         <v/>
       </c>
     </row>
-    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>586</v>
+      </c>
       <c r="B630" t="str">
         <f t="shared" ref="B630:B693" si="41">IF(A630="","",MID(A630,FIND("@",SUBSTITUTE(A630,"\","@",LEN(A630)-LEN(SUBSTITUTE(A630,"\",""))))+1,LEN(A630)))</f>
         <v/>
       </c>
       <c r="C630" t="str">
         <f t="shared" ref="C630:C693" si="42">A630&amp;D630</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E630" t="str">
         <f>IF(COUNTIF(C$2:C629,C630)&gt;0,"Button","")</f>
@@ -18879,14 +19220,17 @@
         <v/>
       </c>
     </row>
-    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>586</v>
+      </c>
       <c r="B631" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C631" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E631" t="str">
         <f>IF(COUNTIF(C$2:C630,C631)&gt;0,"Button","")</f>
@@ -18901,14 +19245,17 @@
         <v/>
       </c>
     </row>
-    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>586</v>
+      </c>
       <c r="B632" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C632" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E632" t="str">
         <f>IF(COUNTIF(C$2:C631,C632)&gt;0,"Button","")</f>
@@ -18923,14 +19270,17 @@
         <v/>
       </c>
     </row>
-    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>586</v>
+      </c>
       <c r="B633" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C633" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E633" t="str">
         <f>IF(COUNTIF(C$2:C632,C633)&gt;0,"Button","")</f>
@@ -18945,14 +19295,17 @@
         <v/>
       </c>
     </row>
-    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>586</v>
+      </c>
       <c r="B634" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C634" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E634" t="str">
         <f>IF(COUNTIF(C$2:C633,C634)&gt;0,"Button","")</f>
@@ -18967,14 +19320,17 @@
         <v/>
       </c>
     </row>
-    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>586</v>
+      </c>
       <c r="B635" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C635" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E635" t="str">
         <f>IF(COUNTIF(C$2:C634,C635)&gt;0,"Button","")</f>
@@ -18989,14 +19345,17 @@
         <v/>
       </c>
     </row>
-    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>586</v>
+      </c>
       <c r="B636" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C636" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E636" t="str">
         <f>IF(COUNTIF(C$2:C635,C636)&gt;0,"Button","")</f>
@@ -19011,14 +19370,17 @@
         <v/>
       </c>
     </row>
-    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>586</v>
+      </c>
       <c r="B637" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C637" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E637" t="str">
         <f>IF(COUNTIF(C$2:C636,C637)&gt;0,"Button","")</f>
@@ -19033,14 +19395,17 @@
         <v/>
       </c>
     </row>
-    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>586</v>
+      </c>
       <c r="B638" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C638" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E638" t="str">
         <f>IF(COUNTIF(C$2:C637,C638)&gt;0,"Button","")</f>
@@ -19055,14 +19420,17 @@
         <v/>
       </c>
     </row>
-    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>586</v>
+      </c>
       <c r="B639" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C639" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E639" t="str">
         <f>IF(COUNTIF(C$2:C638,C639)&gt;0,"Button","")</f>
@@ -19077,14 +19445,17 @@
         <v/>
       </c>
     </row>
-    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>586</v>
+      </c>
       <c r="B640" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C640" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E640" t="str">
         <f>IF(COUNTIF(C$2:C639,C640)&gt;0,"Button","")</f>
@@ -19099,14 +19470,17 @@
         <v/>
       </c>
     </row>
-    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>586</v>
+      </c>
       <c r="B641" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C641" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E641" t="str">
         <f>IF(COUNTIF(C$2:C640,C641)&gt;0,"Button","")</f>
@@ -19121,14 +19495,17 @@
         <v/>
       </c>
     </row>
-    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>586</v>
+      </c>
       <c r="B642" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C642" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E642" t="str">
         <f>IF(COUNTIF(C$2:C641,C642)&gt;0,"Button","")</f>
@@ -19143,14 +19520,17 @@
         <v/>
       </c>
     </row>
-    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>586</v>
+      </c>
       <c r="B643" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C643" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E643" t="str">
         <f>IF(COUNTIF(C$2:C642,C643)&gt;0,"Button","")</f>
@@ -19165,14 +19545,17 @@
         <v/>
       </c>
     </row>
-    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>586</v>
+      </c>
       <c r="B644" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C644" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E644" t="str">
         <f>IF(COUNTIF(C$2:C643,C644)&gt;0,"Button","")</f>
@@ -19187,14 +19570,17 @@
         <v/>
       </c>
     </row>
-    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>586</v>
+      </c>
       <c r="B645" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C645" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E645" t="str">
         <f>IF(COUNTIF(C$2:C644,C645)&gt;0,"Button","")</f>
@@ -19209,14 +19595,17 @@
         <v/>
       </c>
     </row>
-    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>586</v>
+      </c>
       <c r="B646" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C646" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E646" t="str">
         <f>IF(COUNTIF(C$2:C645,C646)&gt;0,"Button","")</f>
@@ -19231,14 +19620,17 @@
         <v/>
       </c>
     </row>
-    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>586</v>
+      </c>
       <c r="B647" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C647" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E647" t="str">
         <f>IF(COUNTIF(C$2:C646,C647)&gt;0,"Button","")</f>
@@ -19253,14 +19645,17 @@
         <v/>
       </c>
     </row>
-    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>586</v>
+      </c>
       <c r="B648" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C648" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E648" t="str">
         <f>IF(COUNTIF(C$2:C647,C648)&gt;0,"Button","")</f>
@@ -19275,14 +19670,17 @@
         <v/>
       </c>
     </row>
-    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>586</v>
+      </c>
       <c r="B649" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C649" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E649" t="str">
         <f>IF(COUNTIF(C$2:C648,C649)&gt;0,"Button","")</f>
@@ -19297,14 +19695,17 @@
         <v/>
       </c>
     </row>
-    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>586</v>
+      </c>
       <c r="B650" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C650" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E650" t="str">
         <f>IF(COUNTIF(C$2:C649,C650)&gt;0,"Button","")</f>
@@ -19319,14 +19720,17 @@
         <v/>
       </c>
     </row>
-    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>586</v>
+      </c>
       <c r="B651" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C651" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E651" t="str">
         <f>IF(COUNTIF(C$2:C650,C651)&gt;0,"Button","")</f>
@@ -19341,14 +19745,17 @@
         <v/>
       </c>
     </row>
-    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>586</v>
+      </c>
       <c r="B652" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C652" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E652" t="str">
         <f>IF(COUNTIF(C$2:C651,C652)&gt;0,"Button","")</f>
@@ -19363,14 +19770,17 @@
         <v/>
       </c>
     </row>
-    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>586</v>
+      </c>
       <c r="B653" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C653" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E653" t="str">
         <f>IF(COUNTIF(C$2:C652,C653)&gt;0,"Button","")</f>
@@ -19385,14 +19795,17 @@
         <v/>
       </c>
     </row>
-    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>586</v>
+      </c>
       <c r="B654" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C654" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E654" t="str">
         <f>IF(COUNTIF(C$2:C653,C654)&gt;0,"Button","")</f>
@@ -19407,14 +19820,17 @@
         <v/>
       </c>
     </row>
-    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>586</v>
+      </c>
       <c r="B655" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C655" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E655" t="str">
         <f>IF(COUNTIF(C$2:C654,C655)&gt;0,"Button","")</f>
@@ -19429,14 +19845,17 @@
         <v/>
       </c>
     </row>
-    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>586</v>
+      </c>
       <c r="B656" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C656" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E656" t="str">
         <f>IF(COUNTIF(C$2:C655,C656)&gt;0,"Button","")</f>
@@ -19451,14 +19870,17 @@
         <v/>
       </c>
     </row>
-    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>586</v>
+      </c>
       <c r="B657" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C657" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E657" t="str">
         <f>IF(COUNTIF(C$2:C656,C657)&gt;0,"Button","")</f>
@@ -19473,14 +19895,17 @@
         <v/>
       </c>
     </row>
-    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>586</v>
+      </c>
       <c r="B658" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C658" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E658" t="str">
         <f>IF(COUNTIF(C$2:C657,C658)&gt;0,"Button","")</f>
@@ -19495,14 +19920,17 @@
         <v/>
       </c>
     </row>
-    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>586</v>
+      </c>
       <c r="B659" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C659" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E659" t="str">
         <f>IF(COUNTIF(C$2:C658,C659)&gt;0,"Button","")</f>
@@ -19517,14 +19945,17 @@
         <v/>
       </c>
     </row>
-    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>586</v>
+      </c>
       <c r="B660" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C660" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E660" t="str">
         <f>IF(COUNTIF(C$2:C659,C660)&gt;0,"Button","")</f>
@@ -19539,14 +19970,17 @@
         <v/>
       </c>
     </row>
-    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>586</v>
+      </c>
       <c r="B661" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C661" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E661" t="str">
         <f>IF(COUNTIF(C$2:C660,C661)&gt;0,"Button","")</f>
@@ -19561,14 +19995,17 @@
         <v/>
       </c>
     </row>
-    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>586</v>
+      </c>
       <c r="B662" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C662" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E662" t="str">
         <f>IF(COUNTIF(C$2:C661,C662)&gt;0,"Button","")</f>
@@ -19583,14 +20020,17 @@
         <v/>
       </c>
     </row>
-    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>586</v>
+      </c>
       <c r="B663" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C663" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E663" t="str">
         <f>IF(COUNTIF(C$2:C662,C663)&gt;0,"Button","")</f>
@@ -19605,14 +20045,17 @@
         <v/>
       </c>
     </row>
-    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>586</v>
+      </c>
       <c r="B664" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C664" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E664" t="str">
         <f>IF(COUNTIF(C$2:C663,C664)&gt;0,"Button","")</f>
@@ -19627,14 +20070,17 @@
         <v/>
       </c>
     </row>
-    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>586</v>
+      </c>
       <c r="B665" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C665" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E665" t="str">
         <f>IF(COUNTIF(C$2:C664,C665)&gt;0,"Button","")</f>
@@ -19649,14 +20095,17 @@
         <v/>
       </c>
     </row>
-    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>586</v>
+      </c>
       <c r="B666" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C666" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E666" t="str">
         <f>IF(COUNTIF(C$2:C665,C666)&gt;0,"Button","")</f>
@@ -19671,14 +20120,17 @@
         <v/>
       </c>
     </row>
-    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>586</v>
+      </c>
       <c r="B667" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C667" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E667" t="str">
         <f>IF(COUNTIF(C$2:C666,C667)&gt;0,"Button","")</f>
@@ -19693,14 +20145,17 @@
         <v/>
       </c>
     </row>
-    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>586</v>
+      </c>
       <c r="B668" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C668" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E668" t="str">
         <f>IF(COUNTIF(C$2:C667,C668)&gt;0,"Button","")</f>
@@ -19715,14 +20170,17 @@
         <v/>
       </c>
     </row>
-    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>586</v>
+      </c>
       <c r="B669" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C669" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E669" t="str">
         <f>IF(COUNTIF(C$2:C668,C669)&gt;0,"Button","")</f>
@@ -19737,14 +20195,17 @@
         <v/>
       </c>
     </row>
-    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>586</v>
+      </c>
       <c r="B670" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C670" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E670" t="str">
         <f>IF(COUNTIF(C$2:C669,C670)&gt;0,"Button","")</f>
@@ -19759,14 +20220,17 @@
         <v/>
       </c>
     </row>
-    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>586</v>
+      </c>
       <c r="B671" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C671" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E671" t="str">
         <f>IF(COUNTIF(C$2:C670,C671)&gt;0,"Button","")</f>
@@ -19781,14 +20245,17 @@
         <v/>
       </c>
     </row>
-    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>586</v>
+      </c>
       <c r="B672" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C672" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E672" t="str">
         <f>IF(COUNTIF(C$2:C671,C672)&gt;0,"Button","")</f>
@@ -19803,14 +20270,17 @@
         <v/>
       </c>
     </row>
-    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>586</v>
+      </c>
       <c r="B673" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C673" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E673" t="str">
         <f>IF(COUNTIF(C$2:C672,C673)&gt;0,"Button","")</f>
@@ -19825,14 +20295,17 @@
         <v/>
       </c>
     </row>
-    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>586</v>
+      </c>
       <c r="B674" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C674" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E674" t="str">
         <f>IF(COUNTIF(C$2:C673,C674)&gt;0,"Button","")</f>
@@ -19847,14 +20320,17 @@
         <v/>
       </c>
     </row>
-    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>586</v>
+      </c>
       <c r="B675" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C675" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E675" t="str">
         <f>IF(COUNTIF(C$2:C674,C675)&gt;0,"Button","")</f>
@@ -19869,14 +20345,17 @@
         <v/>
       </c>
     </row>
-    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>586</v>
+      </c>
       <c r="B676" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C676" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E676" t="str">
         <f>IF(COUNTIF(C$2:C675,C676)&gt;0,"Button","")</f>
@@ -19891,14 +20370,17 @@
         <v/>
       </c>
     </row>
-    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>586</v>
+      </c>
       <c r="B677" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C677" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E677" t="str">
         <f>IF(COUNTIF(C$2:C676,C677)&gt;0,"Button","")</f>
@@ -19913,14 +20395,17 @@
         <v/>
       </c>
     </row>
-    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>586</v>
+      </c>
       <c r="B678" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C678" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E678" t="str">
         <f>IF(COUNTIF(C$2:C677,C678)&gt;0,"Button","")</f>
@@ -19935,14 +20420,17 @@
         <v/>
       </c>
     </row>
-    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>586</v>
+      </c>
       <c r="B679" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C679" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
       </c>
       <c r="E679" t="str">
         <f>IF(COUNTIF(C$2:C678,C679)&gt;0,"Button","")</f>
@@ -19957,7 +20445,7 @@
         <v/>
       </c>
     </row>
-    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B680" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -19979,7 +20467,7 @@
         <v/>
       </c>
     </row>
-    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B681" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20001,7 +20489,7 @@
         <v/>
       </c>
     </row>
-    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B682" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20023,7 +20511,7 @@
         <v/>
       </c>
     </row>
-    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B683" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20045,7 +20533,7 @@
         <v/>
       </c>
     </row>
-    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B684" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20067,7 +20555,7 @@
         <v/>
       </c>
     </row>
-    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B685" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20089,7 +20577,7 @@
         <v/>
       </c>
     </row>
-    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B686" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20111,7 +20599,7 @@
         <v/>
       </c>
     </row>
-    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B687" t="str">
         <f t="shared" si="41"/>
         <v/>
@@ -20133,7 +20621,7 @@
         <v/>
       </c>
     </row>
-    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B688" t="str">
         <f t="shared" si="41"/>
         <v/>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB16DBC-9544-4621-9C8F-A572E5277DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B54B84-5293-4AA6-927B-6A5AADE7F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="840" windowWidth="14580" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
+    <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="717">
   <si>
     <t>Output</t>
   </si>
@@ -1789,9 +1789,6 @@
     <t>aws</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vue</t>
   </si>
   <si>
@@ -1892,6 +1889,297 @@
   </si>
   <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminIncidentWizard.vue</t>
+  </si>
+  <si>
+    <t>general_incident_info</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vue</t>
+  </si>
+  <si>
+    <t>deleteAll</t>
+  </si>
+  <si>
+    <t>clearLocalization</t>
+  </si>
+  <si>
+    <t>saveLocalization</t>
+  </si>
+  <si>
+    <t>saveAndClear</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>group_label</t>
+  </si>
+  <si>
+    <t>available_frontend</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>generate_translations</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>search_group_label_text</t>
+  </si>
+  <si>
+    <t>search_labels_only</t>
+  </si>
+  <si>
+    <t>filter_groups</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminTicketDashboard.vue</t>
+  </si>
+  <si>
+    <t>ticket_dashboard</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vue</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>admin_notes</t>
+  </si>
+  <si>
+    <t>automatically_approve_user_domain</t>
+  </si>
+  <si>
+    <t>is_verified</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>organization_type</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>approve_reject_reason_t</t>
+  </si>
+  <si>
+    <t>generate_api_key</t>
+  </si>
+  <si>
+    <t>update_logo</t>
+  </si>
+  <si>
+    <t>primary_contacts</t>
+  </si>
+  <si>
+    <t>all_users</t>
+  </si>
+  <si>
+    <t>general_info</t>
+  </si>
+  <si>
+    <t>incidents</t>
+  </si>
+  <si>
+    <t>incidentToAdd</t>
+  </si>
+  <si>
+    <t>pending_requests</t>
+  </si>
+  <si>
+    <t>approve_incident</t>
+  </si>
+  <si>
+    <t>reject_incident</t>
+  </si>
+  <si>
+    <t>approved_incidents</t>
+  </si>
+  <si>
+    <t>groupToAdd</t>
+  </si>
+  <si>
+    <t>delete_group</t>
+  </si>
+  <si>
+    <t>primary_location</t>
+  </si>
+  <si>
+    <t>edit_primary_response_area</t>
+  </si>
+  <si>
+    <t>add_primary_response_area</t>
+  </si>
+  <si>
+    <t>secondary_location</t>
+  </si>
+  <si>
+    <t>edit_secondary_response_area</t>
+  </si>
+  <si>
+    <t>add_secondary_response_area</t>
+  </si>
+  <si>
+    <t>org_api_keys</t>
+  </si>
+  <si>
+    <t>copy_key</t>
+  </si>
+  <si>
+    <t>apiKey</t>
+  </si>
+  <si>
+    <t>save_organization</t>
+  </si>
+  <si>
+    <t>approve_organization</t>
+  </si>
+  <si>
+    <t>reject_organization</t>
+  </si>
+  <si>
+    <t>capabilities</t>
+  </si>
+  <si>
+    <t>add_incident</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Report.vue</t>
+  </si>
+  <si>
+    <t>paid_for_statement</t>
+  </si>
+  <si>
+    <t>ReportFilters</t>
+  </si>
+  <si>
+    <t>ReportWidget</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Reports.vue</t>
+  </si>
+  <si>
+    <t>showRequestAccessModal</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vue</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>aboutDescription</t>
+  </si>
+  <si>
+    <t>aboutVideo</t>
+  </si>
+  <si>
+    <t>aboutStats</t>
+  </si>
+  <si>
+    <t>aboutPeople</t>
+  </si>
+  <si>
+    <t>aboutMajorContributors</t>
+  </si>
+  <si>
+    <t>aboutSupporterLogos</t>
+  </si>
+  <si>
+    <t>aboutPhilosophies</t>
+  </si>
+  <si>
+    <t>aboutLegalStuff</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Contributions.vue</t>
+  </si>
+  <si>
+    <t>contributions</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Login.vue</t>
+  </si>
+  <si>
+    <t>globe</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Privacy.vue</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Map.vue</t>
+  </si>
+  <si>
+    <t>simpleMap</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vue</t>
+  </si>
+  <si>
+    <t>organization_url</t>
+  </si>
+  <si>
+    <t>organization_facebook</t>
+  </si>
+  <si>
+    <t>organization_twitter</t>
+  </si>
+  <si>
+    <t>organization_where_are_you_working</t>
+  </si>
+  <si>
+    <t>organization_referral</t>
+  </si>
+  <si>
+    <t>primary_contact_first_name</t>
+  </si>
+  <si>
+    <t>primary_contact_last_name</t>
+  </si>
+  <si>
+    <t>primary_contact_email</t>
+  </si>
+  <si>
+    <t>primary_contact_mobile</t>
+  </si>
+  <si>
+    <t>CapabilityMatrix</t>
+  </si>
+  <si>
+    <t>accepted_terms</t>
+  </si>
+  <si>
+    <t>organization_publish</t>
+  </si>
+  <si>
+    <t>sign_up</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2534,8 @@
   <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B613" sqref="B613"/>
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A695" sqref="A695:XFD711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17642,7 +17930,7 @@
     </row>
     <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B571" t="str">
         <f t="shared" si="37"/>
@@ -17653,7 +17941,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuetitle</v>
       </c>
       <c r="D571" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E571" t="s">
         <v>68</v>
@@ -17669,7 +17957,7 @@
     </row>
     <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B572" t="str">
         <f t="shared" si="37"/>
@@ -17696,7 +17984,7 @@
     </row>
     <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B573" t="str">
         <f t="shared" si="37"/>
@@ -17707,7 +17995,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuetoggle_regular_advanced_mode</v>
       </c>
       <c r="D573" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E573" t="s">
         <v>15</v>
@@ -17723,7 +18011,7 @@
     </row>
     <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B574" t="str">
         <f t="shared" si="37"/>
@@ -17734,7 +18022,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuecms_help</v>
       </c>
       <c r="D574" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E574" t="s">
         <v>93</v>
@@ -17750,7 +18038,7 @@
     </row>
     <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B575" t="str">
         <f t="shared" si="37"/>
@@ -17761,7 +18049,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuepublish_at_date_picker</v>
       </c>
       <c r="D575" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E575" t="s">
         <v>307</v>
@@ -17777,7 +18065,7 @@
     </row>
     <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B576" t="str">
         <f t="shared" si="37"/>
@@ -17788,7 +18076,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuelist_order</v>
       </c>
       <c r="D576" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E576" t="s">
         <v>68</v>
@@ -17804,7 +18092,7 @@
     </row>
     <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B577" t="str">
         <f t="shared" si="37"/>
@@ -17815,7 +18103,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueadd_tags</v>
       </c>
       <c r="D577" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E577" t="s">
         <v>307</v>
@@ -17831,7 +18119,7 @@
     </row>
     <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B578" t="str">
         <f t="shared" si="37"/>
@@ -17842,7 +18130,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueis_active</v>
       </c>
       <c r="D578" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E578" t="s">
         <v>66</v>
@@ -17858,7 +18146,7 @@
     </row>
     <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B579" t="str">
         <f t="shared" si="37"/>
@@ -17869,7 +18157,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueupload_thumbnail</v>
       </c>
       <c r="D579" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E579" t="s">
         <v>3</v>
@@ -17885,7 +18173,7 @@
     </row>
     <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B580" t="str">
         <f t="shared" si="37"/>
@@ -17896,7 +18184,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueupload_thumbnail</v>
       </c>
       <c r="D580" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E580" t="s">
         <v>15</v>
@@ -17912,7 +18200,7 @@
     </row>
     <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B581" t="str">
         <f t="shared" si="37"/>
@@ -17923,7 +18211,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuethumbnail_file</v>
       </c>
       <c r="D581" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E581" t="s">
         <v>91</v>
@@ -17939,7 +18227,7 @@
     </row>
     <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B582" t="str">
         <f t="shared" si="37"/>
@@ -17950,7 +18238,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueclearItem</v>
       </c>
       <c r="D582" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E582" t="s">
         <v>15</v>
@@ -17966,7 +18254,7 @@
     </row>
     <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B583" t="str">
         <f t="shared" si="37"/>
@@ -17977,7 +18265,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueshow_preview</v>
       </c>
       <c r="D583" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E583" t="s">
         <v>15</v>
@@ -17993,7 +18281,7 @@
     </row>
     <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B584" t="str">
         <f t="shared" si="37"/>
@@ -18020,7 +18308,7 @@
     </row>
     <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B585" t="str">
         <f t="shared" si="37"/>
@@ -18031,7 +18319,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuecms_table</v>
       </c>
       <c r="D585" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E585" t="s">
         <v>268</v>
@@ -18047,7 +18335,7 @@
     </row>
     <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B586" t="str">
         <f t="shared" si="37"/>
@@ -18058,7 +18346,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vueactive_only</v>
       </c>
       <c r="D586" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E586" t="s">
         <v>66</v>
@@ -18074,7 +18362,7 @@
     </row>
     <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B587" t="str">
         <f t="shared" si="37"/>
@@ -18101,7 +18389,7 @@
     </row>
     <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B588" t="str">
         <f t="shared" si="37"/>
@@ -18112,7 +18400,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminCms.vuetagList</v>
       </c>
       <c r="D588" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E588" t="s">
         <v>92</v>
@@ -18128,7 +18416,7 @@
     </row>
     <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B589" t="str">
         <f t="shared" si="37"/>
@@ -18139,7 +18427,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueglobal</v>
       </c>
       <c r="D589" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E589" t="s">
         <v>216</v>
@@ -18155,7 +18443,7 @@
     </row>
     <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B590" t="str">
         <f t="shared" si="37"/>
@@ -18166,7 +18454,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuearcgis_upload</v>
       </c>
       <c r="D590" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E590" t="s">
         <v>15</v>
@@ -18182,7 +18470,7 @@
     </row>
     <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B591" t="str">
         <f t="shared" si="37"/>
@@ -18193,7 +18481,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations</v>
       </c>
       <c r="D591" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E591" t="s">
         <v>69</v>
@@ -18209,7 +18497,7 @@
     </row>
     <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B592" t="str">
         <f t="shared" si="37"/>
@@ -18220,7 +18508,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuerefresh_pending_organizations</v>
       </c>
       <c r="D592" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E592" t="s">
         <v>15</v>
@@ -18236,7 +18524,7 @@
     </row>
     <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B593" t="str">
         <f t="shared" si="37"/>
@@ -18247,7 +18535,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations_action_required</v>
       </c>
       <c r="D593" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E593" t="s">
         <v>15</v>
@@ -18263,7 +18551,7 @@
     </row>
     <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B594" t="str">
         <f t="shared" si="37"/>
@@ -18274,7 +18562,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations_recently_approved</v>
       </c>
       <c r="D594" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E594" t="s">
         <v>15</v>
@@ -18290,7 +18578,7 @@
     </row>
     <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B595" t="str">
         <f t="shared" si="37"/>
@@ -18301,7 +18589,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vuepending_organizations_recently_rejected</v>
       </c>
       <c r="D595" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E595" t="s">
         <v>15</v>
@@ -18317,7 +18605,7 @@
     </row>
     <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B596" t="str">
         <f t="shared" si="37"/>
@@ -18328,7 +18616,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests</v>
       </c>
       <c r="D596" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E596" t="s">
         <v>69</v>
@@ -18344,7 +18632,7 @@
     </row>
     <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B597" t="str">
         <f t="shared" si="37"/>
@@ -18355,7 +18643,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests_action_required</v>
       </c>
       <c r="D597" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E597" t="s">
         <v>15</v>
@@ -18371,7 +18659,7 @@
     </row>
     <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B598" t="str">
         <f t="shared" si="37"/>
@@ -18382,7 +18670,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests_recently_approved</v>
       </c>
       <c r="D598" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E598" t="s">
         <v>15</v>
@@ -18398,7 +18686,7 @@
     </row>
     <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B599" t="str">
         <f t="shared" si="37"/>
@@ -18409,7 +18697,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueredeploy_requests_recently_rejected</v>
       </c>
       <c r="D599" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E599" t="s">
         <v>15</v>
@@ -18425,7 +18713,7 @@
     </row>
     <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B600" t="str">
         <f t="shared" si="37"/>
@@ -18436,7 +18724,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueWorksiteImport</v>
       </c>
       <c r="D600" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E600" t="s">
         <v>69</v>
@@ -18452,7 +18740,7 @@
     </row>
     <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B601" t="str">
         <f t="shared" si="37"/>
@@ -18463,7 +18751,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueorganizations</v>
       </c>
       <c r="D601" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E601" t="s">
         <v>69</v>
@@ -18479,7 +18767,7 @@
     </row>
     <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B602" t="str">
         <f t="shared" si="37"/>
@@ -18490,7 +18778,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueorganizations</v>
       </c>
       <c r="D602" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E602" t="s">
         <v>216</v>
@@ -18506,7 +18794,7 @@
     </row>
     <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B603" t="str">
         <f t="shared" si="37"/>
@@ -18517,7 +18805,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueusers</v>
       </c>
       <c r="D603" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E603" t="s">
         <v>69</v>
@@ -18533,7 +18821,7 @@
     </row>
     <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B604" t="str">
         <f t="shared" si="37"/>
@@ -18544,7 +18832,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueusers</v>
       </c>
       <c r="D604" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E604" t="s">
         <v>216</v>
@@ -18560,7 +18848,7 @@
     </row>
     <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B605" t="str">
         <f t="shared" si="37"/>
@@ -18571,7 +18859,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueghost_users</v>
       </c>
       <c r="D605" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E605" t="s">
         <v>69</v>
@@ -18587,7 +18875,7 @@
     </row>
     <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B606" t="str">
         <f t="shared" si="37"/>
@@ -18598,7 +18886,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueghost_users</v>
       </c>
       <c r="D606" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E606" t="s">
         <v>216</v>
@@ -18614,7 +18902,7 @@
     </row>
     <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B607" t="str">
         <f t="shared" si="37"/>
@@ -18625,7 +18913,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitation_requests</v>
       </c>
       <c r="D607" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E607" t="s">
         <v>69</v>
@@ -18641,7 +18929,7 @@
     </row>
     <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B608" t="str">
         <f t="shared" si="37"/>
@@ -18652,7 +18940,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitation_requests</v>
       </c>
       <c r="D608" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E608" t="s">
         <v>216</v>
@@ -18668,7 +18956,7 @@
     </row>
     <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B609" t="str">
         <f t="shared" si="37"/>
@@ -18679,7 +18967,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitations</v>
       </c>
       <c r="D609" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E609" t="s">
         <v>69</v>
@@ -18695,7 +18983,7 @@
     </row>
     <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B610" t="str">
         <f t="shared" si="37"/>
@@ -18706,7 +18994,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminDashboard.vueinvitations</v>
       </c>
       <c r="D610" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E610" t="s">
         <v>216</v>
@@ -18720,9 +19008,9 @@
         <v>data-testid="testInvitationsSearch"</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B611" t="str">
         <f t="shared" si="37"/>
@@ -18730,2437 +19018,2739 @@
       </c>
       <c r="C611" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminIncidentWizard.vue</v>
-      </c>
-      <c r="E611" t="str">
-        <f>IF(COUNTIF(C$2:C610,C611)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminIncidentWizard.vuegeneral_incident_info</v>
+      </c>
+      <c r="D611" t="s">
+        <v>620</v>
+      </c>
+      <c r="E611" t="s">
+        <v>69</v>
       </c>
       <c r="F611" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGeneralIncidentInfoDiv</v>
       </c>
       <c r="G611" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGeneralIncidentInfoDiv"</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="B612" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminIncidentWizard.vue</v>
       </c>
       <c r="C612" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E612" t="str">
-        <f>IF(COUNTIF(C$2:C611,C612)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminIncidentWizard.vuecreate</v>
+      </c>
+      <c r="D612" t="s">
+        <v>621</v>
+      </c>
+      <c r="E612" t="s">
+        <v>15</v>
       </c>
       <c r="F612" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testCreateButton</v>
       </c>
       <c r="G612" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCreateButton"</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B613" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C613" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E613" t="str">
-        <f>IF(COUNTIF(C$2:C612,C613)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuedeleteAll</v>
+      </c>
+      <c r="D613" t="s">
+        <v>623</v>
+      </c>
+      <c r="E613" t="s">
+        <v>15</v>
       </c>
       <c r="F613" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testDeleteAllButton</v>
       </c>
       <c r="G613" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDeleteAllButton"</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B614" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C614" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E614" t="str">
-        <f>IF(COUNTIF(C$2:C613,C614)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vueclearLocalization</v>
+      </c>
+      <c r="D614" t="s">
+        <v>624</v>
+      </c>
+      <c r="E614" t="s">
+        <v>15</v>
       </c>
       <c r="F614" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testClearLocalizationButton</v>
       </c>
       <c r="G614" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testClearLocalizationButton"</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B615" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C615" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E615" t="str">
-        <f>IF(COUNTIF(C$2:C614,C615)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuesaveLocalization</v>
+      </c>
+      <c r="D615" t="s">
+        <v>625</v>
+      </c>
+      <c r="E615" t="s">
+        <v>15</v>
       </c>
       <c r="F615" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testSaveLocalizationButton</v>
       </c>
       <c r="G615" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveLocalizationButton"</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B616" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C616" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E616" t="str">
-        <f>IF(COUNTIF(C$2:C615,C616)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuesaveAndClear</v>
+      </c>
+      <c r="D616" t="s">
+        <v>626</v>
+      </c>
+      <c r="E616" t="s">
+        <v>15</v>
       </c>
       <c r="F616" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testSaveAndClearButton</v>
       </c>
       <c r="G616" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveAndClearButton"</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B617" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C617" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E617" t="str">
-        <f>IF(COUNTIF(C$2:C616,C617)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuegroup</v>
+      </c>
+      <c r="D617" t="s">
+        <v>627</v>
+      </c>
+      <c r="E617" t="s">
+        <v>68</v>
       </c>
       <c r="F617" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGroupTextInput</v>
       </c>
       <c r="G617" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGroupTextInput"</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B618" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C618" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E618" t="str">
-        <f>IF(COUNTIF(C$2:C617,C618)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuelabel</v>
+      </c>
+      <c r="D618" t="s">
+        <v>628</v>
+      </c>
+      <c r="E618" t="s">
+        <v>68</v>
       </c>
       <c r="F618" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testLabelTextInput</v>
       </c>
       <c r="G618" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLabelTextInput"</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B619" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C619" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E619" t="str">
-        <f>IF(COUNTIF(C$2:C618,C619)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuegroup_label</v>
+      </c>
+      <c r="D619" t="s">
+        <v>629</v>
+      </c>
+      <c r="E619" t="s">
+        <v>68</v>
       </c>
       <c r="F619" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGroupLabelTextInput</v>
       </c>
       <c r="G619" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGroupLabelTextInput"</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B620" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C620" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E620" t="str">
-        <f>IF(COUNTIF(C$2:C619,C620)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vueavailable_frontend</v>
+      </c>
+      <c r="D620" t="s">
+        <v>630</v>
+      </c>
+      <c r="E620" t="s">
+        <v>66</v>
       </c>
       <c r="F620" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testAvailableFrontendCheckbox</v>
       </c>
       <c r="G620" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAvailableFrontendCheckbox"</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B621" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C621" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E621" t="str">
-        <f>IF(COUNTIF(C$2:C620,C621)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuenew</v>
+      </c>
+      <c r="D621" t="s">
+        <v>631</v>
+      </c>
+      <c r="E621" t="s">
+        <v>15</v>
       </c>
       <c r="F621" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testNewButton</v>
       </c>
       <c r="G621" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNewButton"</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B622" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C622" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E622" t="str">
-        <f>IF(COUNTIF(C$2:C621,C622)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuegenerate_translations</v>
+      </c>
+      <c r="D622" t="s">
+        <v>632</v>
+      </c>
+      <c r="E622" t="s">
+        <v>15</v>
       </c>
       <c r="F622" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testGenerateTranslationsButton</v>
       </c>
       <c r="G622" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGenerateTranslationsButton"</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B623" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C623" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E623" t="str">
-        <f>IF(COUNTIF(C$2:C622,C623)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuelanguage</v>
+      </c>
+      <c r="D623" t="s">
+        <v>633</v>
+      </c>
+      <c r="E623" t="s">
+        <v>87</v>
       </c>
       <c r="F623" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testLanguageSelect</v>
       </c>
       <c r="G623" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLanguageSelect"</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B624" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C624" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E624" t="str">
-        <f>IF(COUNTIF(C$2:C623,C624)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuetext</v>
+      </c>
+      <c r="D624" t="s">
+        <v>634</v>
+      </c>
+      <c r="E624" t="s">
+        <v>68</v>
       </c>
       <c r="F624" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testTextTextInput</v>
       </c>
       <c r="G624" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTextTextInput"</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B625" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C625" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E625" t="str">
-        <f>IF(COUNTIF(C$2:C624,C625)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuecancel</v>
+      </c>
+      <c r="D625" t="s">
+        <v>40</v>
+      </c>
+      <c r="E625" t="s">
+        <v>15</v>
       </c>
       <c r="F625" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testCancelButton</v>
       </c>
       <c r="G625" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCancelButton"</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B626" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C626" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E626" t="str">
-        <f>IF(COUNTIF(C$2:C625,C626)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vueedit</v>
+      </c>
+      <c r="D626" t="s">
+        <v>371</v>
+      </c>
+      <c r="E626" t="s">
+        <v>93</v>
       </c>
       <c r="F626" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testEditIcon</v>
       </c>
       <c r="G626" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEditIcon"</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B627" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C627" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E627" t="str">
-        <f>IF(COUNTIF(C$2:C626,C627)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuesearch_group_label_text</v>
+      </c>
+      <c r="D627" t="s">
+        <v>635</v>
+      </c>
+      <c r="E627" t="s">
+        <v>216</v>
       </c>
       <c r="F627" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testSearchGroupLabelTextSearch</v>
       </c>
       <c r="G627" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSearchGroupLabelTextSearch"</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B628" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C628" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E628" t="str">
-        <f>IF(COUNTIF(C$2:C627,C628)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuesearch_labels_only</v>
+      </c>
+      <c r="D628" t="s">
+        <v>636</v>
+      </c>
+      <c r="E628" t="s">
+        <v>216</v>
       </c>
       <c r="F628" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testSearchLabelsOnlySearch</v>
       </c>
       <c r="G628" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSearchLabelsOnlySearch"</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B629" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C629" t="str">
         <f t="shared" si="38"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E629" t="str">
-        <f>IF(COUNTIF(C$2:C628,C629)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuefilter_groups</v>
+      </c>
+      <c r="D629" t="s">
+        <v>637</v>
+      </c>
+      <c r="E629" t="s">
+        <v>307</v>
       </c>
       <c r="F629" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>testFilterGroupsInput</v>
       </c>
       <c r="G629" t="str">
         <f t="shared" si="40"/>
-        <v/>
-      </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFilterGroupsInput"</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="B630" t="str">
         <f t="shared" ref="B630:B693" si="41">IF(A630="","",MID(A630,FIND("@",SUBSTITUTE(A630,"\","@",LEN(A630)-LEN(SUBSTITUTE(A630,"\",""))))+1,LEN(A630)))</f>
-        <v/>
+        <v>AdminLocalization.vue</v>
       </c>
       <c r="C630" t="str">
         <f t="shared" ref="C630:C693" si="42">A630&amp;D630</f>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E630" t="str">
-        <f>IF(COUNTIF(C$2:C629,C630)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminLocalization.vuepreview</v>
+      </c>
+      <c r="D630" t="s">
+        <v>638</v>
+      </c>
+      <c r="E630" t="s">
+        <v>93</v>
       </c>
       <c r="F630" t="str">
         <f t="shared" ref="F630:F693" si="43">IF(D630="","","test"&amp;IF(ISNUMBER(SEARCH(".",D630)),UPPER(LEFT(D630,1))&amp;RIGHT(LEFT(D630,SEARCH(".",D630)-1),LEN(LEFT(D630,SEARCH(".",D630)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D630,LEN(D630)-SEARCH(".",D630))),"_",""),IF(EXACT(LOWER(D630),D630),TRIM(SUBSTITUTE(PROPER(D630),"_","")),UPPER(LEFT(D630,1))&amp;RIGHT(D630,LEN(D630)-1)))&amp;E630)</f>
-        <v/>
+        <v>testPreviewIcon</v>
       </c>
       <c r="G630" t="str">
         <f t="shared" ref="G630:G693" si="44">IF(D630="","","data-testid="""&amp;F630&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPreviewIcon"</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="B631" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminTicketDashboard.vue</v>
       </c>
       <c r="C631" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E631" t="str">
-        <f>IF(COUNTIF(C$2:C630,C631)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminTicketDashboard.vueticket_dashboard</v>
+      </c>
+      <c r="D631" t="s">
+        <v>640</v>
+      </c>
+      <c r="E631" t="s">
+        <v>69</v>
       </c>
       <c r="F631" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testTicketDashboardDiv</v>
       </c>
       <c r="G631" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTicketDashboardDiv"</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B632" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C632" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E632" t="str">
-        <f>IF(COUNTIF(C$2:C631,C632)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuesave_organization</v>
+      </c>
+      <c r="D632" t="s">
+        <v>673</v>
+      </c>
+      <c r="E632" t="s">
+        <v>15</v>
       </c>
       <c r="F632" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testSaveOrganizationButton</v>
       </c>
       <c r="G632" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSaveOrganizationButton"</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B633" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C633" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E633" t="str">
-        <f>IF(COUNTIF(C$2:C632,C633)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueapprove_organization</v>
+      </c>
+      <c r="D633" t="s">
+        <v>674</v>
+      </c>
+      <c r="E633" t="s">
+        <v>15</v>
       </c>
       <c r="F633" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testApproveOrganizationButton</v>
       </c>
       <c r="G633" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApproveOrganizationButton"</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B634" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C634" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E634" t="str">
-        <f>IF(COUNTIF(C$2:C633,C634)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuereject_organization</v>
+      </c>
+      <c r="D634" t="s">
+        <v>675</v>
+      </c>
+      <c r="E634" t="s">
+        <v>15</v>
       </c>
       <c r="F634" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testRejectOrganizationButton</v>
       </c>
       <c r="G634" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRejectOrganizationButton"</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B635" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C635" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E635" t="str">
-        <f>IF(COUNTIF(C$2:C634,C635)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuename</v>
+      </c>
+      <c r="D635" t="s">
+        <v>417</v>
+      </c>
+      <c r="E635" t="s">
+        <v>68</v>
       </c>
       <c r="F635" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testNameTextInput</v>
       </c>
       <c r="G635" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testNameTextInput"</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B636" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C636" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E636" t="str">
-        <f>IF(COUNTIF(C$2:C635,C636)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueemail</v>
+      </c>
+      <c r="D636" t="s">
+        <v>421</v>
+      </c>
+      <c r="E636" t="s">
+        <v>68</v>
       </c>
       <c r="F636" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testEmailTextInput</v>
       </c>
       <c r="G636" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B637" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C637" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E637" t="str">
-        <f>IF(COUNTIF(C$2:C636,C637)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuephone1</v>
+      </c>
+      <c r="D637" t="s">
+        <v>418</v>
+      </c>
+      <c r="E637" t="s">
+        <v>68</v>
       </c>
       <c r="F637" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testPhone1TextInput</v>
       </c>
       <c r="G637" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPhone1TextInput"</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B638" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C638" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E638" t="str">
-        <f>IF(COUNTIF(C$2:C637,C638)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueaddress</v>
+      </c>
+      <c r="D638" t="s">
+        <v>465</v>
+      </c>
+      <c r="E638" t="s">
+        <v>68</v>
       </c>
       <c r="F638" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAddressTextInput</v>
       </c>
       <c r="G638" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddressTextInput"</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B639" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C639" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E639" t="str">
-        <f>IF(COUNTIF(C$2:C638,C639)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueurl</v>
+      </c>
+      <c r="D639" t="s">
+        <v>22</v>
+      </c>
+      <c r="E639" t="s">
+        <v>68</v>
       </c>
       <c r="F639" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testUrlTextInput</v>
       </c>
       <c r="G639" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUrlTextInput"</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B640" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C640" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E640" t="str">
-        <f>IF(COUNTIF(C$2:C639,C640)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuefacebook</v>
+      </c>
+      <c r="D640" t="s">
+        <v>642</v>
+      </c>
+      <c r="E640" t="s">
+        <v>68</v>
       </c>
       <c r="F640" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testFacebookTextInput</v>
       </c>
       <c r="G640" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFacebookTextInput"</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B641" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C641" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E641" t="str">
-        <f>IF(COUNTIF(C$2:C640,C641)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuetwitter</v>
+      </c>
+      <c r="D641" t="s">
+        <v>643</v>
+      </c>
+      <c r="E641" t="s">
+        <v>68</v>
       </c>
       <c r="F641" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testTwitterTextInput</v>
       </c>
       <c r="G641" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTwitterTextInput"</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B642" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C642" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E642" t="str">
-        <f>IF(COUNTIF(C$2:C641,C642)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueadmin_notes</v>
+      </c>
+      <c r="D642" t="s">
+        <v>644</v>
+      </c>
+      <c r="E642" t="s">
+        <v>67</v>
       </c>
       <c r="F642" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAdminNotesTextarea</v>
       </c>
       <c r="G642" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAdminNotesTextarea"</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B643" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C643" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E643" t="str">
-        <f>IF(COUNTIF(C$2:C642,C643)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueautomatically_approve_user_domain</v>
+      </c>
+      <c r="D643" t="s">
+        <v>645</v>
+      </c>
+      <c r="E643" t="s">
+        <v>68</v>
       </c>
       <c r="F643" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAutomaticallyApproveUserDomainTextInput</v>
       </c>
       <c r="G643" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAutomaticallyApproveUserDomainTextInput"</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B644" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C644" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E644" t="str">
-        <f>IF(COUNTIF(C$2:C643,C644)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueis_active</v>
+      </c>
+      <c r="D644" t="s">
+        <v>593</v>
+      </c>
+      <c r="E644" t="s">
+        <v>66</v>
       </c>
       <c r="F644" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testIsActiveCheckbox</v>
       </c>
       <c r="G644" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsActiveCheckbox"</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B645" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C645" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E645" t="str">
-        <f>IF(COUNTIF(C$2:C644,C645)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueis_verified</v>
+      </c>
+      <c r="D645" t="s">
+        <v>646</v>
+      </c>
+      <c r="E645" t="s">
+        <v>66</v>
       </c>
       <c r="F645" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testIsVerifiedCheckbox</v>
       </c>
       <c r="G645" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIsVerifiedCheckbox"</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B646" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C646" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E646" t="str">
-        <f>IF(COUNTIF(C$2:C645,C646)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuepublish</v>
+      </c>
+      <c r="D646" t="s">
+        <v>647</v>
+      </c>
+      <c r="E646" t="s">
+        <v>66</v>
       </c>
       <c r="F646" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testPublishCheckbox</v>
       </c>
       <c r="G646" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPublishCheckbox"</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B647" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C647" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E647" t="str">
-        <f>IF(COUNTIF(C$2:C646,C647)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueorganization_type</v>
+      </c>
+      <c r="D647" t="s">
+        <v>648</v>
+      </c>
+      <c r="E647" t="s">
+        <v>87</v>
       </c>
       <c r="F647" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testOrganizationTypeSelect</v>
       </c>
       <c r="G647" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationTypeSelect"</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B648" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C648" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E648" t="str">
-        <f>IF(COUNTIF(C$2:C647,C648)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuerole</v>
+      </c>
+      <c r="D648" t="s">
+        <v>649</v>
+      </c>
+      <c r="E648" t="s">
+        <v>87</v>
       </c>
       <c r="F648" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testRoleSelect</v>
       </c>
       <c r="G648" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRoleSelect"</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B649" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C649" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E649" t="str">
-        <f>IF(COUNTIF(C$2:C648,C649)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueapprove_reject_reason_t</v>
+      </c>
+      <c r="D649" t="s">
+        <v>650</v>
+      </c>
+      <c r="E649" t="s">
+        <v>87</v>
       </c>
       <c r="F649" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testApproveRejectReasonTSelect</v>
       </c>
       <c r="G649" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApproveRejectReasonTSelect"</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B650" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C650" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E650" t="str">
-        <f>IF(COUNTIF(C$2:C649,C650)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuegenerate_api_key</v>
+      </c>
+      <c r="D650" t="s">
+        <v>651</v>
+      </c>
+      <c r="E650" t="s">
+        <v>15</v>
       </c>
       <c r="F650" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testGenerateApiKeyButton</v>
       </c>
       <c r="G650" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGenerateApiKeyButton"</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B651" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C651" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E651" t="str">
-        <f>IF(COUNTIF(C$2:C650,C651)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueorganization_logo</v>
+      </c>
+      <c r="D651" t="s">
+        <v>120</v>
+      </c>
+      <c r="E651" t="s">
+        <v>3</v>
       </c>
       <c r="F651" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testOrganizationLogoFile</v>
       </c>
       <c r="G651" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationLogoFile"</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B652" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C652" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E652" t="str">
-        <f>IF(COUNTIF(C$2:C651,C652)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueorganization_logo</v>
+      </c>
+      <c r="D652" t="s">
+        <v>120</v>
+      </c>
+      <c r="E652" t="s">
+        <v>93</v>
       </c>
       <c r="F652" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testOrganizationLogoIcon</v>
       </c>
       <c r="G652" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationLogoIcon"</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B653" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C653" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E653" t="str">
-        <f>IF(COUNTIF(C$2:C652,C653)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueupdate_logo</v>
+      </c>
+      <c r="D653" t="s">
+        <v>652</v>
+      </c>
+      <c r="E653" t="s">
+        <v>15</v>
       </c>
       <c r="F653" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testUpdateLogoButton</v>
       </c>
       <c r="G653" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUpdateLogoButton"</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B654" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C654" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E654" t="str">
-        <f>IF(COUNTIF(C$2:C653,C654)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueprimary_contacts</v>
+      </c>
+      <c r="D654" t="s">
+        <v>653</v>
+      </c>
+      <c r="E654" t="s">
+        <v>69</v>
       </c>
       <c r="F654" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testPrimaryContactsDiv</v>
       </c>
       <c r="G654" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryContactsDiv"</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B655" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C655" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E655" t="str">
-        <f>IF(COUNTIF(C$2:C654,C655)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueghost_users</v>
+      </c>
+      <c r="D655" t="s">
+        <v>616</v>
+      </c>
+      <c r="E655" t="s">
+        <v>69</v>
       </c>
       <c r="F655" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testGhostUsersDiv</v>
       </c>
       <c r="G655" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGhostUsersDiv"</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B656" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C656" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E656" t="str">
-        <f>IF(COUNTIF(C$2:C655,C656)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueall_users</v>
+      </c>
+      <c r="D656" t="s">
+        <v>654</v>
+      </c>
+      <c r="E656" t="s">
+        <v>69</v>
       </c>
       <c r="F656" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAllUsersDiv</v>
       </c>
       <c r="G656" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAllUsersDiv"</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B657" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C657" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E657" t="str">
-        <f>IF(COUNTIF(C$2:C656,C657)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuegeneral_info</v>
+      </c>
+      <c r="D657" t="s">
+        <v>655</v>
+      </c>
+      <c r="E657" t="s">
+        <v>92</v>
       </c>
       <c r="F657" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testGeneralInfoContent</v>
       </c>
       <c r="G657" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGeneralInfoContent"</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B658" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C658" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E658" t="str">
-        <f>IF(COUNTIF(C$2:C657,C658)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueincidents</v>
+      </c>
+      <c r="D658" t="s">
+        <v>656</v>
+      </c>
+      <c r="E658" t="s">
+        <v>69</v>
       </c>
       <c r="F658" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testIncidentsDiv</v>
       </c>
       <c r="G658" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentsDiv"</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B659" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C659" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E659" t="str">
-        <f>IF(COUNTIF(C$2:C658,C659)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueincidentToAdd</v>
+      </c>
+      <c r="D659" t="s">
+        <v>657</v>
+      </c>
+      <c r="E659" t="s">
+        <v>87</v>
       </c>
       <c r="F659" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testIncidentToAddSelect</v>
       </c>
       <c r="G659" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentToAddSelect"</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B660" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C660" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E660" t="str">
-        <f>IF(COUNTIF(C$2:C659,C660)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueadd_incident</v>
+      </c>
+      <c r="D660" t="s">
+        <v>677</v>
+      </c>
+      <c r="E660" t="s">
+        <v>15</v>
       </c>
       <c r="F660" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAddIncidentButton</v>
       </c>
       <c r="G660" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddIncidentButton"</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B661" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C661" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E661" t="str">
-        <f>IF(COUNTIF(C$2:C660,C661)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuepending_requests</v>
+      </c>
+      <c r="D661" t="s">
+        <v>658</v>
+      </c>
+      <c r="E661" t="s">
+        <v>92</v>
       </c>
       <c r="F661" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testPendingRequestsContent</v>
       </c>
       <c r="G661" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPendingRequestsContent"</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B662" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C662" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E662" t="str">
-        <f>IF(COUNTIF(C$2:C661,C662)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueapprove_incident</v>
+      </c>
+      <c r="D662" t="s">
+        <v>659</v>
+      </c>
+      <c r="E662" t="s">
+        <v>15</v>
       </c>
       <c r="F662" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testApproveIncidentButton</v>
       </c>
       <c r="G662" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApproveIncidentButton"</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B663" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C663" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E663" t="str">
-        <f>IF(COUNTIF(C$2:C662,C663)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuereject_incident</v>
+      </c>
+      <c r="D663" t="s">
+        <v>660</v>
+      </c>
+      <c r="E663" t="s">
+        <v>15</v>
       </c>
       <c r="F663" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testRejectIncidentButton</v>
       </c>
       <c r="G663" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRejectIncidentButton"</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B664" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C664" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E664" t="str">
-        <f>IF(COUNTIF(C$2:C663,C664)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueapproved_incidents</v>
+      </c>
+      <c r="D664" t="s">
+        <v>661</v>
+      </c>
+      <c r="E664" t="s">
+        <v>69</v>
       </c>
       <c r="F664" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testApprovedIncidentsDiv</v>
       </c>
       <c r="G664" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApprovedIncidentsDiv"</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B665" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C665" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E665" t="str">
-        <f>IF(COUNTIF(C$2:C664,C665)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuegroupToAdd</v>
+      </c>
+      <c r="D665" t="s">
+        <v>662</v>
+      </c>
+      <c r="E665" t="s">
+        <v>87</v>
       </c>
       <c r="F665" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testGroupToAddSelect</v>
       </c>
       <c r="G665" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGroupToAddSelect"</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B666" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C666" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E666" t="str">
-        <f>IF(COUNTIF(C$2:C665,C666)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuegroupToAdd</v>
+      </c>
+      <c r="D666" t="s">
+        <v>662</v>
+      </c>
+      <c r="E666" t="s">
+        <v>15</v>
       </c>
       <c r="F666" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testGroupToAddButton</v>
       </c>
       <c r="G666" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGroupToAddButton"</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B667" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C667" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E667" t="str">
-        <f>IF(COUNTIF(C$2:C666,C667)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuedelete_group</v>
+      </c>
+      <c r="D667" t="s">
+        <v>663</v>
+      </c>
+      <c r="E667" t="s">
+        <v>93</v>
       </c>
       <c r="F667" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testDeleteGroupIcon</v>
       </c>
       <c r="G667" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testDeleteGroupIcon"</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B668" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C668" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E668" t="str">
-        <f>IF(COUNTIF(C$2:C667,C668)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueprimary_location</v>
+      </c>
+      <c r="D668" t="s">
+        <v>664</v>
+      </c>
+      <c r="E668" t="s">
+        <v>69</v>
       </c>
       <c r="F668" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testPrimaryLocationDiv</v>
       </c>
       <c r="G668" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryLocationDiv"</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B669" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C669" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E669" t="str">
-        <f>IF(COUNTIF(C$2:C668,C669)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueedit_primary_response_area</v>
+      </c>
+      <c r="D669" t="s">
+        <v>665</v>
+      </c>
+      <c r="E669" t="s">
+        <v>15</v>
       </c>
       <c r="F669" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testEditPrimaryResponseAreaButton</v>
       </c>
       <c r="G669" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEditPrimaryResponseAreaButton"</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B670" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C670" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E670" t="str">
-        <f>IF(COUNTIF(C$2:C669,C670)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueadd_primary_response_area</v>
+      </c>
+      <c r="D670" t="s">
+        <v>666</v>
+      </c>
+      <c r="E670" t="s">
+        <v>15</v>
       </c>
       <c r="F670" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAddPrimaryResponseAreaButton</v>
       </c>
       <c r="G670" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddPrimaryResponseAreaButton"</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B671" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C671" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E671" t="str">
-        <f>IF(COUNTIF(C$2:C670,C671)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuesecondary_location</v>
+      </c>
+      <c r="D671" t="s">
+        <v>667</v>
+      </c>
+      <c r="E671" t="s">
+        <v>69</v>
       </c>
       <c r="F671" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testSecondaryLocationDiv</v>
       </c>
       <c r="G671" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSecondaryLocationDiv"</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B672" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C672" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E672" t="str">
-        <f>IF(COUNTIF(C$2:C671,C672)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueedit_secondary_response_area</v>
+      </c>
+      <c r="D672" t="s">
+        <v>668</v>
+      </c>
+      <c r="E672" t="s">
+        <v>15</v>
       </c>
       <c r="F672" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testEditSecondaryResponseAreaButton</v>
       </c>
       <c r="G672" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testEditSecondaryResponseAreaButton"</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B673" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C673" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E673" t="str">
-        <f>IF(COUNTIF(C$2:C672,C673)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueadd_secondary_response_area</v>
+      </c>
+      <c r="D673" t="s">
+        <v>669</v>
+      </c>
+      <c r="E673" t="s">
+        <v>15</v>
       </c>
       <c r="F673" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAddSecondaryResponseAreaButton</v>
       </c>
       <c r="G673" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddSecondaryResponseAreaButton"</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B674" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C674" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E674" t="str">
-        <f>IF(COUNTIF(C$2:C673,C674)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueorg_api_keys</v>
+      </c>
+      <c r="D674" t="s">
+        <v>670</v>
+      </c>
+      <c r="E674" t="s">
+        <v>98</v>
       </c>
       <c r="F674" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testOrgApiKeysModal</v>
       </c>
       <c r="G674" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrgApiKeysModal"</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B675" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C675" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E675" t="str">
-        <f>IF(COUNTIF(C$2:C674,C675)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vueapiKey</v>
+      </c>
+      <c r="D675" t="s">
+        <v>672</v>
+      </c>
+      <c r="E675" t="s">
+        <v>68</v>
       </c>
       <c r="F675" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testApiKeyTextInput</v>
       </c>
       <c r="G675" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testApiKeyTextInput"</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B676" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C676" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E676" t="str">
-        <f>IF(COUNTIF(C$2:C675,C676)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuecopy_key</v>
+      </c>
+      <c r="D676" t="s">
+        <v>671</v>
+      </c>
+      <c r="E676" t="s">
+        <v>15</v>
       </c>
       <c r="F676" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testCopyKeyButton</v>
       </c>
       <c r="G676" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCopyKeyButton"</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="B677" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>AdminOrganization.vue</v>
       </c>
       <c r="C677" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E677" t="str">
-        <f>IF(COUNTIF(C$2:C676,C677)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\AdminOrganization.vuecapabilities</v>
+      </c>
+      <c r="D677" t="s">
+        <v>676</v>
+      </c>
+      <c r="E677" t="s">
+        <v>69</v>
       </c>
       <c r="F677" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testCapabilitiesDiv</v>
       </c>
       <c r="G677" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCapabilitiesDiv"</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>586</v>
+        <v>678</v>
       </c>
       <c r="B678" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Report.vue</v>
       </c>
       <c r="C678" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E678" t="str">
-        <f>IF(COUNTIF(C$2:C677,C678)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Report.vuepaid_for_statement</v>
+      </c>
+      <c r="D678" t="s">
+        <v>679</v>
+      </c>
+      <c r="E678" t="s">
+        <v>69</v>
       </c>
       <c r="F678" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testPaidForStatementDiv</v>
       </c>
       <c r="G678" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPaidForStatementDiv"</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>586</v>
+        <v>678</v>
       </c>
       <c r="B679" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Report.vue</v>
       </c>
       <c r="C679" t="str">
         <f t="shared" si="42"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\</v>
-      </c>
-      <c r="E679" t="str">
-        <f>IF(COUNTIF(C$2:C678,C679)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Report.vueReportFilters</v>
+      </c>
+      <c r="D679" t="s">
+        <v>680</v>
+      </c>
+      <c r="E679" t="s">
+        <v>92</v>
       </c>
       <c r="F679" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testReportFiltersContent</v>
       </c>
       <c r="G679" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testReportFiltersContent"</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>678</v>
+      </c>
       <c r="B680" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Report.vue</v>
       </c>
       <c r="C680" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E680" t="str">
-        <f>IF(COUNTIF(C$2:C679,C680)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Report.vueReportWidget</v>
+      </c>
+      <c r="D680" t="s">
+        <v>681</v>
+      </c>
+      <c r="E680" t="s">
+        <v>92</v>
       </c>
       <c r="F680" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testReportWidgetContent</v>
       </c>
       <c r="G680" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testReportWidgetContent"</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>678</v>
+      </c>
       <c r="B681" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Report.vue</v>
       </c>
       <c r="C681" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Report.vue:several_calculated</v>
+      </c>
+      <c r="D681" t="s">
+        <v>104</v>
       </c>
       <c r="E681" t="str">
         <f>IF(COUNTIF(C$2:C680,C681)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F681" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G681" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>682</v>
+      </c>
       <c r="B682" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Reports.vue</v>
       </c>
       <c r="C682" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E682" t="str">
-        <f>IF(COUNTIF(C$2:C681,C682)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\admin\Reports.vueshowRequestAccessModal</v>
+      </c>
+      <c r="D682" t="s">
+        <v>683</v>
+      </c>
+      <c r="E682" t="s">
+        <v>98</v>
       </c>
       <c r="F682" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testShowRequestAccessModalModal</v>
       </c>
       <c r="G682" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testShowRequestAccessModalModal"</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>685</v>
+      </c>
       <c r="B683" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C683" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E683" t="str">
-        <f>IF(COUNTIF(C$2:C682,C683)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueabout</v>
+      </c>
+      <c r="D683" t="s">
+        <v>686</v>
+      </c>
+      <c r="E683" t="s">
+        <v>69</v>
       </c>
       <c r="F683" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutDiv</v>
       </c>
       <c r="G683" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutDiv"</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>685</v>
+      </c>
       <c r="B684" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C684" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E684" t="str">
-        <f>IF(COUNTIF(C$2:C683,C684)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutDescription</v>
+      </c>
+      <c r="D684" t="s">
+        <v>687</v>
+      </c>
+      <c r="E684" t="s">
+        <v>69</v>
       </c>
       <c r="F684" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutDescriptionDiv</v>
       </c>
       <c r="G684" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutDescriptionDiv"</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>685</v>
+      </c>
       <c r="B685" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C685" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E685" t="str">
-        <f>IF(COUNTIF(C$2:C684,C685)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutVideo</v>
+      </c>
+      <c r="D685" t="s">
+        <v>688</v>
+      </c>
+      <c r="E685" t="s">
+        <v>69</v>
       </c>
       <c r="F685" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutVideoDiv</v>
       </c>
       <c r="G685" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutVideoDiv"</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
       <c r="B686" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C686" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E686" t="str">
-        <f>IF(COUNTIF(C$2:C685,C686)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutStats</v>
+      </c>
+      <c r="D686" t="s">
+        <v>689</v>
+      </c>
+      <c r="E686" t="s">
+        <v>69</v>
       </c>
       <c r="F686" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutStatsDiv</v>
       </c>
       <c r="G686" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutStatsDiv"</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>685</v>
+      </c>
       <c r="B687" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C687" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E687" t="str">
-        <f>IF(COUNTIF(C$2:C686,C687)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutPeople</v>
+      </c>
+      <c r="D687" t="s">
+        <v>690</v>
+      </c>
+      <c r="E687" t="s">
+        <v>69</v>
       </c>
       <c r="F687" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutPeopleDiv</v>
       </c>
       <c r="G687" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutPeopleDiv"</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>685</v>
+      </c>
       <c r="B688" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C688" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E688" t="str">
-        <f>IF(COUNTIF(C$2:C687,C688)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutMajorContributors</v>
+      </c>
+      <c r="D688" t="s">
+        <v>691</v>
+      </c>
+      <c r="E688" t="s">
+        <v>69</v>
       </c>
       <c r="F688" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutMajorContributorsDiv</v>
       </c>
       <c r="G688" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutMajorContributorsDiv"</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>685</v>
+      </c>
       <c r="B689" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C689" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E689" t="str">
-        <f>IF(COUNTIF(C$2:C688,C689)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutSupporterLogos</v>
+      </c>
+      <c r="D689" t="s">
+        <v>692</v>
+      </c>
+      <c r="E689" t="s">
+        <v>69</v>
       </c>
       <c r="F689" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutSupporterLogosDiv</v>
       </c>
       <c r="G689" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutSupporterLogosDiv"</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>685</v>
+      </c>
       <c r="B690" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C690" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E690" t="str">
-        <f>IF(COUNTIF(C$2:C689,C690)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutPhilosophies</v>
+      </c>
+      <c r="D690" t="s">
+        <v>693</v>
+      </c>
+      <c r="E690" t="s">
+        <v>69</v>
       </c>
       <c r="F690" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutPhilosophiesDiv</v>
       </c>
       <c r="G690" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutPhilosophiesDiv"</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>685</v>
+      </c>
       <c r="B691" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>About.vue</v>
       </c>
       <c r="C691" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E691" t="str">
-        <f>IF(COUNTIF(C$2:C690,C691)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutLegalStuff</v>
+      </c>
+      <c r="D691" t="s">
+        <v>694</v>
+      </c>
+      <c r="E691" t="s">
+        <v>69</v>
       </c>
       <c r="F691" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testAboutLegalStuffDiv</v>
       </c>
       <c r="G691" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAboutLegalStuffDiv"</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>695</v>
+      </c>
       <c r="B692" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Contributions.vue</v>
       </c>
       <c r="C692" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E692" t="str">
-        <f>IF(COUNTIF(C$2:C691,C692)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Contributions.vuecontributions</v>
+      </c>
+      <c r="D692" t="s">
+        <v>696</v>
+      </c>
+      <c r="E692" t="s">
+        <v>69</v>
       </c>
       <c r="F692" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testContributionsDiv</v>
       </c>
       <c r="G692" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testContributionsDiv"</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>697</v>
+      </c>
       <c r="B693" t="str">
         <f t="shared" si="41"/>
-        <v/>
+        <v>Login.vue</v>
       </c>
       <c r="C693" t="str">
         <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E693" t="str">
-        <f>IF(COUNTIF(C$2:C692,C693)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Login.vueglobe</v>
+      </c>
+      <c r="D693" t="s">
+        <v>698</v>
+      </c>
+      <c r="E693" t="s">
+        <v>93</v>
       </c>
       <c r="F693" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>testGlobeIcon</v>
       </c>
       <c r="G693" t="str">
         <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGlobeIcon"</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>699</v>
+      </c>
       <c r="B694" t="str">
         <f t="shared" ref="B694:B750" si="45">IF(A694="","",MID(A694,FIND("@",SUBSTITUTE(A694,"\","@",LEN(A694)-LEN(SUBSTITUTE(A694,"\",""))))+1,LEN(A694)))</f>
-        <v/>
+        <v>Privacy.vue</v>
       </c>
       <c r="C694" t="str">
         <f t="shared" ref="C694:C750" si="46">A694&amp;D694</f>
-        <v/>
-      </c>
-      <c r="E694" t="str">
-        <f>IF(COUNTIF(C$2:C693,C694)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Privacy.vueprivacy</v>
+      </c>
+      <c r="D694" t="s">
+        <v>700</v>
+      </c>
+      <c r="E694" t="s">
+        <v>69</v>
       </c>
       <c r="F694" t="str">
         <f t="shared" ref="F694:F750" si="47">IF(D694="","","test"&amp;IF(ISNUMBER(SEARCH(".",D694)),UPPER(LEFT(D694,1))&amp;RIGHT(LEFT(D694,SEARCH(".",D694)-1),LEN(LEFT(D694,SEARCH(".",D694)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D694,LEN(D694)-SEARCH(".",D694))),"_",""),IF(EXACT(LOWER(D694),D694),TRIM(SUBSTITUTE(PROPER(D694),"_","")),UPPER(LEFT(D694,1))&amp;RIGHT(D694,LEN(D694)-1)))&amp;E694)</f>
-        <v/>
+        <v>testPrivacyDiv</v>
       </c>
       <c r="G694" t="str">
         <f t="shared" ref="G694:G750" si="48">IF(D694="","","data-testid="""&amp;F694&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrivacyDiv"</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>701</v>
+      </c>
       <c r="B695" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Map.vue</v>
       </c>
       <c r="C695" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E695" t="str">
-        <f>IF(COUNTIF(C$2:C694,C695)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Map.vueincident</v>
+      </c>
+      <c r="D695" t="s">
+        <v>23</v>
+      </c>
+      <c r="E695" t="s">
+        <v>87</v>
       </c>
       <c r="F695" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testIncidentSelect</v>
       </c>
       <c r="G695" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentSelect"</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>701</v>
+      </c>
       <c r="B696" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Map.vue</v>
       </c>
       <c r="C696" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E696" t="str">
-        <f>IF(COUNTIF(C$2:C695,C696)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Map.vuesimpleMap</v>
+      </c>
+      <c r="D696" t="s">
+        <v>702</v>
+      </c>
+      <c r="E696" t="s">
+        <v>92</v>
       </c>
       <c r="F696" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testSimpleMapContent</v>
       </c>
       <c r="G696" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSimpleMapContent"</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>703</v>
+      </c>
       <c r="B697" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C697" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E697" t="str">
-        <f>IF(COUNTIF(C$2:C696,C697)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueincident</v>
+      </c>
+      <c r="D697" t="s">
+        <v>23</v>
+      </c>
+      <c r="E697" t="s">
+        <v>87</v>
       </c>
       <c r="F697" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testIncidentSelect</v>
       </c>
       <c r="G697" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testIncidentSelect"</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>703</v>
+      </c>
       <c r="B698" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C698" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E698" t="str">
-        <f>IF(COUNTIF(C$2:C697,C698)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_name</v>
+      </c>
+      <c r="D698" t="s">
+        <v>524</v>
+      </c>
+      <c r="E698" t="s">
+        <v>216</v>
       </c>
       <c r="F698" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationNameSearch</v>
       </c>
       <c r="G698" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationNameSearch"</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>703</v>
+      </c>
       <c r="B699" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C699" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E699" t="str">
-        <f>IF(COUNTIF(C$2:C698,C699)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_url</v>
+      </c>
+      <c r="D699" t="s">
+        <v>704</v>
+      </c>
+      <c r="E699" t="s">
+        <v>68</v>
       </c>
       <c r="F699" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationUrlTextInput</v>
       </c>
       <c r="G699" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationUrlTextInput"</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>703</v>
+      </c>
       <c r="B700" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C700" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E700" t="str">
-        <f>IF(COUNTIF(C$2:C699,C700)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_facebook</v>
+      </c>
+      <c r="D700" t="s">
+        <v>705</v>
+      </c>
+      <c r="E700" t="s">
+        <v>68</v>
       </c>
       <c r="F700" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationFacebookTextInput</v>
       </c>
       <c r="G700" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationFacebookTextInput"</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>703</v>
+      </c>
       <c r="B701" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C701" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E701" t="str">
-        <f>IF(COUNTIF(C$2:C700,C701)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_twitter</v>
+      </c>
+      <c r="D701" t="s">
+        <v>706</v>
+      </c>
+      <c r="E701" t="s">
+        <v>68</v>
       </c>
       <c r="F701" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationTwitterTextInput</v>
       </c>
       <c r="G701" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationTwitterTextInput"</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>703</v>
+      </c>
       <c r="B702" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C702" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E702" t="str">
-        <f>IF(COUNTIF(C$2:C701,C702)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_where_are_you_working</v>
+      </c>
+      <c r="D702" t="s">
+        <v>707</v>
+      </c>
+      <c r="E702" t="s">
+        <v>68</v>
       </c>
       <c r="F702" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationWhereAreYouWorkingTextInput</v>
       </c>
       <c r="G702" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationWhereAreYouWorkingTextInput"</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>703</v>
+      </c>
       <c r="B703" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C703" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E703" t="str">
-        <f>IF(COUNTIF(C$2:C702,C703)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_referral</v>
+      </c>
+      <c r="D703" t="s">
+        <v>708</v>
+      </c>
+      <c r="E703" t="s">
+        <v>68</v>
       </c>
       <c r="F703" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationReferralTextInput</v>
       </c>
       <c r="G703" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationReferralTextInput"</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
       <c r="B704" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C704" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E704" t="str">
-        <f>IF(COUNTIF(C$2:C703,C704)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_first_name</v>
+      </c>
+      <c r="D704" t="s">
+        <v>709</v>
+      </c>
+      <c r="E704" t="s">
+        <v>68</v>
       </c>
       <c r="F704" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPrimaryContactFirstNameTextInput</v>
       </c>
       <c r="G704" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryContactFirstNameTextInput"</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>703</v>
+      </c>
       <c r="B705" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C705" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E705" t="str">
-        <f>IF(COUNTIF(C$2:C704,C705)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_last_name</v>
+      </c>
+      <c r="D705" t="s">
+        <v>710</v>
+      </c>
+      <c r="E705" t="s">
+        <v>68</v>
       </c>
       <c r="F705" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPrimaryContactLastNameTextInput</v>
       </c>
       <c r="G705" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryContactLastNameTextInput"</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>703</v>
+      </c>
       <c r="B706" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C706" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E706" t="str">
-        <f>IF(COUNTIF(C$2:C705,C706)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_email</v>
+      </c>
+      <c r="D706" t="s">
+        <v>711</v>
+      </c>
+      <c r="E706" t="s">
+        <v>68</v>
       </c>
       <c r="F706" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPrimaryContactEmailTextInput</v>
       </c>
       <c r="G706" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryContactEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>703</v>
+      </c>
       <c r="B707" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C707" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E707" t="str">
-        <f>IF(COUNTIF(C$2:C706,C707)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_mobile</v>
+      </c>
+      <c r="D707" t="s">
+        <v>712</v>
+      </c>
+      <c r="E707" t="s">
+        <v>68</v>
       </c>
       <c r="F707" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPrimaryContactMobileTextInput</v>
       </c>
       <c r="G707" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryContactMobileTextInput"</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>703</v>
+      </c>
       <c r="B708" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C708" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E708" t="str">
-        <f>IF(COUNTIF(C$2:C707,C708)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueCapabilityMatrix</v>
+      </c>
+      <c r="D708" t="s">
+        <v>713</v>
+      </c>
+      <c r="E708" t="s">
+        <v>307</v>
       </c>
       <c r="F708" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testCapabilityMatrixInput</v>
       </c>
       <c r="G708" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCapabilityMatrixInput"</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>703</v>
+      </c>
       <c r="B709" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C709" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E709" t="str">
-        <f>IF(COUNTIF(C$2:C708,C709)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_publish</v>
+      </c>
+      <c r="D709" t="s">
+        <v>715</v>
+      </c>
+      <c r="E709" t="s">
+        <v>66</v>
       </c>
       <c r="F709" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrganizationPublishCheckbox</v>
       </c>
       <c r="G709" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrganizationPublishCheckbox"</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>703</v>
+      </c>
       <c r="B710" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C710" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E710" t="str">
-        <f>IF(COUNTIF(C$2:C709,C710)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueaccepted_terms</v>
+      </c>
+      <c r="D710" t="s">
+        <v>714</v>
+      </c>
+      <c r="E710" t="s">
+        <v>66</v>
       </c>
       <c r="F710" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testAcceptedTermsCheckbox</v>
       </c>
       <c r="G710" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAcceptedTermsCheckbox"</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>703</v>
+      </c>
       <c r="B711" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RegisterOrganization.vue</v>
       </c>
       <c r="C711" t="str">
         <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E711" t="str">
-        <f>IF(COUNTIF(C$2:C710,C711)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vuesign_up</v>
+      </c>
+      <c r="D711" t="s">
+        <v>716</v>
+      </c>
+      <c r="E711" t="s">
+        <v>15</v>
       </c>
       <c r="F711" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testSignUpButton</v>
       </c>
       <c r="G711" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSignUpButton"</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>684</v>
+      </c>
       <c r="B712" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C712" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E712" t="str">
         <f>IF(COUNTIF(C$2:C711,C712)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F712" t="str">
         <f t="shared" si="47"/>
@@ -21171,14 +21761,17 @@
         <v/>
       </c>
     </row>
-    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>684</v>
+      </c>
       <c r="B713" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C713" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E713" t="str">
         <f>IF(COUNTIF(C$2:C712,C713)&gt;0,"Button","")</f>
@@ -21193,14 +21786,17 @@
         <v/>
       </c>
     </row>
-    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>684</v>
+      </c>
       <c r="B714" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C714" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E714" t="str">
         <f>IF(COUNTIF(C$2:C713,C714)&gt;0,"Button","")</f>
@@ -21215,14 +21811,17 @@
         <v/>
       </c>
     </row>
-    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>684</v>
+      </c>
       <c r="B715" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C715" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E715" t="str">
         <f>IF(COUNTIF(C$2:C714,C715)&gt;0,"Button","")</f>
@@ -21237,14 +21836,17 @@
         <v/>
       </c>
     </row>
-    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>684</v>
+      </c>
       <c r="B716" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C716" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E716" t="str">
         <f>IF(COUNTIF(C$2:C715,C716)&gt;0,"Button","")</f>
@@ -21259,14 +21861,17 @@
         <v/>
       </c>
     </row>
-    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>684</v>
+      </c>
       <c r="B717" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C717" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E717" t="str">
         <f>IF(COUNTIF(C$2:C716,C717)&gt;0,"Button","")</f>
@@ -21281,14 +21886,17 @@
         <v/>
       </c>
     </row>
-    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>684</v>
+      </c>
       <c r="B718" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C718" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E718" t="str">
         <f>IF(COUNTIF(C$2:C717,C718)&gt;0,"Button","")</f>
@@ -21303,14 +21911,17 @@
         <v/>
       </c>
     </row>
-    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>684</v>
+      </c>
       <c r="B719" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C719" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E719" t="str">
         <f>IF(COUNTIF(C$2:C718,C719)&gt;0,"Button","")</f>
@@ -21325,14 +21936,17 @@
         <v/>
       </c>
     </row>
-    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>684</v>
+      </c>
       <c r="B720" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C720" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E720" t="str">
         <f>IF(COUNTIF(C$2:C719,C720)&gt;0,"Button","")</f>
@@ -21347,14 +21961,17 @@
         <v/>
       </c>
     </row>
-    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>684</v>
+      </c>
       <c r="B721" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C721" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E721" t="str">
         <f>IF(COUNTIF(C$2:C720,C721)&gt;0,"Button","")</f>
@@ -21369,14 +21986,17 @@
         <v/>
       </c>
     </row>
-    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>684</v>
+      </c>
       <c r="B722" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C722" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E722" t="str">
         <f>IF(COUNTIF(C$2:C721,C722)&gt;0,"Button","")</f>
@@ -21391,14 +22011,17 @@
         <v/>
       </c>
     </row>
-    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>684</v>
+      </c>
       <c r="B723" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C723" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E723" t="str">
         <f>IF(COUNTIF(C$2:C722,C723)&gt;0,"Button","")</f>
@@ -21413,14 +22036,17 @@
         <v/>
       </c>
     </row>
-    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>684</v>
+      </c>
       <c r="B724" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C724" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E724" t="str">
         <f>IF(COUNTIF(C$2:C723,C724)&gt;0,"Button","")</f>
@@ -21435,14 +22061,17 @@
         <v/>
       </c>
     </row>
-    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>684</v>
+      </c>
       <c r="B725" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C725" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E725" t="str">
         <f>IF(COUNTIF(C$2:C724,C725)&gt;0,"Button","")</f>
@@ -21457,14 +22086,17 @@
         <v/>
       </c>
     </row>
-    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>684</v>
+      </c>
       <c r="B726" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C726" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E726" t="str">
         <f>IF(COUNTIF(C$2:C725,C726)&gt;0,"Button","")</f>
@@ -21479,14 +22111,17 @@
         <v/>
       </c>
     </row>
-    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>684</v>
+      </c>
       <c r="B727" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C727" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E727" t="str">
         <f>IF(COUNTIF(C$2:C726,C727)&gt;0,"Button","")</f>
@@ -21501,14 +22136,17 @@
         <v/>
       </c>
     </row>
-    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>684</v>
+      </c>
       <c r="B728" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C728" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E728" t="str">
         <f>IF(COUNTIF(C$2:C727,C728)&gt;0,"Button","")</f>
@@ -21523,14 +22161,17 @@
         <v/>
       </c>
     </row>
-    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>684</v>
+      </c>
       <c r="B729" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C729" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E729" t="str">
         <f>IF(COUNTIF(C$2:C728,C729)&gt;0,"Button","")</f>
@@ -21545,14 +22186,17 @@
         <v/>
       </c>
     </row>
-    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>684</v>
+      </c>
       <c r="B730" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C730" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E730" t="str">
         <f>IF(COUNTIF(C$2:C729,C730)&gt;0,"Button","")</f>
@@ -21567,14 +22211,17 @@
         <v/>
       </c>
     </row>
-    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>684</v>
+      </c>
       <c r="B731" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C731" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E731" t="str">
         <f>IF(COUNTIF(C$2:C730,C731)&gt;0,"Button","")</f>
@@ -21589,14 +22236,17 @@
         <v/>
       </c>
     </row>
-    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>684</v>
+      </c>
       <c r="B732" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C732" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E732" t="str">
         <f>IF(COUNTIF(C$2:C731,C732)&gt;0,"Button","")</f>
@@ -21611,14 +22261,17 @@
         <v/>
       </c>
     </row>
-    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>684</v>
+      </c>
       <c r="B733" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C733" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E733" t="str">
         <f>IF(COUNTIF(C$2:C732,C733)&gt;0,"Button","")</f>
@@ -21633,14 +22286,17 @@
         <v/>
       </c>
     </row>
-    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>684</v>
+      </c>
       <c r="B734" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C734" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E734" t="str">
         <f>IF(COUNTIF(C$2:C733,C734)&gt;0,"Button","")</f>
@@ -21655,14 +22311,17 @@
         <v/>
       </c>
     </row>
-    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>684</v>
+      </c>
       <c r="B735" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C735" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E735" t="str">
         <f>IF(COUNTIF(C$2:C734,C735)&gt;0,"Button","")</f>
@@ -21677,14 +22336,17 @@
         <v/>
       </c>
     </row>
-    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>684</v>
+      </c>
       <c r="B736" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C736" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E736" t="str">
         <f>IF(COUNTIF(C$2:C735,C736)&gt;0,"Button","")</f>
@@ -21699,14 +22361,17 @@
         <v/>
       </c>
     </row>
-    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>684</v>
+      </c>
       <c r="B737" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C737" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E737" t="str">
         <f>IF(COUNTIF(C$2:C736,C737)&gt;0,"Button","")</f>
@@ -21721,14 +22386,17 @@
         <v/>
       </c>
     </row>
-    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>684</v>
+      </c>
       <c r="B738" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C738" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E738" t="str">
         <f>IF(COUNTIF(C$2:C737,C738)&gt;0,"Button","")</f>
@@ -21743,14 +22411,17 @@
         <v/>
       </c>
     </row>
-    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>684</v>
+      </c>
       <c r="B739" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C739" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E739" t="str">
         <f>IF(COUNTIF(C$2:C738,C739)&gt;0,"Button","")</f>
@@ -21765,14 +22436,17 @@
         <v/>
       </c>
     </row>
-    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>684</v>
+      </c>
       <c r="B740" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C740" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E740" t="str">
         <f>IF(COUNTIF(C$2:C739,C740)&gt;0,"Button","")</f>
@@ -21787,14 +22461,17 @@
         <v/>
       </c>
     </row>
-    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>684</v>
+      </c>
       <c r="B741" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C741" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E741" t="str">
         <f>IF(COUNTIF(C$2:C740,C741)&gt;0,"Button","")</f>
@@ -21809,14 +22486,17 @@
         <v/>
       </c>
     </row>
-    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>684</v>
+      </c>
       <c r="B742" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C742" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E742" t="str">
         <f>IF(COUNTIF(C$2:C741,C742)&gt;0,"Button","")</f>
@@ -21831,14 +22511,17 @@
         <v/>
       </c>
     </row>
-    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>684</v>
+      </c>
       <c r="B743" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C743" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E743" t="str">
         <f>IF(COUNTIF(C$2:C742,C743)&gt;0,"Button","")</f>
@@ -21853,14 +22536,17 @@
         <v/>
       </c>
     </row>
-    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>684</v>
+      </c>
       <c r="B744" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C744" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E744" t="str">
         <f>IF(COUNTIF(C$2:C743,C744)&gt;0,"Button","")</f>
@@ -21875,14 +22561,17 @@
         <v/>
       </c>
     </row>
-    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>684</v>
+      </c>
       <c r="B745" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C745" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E745" t="str">
         <f>IF(COUNTIF(C$2:C744,C745)&gt;0,"Button","")</f>
@@ -21897,14 +22586,17 @@
         <v/>
       </c>
     </row>
-    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>684</v>
+      </c>
       <c r="B746" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C746" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E746" t="str">
         <f>IF(COUNTIF(C$2:C745,C746)&gt;0,"Button","")</f>
@@ -21919,14 +22611,17 @@
         <v/>
       </c>
     </row>
-    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>684</v>
+      </c>
       <c r="B747" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C747" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E747" t="str">
         <f>IF(COUNTIF(C$2:C746,C747)&gt;0,"Button","")</f>
@@ -21941,14 +22636,17 @@
         <v/>
       </c>
     </row>
-    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>684</v>
+      </c>
       <c r="B748" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C748" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E748" t="str">
         <f>IF(COUNTIF(C$2:C747,C748)&gt;0,"Button","")</f>
@@ -21963,14 +22661,17 @@
         <v/>
       </c>
     </row>
-    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>684</v>
+      </c>
       <c r="B749" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C749" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E749" t="str">
         <f>IF(COUNTIF(C$2:C748,C749)&gt;0,"Button","")</f>
@@ -21985,14 +22686,17 @@
         <v/>
       </c>
     </row>
-    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>684</v>
+      </c>
       <c r="B750" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C750" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
       </c>
       <c r="E750" t="str">
         <f>IF(COUNTIF(C$2:C749,C750)&gt;0,"Button","")</f>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B54B84-5293-4AA6-927B-6A5AADE7F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41739CB-12C3-4367-ADB2-1F72D61D60A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="731">
   <si>
     <t>Output</t>
   </si>
@@ -2180,6 +2180,48 @@
   </si>
   <si>
     <t>sign_up</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vue</t>
+  </si>
+  <si>
+    <t>requestAccess.join_organization</t>
+  </si>
+  <si>
+    <t>org_already_has_account</t>
+  </si>
+  <si>
+    <t>orphan_already_removed_enter_email_for_new_org</t>
+  </si>
+  <si>
+    <t>existing_member_email</t>
+  </si>
+  <si>
+    <t>your_email</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>pw1</t>
+  </si>
+  <si>
+    <t>pw2</t>
+  </si>
+  <si>
+    <t>RequestAccessSuccess</t>
+  </si>
+  <si>
+    <t>got_it</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vue</t>
   </si>
 </sst>
 </file>
@@ -2534,8 +2576,8 @@
   <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A695" sqref="A695:XFD711"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A726" sqref="A712:XFD726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21196,7 +21238,7 @@
         <v>data-testid="testAboutLegalStuffDiv"</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>695</v>
       </c>
@@ -21223,7 +21265,7 @@
         <v>data-testid="testContributionsDiv"</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>697</v>
       </c>
@@ -21250,7 +21292,7 @@
         <v>data-testid="testGlobeIcon"</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>699</v>
       </c>
@@ -21736,396 +21778,426 @@
         <v>data-testid="testSignUpButton"</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B712" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C712" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E712" t="str">
-        <f>IF(COUNTIF(C$2:C711,C712)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuerequestAccess.join_organization</v>
+      </c>
+      <c r="D712" t="s">
+        <v>718</v>
+      </c>
+      <c r="E712" t="s">
+        <v>69</v>
       </c>
       <c r="F712" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testRequestAccessJoinOrganizationDiv</v>
       </c>
       <c r="G712" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestAccessJoinOrganizationDiv"</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B713" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C713" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E713" t="str">
-        <f>IF(COUNTIF(C$2:C712,C713)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueorg_already_has_account</v>
+      </c>
+      <c r="D713" t="s">
+        <v>719</v>
+      </c>
+      <c r="E713" t="s">
+        <v>69</v>
       </c>
       <c r="F713" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrgAlreadyHasAccountDiv</v>
       </c>
       <c r="G713" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrgAlreadyHasAccountDiv"</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B714" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C714" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E714" t="str">
-        <f>IF(COUNTIF(C$2:C713,C714)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueorphan_already_removed_enter_email_for_new_org</v>
+      </c>
+      <c r="D714" t="s">
+        <v>720</v>
+      </c>
+      <c r="E714" t="s">
+        <v>92</v>
       </c>
       <c r="F714" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testOrphanAlreadyRemovedEnterEmailForNewOrgContent</v>
       </c>
       <c r="G714" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testOrphanAlreadyRemovedEnterEmailForNewOrgContent"</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B715" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C715" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E715" t="str">
-        <f>IF(COUNTIF(C$2:C714,C715)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueexisting_member_email</v>
+      </c>
+      <c r="D715" t="s">
+        <v>721</v>
+      </c>
+      <c r="E715" t="s">
+        <v>68</v>
       </c>
       <c r="F715" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testExistingMemberEmailTextInput</v>
       </c>
       <c r="G715" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testExistingMemberEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B716" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C716" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E716" t="str">
-        <f>IF(COUNTIF(C$2:C715,C716)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueyour_email</v>
+      </c>
+      <c r="D716" t="s">
+        <v>722</v>
+      </c>
+      <c r="E716" t="s">
+        <v>68</v>
       </c>
       <c r="F716" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testYourEmailTextInput</v>
       </c>
       <c r="G716" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testYourEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B717" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C717" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E717" t="str">
-        <f>IF(COUNTIF(C$2:C716,C717)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuefirst_name</v>
+      </c>
+      <c r="D717" t="s">
+        <v>723</v>
+      </c>
+      <c r="E717" t="s">
+        <v>68</v>
       </c>
       <c r="F717" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testFirstNameTextInput</v>
       </c>
       <c r="G717" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testFirstNameTextInput"</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B718" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C718" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E718" t="str">
-        <f>IF(COUNTIF(C$2:C717,C718)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuelast_name</v>
+      </c>
+      <c r="D718" t="s">
+        <v>724</v>
+      </c>
+      <c r="E718" t="s">
+        <v>68</v>
       </c>
       <c r="F718" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testLastNameTextInput</v>
       </c>
       <c r="G718" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testLastNameTextInput"</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B719" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C719" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E719" t="str">
-        <f>IF(COUNTIF(C$2:C718,C719)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuetitle</v>
+      </c>
+      <c r="D719" t="s">
+        <v>587</v>
+      </c>
+      <c r="E719" t="s">
+        <v>68</v>
       </c>
       <c r="F719" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testTitleTextInput</v>
       </c>
       <c r="G719" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTitleTextInput"</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B720" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C720" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E720" t="str">
-        <f>IF(COUNTIF(C$2:C719,C720)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuemobile</v>
+      </c>
+      <c r="D720" t="s">
+        <v>725</v>
+      </c>
+      <c r="E720" t="s">
+        <v>68</v>
       </c>
       <c r="F720" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testMobileTextInput</v>
       </c>
       <c r="G720" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMobileTextInput"</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B721" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C721" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E721" t="str">
-        <f>IF(COUNTIF(C$2:C720,C721)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuepw1</v>
+      </c>
+      <c r="D721" t="s">
+        <v>726</v>
+      </c>
+      <c r="E721" t="s">
+        <v>68</v>
       </c>
       <c r="F721" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPw1TextInput</v>
       </c>
       <c r="G721" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPw1TextInput"</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B722" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C722" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E722" t="str">
-        <f>IF(COUNTIF(C$2:C721,C722)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuepw2</v>
+      </c>
+      <c r="D722" t="s">
+        <v>727</v>
+      </c>
+      <c r="E722" t="s">
+        <v>68</v>
       </c>
       <c r="F722" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPw2TextInput</v>
       </c>
       <c r="G722" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPw2TextInput"</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B723" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C723" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E723" t="str">
-        <f>IF(COUNTIF(C$2:C722,C723)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueprimary_language</v>
+      </c>
+      <c r="D723" t="s">
+        <v>422</v>
+      </c>
+      <c r="E723" t="s">
+        <v>87</v>
       </c>
       <c r="F723" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testPrimaryLanguageSelect</v>
       </c>
       <c r="G723" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testPrimaryLanguageSelect"</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B724" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C724" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E724" t="str">
-        <f>IF(COUNTIF(C$2:C723,C724)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuerequest_access</v>
+      </c>
+      <c r="D724" t="s">
+        <v>517</v>
+      </c>
+      <c r="E724" t="s">
+        <v>15</v>
       </c>
       <c r="F724" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testRequestAccessButton</v>
       </c>
       <c r="G724" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestAccessButton"</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B725" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C725" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E725" t="str">
-        <f>IF(COUNTIF(C$2:C724,C725)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueRequestAccessSuccess</v>
+      </c>
+      <c r="D725" t="s">
+        <v>728</v>
+      </c>
+      <c r="E725" t="s">
+        <v>98</v>
       </c>
       <c r="F725" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testRequestAccessSuccessModal</v>
       </c>
       <c r="G725" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestAccessSuccessModal"</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="B726" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestAccess.vue</v>
       </c>
       <c r="C726" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E726" t="str">
-        <f>IF(COUNTIF(C$2:C725,C726)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuegot_it</v>
+      </c>
+      <c r="D726" t="s">
+        <v>729</v>
+      </c>
+      <c r="E726" t="s">
+        <v>15</v>
       </c>
       <c r="F726" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testGotItButton</v>
       </c>
       <c r="G726" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>data-testid="testGotItButton"</v>
       </c>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>684</v>
+        <v>730</v>
       </c>
       <c r="B727" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestPasswordReset.vue</v>
       </c>
       <c r="C727" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vue</v>
       </c>
       <c r="E727" t="str">
         <f>IF(COUNTIF(C$2:C726,C727)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F727" t="str">
         <f t="shared" si="47"/>
@@ -22150,7 +22222,7 @@
       </c>
       <c r="E728" t="str">
         <f>IF(COUNTIF(C$2:C727,C728)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F728" t="str">
         <f t="shared" si="47"/>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41739CB-12C3-4367-ADB2-1F72D61D60A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082E409-9DC2-48AD-B643-CB91F2C73F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="809">
   <si>
     <t>Output</t>
   </si>
@@ -2083,9 +2083,6 @@
     <t>showRequestAccessModal</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vue</t>
   </si>
   <si>
@@ -2222,6 +2219,243 @@
   </si>
   <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vue</t>
+  </si>
+  <si>
+    <t>forgot_your_password_or_reset</t>
+  </si>
+  <si>
+    <t>send_reset_password_instructions</t>
+  </si>
+  <si>
+    <t>reset_success</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Survivor.vue</t>
+  </si>
+  <si>
+    <t>info_for_survivors</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Terms.vue</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Training.vue</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>mandatory_training_video_iframe</t>
+  </si>
+  <si>
+    <t>suppliment_phone_training_iframe</t>
+  </si>
+  <si>
+    <t>calldown_training_iframe</t>
+  </si>
+  <si>
+    <t>ccu_during_covid_iframe</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vue</t>
+  </si>
+  <si>
+    <t>add_affiliate</t>
+  </si>
+  <si>
+    <t>request_affiliate</t>
+  </si>
+  <si>
+    <t>selectedAffiliate</t>
+  </si>
+  <si>
+    <t>request_reason</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>affiliates</t>
+  </si>
+  <si>
+    <t>unaffiliate</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vue</t>
+  </si>
+  <si>
+    <t>create_team</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
+    <t>suggest_name</t>
+  </si>
+  <si>
+    <t>team.users</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>team.users.drag</t>
+  </si>
+  <si>
+    <t>add_members</t>
+  </si>
+  <si>
+    <t>teamWorksites</t>
+  </si>
+  <si>
+    <t>assign_cases</t>
+  </si>
+  <si>
+    <t>search_drag_members</t>
+  </si>
+  <si>
+    <t>usersList</t>
+  </si>
+  <si>
+    <t>currentCaseSearch</t>
+  </si>
+  <si>
+    <t>worksites</t>
+  </si>
+  <si>
+    <t>worksites.drag</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vue</t>
+  </si>
+  <si>
+    <t>invitationRequests</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>exportInvitationRequests</t>
+  </si>
+  <si>
+    <t>exportInvitations</t>
+  </si>
+  <si>
+    <t>deleteExpiredInvitations</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>delete_invitation</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vue</t>
+  </si>
+  <si>
+    <t>getLocations</t>
+  </si>
+  <si>
+    <t>locationTypeFilter</t>
+  </si>
+  <si>
+    <t>create_location</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vue</t>
+  </si>
+  <si>
+    <t>showInvite</t>
+  </si>
+  <si>
+    <t>usersToInvite</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vue</t>
+  </si>
+  <si>
+    <t>add_primary_contacts</t>
+  </si>
+  <si>
+    <t>donation_url</t>
+  </si>
+  <si>
+    <t>capabilitiesMatrix</t>
+  </si>
+  <si>
+    <t>current_incidents</t>
+  </si>
+  <si>
+    <t>pending_incidents</t>
+  </si>
+  <si>
+    <t>edit_primary_location</t>
+  </si>
+  <si>
+    <t>add_primary_location</t>
+  </si>
+  <si>
+    <t>contact_help_change_response</t>
+  </si>
+  <si>
+    <t>edit_secondary_location</t>
+  </si>
+  <si>
+    <t>add_secondary_location</t>
+  </si>
+  <si>
+    <t>contact_help_change_response2</t>
+  </si>
+  <si>
+    <t>select_location</t>
+  </si>
+  <si>
+    <t>custom_ops_message</t>
+  </si>
+  <si>
+    <t>add_custom_tos</t>
+  </si>
+  <si>
+    <t>terms_of_service</t>
+  </si>
+  <si>
+    <t>custom_legal_tos</t>
+  </si>
+  <si>
+    <t>add_custom_liability</t>
+  </si>
+  <si>
+    <t>delete_liability_waiver</t>
+  </si>
+  <si>
+    <t>liability_waiver</t>
+  </si>
+  <si>
+    <t>custom_survivor_waiver</t>
+  </si>
+  <si>
+    <t>add_survivor_waiver_text</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vue</t>
+  </si>
+  <si>
+    <t>organization_logo2</t>
+  </si>
+  <si>
+    <t>add_terms</t>
   </si>
 </sst>
 </file>
@@ -2573,11 +2807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC019DF0-768A-481C-98D6-79502FC4C9FD}">
-  <dimension ref="A1:G750"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A726" sqref="A712:XFD726"/>
+      <selection pane="bottomLeft" activeCell="F836" sqref="F836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,9 +2821,10 @@
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2608,8 +2843,11 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2636,7 +2874,7 @@
         <v>data-testid="testCurrentIncidentNameTextInput"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2663,7 +2901,7 @@
         <v>data-testid="testCurrentIncidentShortNameTextInput"</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2690,7 +2928,7 @@
         <v>data-testid="testCurrentIncidentTimezoneSelect"</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2717,7 +2955,7 @@
         <v>data-testid="testCurrentIncidentStartAtTextInput"</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2745,7 +2983,7 @@
         <v>data-testid="testCurrentIncidentStartAtButton"</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2772,7 +3010,7 @@
         <v>data-testid="testCurrentIncidentIncidentTypeSelect"</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2799,7 +3037,7 @@
         <v>data-testid="testCurrentIncidentAutoContactCheckbox"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2826,7 +3064,7 @@
         <v>data-testid="testCurrentIncidentTurnOnReleaseCheckbox"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2853,7 +3091,7 @@
         <v>data-testid="testCurrentIncidentIsArchivedCheckbox"</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2880,7 +3118,7 @@
         <v>data-testid="testCurrentAniUseHotlineCheckbox"</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2907,7 +3145,7 @@
         <v>data-testid="testCurrentAniTimezoneSelect"</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2934,7 +3172,7 @@
         <v>data-testid="testCurrentAniStartAtSelect"</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2961,7 +3199,7 @@
         <v>data-testid="testCurrentAniEndAtSelect"</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2988,7 +3226,7 @@
         <v>data-testid="testCurrentLocationNameTextInput"</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -20997,7 +21235,7 @@
     </row>
     <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B683" t="str">
         <f t="shared" si="41"/>
@@ -21008,7 +21246,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueabout</v>
       </c>
       <c r="D683" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E683" t="s">
         <v>69</v>
@@ -21024,7 +21262,7 @@
     </row>
     <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B684" t="str">
         <f t="shared" si="41"/>
@@ -21035,7 +21273,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutDescription</v>
       </c>
       <c r="D684" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E684" t="s">
         <v>69</v>
@@ -21051,7 +21289,7 @@
     </row>
     <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B685" t="str">
         <f t="shared" si="41"/>
@@ -21062,7 +21300,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutVideo</v>
       </c>
       <c r="D685" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E685" t="s">
         <v>69</v>
@@ -21078,7 +21316,7 @@
     </row>
     <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B686" t="str">
         <f t="shared" si="41"/>
@@ -21089,7 +21327,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutStats</v>
       </c>
       <c r="D686" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E686" t="s">
         <v>69</v>
@@ -21105,7 +21343,7 @@
     </row>
     <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B687" t="str">
         <f t="shared" si="41"/>
@@ -21116,7 +21354,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutPeople</v>
       </c>
       <c r="D687" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E687" t="s">
         <v>69</v>
@@ -21132,7 +21370,7 @@
     </row>
     <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B688" t="str">
         <f t="shared" si="41"/>
@@ -21143,7 +21381,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutMajorContributors</v>
       </c>
       <c r="D688" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E688" t="s">
         <v>69</v>
@@ -21159,7 +21397,7 @@
     </row>
     <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B689" t="str">
         <f t="shared" si="41"/>
@@ -21170,7 +21408,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutSupporterLogos</v>
       </c>
       <c r="D689" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E689" t="s">
         <v>69</v>
@@ -21186,7 +21424,7 @@
     </row>
     <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B690" t="str">
         <f t="shared" si="41"/>
@@ -21197,7 +21435,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutPhilosophies</v>
       </c>
       <c r="D690" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E690" t="s">
         <v>69</v>
@@ -21213,7 +21451,7 @@
     </row>
     <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B691" t="str">
         <f t="shared" si="41"/>
@@ -21224,7 +21462,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\About.vueaboutLegalStuff</v>
       </c>
       <c r="D691" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E691" t="s">
         <v>69</v>
@@ -21240,7 +21478,7 @@
     </row>
     <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B692" t="str">
         <f t="shared" si="41"/>
@@ -21251,7 +21489,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Contributions.vuecontributions</v>
       </c>
       <c r="D692" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E692" t="s">
         <v>69</v>
@@ -21267,7 +21505,7 @@
     </row>
     <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B693" t="str">
         <f t="shared" si="41"/>
@@ -21278,7 +21516,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Login.vueglobe</v>
       </c>
       <c r="D693" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E693" t="s">
         <v>93</v>
@@ -21294,10 +21532,10 @@
     </row>
     <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B694" t="str">
-        <f t="shared" ref="B694:B750" si="45">IF(A694="","",MID(A694,FIND("@",SUBSTITUTE(A694,"\","@",LEN(A694)-LEN(SUBSTITUTE(A694,"\",""))))+1,LEN(A694)))</f>
+        <f t="shared" ref="B694:B757" si="45">IF(A694="","",MID(A694,FIND("@",SUBSTITUTE(A694,"\","@",LEN(A694)-LEN(SUBSTITUTE(A694,"\",""))))+1,LEN(A694)))</f>
         <v>Privacy.vue</v>
       </c>
       <c r="C694" t="str">
@@ -21305,7 +21543,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Privacy.vueprivacy</v>
       </c>
       <c r="D694" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E694" t="s">
         <v>69</v>
@@ -21321,7 +21559,7 @@
     </row>
     <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B695" t="str">
         <f t="shared" si="45"/>
@@ -21348,7 +21586,7 @@
     </row>
     <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B696" t="str">
         <f t="shared" si="45"/>
@@ -21359,7 +21597,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Map.vuesimpleMap</v>
       </c>
       <c r="D696" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E696" t="s">
         <v>92</v>
@@ -21375,7 +21613,7 @@
     </row>
     <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B697" t="str">
         <f t="shared" si="45"/>
@@ -21402,7 +21640,7 @@
     </row>
     <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B698" t="str">
         <f t="shared" si="45"/>
@@ -21429,7 +21667,7 @@
     </row>
     <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B699" t="str">
         <f t="shared" si="45"/>
@@ -21440,7 +21678,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_url</v>
       </c>
       <c r="D699" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E699" t="s">
         <v>68</v>
@@ -21456,7 +21694,7 @@
     </row>
     <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B700" t="str">
         <f t="shared" si="45"/>
@@ -21467,7 +21705,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_facebook</v>
       </c>
       <c r="D700" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E700" t="s">
         <v>68</v>
@@ -21483,7 +21721,7 @@
     </row>
     <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B701" t="str">
         <f t="shared" si="45"/>
@@ -21494,7 +21732,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_twitter</v>
       </c>
       <c r="D701" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E701" t="s">
         <v>68</v>
@@ -21510,7 +21748,7 @@
     </row>
     <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B702" t="str">
         <f t="shared" si="45"/>
@@ -21521,7 +21759,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_where_are_you_working</v>
       </c>
       <c r="D702" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E702" t="s">
         <v>68</v>
@@ -21537,7 +21775,7 @@
     </row>
     <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B703" t="str">
         <f t="shared" si="45"/>
@@ -21548,7 +21786,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_referral</v>
       </c>
       <c r="D703" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E703" t="s">
         <v>68</v>
@@ -21564,7 +21802,7 @@
     </row>
     <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B704" t="str">
         <f t="shared" si="45"/>
@@ -21575,7 +21813,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_first_name</v>
       </c>
       <c r="D704" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E704" t="s">
         <v>68</v>
@@ -21591,7 +21829,7 @@
     </row>
     <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B705" t="str">
         <f t="shared" si="45"/>
@@ -21602,7 +21840,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_last_name</v>
       </c>
       <c r="D705" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E705" t="s">
         <v>68</v>
@@ -21618,7 +21856,7 @@
     </row>
     <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B706" t="str">
         <f t="shared" si="45"/>
@@ -21629,7 +21867,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_email</v>
       </c>
       <c r="D706" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E706" t="s">
         <v>68</v>
@@ -21645,7 +21883,7 @@
     </row>
     <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B707" t="str">
         <f t="shared" si="45"/>
@@ -21656,7 +21894,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueprimary_contact_mobile</v>
       </c>
       <c r="D707" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E707" t="s">
         <v>68</v>
@@ -21672,7 +21910,7 @@
     </row>
     <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B708" t="str">
         <f t="shared" si="45"/>
@@ -21683,7 +21921,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueCapabilityMatrix</v>
       </c>
       <c r="D708" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E708" t="s">
         <v>307</v>
@@ -21699,7 +21937,7 @@
     </row>
     <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B709" t="str">
         <f t="shared" si="45"/>
@@ -21710,7 +21948,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueorganization_publish</v>
       </c>
       <c r="D709" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E709" t="s">
         <v>66</v>
@@ -21726,7 +21964,7 @@
     </row>
     <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B710" t="str">
         <f t="shared" si="45"/>
@@ -21737,7 +21975,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vueaccepted_terms</v>
       </c>
       <c r="D710" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E710" t="s">
         <v>66</v>
@@ -21753,7 +21991,7 @@
     </row>
     <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B711" t="str">
         <f t="shared" si="45"/>
@@ -21764,7 +22002,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RegisterOrganization.vuesign_up</v>
       </c>
       <c r="D711" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E711" t="s">
         <v>15</v>
@@ -21780,7 +22018,7 @@
     </row>
     <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B712" t="str">
         <f t="shared" si="45"/>
@@ -21791,7 +22029,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuerequestAccess.join_organization</v>
       </c>
       <c r="D712" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E712" t="s">
         <v>69</v>
@@ -21807,7 +22045,7 @@
     </row>
     <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B713" t="str">
         <f t="shared" si="45"/>
@@ -21818,7 +22056,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueorg_already_has_account</v>
       </c>
       <c r="D713" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E713" t="s">
         <v>69</v>
@@ -21834,7 +22072,7 @@
     </row>
     <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B714" t="str">
         <f t="shared" si="45"/>
@@ -21845,7 +22083,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueorphan_already_removed_enter_email_for_new_org</v>
       </c>
       <c r="D714" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E714" t="s">
         <v>92</v>
@@ -21861,7 +22099,7 @@
     </row>
     <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B715" t="str">
         <f t="shared" si="45"/>
@@ -21872,7 +22110,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueexisting_member_email</v>
       </c>
       <c r="D715" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E715" t="s">
         <v>68</v>
@@ -21888,7 +22126,7 @@
     </row>
     <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B716" t="str">
         <f t="shared" si="45"/>
@@ -21899,7 +22137,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueyour_email</v>
       </c>
       <c r="D716" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E716" t="s">
         <v>68</v>
@@ -21915,7 +22153,7 @@
     </row>
     <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B717" t="str">
         <f t="shared" si="45"/>
@@ -21926,7 +22164,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuefirst_name</v>
       </c>
       <c r="D717" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E717" t="s">
         <v>68</v>
@@ -21942,7 +22180,7 @@
     </row>
     <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B718" t="str">
         <f t="shared" si="45"/>
@@ -21953,7 +22191,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuelast_name</v>
       </c>
       <c r="D718" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E718" t="s">
         <v>68</v>
@@ -21969,7 +22207,7 @@
     </row>
     <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B719" t="str">
         <f t="shared" si="45"/>
@@ -21996,7 +22234,7 @@
     </row>
     <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B720" t="str">
         <f t="shared" si="45"/>
@@ -22007,7 +22245,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuemobile</v>
       </c>
       <c r="D720" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E720" t="s">
         <v>68</v>
@@ -22023,7 +22261,7 @@
     </row>
     <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B721" t="str">
         <f t="shared" si="45"/>
@@ -22034,7 +22272,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuepw1</v>
       </c>
       <c r="D721" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E721" t="s">
         <v>68</v>
@@ -22050,7 +22288,7 @@
     </row>
     <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B722" t="str">
         <f t="shared" si="45"/>
@@ -22061,7 +22299,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuepw2</v>
       </c>
       <c r="D722" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E722" t="s">
         <v>68</v>
@@ -22077,7 +22315,7 @@
     </row>
     <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B723" t="str">
         <f t="shared" si="45"/>
@@ -22104,7 +22342,7 @@
     </row>
     <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B724" t="str">
         <f t="shared" si="45"/>
@@ -22131,7 +22369,7 @@
     </row>
     <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B725" t="str">
         <f t="shared" si="45"/>
@@ -22142,7 +22380,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vueRequestAccessSuccess</v>
       </c>
       <c r="D725" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E725" t="s">
         <v>98</v>
@@ -22158,7 +22396,7 @@
     </row>
     <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B726" t="str">
         <f t="shared" si="45"/>
@@ -22169,7 +22407,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestAccess.vuegot_it</v>
       </c>
       <c r="D726" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E726" t="s">
         <v>15</v>
@@ -22183,9 +22421,9 @@
         <v>data-testid="testGotItButton"</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B727" t="str">
         <f t="shared" si="45"/>
@@ -22193,593 +22431,7640 @@
       </c>
       <c r="C727" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vue</v>
-      </c>
-      <c r="E727" t="str">
-        <f>IF(COUNTIF(C$2:C726,C727)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vueforgot_your_password_or_reset</v>
+      </c>
+      <c r="D727" t="s">
+        <v>730</v>
+      </c>
+      <c r="E727" t="s">
+        <v>69</v>
       </c>
       <c r="F727" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testForgotYourPasswordOrResetDiv</v>
       </c>
       <c r="G727" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testForgotYourPasswordOrResetDiv"</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="B728" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestPasswordReset.vue</v>
       </c>
       <c r="C728" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E728" t="str">
-        <f>IF(COUNTIF(C$2:C727,C728)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vueyour_email</v>
+      </c>
+      <c r="D728" t="s">
+        <v>721</v>
+      </c>
+      <c r="E728" t="s">
+        <v>68</v>
       </c>
       <c r="F728" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testYourEmailTextInput</v>
       </c>
       <c r="G728" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testYourEmailTextInput"</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="B729" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestPasswordReset.vue</v>
       </c>
       <c r="C729" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E729" t="str">
-        <f>IF(COUNTIF(C$2:C728,C729)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vuesend_reset_password_instructions</v>
+      </c>
+      <c r="D729" t="s">
+        <v>731</v>
+      </c>
+      <c r="E729" t="s">
+        <v>15</v>
       </c>
       <c r="F729" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testSendResetPasswordInstructionsButton</v>
       </c>
       <c r="G729" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSendResetPasswordInstructionsButton"</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="B730" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestPasswordReset.vue</v>
       </c>
       <c r="C730" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E730" t="str">
-        <f>IF(COUNTIF(C$2:C729,C730)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vuereset_success</v>
+      </c>
+      <c r="D730" t="s">
+        <v>732</v>
+      </c>
+      <c r="E730" t="s">
+        <v>98</v>
       </c>
       <c r="F730" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testResetSuccessModal</v>
       </c>
       <c r="G730" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testResetSuccessModal"</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="B731" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>RequestPasswordReset.vue</v>
       </c>
       <c r="C731" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E731" t="str">
-        <f>IF(COUNTIF(C$2:C730,C731)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\RequestPasswordReset.vuegot_it</v>
+      </c>
+      <c r="D731" t="s">
+        <v>728</v>
+      </c>
+      <c r="E731" t="s">
+        <v>15</v>
       </c>
       <c r="F731" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testGotItButton</v>
       </c>
       <c r="G731" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testGotItButton"</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="B732" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Survivor.vue</v>
       </c>
       <c r="C732" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E732" t="str">
-        <f>IF(COUNTIF(C$2:C731,C732)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Survivor.vueinfo_for_survivors</v>
+      </c>
+      <c r="D732" t="s">
+        <v>734</v>
+      </c>
+      <c r="E732" t="s">
+        <v>69</v>
       </c>
       <c r="F732" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testInfoForSurvivorsDiv</v>
       </c>
       <c r="G732" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInfoForSurvivorsDiv"</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="B733" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Terms.vue</v>
       </c>
       <c r="C733" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E733" t="str">
-        <f>IF(COUNTIF(C$2:C732,C733)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Terms.vueterms</v>
+      </c>
+      <c r="D733" t="s">
+        <v>736</v>
+      </c>
+      <c r="E733" t="s">
+        <v>69</v>
       </c>
       <c r="F733" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testTermsDiv</v>
       </c>
       <c r="G733" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTermsDiv"</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="B734" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Training.vue</v>
       </c>
       <c r="C734" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E734" t="str">
-        <f>IF(COUNTIF(C$2:C733,C734)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Training.vuetraining</v>
+      </c>
+      <c r="D734" t="s">
+        <v>738</v>
+      </c>
+      <c r="E734" t="s">
+        <v>69</v>
       </c>
       <c r="F734" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testTrainingDiv</v>
       </c>
       <c r="G734" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testTrainingDiv"</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="B735" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Training.vue</v>
       </c>
       <c r="C735" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E735" t="str">
-        <f>IF(COUNTIF(C$2:C734,C735)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Training.vuemandatory_training_video_iframe</v>
+      </c>
+      <c r="D735" t="s">
+        <v>739</v>
       </c>
       <c r="F735" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testMandatoryTrainingVideoIframe</v>
       </c>
       <c r="G735" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testMandatoryTrainingVideoIframe"</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="B736" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Training.vue</v>
       </c>
       <c r="C736" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Training.vuesuppliment_phone_training_iframe</v>
+      </c>
+      <c r="D736" t="s">
+        <v>740</v>
       </c>
       <c r="E736" t="str">
         <f>IF(COUNTIF(C$2:C735,C736)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F736" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testSupplimentPhoneTrainingIframe</v>
       </c>
       <c r="G736" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSupplimentPhoneTrainingIframe"</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="B737" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Training.vue</v>
       </c>
       <c r="C737" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Training.vuecalldown_training_iframe</v>
+      </c>
+      <c r="D737" t="s">
+        <v>741</v>
       </c>
       <c r="E737" t="str">
         <f>IF(COUNTIF(C$2:C736,C737)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F737" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testCalldownTrainingIframe</v>
       </c>
       <c r="G737" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCalldownTrainingIframe"</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>684</v>
+        <v>737</v>
       </c>
       <c r="B738" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Training.vue</v>
       </c>
       <c r="C738" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\Training.vueccu_during_covid_iframe</v>
+      </c>
+      <c r="D738" t="s">
+        <v>742</v>
       </c>
       <c r="E738" t="str">
         <f>IF(COUNTIF(C$2:C737,C738)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F738" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testCcuDuringCovidIframe</v>
       </c>
       <c r="G738" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCcuDuringCovidIframe"</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B739" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C739" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E739" t="str">
-        <f>IF(COUNTIF(C$2:C738,C739)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueadd_affiliate</v>
+      </c>
+      <c r="D739" t="s">
+        <v>745</v>
+      </c>
+      <c r="E739" t="s">
+        <v>15</v>
       </c>
       <c r="F739" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testAddAffiliateButton</v>
       </c>
       <c r="G739" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAddAffiliateButton"</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B740" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C740" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E740" t="str">
-        <f>IF(COUNTIF(C$2:C739,C740)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vuerequest_affiliate</v>
+      </c>
+      <c r="D740" t="s">
+        <v>746</v>
+      </c>
+      <c r="E740" t="s">
+        <v>98</v>
       </c>
       <c r="F740" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testRequestAffiliateModal</v>
       </c>
       <c r="G740" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestAffiliateModal"</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B741" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C741" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E741" t="str">
-        <f>IF(COUNTIF(C$2:C740,C741)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueselectedAffiliate</v>
+      </c>
+      <c r="D741" t="s">
+        <v>747</v>
+      </c>
+      <c r="E741" t="s">
+        <v>216</v>
       </c>
       <c r="F741" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testSelectedAffiliateSearch</v>
       </c>
       <c r="G741" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testSelectedAffiliateSearch"</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B742" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C742" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E742" t="str">
-        <f>IF(COUNTIF(C$2:C741,C742)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vuerequest_reason</v>
+      </c>
+      <c r="D742" t="s">
+        <v>748</v>
+      </c>
+      <c r="E742" t="s">
+        <v>749</v>
       </c>
       <c r="F742" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testRequestReasonTextArea</v>
       </c>
       <c r="G742" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRequestReasonTextArea"</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B743" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C743" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E743" t="str">
-        <f>IF(COUNTIF(C$2:C742,C743)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vuecancel</v>
+      </c>
+      <c r="D743" t="s">
+        <v>40</v>
+      </c>
+      <c r="E743" t="s">
+        <v>15</v>
       </c>
       <c r="F743" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testCancelButton</v>
       </c>
       <c r="G743" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testCancelButton"</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B744" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C744" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E744" t="str">
-        <f>IF(COUNTIF(C$2:C743,C744)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueinvite</v>
+      </c>
+      <c r="D744" t="s">
+        <v>750</v>
+      </c>
+      <c r="E744" t="s">
+        <v>15</v>
       </c>
       <c r="F744" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testInviteButton</v>
       </c>
       <c r="G744" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testInviteButton"</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B745" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C745" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E745" t="str">
-        <f>IF(COUNTIF(C$2:C744,C745)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueaffiliates</v>
+      </c>
+      <c r="D745" t="s">
+        <v>751</v>
+      </c>
+      <c r="E745" t="s">
+        <v>268</v>
       </c>
       <c r="F745" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testAffiliatesTable</v>
       </c>
       <c r="G745" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAffiliatesTable"</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B746" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C746" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E746" t="str">
-        <f>IF(COUNTIF(C$2:C745,C746)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueunaffiliate</v>
+      </c>
+      <c r="D746" t="s">
+        <v>752</v>
+      </c>
+      <c r="E746" t="s">
+        <v>15</v>
       </c>
       <c r="F746" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testUnaffiliateButton</v>
       </c>
       <c r="G746" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testUnaffiliateButton"</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B747" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C747" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E747" t="str">
-        <f>IF(COUNTIF(C$2:C746,C747)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueaccept</v>
+      </c>
+      <c r="D747" t="s">
+        <v>29</v>
+      </c>
+      <c r="E747" t="s">
+        <v>15</v>
       </c>
       <c r="F747" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testAcceptButton</v>
       </c>
       <c r="G747" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testAcceptButton"</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B748" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C748" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E748" t="str">
-        <f>IF(COUNTIF(C$2:C747,C748)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vuereject</v>
+      </c>
+      <c r="D748" t="s">
+        <v>27</v>
+      </c>
+      <c r="E748" t="s">
+        <v>15</v>
       </c>
       <c r="F748" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testRejectButton</v>
       </c>
       <c r="G748" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="testRejectButton"</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
       <c r="B749" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Affiliates.vue</v>
       </c>
       <c r="C749" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vue:several_calculated</v>
+      </c>
+      <c r="D749" t="s">
+        <v>104</v>
       </c>
       <c r="E749" t="str">
         <f>IF(COUNTIF(C$2:C748,C749)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F749" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G749" t="str">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>684</v>
+        <v>753</v>
       </c>
       <c r="B750" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>CreateTeamModal.vue</v>
       </c>
       <c r="C750" t="str">
         <f t="shared" si="46"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\home\</v>
-      </c>
-      <c r="E750" t="str">
-        <f>IF(COUNTIF(C$2:C749,C750)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuecreate_team</v>
+      </c>
+      <c r="D750" t="s">
+        <v>754</v>
+      </c>
+      <c r="E750" t="s">
+        <v>98</v>
       </c>
       <c r="F750" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>testCreateTeamModal</v>
       </c>
       <c r="G750" t="str">
         <f t="shared" si="48"/>
+        <v>data-testid="testCreateTeamModal"</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>753</v>
+      </c>
+      <c r="B751" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C751" t="str">
+        <f t="shared" ref="C751:C814" si="49">A751&amp;D751</f>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteam_name</v>
+      </c>
+      <c r="D751" t="s">
+        <v>755</v>
+      </c>
+      <c r="E751" t="s">
+        <v>68</v>
+      </c>
+      <c r="F751" t="str">
+        <f t="shared" ref="F751:F814" si="50">IF(D751="","","test"&amp;IF(ISNUMBER(SEARCH(".",D751)),UPPER(LEFT(D751,1))&amp;RIGHT(LEFT(D751,SEARCH(".",D751)-1),LEN(LEFT(D751,SEARCH(".",D751)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D751,LEN(D751)-SEARCH(".",D751))),"_",""),IF(EXACT(LOWER(D751),D751),TRIM(SUBSTITUTE(PROPER(D751),"_","")),UPPER(LEFT(D751,1))&amp;RIGHT(D751,LEN(D751)-1)))&amp;E751)</f>
+        <v>testTeamNameTextInput</v>
+      </c>
+      <c r="G751" t="str">
+        <f t="shared" ref="G751:G814" si="51">IF(D751="","","data-testid="""&amp;F751&amp;"""")</f>
+        <v>data-testid="testTeamNameTextInput"</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>753</v>
+      </c>
+      <c r="B752" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C752" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuesuggest_name</v>
+      </c>
+      <c r="D752" t="s">
+        <v>756</v>
+      </c>
+      <c r="E752" t="s">
+        <v>15</v>
+      </c>
+      <c r="F752" t="str">
+        <f t="shared" si="50"/>
+        <v>testSuggestNameButton</v>
+      </c>
+      <c r="G752" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testSuggestNameButton"</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>753</v>
+      </c>
+      <c r="B753" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C753" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteam.users</v>
+      </c>
+      <c r="D753" t="s">
+        <v>757</v>
+      </c>
+      <c r="E753" t="s">
+        <v>758</v>
+      </c>
+      <c r="F753" t="str">
+        <f t="shared" si="50"/>
+        <v>testTeamUsersDrag</v>
+      </c>
+      <c r="G753" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testTeamUsersDrag"</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+      <c r="B754" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C754" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteam.users.drag</v>
+      </c>
+      <c r="D754" t="s">
+        <v>759</v>
+      </c>
+      <c r="E754" t="s">
+        <v>93</v>
+      </c>
+      <c r="F754" t="str">
+        <f t="shared" si="50"/>
+        <v>testTeamUsers.DragIcon</v>
+      </c>
+      <c r="G754" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testTeamUsers.DragIcon"</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>753</v>
+      </c>
+      <c r="B755" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C755" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueadd_members</v>
+      </c>
+      <c r="D755" t="s">
+        <v>760</v>
+      </c>
+      <c r="E755" t="s">
+        <v>15</v>
+      </c>
+      <c r="F755" t="str">
+        <f t="shared" si="50"/>
+        <v>testAddMembersButton</v>
+      </c>
+      <c r="G755" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAddMembersButton"</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>753</v>
+      </c>
+      <c r="B756" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C756" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteamWorksites</v>
+      </c>
+      <c r="D756" t="s">
+        <v>761</v>
+      </c>
+      <c r="E756" t="s">
+        <v>758</v>
+      </c>
+      <c r="F756" t="str">
+        <f t="shared" si="50"/>
+        <v>testTeamWorksitesDrag</v>
+      </c>
+      <c r="G756" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testTeamWorksitesDrag"</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>753</v>
+      </c>
+      <c r="B757" t="str">
+        <f t="shared" si="45"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C757" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueworksites.drag</v>
+      </c>
+      <c r="D757" t="s">
+        <v>767</v>
+      </c>
+      <c r="E757" t="s">
+        <v>93</v>
+      </c>
+      <c r="F757" t="str">
+        <f t="shared" si="50"/>
+        <v>testWorksitesDragIcon</v>
+      </c>
+      <c r="G757" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testWorksitesDragIcon"</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>753</v>
+      </c>
+      <c r="B758" t="str">
+        <f t="shared" ref="B758:B821" si="52">IF(A758="","",MID(A758,FIND("@",SUBSTITUTE(A758,"\","@",LEN(A758)-LEN(SUBSTITUTE(A758,"\",""))))+1,LEN(A758)))</f>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C758" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueassign_cases</v>
+      </c>
+      <c r="D758" t="s">
+        <v>762</v>
+      </c>
+      <c r="E758" t="s">
+        <v>15</v>
+      </c>
+      <c r="F758" t="str">
+        <f t="shared" si="50"/>
+        <v>testAssignCasesButton</v>
+      </c>
+      <c r="G758" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAssignCasesButton"</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>753</v>
+      </c>
+      <c r="B759" t="str">
+        <f t="shared" si="52"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C759" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuesearch_drag_members</v>
+      </c>
+      <c r="D759" t="s">
+        <v>763</v>
+      </c>
+      <c r="E759" t="s">
+        <v>216</v>
+      </c>
+      <c r="F759" t="str">
+        <f t="shared" si="50"/>
+        <v>testSearchDragMembersSearch</v>
+      </c>
+      <c r="G759" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testSearchDragMembersSearch"</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>753</v>
+      </c>
+      <c r="B760" t="str">
+        <f t="shared" si="52"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C760" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueusersList</v>
+      </c>
+      <c r="D760" t="s">
+        <v>764</v>
+      </c>
+      <c r="E760" t="s">
+        <v>758</v>
+      </c>
+      <c r="F760" t="str">
+        <f t="shared" si="50"/>
+        <v>testUsersListDrag</v>
+      </c>
+      <c r="G760" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testUsersListDrag"</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>753</v>
+      </c>
+      <c r="B761" t="str">
+        <f t="shared" si="52"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C761" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuecurrentCaseSearch</v>
+      </c>
+      <c r="D761" t="s">
+        <v>765</v>
+      </c>
+      <c r="E761" t="s">
+        <v>216</v>
+      </c>
+      <c r="F761" t="str">
+        <f t="shared" si="50"/>
+        <v>testCurrentCaseSearchSearch</v>
+      </c>
+      <c r="G761" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCurrentCaseSearchSearch"</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>753</v>
+      </c>
+      <c r="B762" t="str">
+        <f t="shared" si="52"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C762" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueworksites</v>
+      </c>
+      <c r="D762" t="s">
+        <v>766</v>
+      </c>
+      <c r="E762" t="s">
+        <v>758</v>
+      </c>
+      <c r="F762" t="str">
+        <f t="shared" si="50"/>
+        <v>testWorksitesDrag</v>
+      </c>
+      <c r="G762" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testWorksitesDrag"</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>753</v>
+      </c>
+      <c r="B763" t="str">
+        <f t="shared" si="52"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C763" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuecancel</v>
+      </c>
+      <c r="D763" t="s">
+        <v>40</v>
+      </c>
+      <c r="E763" t="s">
+        <v>15</v>
+      </c>
+      <c r="F763" t="str">
+        <f t="shared" si="50"/>
+        <v>testCancelButton</v>
+      </c>
+      <c r="G763" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCancelButton"</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>753</v>
+      </c>
+      <c r="B764" t="str">
+        <f t="shared" si="52"/>
+        <v>CreateTeamModal.vue</v>
+      </c>
+      <c r="C764" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuecreate</v>
+      </c>
+      <c r="D764" t="s">
+        <v>621</v>
+      </c>
+      <c r="E764" t="s">
+        <v>15</v>
+      </c>
+      <c r="F764" t="str">
+        <f t="shared" si="50"/>
+        <v>testCreateButton</v>
+      </c>
+      <c r="G764" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCreateButton"</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>768</v>
+      </c>
+      <c r="B765" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C765" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueexportInvitationRequests</v>
+      </c>
+      <c r="D765" t="s">
+        <v>771</v>
+      </c>
+      <c r="E765" t="s">
+        <v>15</v>
+      </c>
+      <c r="F765" t="str">
+        <f t="shared" si="50"/>
+        <v>testExportInvitationRequestsButton</v>
+      </c>
+      <c r="G765" t="str">
+        <f>IF(D765="","","data-testid="""&amp;F765&amp;"""")</f>
+        <v>data-testid="testExportInvitationRequestsButton"</v>
+      </c>
+      <c r="H765" t="str">
+        <f>IF(D765="","",":data-testid=""`"&amp;SUBSTITUTE(F765,E765,"")&amp;"${}"&amp;E765&amp;"`""")</f>
+        <v>:data-testid="`testExportInvitationRequests${}Button`"</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>768</v>
+      </c>
+      <c r="B766" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C766" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueinvitationRequests</v>
+      </c>
+      <c r="D766" t="s">
+        <v>769</v>
+      </c>
+      <c r="E766" t="s">
+        <v>268</v>
+      </c>
+      <c r="F766" t="str">
+        <f t="shared" si="50"/>
+        <v>testInvitationRequestsTable</v>
+      </c>
+      <c r="G766" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testInvitationRequestsTable"</v>
+      </c>
+      <c r="H766" t="str">
+        <f t="shared" ref="H766:H829" si="53">IF(D766="","",":data-testid=""`"&amp;SUBSTITUTE(F766,E766,"")&amp;"${}"&amp;E766&amp;"`""")</f>
+        <v>:data-testid="`testInvitationRequests${}Table`"</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>768</v>
+      </c>
+      <c r="B767" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C767" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueignore</v>
+      </c>
+      <c r="D767" t="s">
+        <v>770</v>
+      </c>
+      <c r="E767" t="s">
+        <v>15</v>
+      </c>
+      <c r="F767" t="str">
+        <f t="shared" si="50"/>
+        <v>testIgnoreButton</v>
+      </c>
+      <c r="G767" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testIgnoreButton"</v>
+      </c>
+      <c r="H767" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testIgnore${}Button`"</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>768</v>
+      </c>
+      <c r="B768" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C768" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vuereject</v>
+      </c>
+      <c r="D768" t="s">
+        <v>27</v>
+      </c>
+      <c r="E768" t="s">
+        <v>15</v>
+      </c>
+      <c r="F768" t="str">
+        <f t="shared" si="50"/>
+        <v>testRejectButton</v>
+      </c>
+      <c r="G768" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testRejectButton"</v>
+      </c>
+      <c r="H768" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testReject${}Button`"</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+      <c r="B769" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C769" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueaccept</v>
+      </c>
+      <c r="D769" t="s">
+        <v>29</v>
+      </c>
+      <c r="E769" t="s">
+        <v>15</v>
+      </c>
+      <c r="F769" t="str">
+        <f t="shared" si="50"/>
+        <v>testAcceptButton</v>
+      </c>
+      <c r="G769" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAcceptButton"</v>
+      </c>
+      <c r="H769" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAccept${}Button`"</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>768</v>
+      </c>
+      <c r="B770" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C770" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueexportInvitations</v>
+      </c>
+      <c r="D770" t="s">
+        <v>772</v>
+      </c>
+      <c r="E770" t="s">
+        <v>15</v>
+      </c>
+      <c r="F770" t="str">
+        <f t="shared" si="50"/>
+        <v>testExportInvitationsButton</v>
+      </c>
+      <c r="G770" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testExportInvitationsButton"</v>
+      </c>
+      <c r="H770" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testExportInvitations${}Button`"</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>768</v>
+      </c>
+      <c r="B771" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C771" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vuedeleteExpiredInvitations</v>
+      </c>
+      <c r="D771" t="s">
+        <v>773</v>
+      </c>
+      <c r="E771" t="s">
+        <v>15</v>
+      </c>
+      <c r="F771" t="str">
+        <f t="shared" si="50"/>
+        <v>testDeleteExpiredInvitationsButton</v>
+      </c>
+      <c r="G771" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testDeleteExpiredInvitationsButton"</v>
+      </c>
+      <c r="H771" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testDeleteExpiredInvitations${}Button`"</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>768</v>
+      </c>
+      <c r="B772" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C772" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vue:several_calculated</v>
+      </c>
+      <c r="D772" t="s">
+        <v>104</v>
+      </c>
+      <c r="E772" t="str">
+        <f>IF(COUNTIF(C$2:C771,C772)&gt;0,"Button","")</f>
+        <v/>
+      </c>
+      <c r="F772" t="str">
+        <f t="shared" si="50"/>
+        <v>test:SeveralCalculated</v>
+      </c>
+      <c r="G772" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+      <c r="H772" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`test:SeveralCalculated${}`"</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>768</v>
+      </c>
+      <c r="B773" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C773" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueinvitations</v>
+      </c>
+      <c r="D773" t="s">
+        <v>618</v>
+      </c>
+      <c r="E773" t="s">
+        <v>268</v>
+      </c>
+      <c r="F773" t="str">
+        <f t="shared" si="50"/>
+        <v>testInvitationsTable</v>
+      </c>
+      <c r="G773" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testInvitationsTable"</v>
+      </c>
+      <c r="H773" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testInvitations${}Table`"</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>768</v>
+      </c>
+      <c r="B774" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C774" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vuere_invite</v>
+      </c>
+      <c r="D774" t="s">
+        <v>32</v>
+      </c>
+      <c r="E774" t="s">
+        <v>15</v>
+      </c>
+      <c r="F774" t="str">
+        <f t="shared" si="50"/>
+        <v>testReInviteButton</v>
+      </c>
+      <c r="G774" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testReInviteButton"</v>
+      </c>
+      <c r="H774" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testReInvite${}Button`"</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>768</v>
+      </c>
+      <c r="B775" t="str">
+        <f t="shared" si="52"/>
+        <v>Invitations.vue</v>
+      </c>
+      <c r="C775" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vuedelete_invitation</v>
+      </c>
+      <c r="D775" t="s">
+        <v>775</v>
+      </c>
+      <c r="E775" t="s">
+        <v>15</v>
+      </c>
+      <c r="F775" t="str">
+        <f t="shared" si="50"/>
+        <v>testDeleteInvitationButton</v>
+      </c>
+      <c r="G775" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testDeleteInvitationButton"</v>
+      </c>
+      <c r="H775" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testDeleteInvitation${}Button`"</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>776</v>
+      </c>
+      <c r="B776" t="str">
+        <f t="shared" si="52"/>
+        <v>Layers.vue</v>
+      </c>
+      <c r="C776" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuegetLocations</v>
+      </c>
+      <c r="D776" t="s">
+        <v>777</v>
+      </c>
+      <c r="E776" t="s">
+        <v>216</v>
+      </c>
+      <c r="F776" t="str">
+        <f t="shared" si="50"/>
+        <v>testGetLocationsSearch</v>
+      </c>
+      <c r="G776" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testGetLocationsSearch"</v>
+      </c>
+      <c r="H776" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testGetLocations${}Search`"</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+      <c r="B777" t="str">
+        <f t="shared" si="52"/>
+        <v>Layers.vue</v>
+      </c>
+      <c r="C777" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuelocationTypeFilter</v>
+      </c>
+      <c r="D777" t="s">
+        <v>778</v>
+      </c>
+      <c r="E777" t="s">
+        <v>87</v>
+      </c>
+      <c r="F777" t="str">
+        <f t="shared" si="50"/>
+        <v>testLocationTypeFilterSelect</v>
+      </c>
+      <c r="G777" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testLocationTypeFilterSelect"</v>
+      </c>
+      <c r="H777" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testLocationTypeFilter${}Select`"</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>776</v>
+      </c>
+      <c r="B778" t="str">
+        <f t="shared" si="52"/>
+        <v>Layers.vue</v>
+      </c>
+      <c r="C778" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuecreate_location</v>
+      </c>
+      <c r="D778" t="s">
+        <v>779</v>
+      </c>
+      <c r="E778" t="s">
+        <v>15</v>
+      </c>
+      <c r="F778" t="str">
+        <f t="shared" si="50"/>
+        <v>testCreateLocationButton</v>
+      </c>
+      <c r="G778" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCreateLocationButton"</v>
+      </c>
+      <c r="H778" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCreateLocation${}Button`"</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>776</v>
+      </c>
+      <c r="B779" t="str">
+        <f t="shared" si="52"/>
+        <v>Layers.vue</v>
+      </c>
+      <c r="C779" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuelocations</v>
+      </c>
+      <c r="D779" t="s">
+        <v>780</v>
+      </c>
+      <c r="E779" t="s">
+        <v>268</v>
+      </c>
+      <c r="F779" t="str">
+        <f t="shared" si="50"/>
+        <v>testLocationsTable</v>
+      </c>
+      <c r="G779" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testLocationsTable"</v>
+      </c>
+      <c r="H779" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testLocations${}Table`"</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>781</v>
+      </c>
+      <c r="B780" t="str">
+        <f t="shared" si="52"/>
+        <v>InviteUsers.vue</v>
+      </c>
+      <c r="C780" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vueinvite_new_user</v>
+      </c>
+      <c r="D780" t="s">
+        <v>201</v>
+      </c>
+      <c r="E780" t="s">
+        <v>15</v>
+      </c>
+      <c r="F780" t="str">
+        <f t="shared" si="50"/>
+        <v>testInviteNewUserButton</v>
+      </c>
+      <c r="G780" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testInviteNewUserButton"</v>
+      </c>
+      <c r="H780" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testInviteNewUser${}Button`"</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>781</v>
+      </c>
+      <c r="B781" t="str">
+        <f t="shared" si="52"/>
+        <v>InviteUsers.vue</v>
+      </c>
+      <c r="C781" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vueshowInvite</v>
+      </c>
+      <c r="D781" t="s">
+        <v>782</v>
+      </c>
+      <c r="E781" t="s">
+        <v>98</v>
+      </c>
+      <c r="F781" t="str">
+        <f t="shared" si="50"/>
+        <v>testShowInviteModal</v>
+      </c>
+      <c r="G781" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testShowInviteModal"</v>
+      </c>
+      <c r="H781" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testShowInvite${}Modal`"</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+      <c r="B782" t="str">
+        <f t="shared" si="52"/>
+        <v>InviteUsers.vue</v>
+      </c>
+      <c r="C782" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vueusersToInvite</v>
+      </c>
+      <c r="D782" t="s">
+        <v>783</v>
+      </c>
+      <c r="E782" t="s">
+        <v>68</v>
+      </c>
+      <c r="F782" t="str">
+        <f t="shared" si="50"/>
+        <v>testUsersToInviteTextInput</v>
+      </c>
+      <c r="G782" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testUsersToInviteTextInput"</v>
+      </c>
+      <c r="H782" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testUsersToInvite${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>781</v>
+      </c>
+      <c r="B783" t="str">
+        <f t="shared" si="52"/>
+        <v>InviteUsers.vue</v>
+      </c>
+      <c r="C783" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vueorganization</v>
+      </c>
+      <c r="D783" t="s">
+        <v>33</v>
+      </c>
+      <c r="E783" t="s">
+        <v>216</v>
+      </c>
+      <c r="F783" t="str">
+        <f t="shared" si="50"/>
+        <v>testOrganizationSearch</v>
+      </c>
+      <c r="G783" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testOrganizationSearch"</v>
+      </c>
+      <c r="H783" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testOrganization${}Search`"</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>781</v>
+      </c>
+      <c r="B784" t="str">
+        <f t="shared" si="52"/>
+        <v>InviteUsers.vue</v>
+      </c>
+      <c r="C784" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vuecancel</v>
+      </c>
+      <c r="D784" t="s">
+        <v>40</v>
+      </c>
+      <c r="E784" t="s">
+        <v>15</v>
+      </c>
+      <c r="F784" t="str">
+        <f t="shared" si="50"/>
+        <v>testCancelButton</v>
+      </c>
+      <c r="G784" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCancelButton"</v>
+      </c>
+      <c r="H784" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCancel${}Button`"</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>781</v>
+      </c>
+      <c r="B785" t="str">
+        <f t="shared" si="52"/>
+        <v>InviteUsers.vue</v>
+      </c>
+      <c r="C785" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vuesubmit_invites</v>
+      </c>
+      <c r="D785" t="s">
+        <v>206</v>
+      </c>
+      <c r="E785" t="s">
+        <v>15</v>
+      </c>
+      <c r="F785" t="str">
+        <f t="shared" si="50"/>
+        <v>testSubmitInvitesButton</v>
+      </c>
+      <c r="G785" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testSubmitInvitesButton"</v>
+      </c>
+      <c r="H785" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testSubmitInvites${}Button`"</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>784</v>
+      </c>
+      <c r="B786" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C786" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuesave</v>
+      </c>
+      <c r="D786" t="s">
+        <v>169</v>
+      </c>
+      <c r="E786" t="s">
+        <v>15</v>
+      </c>
+      <c r="F786" t="str">
+        <f t="shared" si="50"/>
+        <v>testSaveButton</v>
+      </c>
+      <c r="G786" t="str">
+        <f>IF(D786="","","data-testid="""&amp;F786&amp;"""")</f>
+        <v>data-testid="testSaveButton"</v>
+      </c>
+      <c r="H786" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testSave${}Button`"</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>784</v>
+      </c>
+      <c r="B787" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C787" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_logo</v>
+      </c>
+      <c r="D787" t="s">
+        <v>120</v>
+      </c>
+      <c r="E787" t="s">
+        <v>3</v>
+      </c>
+      <c r="F787" t="str">
+        <f t="shared" si="50"/>
+        <v>testOrganizationLogoFile</v>
+      </c>
+      <c r="G787" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testOrganizationLogoFile"</v>
+      </c>
+      <c r="H787" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testOrganizationLogo${}File`"</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>784</v>
+      </c>
+      <c r="B788" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C788" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_logo</v>
+      </c>
+      <c r="D788" t="s">
+        <v>120</v>
+      </c>
+      <c r="E788" t="s">
+        <v>93</v>
+      </c>
+      <c r="F788" t="str">
+        <f t="shared" si="50"/>
+        <v>testOrganizationLogoIcon</v>
+      </c>
+      <c r="G788" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testOrganizationLogoIcon"</v>
+      </c>
+      <c r="H788" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testOrganizationLogo${}Icon`"</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>784</v>
+      </c>
+      <c r="B789" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C789" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueupdate_logo</v>
+      </c>
+      <c r="D789" t="s">
+        <v>652</v>
+      </c>
+      <c r="E789" t="s">
+        <v>15</v>
+      </c>
+      <c r="F789" t="str">
+        <f t="shared" si="50"/>
+        <v>testUpdateLogoButton</v>
+      </c>
+      <c r="G789" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testUpdateLogoButton"</v>
+      </c>
+      <c r="H789" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testUpdateLogo${}Button`"</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>784</v>
+      </c>
+      <c r="B790" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C790" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_name</v>
+      </c>
+      <c r="D790" t="s">
+        <v>524</v>
+      </c>
+      <c r="E790" t="s">
+        <v>68</v>
+      </c>
+      <c r="F790" t="str">
+        <f t="shared" si="50"/>
+        <v>testOrganizationNameTextInput</v>
+      </c>
+      <c r="G790" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testOrganizationNameTextInput"</v>
+      </c>
+      <c r="H790" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testOrganizationName${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>784</v>
+      </c>
+      <c r="B791" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C791" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueaddress</v>
+      </c>
+      <c r="D791" t="s">
+        <v>465</v>
+      </c>
+      <c r="E791" t="s">
+        <v>68</v>
+      </c>
+      <c r="F791" t="str">
+        <f t="shared" si="50"/>
+        <v>testAddressTextInput</v>
+      </c>
+      <c r="G791" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAddressTextInput"</v>
+      </c>
+      <c r="H791" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddress${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>784</v>
+      </c>
+      <c r="B792" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C792" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueurl</v>
+      </c>
+      <c r="D792" t="s">
+        <v>22</v>
+      </c>
+      <c r="E792" t="s">
+        <v>68</v>
+      </c>
+      <c r="F792" t="str">
+        <f t="shared" si="50"/>
+        <v>testUrlTextInput</v>
+      </c>
+      <c r="G792" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testUrlTextInput"</v>
+      </c>
+      <c r="H792" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testUrl${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>784</v>
+      </c>
+      <c r="B793" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C793" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueemail</v>
+      </c>
+      <c r="D793" t="s">
+        <v>421</v>
+      </c>
+      <c r="E793" t="s">
+        <v>68</v>
+      </c>
+      <c r="F793" t="str">
+        <f t="shared" si="50"/>
+        <v>testEmailTextInput</v>
+      </c>
+      <c r="G793" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testEmailTextInput"</v>
+      </c>
+      <c r="H793" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testEmail${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>784</v>
+      </c>
+      <c r="B794" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C794" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuephone</v>
+      </c>
+      <c r="D794" t="s">
+        <v>463</v>
+      </c>
+      <c r="E794" t="s">
+        <v>68</v>
+      </c>
+      <c r="F794" t="str">
+        <f t="shared" si="50"/>
+        <v>testPhoneTextInput</v>
+      </c>
+      <c r="G794" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testPhoneTextInput"</v>
+      </c>
+      <c r="H794" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testPhone${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>784</v>
+      </c>
+      <c r="B795" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C795" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_type</v>
+      </c>
+      <c r="D795" t="s">
+        <v>648</v>
+      </c>
+      <c r="E795" t="s">
+        <v>68</v>
+      </c>
+      <c r="F795" t="str">
+        <f t="shared" si="50"/>
+        <v>testOrganizationTypeTextInput</v>
+      </c>
+      <c r="G795" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testOrganizationTypeTextInput"</v>
+      </c>
+      <c r="H795" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testOrganizationType${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>784</v>
+      </c>
+      <c r="B796" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C796" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueprimary_contacts</v>
+      </c>
+      <c r="D796" t="s">
+        <v>653</v>
+      </c>
+      <c r="E796" t="s">
+        <v>69</v>
+      </c>
+      <c r="F796" t="str">
+        <f t="shared" si="50"/>
+        <v>testPrimaryContactsDiv</v>
+      </c>
+      <c r="G796" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testPrimaryContactsDiv"</v>
+      </c>
+      <c r="H796" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testPrimaryContacts${}Div`"</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>784</v>
+      </c>
+      <c r="B797" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C797" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueemail</v>
+      </c>
+      <c r="D797" t="s">
+        <v>421</v>
+      </c>
+      <c r="E797" t="s">
+        <v>91</v>
+      </c>
+      <c r="F797" t="str">
+        <f t="shared" si="50"/>
+        <v>testEmailLink</v>
+      </c>
+      <c r="G797" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testEmailLink"</v>
+      </c>
+      <c r="H797" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testEmail${}Link`"</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>784</v>
+      </c>
+      <c r="B798" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C798" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuemobile</v>
+      </c>
+      <c r="D798" t="s">
+        <v>724</v>
+      </c>
+      <c r="E798" t="s">
+        <v>91</v>
+      </c>
+      <c r="F798" t="str">
+        <f t="shared" si="50"/>
+        <v>testMobileLink</v>
+      </c>
+      <c r="G798" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testMobileLink"</v>
+      </c>
+      <c r="H798" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testMobile${}Link`"</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>784</v>
+      </c>
+      <c r="B799" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C799" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vue:several_calculated</v>
+      </c>
+      <c r="D799" t="s">
+        <v>104</v>
+      </c>
+      <c r="E799" t="str">
+        <f>IF(COUNTIF(C$2:C798,C799)&gt;0,"Button","")</f>
+        <v/>
+      </c>
+      <c r="F799" t="str">
+        <f t="shared" si="50"/>
+        <v>test:SeveralCalculated</v>
+      </c>
+      <c r="G799" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="test:SeveralCalculated"</v>
+      </c>
+      <c r="H799" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`test:SeveralCalculated${}`"</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>784</v>
+      </c>
+      <c r="B800" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C800" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuedelete</v>
+      </c>
+      <c r="D800" t="s">
+        <v>504</v>
+      </c>
+      <c r="E800" t="s">
+        <v>15</v>
+      </c>
+      <c r="F800" t="str">
+        <f t="shared" si="50"/>
+        <v>testDeleteButton</v>
+      </c>
+      <c r="G800" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testDeleteButton"</v>
+      </c>
+      <c r="H800" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testDelete${}Button`"</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>784</v>
+      </c>
+      <c r="B801" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C801" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_primary_contacts</v>
+      </c>
+      <c r="D801" t="s">
+        <v>785</v>
+      </c>
+      <c r="E801" t="s">
+        <v>216</v>
+      </c>
+      <c r="F801" t="str">
+        <f t="shared" si="50"/>
+        <v>testAddPrimaryContactsSearch</v>
+      </c>
+      <c r="G801" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAddPrimaryContactsSearch"</v>
+      </c>
+      <c r="H801" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddPrimaryContacts${}Search`"</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>784</v>
+      </c>
+      <c r="B802" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C802" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuefacebook</v>
+      </c>
+      <c r="D802" t="s">
+        <v>642</v>
+      </c>
+      <c r="E802" t="s">
+        <v>68</v>
+      </c>
+      <c r="F802" t="str">
+        <f t="shared" si="50"/>
+        <v>testFacebookTextInput</v>
+      </c>
+      <c r="G802" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testFacebookTextInput"</v>
+      </c>
+      <c r="H802" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testFacebook${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>784</v>
+      </c>
+      <c r="B803" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C803" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuetwitter</v>
+      </c>
+      <c r="D803" t="s">
+        <v>643</v>
+      </c>
+      <c r="E803" t="s">
+        <v>68</v>
+      </c>
+      <c r="F803" t="str">
+        <f t="shared" si="50"/>
+        <v>testTwitterTextInput</v>
+      </c>
+      <c r="G803" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testTwitterTextInput"</v>
+      </c>
+      <c r="H803" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testTwitter${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>784</v>
+      </c>
+      <c r="B804" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C804" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuedonation_url</v>
+      </c>
+      <c r="D804" t="s">
+        <v>786</v>
+      </c>
+      <c r="E804" t="s">
+        <v>68</v>
+      </c>
+      <c r="F804" t="str">
+        <f t="shared" si="50"/>
+        <v>testDonationUrlTextInput</v>
+      </c>
+      <c r="G804" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testDonationUrlTextInput"</v>
+      </c>
+      <c r="H804" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testDonationUrl${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>784</v>
+      </c>
+      <c r="B805" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C805" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecapabilitiesMatrix</v>
+      </c>
+      <c r="D805" t="s">
+        <v>787</v>
+      </c>
+      <c r="E805" t="s">
+        <v>307</v>
+      </c>
+      <c r="F805" t="str">
+        <f t="shared" si="50"/>
+        <v>testCapabilitiesMatrixInput</v>
+      </c>
+      <c r="G805" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCapabilitiesMatrixInput"</v>
+      </c>
+      <c r="H805" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCapabilitiesMatrix${}Input`"</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>784</v>
+      </c>
+      <c r="B806" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C806" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecurrent_incidents</v>
+      </c>
+      <c r="D806" t="s">
+        <v>788</v>
+      </c>
+      <c r="E806" t="s">
+        <v>92</v>
+      </c>
+      <c r="F806" t="str">
+        <f t="shared" si="50"/>
+        <v>testCurrentIncidentsContent</v>
+      </c>
+      <c r="G806" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testCurrentIncidentsContent"</v>
+      </c>
+      <c r="H806" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCurrentIncidents${}Content`"</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>784</v>
+      </c>
+      <c r="B807" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C807" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueapproved_incidents</v>
+      </c>
+      <c r="D807" t="s">
+        <v>661</v>
+      </c>
+      <c r="E807" t="s">
+        <v>69</v>
+      </c>
+      <c r="F807" t="str">
+        <f t="shared" si="50"/>
+        <v>testApprovedIncidentsDiv</v>
+      </c>
+      <c r="G807" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testApprovedIncidentsDiv"</v>
+      </c>
+      <c r="H807" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testApprovedIncidents${}Div`"</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>784</v>
+      </c>
+      <c r="B808" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C808" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuepending_incidents</v>
+      </c>
+      <c r="D808" t="s">
+        <v>789</v>
+      </c>
+      <c r="E808" t="s">
+        <v>69</v>
+      </c>
+      <c r="F808" t="str">
+        <f t="shared" si="50"/>
+        <v>testPendingIncidentsDiv</v>
+      </c>
+      <c r="G808" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testPendingIncidentsDiv"</v>
+      </c>
+      <c r="H808" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testPendingIncidents${}Div`"</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>784</v>
+      </c>
+      <c r="B809" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C809" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueedit_primary_location</v>
+      </c>
+      <c r="D809" t="s">
+        <v>790</v>
+      </c>
+      <c r="E809" t="s">
+        <v>15</v>
+      </c>
+      <c r="F809" t="str">
+        <f t="shared" si="50"/>
+        <v>testEditPrimaryLocationButton</v>
+      </c>
+      <c r="G809" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testEditPrimaryLocationButton"</v>
+      </c>
+      <c r="H809" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testEditPrimaryLocation${}Button`"</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>784</v>
+      </c>
+      <c r="B810" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C810" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_primary_location</v>
+      </c>
+      <c r="D810" t="s">
+        <v>791</v>
+      </c>
+      <c r="E810" t="s">
+        <v>15</v>
+      </c>
+      <c r="F810" t="str">
+        <f t="shared" si="50"/>
+        <v>testAddPrimaryLocationButton</v>
+      </c>
+      <c r="G810" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAddPrimaryLocationButton"</v>
+      </c>
+      <c r="H810" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddPrimaryLocation${}Button`"</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>784</v>
+      </c>
+      <c r="B811" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C811" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecontact_help_change_response</v>
+      </c>
+      <c r="D811" t="s">
+        <v>792</v>
+      </c>
+      <c r="E811" t="s">
+        <v>15</v>
+      </c>
+      <c r="F811" t="str">
+        <f t="shared" si="50"/>
+        <v>testContactHelpChangeResponseButton</v>
+      </c>
+      <c r="G811" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testContactHelpChangeResponseButton"</v>
+      </c>
+      <c r="H811" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testContactHelpChangeResponse${}Button`"</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>784</v>
+      </c>
+      <c r="B812" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C812" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueedit_secondary_location</v>
+      </c>
+      <c r="D812" t="s">
+        <v>793</v>
+      </c>
+      <c r="E812" t="s">
+        <v>15</v>
+      </c>
+      <c r="F812" t="str">
+        <f t="shared" si="50"/>
+        <v>testEditSecondaryLocationButton</v>
+      </c>
+      <c r="G812" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testEditSecondaryLocationButton"</v>
+      </c>
+      <c r="H812" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testEditSecondaryLocation${}Button`"</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>784</v>
+      </c>
+      <c r="B813" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C813" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_secondary_location</v>
+      </c>
+      <c r="D813" t="s">
+        <v>794</v>
+      </c>
+      <c r="E813" t="s">
+        <v>15</v>
+      </c>
+      <c r="F813" t="str">
+        <f t="shared" si="50"/>
+        <v>testAddSecondaryLocationButton</v>
+      </c>
+      <c r="G813" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testAddSecondaryLocationButton"</v>
+      </c>
+      <c r="H813" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddSecondaryLocation${}Button`"</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>784</v>
+      </c>
+      <c r="B814" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C814" t="str">
+        <f t="shared" si="49"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecontact_help_change_response2</v>
+      </c>
+      <c r="D814" t="s">
+        <v>795</v>
+      </c>
+      <c r="E814" t="s">
+        <v>15</v>
+      </c>
+      <c r="F814" t="str">
+        <f t="shared" si="50"/>
+        <v>testContactHelpChangeResponse2Button</v>
+      </c>
+      <c r="G814" t="str">
+        <f t="shared" si="51"/>
+        <v>data-testid="testContactHelpChangeResponse2Button"</v>
+      </c>
+      <c r="H814" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testContactHelpChangeResponse2${}Button`"</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>784</v>
+      </c>
+      <c r="B815" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C815" t="str">
+        <f t="shared" ref="C815:C878" si="54">A815&amp;D815</f>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueselect_location</v>
+      </c>
+      <c r="D815" t="s">
+        <v>796</v>
+      </c>
+      <c r="E815" t="s">
+        <v>98</v>
+      </c>
+      <c r="F815" t="str">
+        <f t="shared" ref="F815:F878" si="55">IF(D815="","","test"&amp;IF(ISNUMBER(SEARCH(".",D815)),UPPER(LEFT(D815,1))&amp;RIGHT(LEFT(D815,SEARCH(".",D815)-1),LEN(LEFT(D815,SEARCH(".",D815)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D815,LEN(D815)-SEARCH(".",D815))),"_",""),IF(EXACT(LOWER(D815),D815),TRIM(SUBSTITUTE(PROPER(D815),"_","")),UPPER(LEFT(D815,1))&amp;RIGHT(D815,LEN(D815)-1)))&amp;E815)</f>
+        <v>testSelectLocationModal</v>
+      </c>
+      <c r="G815" t="str">
+        <f t="shared" ref="G815:G878" si="56">IF(D815="","","data-testid="""&amp;F815&amp;"""")</f>
+        <v>data-testid="testSelectLocationModal"</v>
+      </c>
+      <c r="H815" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testSelectLocation${}Modal`"</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>784</v>
+      </c>
+      <c r="B816" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C816" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuesave</v>
+      </c>
+      <c r="D816" t="s">
+        <v>169</v>
+      </c>
+      <c r="E816" t="s">
+        <v>15</v>
+      </c>
+      <c r="F816" t="str">
+        <f t="shared" si="55"/>
+        <v>testSaveButton</v>
+      </c>
+      <c r="G816" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testSaveButton"</v>
+      </c>
+      <c r="H816" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testSave${}Button`"</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>784</v>
+      </c>
+      <c r="B817" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C817" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecustom_ops_message</v>
+      </c>
+      <c r="D817" t="s">
+        <v>797</v>
+      </c>
+      <c r="E817" t="s">
+        <v>749</v>
+      </c>
+      <c r="F817" t="str">
+        <f t="shared" si="55"/>
+        <v>testCustomOpsMessageTextArea</v>
+      </c>
+      <c r="G817" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testCustomOpsMessageTextArea"</v>
+      </c>
+      <c r="H817" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCustomOpsMessage${}TextArea`"</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>784</v>
+      </c>
+      <c r="B818" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C818" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_custom_tos</v>
+      </c>
+      <c r="D818" t="s">
+        <v>798</v>
+      </c>
+      <c r="E818" t="s">
+        <v>68</v>
+      </c>
+      <c r="F818" t="str">
+        <f t="shared" si="55"/>
+        <v>testAddCustomTosTextInput</v>
+      </c>
+      <c r="G818" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testAddCustomTosTextInput"</v>
+      </c>
+      <c r="H818" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddCustomTos${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>784</v>
+      </c>
+      <c r="B819" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C819" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuedelete</v>
+      </c>
+      <c r="D819" t="s">
+        <v>504</v>
+      </c>
+      <c r="E819" t="s">
+        <v>93</v>
+      </c>
+      <c r="F819" t="str">
+        <f t="shared" si="55"/>
+        <v>testDeleteIcon</v>
+      </c>
+      <c r="G819" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testDeleteIcon"</v>
+      </c>
+      <c r="H819" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testDelete${}Icon`"</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>784</v>
+      </c>
+      <c r="B820" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C820" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueterms_of_service</v>
+      </c>
+      <c r="D820" t="s">
+        <v>799</v>
+      </c>
+      <c r="E820" t="s">
+        <v>3</v>
+      </c>
+      <c r="F820" t="str">
+        <f t="shared" si="55"/>
+        <v>testTermsOfServiceFile</v>
+      </c>
+      <c r="G820" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testTermsOfServiceFile"</v>
+      </c>
+      <c r="H820" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testTermsOfService${}File`"</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>784</v>
+      </c>
+      <c r="B821" t="str">
+        <f t="shared" si="52"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C821" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecustom_legal_tos</v>
+      </c>
+      <c r="D821" t="s">
+        <v>800</v>
+      </c>
+      <c r="E821" t="s">
+        <v>749</v>
+      </c>
+      <c r="F821" t="str">
+        <f t="shared" si="55"/>
+        <v>testCustomLegalTosTextArea</v>
+      </c>
+      <c r="G821" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testCustomLegalTosTextArea"</v>
+      </c>
+      <c r="H821" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCustomLegalTos${}TextArea`"</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>784</v>
+      </c>
+      <c r="B822" t="str">
+        <f t="shared" ref="B822:B885" si="57">IF(A822="","",MID(A822,FIND("@",SUBSTITUTE(A822,"\","@",LEN(A822)-LEN(SUBSTITUTE(A822,"\",""))))+1,LEN(A822)))</f>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C822" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_custom_liability</v>
+      </c>
+      <c r="D822" t="s">
+        <v>801</v>
+      </c>
+      <c r="E822" t="s">
+        <v>307</v>
+      </c>
+      <c r="F822" t="str">
+        <f t="shared" si="55"/>
+        <v>testAddCustomLiabilityInput</v>
+      </c>
+      <c r="G822" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testAddCustomLiabilityInput"</v>
+      </c>
+      <c r="H822" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddCustomLiability${}Input`"</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>784</v>
+      </c>
+      <c r="B823" t="str">
+        <f t="shared" si="57"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C823" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuedelete_liability_waiver</v>
+      </c>
+      <c r="D823" t="s">
+        <v>802</v>
+      </c>
+      <c r="E823" t="s">
+        <v>15</v>
+      </c>
+      <c r="F823" t="str">
+        <f t="shared" si="55"/>
+        <v>testDeleteLiabilityWaiverButton</v>
+      </c>
+      <c r="G823" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testDeleteLiabilityWaiverButton"</v>
+      </c>
+      <c r="H823" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testDeleteLiabilityWaiver${}Button`"</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>784</v>
+      </c>
+      <c r="B824" t="str">
+        <f t="shared" si="57"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C824" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueliability_waiver</v>
+      </c>
+      <c r="D824" t="s">
+        <v>803</v>
+      </c>
+      <c r="E824" t="s">
+        <v>3</v>
+      </c>
+      <c r="F824" t="str">
+        <f t="shared" si="55"/>
+        <v>testLiabilityWaiverFile</v>
+      </c>
+      <c r="G824" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testLiabilityWaiverFile"</v>
+      </c>
+      <c r="H824" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testLiabilityWaiver${}File`"</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>784</v>
+      </c>
+      <c r="B825" t="str">
+        <f t="shared" si="57"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C825" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecustom_survivor_waiver</v>
+      </c>
+      <c r="D825" t="s">
+        <v>804</v>
+      </c>
+      <c r="E825" t="s">
+        <v>15</v>
+      </c>
+      <c r="F825" t="str">
+        <f t="shared" si="55"/>
+        <v>testCustomSurvivorWaiverButton</v>
+      </c>
+      <c r="G825" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testCustomSurvivorWaiverButton"</v>
+      </c>
+      <c r="H825" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testCustomSurvivorWaiver${}Button`"</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>784</v>
+      </c>
+      <c r="B826" t="str">
+        <f t="shared" si="57"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C826" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_survivor_waiver_text</v>
+      </c>
+      <c r="D826" t="s">
+        <v>805</v>
+      </c>
+      <c r="E826" t="s">
+        <v>749</v>
+      </c>
+      <c r="F826" t="str">
+        <f t="shared" si="55"/>
+        <v>testAddSurvivorWaiverTextTextArea</v>
+      </c>
+      <c r="G826" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testAddSurvivorWaiverTextTextArea"</v>
+      </c>
+      <c r="H826" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddSurvivorWaiverText${}TextArea`"</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>784</v>
+      </c>
+      <c r="B827" t="str">
+        <f t="shared" si="57"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C827" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_logo2</v>
+      </c>
+      <c r="D827" t="s">
+        <v>807</v>
+      </c>
+      <c r="E827" t="s">
+        <v>3</v>
+      </c>
+      <c r="F827" t="str">
+        <f t="shared" si="55"/>
+        <v>testOrganizationLogo2File</v>
+      </c>
+      <c r="G827" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testOrganizationLogo2File"</v>
+      </c>
+      <c r="H827" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testOrganizationLogo2${}File`"</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>784</v>
+      </c>
+      <c r="B828" t="str">
+        <f t="shared" si="57"/>
+        <v>Profile.vue</v>
+      </c>
+      <c r="C828" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_terms</v>
+      </c>
+      <c r="D828" t="s">
+        <v>808</v>
+      </c>
+      <c r="E828" t="s">
+        <v>15</v>
+      </c>
+      <c r="F828" t="str">
+        <f t="shared" si="55"/>
+        <v>testAddTermsButton</v>
+      </c>
+      <c r="G828" t="str">
+        <f t="shared" si="56"/>
+        <v>data-testid="testAddTermsButton"</v>
+      </c>
+      <c r="H828" t="str">
+        <f t="shared" si="53"/>
+        <v>:data-testid="`testAddTerms${}Button`"</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>806</v>
+      </c>
+      <c r="B829" t="str">
+        <f t="shared" si="57"/>
+        <v>TeamDetail.vue</v>
+      </c>
+      <c r="C829" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vue</v>
+      </c>
+      <c r="E829" t="str">
+        <f>IF(COUNTIF(C$2:C828,C829)&gt;0,"Button","")</f>
+        <v/>
+      </c>
+      <c r="F829" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G829" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H829" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>743</v>
+      </c>
+      <c r="B830" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C830" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E830" t="str">
+        <f>IF(COUNTIF(C$2:C829,C830)&gt;0,"Button","")</f>
+        <v/>
+      </c>
+      <c r="F830" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G830" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H830" t="str">
+        <f t="shared" ref="H830:H893" si="58">IF(D830="","",":data-testid=""`"&amp;SUBSTITUTE(F830,E830,"")&amp;"${}"&amp;E830&amp;"`""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>743</v>
+      </c>
+      <c r="B831" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C831" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E831" t="str">
+        <f>IF(COUNTIF(C$2:C830,C831)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F831" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G831" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H831" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>743</v>
+      </c>
+      <c r="B832" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C832" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E832" t="str">
+        <f>IF(COUNTIF(C$2:C831,C832)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F832" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G832" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H832" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>743</v>
+      </c>
+      <c r="B833" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C833" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E833" t="str">
+        <f>IF(COUNTIF(C$2:C832,C833)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F833" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G833" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H833" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>743</v>
+      </c>
+      <c r="B834" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C834" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E834" t="str">
+        <f>IF(COUNTIF(C$2:C833,C834)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F834" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G834" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H834" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>743</v>
+      </c>
+      <c r="B835" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C835" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E835" t="str">
+        <f>IF(COUNTIF(C$2:C834,C835)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F835" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G835" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H835" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>743</v>
+      </c>
+      <c r="B836" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C836" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E836" t="str">
+        <f>IF(COUNTIF(C$2:C835,C836)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F836" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G836" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H836" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>743</v>
+      </c>
+      <c r="B837" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C837" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E837" t="str">
+        <f>IF(COUNTIF(C$2:C836,C837)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F837" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G837" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H837" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>743</v>
+      </c>
+      <c r="B838" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C838" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E838" t="str">
+        <f>IF(COUNTIF(C$2:C837,C838)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F838" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G838" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H838" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>743</v>
+      </c>
+      <c r="B839" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C839" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E839" t="str">
+        <f>IF(COUNTIF(C$2:C838,C839)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F839" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G839" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H839" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>743</v>
+      </c>
+      <c r="B840" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C840" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E840" t="str">
+        <f>IF(COUNTIF(C$2:C839,C840)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F840" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G840" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H840" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>743</v>
+      </c>
+      <c r="B841" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C841" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E841" t="str">
+        <f>IF(COUNTIF(C$2:C840,C841)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F841" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G841" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H841" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>743</v>
+      </c>
+      <c r="B842" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C842" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E842" t="str">
+        <f>IF(COUNTIF(C$2:C841,C842)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F842" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G842" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H842" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>743</v>
+      </c>
+      <c r="B843" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C843" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E843" t="str">
+        <f>IF(COUNTIF(C$2:C842,C843)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F843" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G843" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H843" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>743</v>
+      </c>
+      <c r="B844" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C844" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E844" t="str">
+        <f>IF(COUNTIF(C$2:C843,C844)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F844" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G844" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H844" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>743</v>
+      </c>
+      <c r="B845" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C845" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E845" t="str">
+        <f>IF(COUNTIF(C$2:C844,C845)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F845" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G845" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H845" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>743</v>
+      </c>
+      <c r="B846" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C846" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E846" t="str">
+        <f>IF(COUNTIF(C$2:C845,C846)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F846" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G846" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H846" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>743</v>
+      </c>
+      <c r="B847" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C847" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E847" t="str">
+        <f>IF(COUNTIF(C$2:C846,C847)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F847" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G847" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H847" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>743</v>
+      </c>
+      <c r="B848" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C848" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E848" t="str">
+        <f>IF(COUNTIF(C$2:C847,C848)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F848" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G848" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H848" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>743</v>
+      </c>
+      <c r="B849" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C849" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E849" t="str">
+        <f>IF(COUNTIF(C$2:C848,C849)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F849" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G849" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H849" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>743</v>
+      </c>
+      <c r="B850" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C850" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E850" t="str">
+        <f>IF(COUNTIF(C$2:C849,C850)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F850" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G850" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H850" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>743</v>
+      </c>
+      <c r="B851" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C851" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E851" t="str">
+        <f>IF(COUNTIF(C$2:C850,C851)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F851" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G851" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H851" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>743</v>
+      </c>
+      <c r="B852" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C852" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E852" t="str">
+        <f>IF(COUNTIF(C$2:C851,C852)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F852" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G852" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H852" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>743</v>
+      </c>
+      <c r="B853" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C853" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E853" t="str">
+        <f>IF(COUNTIF(C$2:C852,C853)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F853" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G853" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H853" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>743</v>
+      </c>
+      <c r="B854" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C854" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E854" t="str">
+        <f>IF(COUNTIF(C$2:C853,C854)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F854" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G854" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H854" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>743</v>
+      </c>
+      <c r="B855" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C855" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E855" t="str">
+        <f>IF(COUNTIF(C$2:C854,C855)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F855" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G855" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H855" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>743</v>
+      </c>
+      <c r="B856" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C856" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E856" t="str">
+        <f>IF(COUNTIF(C$2:C855,C856)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F856" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G856" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H856" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>743</v>
+      </c>
+      <c r="B857" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C857" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E857" t="str">
+        <f>IF(COUNTIF(C$2:C856,C857)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F857" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G857" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H857" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>743</v>
+      </c>
+      <c r="B858" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C858" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E858" t="str">
+        <f>IF(COUNTIF(C$2:C857,C858)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F858" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G858" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H858" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>743</v>
+      </c>
+      <c r="B859" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C859" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E859" t="str">
+        <f>IF(COUNTIF(C$2:C858,C859)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F859" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G859" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H859" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>743</v>
+      </c>
+      <c r="B860" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C860" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E860" t="str">
+        <f>IF(COUNTIF(C$2:C859,C860)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F860" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G860" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H860" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>743</v>
+      </c>
+      <c r="B861" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C861" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E861" t="str">
+        <f>IF(COUNTIF(C$2:C860,C861)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F861" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G861" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H861" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>743</v>
+      </c>
+      <c r="B862" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C862" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E862" t="str">
+        <f>IF(COUNTIF(C$2:C861,C862)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F862" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G862" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H862" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>743</v>
+      </c>
+      <c r="B863" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C863" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E863" t="str">
+        <f>IF(COUNTIF(C$2:C862,C863)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F863" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G863" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H863" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>743</v>
+      </c>
+      <c r="B864" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C864" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E864" t="str">
+        <f>IF(COUNTIF(C$2:C863,C864)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F864" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G864" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H864" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>743</v>
+      </c>
+      <c r="B865" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C865" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E865" t="str">
+        <f>IF(COUNTIF(C$2:C864,C865)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F865" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G865" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H865" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>743</v>
+      </c>
+      <c r="B866" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C866" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E866" t="str">
+        <f>IF(COUNTIF(C$2:C865,C866)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F866" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G866" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H866" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>743</v>
+      </c>
+      <c r="B867" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C867" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E867" t="str">
+        <f>IF(COUNTIF(C$2:C866,C867)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F867" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G867" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H867" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>743</v>
+      </c>
+      <c r="B868" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C868" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E868" t="str">
+        <f>IF(COUNTIF(C$2:C867,C868)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F868" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G868" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H868" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>743</v>
+      </c>
+      <c r="B869" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C869" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E869" t="str">
+        <f>IF(COUNTIF(C$2:C868,C869)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F869" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G869" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H869" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>743</v>
+      </c>
+      <c r="B870" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C870" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E870" t="str">
+        <f>IF(COUNTIF(C$2:C869,C870)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F870" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G870" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H870" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>743</v>
+      </c>
+      <c r="B871" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C871" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E871" t="str">
+        <f>IF(COUNTIF(C$2:C870,C871)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F871" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G871" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H871" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>743</v>
+      </c>
+      <c r="B872" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C872" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E872" t="str">
+        <f>IF(COUNTIF(C$2:C871,C872)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F872" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G872" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H872" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>743</v>
+      </c>
+      <c r="B873" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C873" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E873" t="str">
+        <f>IF(COUNTIF(C$2:C872,C873)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F873" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G873" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H873" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>743</v>
+      </c>
+      <c r="B874" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C874" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E874" t="str">
+        <f>IF(COUNTIF(C$2:C873,C874)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F874" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G874" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H874" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>743</v>
+      </c>
+      <c r="B875" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C875" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E875" t="str">
+        <f>IF(COUNTIF(C$2:C874,C875)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F875" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G875" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H875" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>743</v>
+      </c>
+      <c r="B876" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C876" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E876" t="str">
+        <f>IF(COUNTIF(C$2:C875,C876)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F876" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G876" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H876" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>743</v>
+      </c>
+      <c r="B877" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C877" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E877" t="str">
+        <f>IF(COUNTIF(C$2:C876,C877)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F877" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G877" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H877" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>743</v>
+      </c>
+      <c r="B878" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C878" t="str">
+        <f t="shared" si="54"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E878" t="str">
+        <f>IF(COUNTIF(C$2:C877,C878)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F878" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="G878" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H878" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>743</v>
+      </c>
+      <c r="B879" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C879" t="str">
+        <f t="shared" ref="C879:C942" si="59">A879&amp;D879</f>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E879" t="str">
+        <f>IF(COUNTIF(C$2:C878,C879)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F879" t="str">
+        <f t="shared" ref="F879:F942" si="60">IF(D879="","","test"&amp;IF(ISNUMBER(SEARCH(".",D879)),UPPER(LEFT(D879,1))&amp;RIGHT(LEFT(D879,SEARCH(".",D879)-1),LEN(LEFT(D879,SEARCH(".",D879)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D879,LEN(D879)-SEARCH(".",D879))),"_",""),IF(EXACT(LOWER(D879),D879),TRIM(SUBSTITUTE(PROPER(D879),"_","")),UPPER(LEFT(D879,1))&amp;RIGHT(D879,LEN(D879)-1)))&amp;E879)</f>
+        <v/>
+      </c>
+      <c r="G879" t="str">
+        <f t="shared" ref="G879:G942" si="61">IF(D879="","","data-testid="""&amp;F879&amp;"""")</f>
+        <v/>
+      </c>
+      <c r="H879" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>743</v>
+      </c>
+      <c r="B880" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C880" t="str">
+        <f t="shared" si="59"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E880" t="str">
+        <f>IF(COUNTIF(C$2:C879,C880)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F880" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G880" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H880" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>743</v>
+      </c>
+      <c r="B881" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C881" t="str">
+        <f t="shared" si="59"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E881" t="str">
+        <f>IF(COUNTIF(C$2:C880,C881)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F881" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G881" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H881" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>743</v>
+      </c>
+      <c r="B882" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C882" t="str">
+        <f t="shared" si="59"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+      </c>
+      <c r="E882" t="str">
+        <f>IF(COUNTIF(C$2:C881,C882)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F882" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G882" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H882" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B883" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C883" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E883" t="str">
+        <f>IF(COUNTIF(C$2:C882,C883)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F883" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G883" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H883" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B884" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C884" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E884" t="str">
+        <f>IF(COUNTIF(C$2:C883,C884)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F884" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G884" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H884" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B885" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="C885" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E885" t="str">
+        <f>IF(COUNTIF(C$2:C884,C885)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F885" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G885" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H885" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B886" t="str">
+        <f t="shared" ref="B886:B949" si="62">IF(A886="","",MID(A886,FIND("@",SUBSTITUTE(A886,"\","@",LEN(A886)-LEN(SUBSTITUTE(A886,"\",""))))+1,LEN(A886)))</f>
+        <v/>
+      </c>
+      <c r="C886" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E886" t="str">
+        <f>IF(COUNTIF(C$2:C885,C886)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F886" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G886" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H886" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B887" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C887" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E887" t="str">
+        <f>IF(COUNTIF(C$2:C886,C887)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F887" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G887" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H887" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B888" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C888" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E888" t="str">
+        <f>IF(COUNTIF(C$2:C887,C888)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F888" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G888" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H888" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B889" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C889" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E889" t="str">
+        <f>IF(COUNTIF(C$2:C888,C889)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F889" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G889" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H889" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B890" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C890" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E890" t="str">
+        <f>IF(COUNTIF(C$2:C889,C890)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F890" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G890" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H890" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B891" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C891" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E891" t="str">
+        <f>IF(COUNTIF(C$2:C890,C891)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F891" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G891" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H891" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B892" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C892" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E892" t="str">
+        <f>IF(COUNTIF(C$2:C891,C892)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F892" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G892" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H892" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B893" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C893" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E893" t="str">
+        <f>IF(COUNTIF(C$2:C892,C893)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F893" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G893" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H893" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B894" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C894" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E894" t="str">
+        <f>IF(COUNTIF(C$2:C893,C894)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F894" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G894" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H894" t="str">
+        <f t="shared" ref="H894:H957" si="63">IF(D894="","",":data-testid=""`"&amp;SUBSTITUTE(F894,E894,"")&amp;"${}"&amp;E894&amp;"`""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B895" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C895" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E895" t="str">
+        <f>IF(COUNTIF(C$2:C894,C895)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F895" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G895" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H895" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B896" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C896" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E896" t="str">
+        <f>IF(COUNTIF(C$2:C895,C896)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F896" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G896" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H896" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="897" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B897" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C897" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E897" t="str">
+        <f>IF(COUNTIF(C$2:C896,C897)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F897" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G897" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H897" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="898" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B898" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C898" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E898" t="str">
+        <f>IF(COUNTIF(C$2:C897,C898)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F898" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G898" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H898" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="899" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B899" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C899" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E899" t="str">
+        <f>IF(COUNTIF(C$2:C898,C899)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F899" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G899" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H899" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="900" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B900" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C900" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E900" t="str">
+        <f>IF(COUNTIF(C$2:C899,C900)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F900" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G900" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H900" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="901" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B901" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C901" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E901" t="str">
+        <f>IF(COUNTIF(C$2:C900,C901)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F901" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G901" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H901" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="902" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B902" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C902" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E902" t="str">
+        <f>IF(COUNTIF(C$2:C901,C902)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F902" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G902" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H902" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="903" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B903" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C903" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E903" t="str">
+        <f>IF(COUNTIF(C$2:C902,C903)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F903" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G903" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H903" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="904" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B904" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C904" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E904" t="str">
+        <f>IF(COUNTIF(C$2:C903,C904)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F904" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G904" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H904" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="905" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B905" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C905" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E905" t="str">
+        <f>IF(COUNTIF(C$2:C904,C905)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F905" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G905" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H905" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="906" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B906" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C906" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E906" t="str">
+        <f>IF(COUNTIF(C$2:C905,C906)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F906" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G906" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H906" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="907" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B907" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C907" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E907" t="str">
+        <f>IF(COUNTIF(C$2:C906,C907)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F907" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G907" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H907" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="908" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B908" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C908" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E908" t="str">
+        <f>IF(COUNTIF(C$2:C907,C908)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F908" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G908" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H908" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="909" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B909" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C909" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E909" t="str">
+        <f>IF(COUNTIF(C$2:C908,C909)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F909" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G909" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H909" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="910" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B910" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C910" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E910" t="str">
+        <f>IF(COUNTIF(C$2:C909,C910)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F910" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G910" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H910" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="911" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B911" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C911" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E911" t="str">
+        <f>IF(COUNTIF(C$2:C910,C911)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F911" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G911" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H911" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="912" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B912" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C912" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E912" t="str">
+        <f>IF(COUNTIF(C$2:C911,C912)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F912" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G912" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H912" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="913" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B913" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C913" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E913" t="str">
+        <f>IF(COUNTIF(C$2:C912,C913)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F913" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G913" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H913" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="914" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B914" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C914" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E914" t="str">
+        <f>IF(COUNTIF(C$2:C913,C914)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F914" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G914" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H914" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="915" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B915" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C915" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E915" t="str">
+        <f>IF(COUNTIF(C$2:C914,C915)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F915" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G915" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H915" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="916" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B916" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C916" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E916" t="str">
+        <f>IF(COUNTIF(C$2:C915,C916)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F916" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G916" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H916" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="917" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B917" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C917" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E917" t="str">
+        <f>IF(COUNTIF(C$2:C916,C917)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F917" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G917" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H917" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="918" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B918" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C918" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E918" t="str">
+        <f>IF(COUNTIF(C$2:C917,C918)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F918" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G918" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H918" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="919" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B919" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C919" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E919" t="str">
+        <f>IF(COUNTIF(C$2:C918,C919)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F919" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G919" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H919" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="920" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B920" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C920" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E920" t="str">
+        <f>IF(COUNTIF(C$2:C919,C920)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F920" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G920" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H920" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="921" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B921" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C921" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E921" t="str">
+        <f>IF(COUNTIF(C$2:C920,C921)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F921" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G921" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H921" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="922" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B922" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C922" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E922" t="str">
+        <f>IF(COUNTIF(C$2:C921,C922)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F922" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G922" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H922" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="923" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B923" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C923" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E923" t="str">
+        <f>IF(COUNTIF(C$2:C922,C923)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F923" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G923" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H923" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="924" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B924" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C924" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E924" t="str">
+        <f>IF(COUNTIF(C$2:C923,C924)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F924" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G924" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H924" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="925" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B925" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C925" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E925" t="str">
+        <f>IF(COUNTIF(C$2:C924,C925)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F925" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G925" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H925" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="926" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B926" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C926" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E926" t="str">
+        <f>IF(COUNTIF(C$2:C925,C926)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F926" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G926" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H926" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="927" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B927" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C927" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E927" t="str">
+        <f>IF(COUNTIF(C$2:C926,C927)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F927" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G927" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H927" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="928" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B928" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C928" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E928" t="str">
+        <f>IF(COUNTIF(C$2:C927,C928)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F928" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G928" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H928" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="929" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B929" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C929" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E929" t="str">
+        <f>IF(COUNTIF(C$2:C928,C929)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F929" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G929" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H929" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="930" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B930" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C930" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E930" t="str">
+        <f>IF(COUNTIF(C$2:C929,C930)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F930" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G930" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H930" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="931" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B931" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C931" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E931" t="str">
+        <f>IF(COUNTIF(C$2:C930,C931)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F931" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G931" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H931" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="932" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B932" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C932" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E932" t="str">
+        <f>IF(COUNTIF(C$2:C931,C932)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F932" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G932" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H932" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="933" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B933" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C933" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E933" t="str">
+        <f>IF(COUNTIF(C$2:C932,C933)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F933" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G933" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H933" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="934" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B934" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C934" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E934" t="str">
+        <f>IF(COUNTIF(C$2:C933,C934)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F934" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G934" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H934" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="935" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B935" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C935" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E935" t="str">
+        <f>IF(COUNTIF(C$2:C934,C935)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F935" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G935" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H935" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="936" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B936" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C936" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E936" t="str">
+        <f>IF(COUNTIF(C$2:C935,C936)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F936" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G936" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H936" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="937" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B937" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C937" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E937" t="str">
+        <f>IF(COUNTIF(C$2:C936,C937)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F937" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G937" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H937" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="938" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B938" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C938" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E938" t="str">
+        <f>IF(COUNTIF(C$2:C937,C938)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F938" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G938" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H938" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="939" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B939" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C939" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E939" t="str">
+        <f>IF(COUNTIF(C$2:C938,C939)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F939" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G939" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H939" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="940" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B940" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C940" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E940" t="str">
+        <f>IF(COUNTIF(C$2:C939,C940)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F940" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G940" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H940" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="941" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B941" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C941" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E941" t="str">
+        <f>IF(COUNTIF(C$2:C940,C941)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F941" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G941" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H941" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="942" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B942" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C942" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="E942" t="str">
+        <f>IF(COUNTIF(C$2:C941,C942)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F942" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="G942" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="H942" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="943" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B943" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C943" t="str">
+        <f t="shared" ref="C943:C1000" si="64">A943&amp;D943</f>
+        <v/>
+      </c>
+      <c r="E943" t="str">
+        <f>IF(COUNTIF(C$2:C942,C943)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F943" t="str">
+        <f t="shared" ref="F943:F1000" si="65">IF(D943="","","test"&amp;IF(ISNUMBER(SEARCH(".",D943)),UPPER(LEFT(D943,1))&amp;RIGHT(LEFT(D943,SEARCH(".",D943)-1),LEN(LEFT(D943,SEARCH(".",D943)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D943,LEN(D943)-SEARCH(".",D943))),"_",""),IF(EXACT(LOWER(D943),D943),TRIM(SUBSTITUTE(PROPER(D943),"_","")),UPPER(LEFT(D943,1))&amp;RIGHT(D943,LEN(D943)-1)))&amp;E943)</f>
+        <v/>
+      </c>
+      <c r="G943" t="str">
+        <f t="shared" ref="G943:G1000" si="66">IF(D943="","","data-testid="""&amp;F943&amp;"""")</f>
+        <v/>
+      </c>
+      <c r="H943" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="944" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B944" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C944" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E944" t="str">
+        <f>IF(COUNTIF(C$2:C943,C944)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F944" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G944" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H944" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="945" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B945" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C945" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E945" t="str">
+        <f>IF(COUNTIF(C$2:C944,C945)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F945" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G945" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H945" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="946" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B946" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C946" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E946" t="str">
+        <f>IF(COUNTIF(C$2:C945,C946)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F946" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G946" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H946" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="947" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B947" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C947" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E947" t="str">
+        <f>IF(COUNTIF(C$2:C946,C947)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F947" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G947" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H947" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="948" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B948" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C948" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E948" t="str">
+        <f>IF(COUNTIF(C$2:C947,C948)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F948" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G948" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H948" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="949" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B949" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="C949" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E949" t="str">
+        <f>IF(COUNTIF(C$2:C948,C949)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F949" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G949" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H949" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="950" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B950" t="str">
+        <f t="shared" ref="B950:B1000" si="67">IF(A950="","",MID(A950,FIND("@",SUBSTITUTE(A950,"\","@",LEN(A950)-LEN(SUBSTITUTE(A950,"\",""))))+1,LEN(A950)))</f>
+        <v/>
+      </c>
+      <c r="C950" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E950" t="str">
+        <f>IF(COUNTIF(C$2:C949,C950)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F950" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G950" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H950" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="951" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B951" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C951" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E951" t="str">
+        <f>IF(COUNTIF(C$2:C950,C951)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F951" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G951" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H951" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="952" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B952" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C952" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E952" t="str">
+        <f>IF(COUNTIF(C$2:C951,C952)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F952" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G952" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H952" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="953" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B953" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C953" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E953" t="str">
+        <f>IF(COUNTIF(C$2:C952,C953)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F953" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G953" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H953" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="954" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B954" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C954" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E954" t="str">
+        <f>IF(COUNTIF(C$2:C953,C954)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F954" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G954" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H954" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="955" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B955" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C955" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E955" t="str">
+        <f>IF(COUNTIF(C$2:C954,C955)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F955" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G955" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H955" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="956" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B956" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C956" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E956" t="str">
+        <f>IF(COUNTIF(C$2:C955,C956)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F956" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G956" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H956" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="957" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B957" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C957" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E957" t="str">
+        <f>IF(COUNTIF(C$2:C956,C957)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F957" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G957" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H957" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+    </row>
+    <row r="958" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B958" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C958" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E958" t="str">
+        <f>IF(COUNTIF(C$2:C957,C958)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F958" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G958" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H958" t="str">
+        <f t="shared" ref="H958:H1000" si="68">IF(D958="","",":data-testid=""`"&amp;SUBSTITUTE(F958,E958,"")&amp;"${}"&amp;E958&amp;"`""")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="959" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B959" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C959" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E959" t="str">
+        <f>IF(COUNTIF(C$2:C958,C959)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F959" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G959" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H959" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="960" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B960" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C960" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E960" t="str">
+        <f>IF(COUNTIF(C$2:C959,C960)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F960" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G960" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H960" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="961" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B961" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C961" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E961" t="str">
+        <f>IF(COUNTIF(C$2:C960,C961)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F961" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G961" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H961" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="962" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B962" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C962" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E962" t="str">
+        <f>IF(COUNTIF(C$2:C961,C962)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F962" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G962" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H962" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="963" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B963" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C963" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E963" t="str">
+        <f>IF(COUNTIF(C$2:C962,C963)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F963" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G963" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H963" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="964" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B964" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C964" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E964" t="str">
+        <f>IF(COUNTIF(C$2:C963,C964)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F964" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G964" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H964" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="965" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B965" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C965" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E965" t="str">
+        <f>IF(COUNTIF(C$2:C964,C965)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F965" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G965" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H965" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="966" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B966" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C966" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E966" t="str">
+        <f>IF(COUNTIF(C$2:C965,C966)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F966" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G966" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H966" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="967" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B967" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C967" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E967" t="str">
+        <f>IF(COUNTIF(C$2:C966,C967)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F967" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G967" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H967" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="968" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B968" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C968" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E968" t="str">
+        <f>IF(COUNTIF(C$2:C967,C968)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F968" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G968" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H968" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="969" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B969" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C969" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E969" t="str">
+        <f>IF(COUNTIF(C$2:C968,C969)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F969" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G969" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H969" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="970" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B970" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C970" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E970" t="str">
+        <f>IF(COUNTIF(C$2:C969,C970)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F970" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G970" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H970" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="971" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B971" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C971" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E971" t="str">
+        <f>IF(COUNTIF(C$2:C970,C971)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F971" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G971" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H971" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="972" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B972" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C972" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E972" t="str">
+        <f>IF(COUNTIF(C$2:C971,C972)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F972" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G972" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H972" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="973" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B973" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C973" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E973" t="str">
+        <f>IF(COUNTIF(C$2:C972,C973)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F973" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G973" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H973" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="974" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B974" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C974" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E974" t="str">
+        <f>IF(COUNTIF(C$2:C973,C974)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F974" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G974" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H974" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="975" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B975" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C975" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E975" t="str">
+        <f>IF(COUNTIF(C$2:C974,C975)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F975" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G975" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H975" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="976" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B976" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C976" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E976" t="str">
+        <f>IF(COUNTIF(C$2:C975,C976)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F976" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G976" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H976" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="977" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B977" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C977" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E977" t="str">
+        <f>IF(COUNTIF(C$2:C976,C977)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F977" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G977" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H977" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="978" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B978" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C978" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E978" t="str">
+        <f>IF(COUNTIF(C$2:C977,C978)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F978" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G978" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H978" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="979" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B979" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C979" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E979" t="str">
+        <f>IF(COUNTIF(C$2:C978,C979)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F979" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G979" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H979" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="980" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B980" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C980" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E980" t="str">
+        <f>IF(COUNTIF(C$2:C979,C980)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F980" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G980" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H980" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="981" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B981" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C981" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E981" t="str">
+        <f>IF(COUNTIF(C$2:C980,C981)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F981" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G981" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H981" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="982" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B982" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C982" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E982" t="str">
+        <f>IF(COUNTIF(C$2:C981,C982)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F982" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G982" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H982" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="983" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B983" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C983" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E983" t="str">
+        <f>IF(COUNTIF(C$2:C982,C983)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F983" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G983" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H983" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="984" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B984" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C984" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E984" t="str">
+        <f>IF(COUNTIF(C$2:C983,C984)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F984" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G984" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H984" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="985" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B985" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C985" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E985" t="str">
+        <f>IF(COUNTIF(C$2:C984,C985)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F985" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G985" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H985" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="986" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B986" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C986" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E986" t="str">
+        <f>IF(COUNTIF(C$2:C985,C986)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F986" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G986" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H986" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="987" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B987" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C987" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E987" t="str">
+        <f>IF(COUNTIF(C$2:C986,C987)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F987" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G987" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H987" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="988" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B988" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C988" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E988" t="str">
+        <f>IF(COUNTIF(C$2:C987,C988)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F988" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G988" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H988" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="989" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B989" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C989" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E989" t="str">
+        <f>IF(COUNTIF(C$2:C988,C989)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F989" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G989" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H989" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="990" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B990" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C990" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E990" t="str">
+        <f>IF(COUNTIF(C$2:C989,C990)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F990" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G990" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H990" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="991" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B991" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C991" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E991" t="str">
+        <f>IF(COUNTIF(C$2:C990,C991)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F991" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G991" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H991" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="992" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B992" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C992" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E992" t="str">
+        <f>IF(COUNTIF(C$2:C991,C992)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F992" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G992" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H992" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="993" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B993" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C993" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E993" t="str">
+        <f>IF(COUNTIF(C$2:C992,C993)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F993" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G993" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H993" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="994" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B994" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C994" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E994" t="str">
+        <f>IF(COUNTIF(C$2:C993,C994)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F994" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G994" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H994" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="995" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B995" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C995" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E995" t="str">
+        <f>IF(COUNTIF(C$2:C994,C995)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F995" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G995" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H995" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="996" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B996" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C996" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E996" t="str">
+        <f>IF(COUNTIF(C$2:C995,C996)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F996" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G996" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H996" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="997" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B997" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C997" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E997" t="str">
+        <f>IF(COUNTIF(C$2:C996,C997)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F997" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G997" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H997" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="998" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B998" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C998" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E998" t="str">
+        <f>IF(COUNTIF(C$2:C997,C998)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F998" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G998" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H998" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="999" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B999" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C999" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E999" t="str">
+        <f>IF(COUNTIF(C$2:C998,C999)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F999" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G999" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H999" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1000" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1000" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="C1000" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="E1000" t="str">
+        <f>IF(COUNTIF(C$2:C999,C1000)&gt;0,"Button","")</f>
+        <v>Button</v>
+      </c>
+      <c r="F1000" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="G1000" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="H1000" t="str">
+        <f t="shared" si="68"/>
         <v/>
       </c>
     </row>
@@ -22803,10 +30088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33023C95-D182-42DB-83B8-6A7DF68CBC37}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22921,6 +30206,11 @@
         <v>307</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082E409-9DC2-48AD-B643-CB91F2C73F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204BEA3-C3EB-4977-B955-7B0A587A353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="811">
   <si>
     <t>Output</t>
   </si>
@@ -2449,13 +2449,19 @@
     <t>add_survivor_waiver_text</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vue</t>
-  </si>
-  <si>
     <t>organization_logo2</t>
   </si>
   <si>
     <t>add_terms</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Index.vue</t>
+  </si>
+  <si>
+    <t>myOrganizationDashboard</t>
+  </si>
+  <si>
+    <t>myOrganizationNav</t>
   </si>
 </sst>
 </file>
@@ -2810,8 +2816,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F836" sqref="F836"/>
+      <pane ySplit="1" topLeftCell="A818" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A830" sqref="A830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,7 +2853,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>data-testid="testCurrentIncidentNameTextInput"</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>data-testid="testCurrentIncidentShortNameTextInput"</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>data-testid="testCurrentIncidentTimezoneSelect"</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2955,7 +2961,7 @@
         <v>data-testid="testCurrentIncidentStartAtTextInput"</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>data-testid="testCurrentIncidentStartAtButton"</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>data-testid="testCurrentIncidentIncidentTypeSelect"</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>data-testid="testCurrentIncidentAutoContactCheckbox"</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>data-testid="testCurrentIncidentTurnOnReleaseCheckbox"</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>data-testid="testCurrentIncidentIsArchivedCheckbox"</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>data-testid="testCurrentAniUseHotlineCheckbox"</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>data-testid="testCurrentAniTimezoneSelect"</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3172,7 +3178,7 @@
         <v>data-testid="testCurrentAniStartAtSelect"</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>data-testid="testCurrentAniEndAtSelect"</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>data-testid="testCurrentLocationNameTextInput"</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>data-testid="testEditResponseAreaButton"</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>data-testid="testCurrentLocationSharedRadio"</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>data-testid="testCurrentLocationPrivateRadio"</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>data-testid="testCurrentLocationPublicRadio"</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>data-testid="testUrlTextInput"</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>data-testid="testIncidentSelect"</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>data-testid="testPrefixTextInput"</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>data-testid="testImportGisButton"</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>data-testid="testAddIpAddressTextInput"</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>data-testid="testApproveButton"</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>data-testid="testRejectButton"</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>data-testid="testEditOrganizationLink"</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>data-testid="testRejectButton"</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>data-testid="testAcceptButton"</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>data-testid="testActivateButton"</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>data-testid="testReInviteButton"</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>data-testid="testOrganizationLink"</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>data-testid="testMergeOrganizationsButton"</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>data-testid="testShowMergeModalTrueContent"</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>data-testid="testShowMergeModalFalseModal"</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>data-testid="testKeepOrganizationSelect"</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>data-testid="testMergeOrganizationSelect"</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>data-testid="testMergeReasonSelect"</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>data-testid="testMergeOrganizationsButton"</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>data-testid="testApproveButton"</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3951,7 +3957,7 @@
         <v>data-testid="testRejectButton"</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3978,7 +3984,7 @@
         <v>data-testid="testOrganizationLink"</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>data-testid="testApproveButton"</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>data-testid="testRejectButton"</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>data-testid="testOrganizationLink"</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>data-testid="testLoginAsButton"</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>data-testid="testSeeEventsButton"</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>data-testid="testOrganizationLink"</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>data-testid="testUploadCsvFile"</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>data-testid="testIgnoreDuplicatesCheckbox"</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>data-testid="testUploadTypeSelect"</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>data-testid="testSuccessfulImportsButton"</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>data-testid="testFailedImportsButton"</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -4302,7 +4308,7 @@
         <v>data-testid="testCreatedByTooltip"</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>data-testid="testCreatedAtTimestamp"</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>data-testid="testIsUrgentStyle"</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>data-testid="testShowFavoriteContent"</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>data-testid="testIsFavoriteIcon"</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>data-testid="testMessagesContent"</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>data-testid="testIsUrgentStyle"</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -4491,7 +4497,7 @@
         <v>data-testid="testCurrentMessageContent"</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>data-testid="testIsUrgentCheckbox"</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>data-testid="testFocusNewsTabLink"</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>data-testid="testSendMessageButton"</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4599,7 +4605,7 @@
         <v>data-testid="testFavoritesContent"</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>data-testid="testOkButton"</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>data-testid="testCancelIcon"</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>data-testid="testResponseTextarea"</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>data-testid="testOkButton"</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>data-testid="testButtonActionButton"</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4815,7 +4821,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>data-testid="testContentDiv"</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -4869,7 +4875,7 @@
         <v>data-testid="testOkButton"</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>data-testid="testActionsButton"</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>data-testid="testCancelIcon"</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>data-testid="testApproveRejectReasonsSelect"</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>data-testid="testRejectionNoteTextInput"</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>data-testid="testOkButton"</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>data-testid="testCancelIcon"</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>102</v>
       </c>
@@ -5085,7 +5091,7 @@
         <v>data-testid="testContentDiv"</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -5112,7 +5118,7 @@
         <v>data-testid="testResponseSelect"</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>data-testid="testOkButton"</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -5166,7 +5172,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>data-testid="testIncidentSelectorSelect"</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>data-testid="testDebugUserButton"</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>data-testid="testDebugIncidentStatesButton"</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>data-testid="testPhoneIndicatorDiv"</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>data-testid="testLogoutLink"</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5356,7 +5362,7 @@
         <v>data-testid="testRedeployRequestButton"</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>data-testid="testDisasterIcon"</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>data-testid="testAvatarIcon"</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>data-testid="testCurrentUserFullNameContent"</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -5464,7 +5470,7 @@
         <v>data-testid="testUserprofileProfileLink"</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>data-testid="testUserprofileDownloadsLink"</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5518,7 +5524,7 @@
         <v>data-testid="testUserprofileLogoutLink"</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>data-testid="testOrganizationLogoIcon"</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>data-testid="testIncidentCountContent"</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -5599,7 +5605,7 @@
         <v>data-testid="testCommercialValueContent"</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>data-testid="testCallsCountContent"</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5653,7 +5659,7 @@
         <v>data-testid="testOrganizationActivityModalDiv"</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>data-testid="testPewPewOrgDisclaimerContent"</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -5707,7 +5713,7 @@
         <v>data-testid="testGeneralInfoAvatarIcon"</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>data-testid="testGeneralInfoUrlLink"</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -5761,7 +5767,7 @@
         <v>data-testid="testCloseModalAndResetStateIcon"</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>data-testid="testPewPewTypeDiv"</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>data-testid="testPewPewRoleDiv"</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -5842,7 +5848,7 @@
         <v>data-testid="testPewPewIncidentsDiv"</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -5869,7 +5875,7 @@
         <v>data-testid="testPewPewCasesDiv"</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>data-testid="testPewPewCallsDiv"</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>data-testid="testPewPewValueDiv"</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -5950,7 +5956,7 @@
         <v>data-testid="testPewPewIncidentsDiv"</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>data-testid="testCommercialValueContent"</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>data-testid="testCasesCountsContent"</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>data-testid="testPewPewCapabilitiesContent"</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -6058,7 +6064,7 @@
         <v>data-testid="testCapabilityDiv"</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -6085,7 +6091,7 @@
         <v>data-testid="testCallsCountContent"</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>data-testid="testDragDropShpKmlFile"</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>data-testid="testChooseAnotherFileDiv"</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>data-testid="testSeeSampleButton"</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>data-testid="testShowingSampleModal"</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>data-testid="testSelectKeyShapefileSelect"</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -6247,7 +6253,7 @@
         <v>data-testid="testCustomNameTemplateTextarea"</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -6274,7 +6280,7 @@
         <v>data-testid="testShapefileTypeSelect"</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -6301,7 +6307,7 @@
         <v>data-testid="testDegreeOfSharingSelect"</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -6328,7 +6334,7 @@
         <v>data-testid="testCombineToSingleObjectCheckbox"</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -6355,7 +6361,7 @@
         <v>data-testid="testUploadButton"</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>150</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>data-testid="testSearchSeveralAreaTypesSelect"</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>data-testid="testLocationTypesSelect"</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>data-testid="testMapButtonsDiv"</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -6463,7 +6469,7 @@
         <v>data-testid="testUndoButton"</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>data-testid="testRedoButton"</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>data-testid="testDrawRectangleButton"</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -6544,7 +6550,7 @@
         <v>data-testid="testDrawPolygonButton"</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>data-testid="testDrawCircleButton"</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>data-testid="testGrowShrinkButton"</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -6625,7 +6631,7 @@
         <v>data-testid="testClearDrawingButton"</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>data-testid="testUploadLayerPlusButton"</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -6679,7 +6685,7 @@
         <v>data-testid="testUploadLayerModal"</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6706,7 +6712,7 @@
         <v>data-testid="testLayerUploadToolDiv"</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>150</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>data-testid="testApplyButton"</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>data-testid="testShowCasesCheckbox"</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>data-testid="testShowIncidentsCheckbox"</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>data-testid="testGrowShrinkModal"</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -6868,7 +6874,7 @@
         <v>data-testid="testCurrentBufferDistanceRange"</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>data-testid="testCurrentBufferDistanceTextInput"</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>data-testid="testBufferSaveButton"</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -6949,7 +6955,7 @@
         <v>data-testid="testAddPolyButton"</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>data-testid="testSubtractPolyButton"</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>173</v>
       </c>
@@ -7004,7 +7010,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>data-testid="testChangeOrganizationDiv"</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>data-testid="testWhereMoveToContent"</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -7085,7 +7091,7 @@
         <v>data-testid="testMoveNewOrganizationdiv"</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -7112,7 +7118,7 @@
         <v>data-testid="testMoveNewOrganizationIcon"</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -7139,7 +7145,7 @@
         <v>data-testid="testMoveExistingOrganizationDiv"</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>data-testid="testMoveExistingOrganizationIcon"</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -7193,7 +7199,7 @@
         <v>data-testid="testPleaseSelectTargetOrganizationDiv"</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>174</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>data-testid="testSelectOrganizationTabDiv"</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>174</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>data-testid="testSelectedOrganizationSelect"</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>data-testid="testSelectUsersTabDiv"</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>data-testid="testSelectAllUsersCheckbox"</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>data-testid="testNestedUsersMenu"</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7355,7 +7361,7 @@
         <v>data-testid="testSelectCasesTabDiv"</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -7382,7 +7388,7 @@
         <v>data-testid="testClaimedCasesDiv"</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -7409,7 +7415,7 @@
         <v>data-testid="testIncidentDiv"</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>data-testid="testSelectAllCasesCheckbox"</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>data-testid="testWorkTypeDiv"</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -7490,7 +7496,7 @@
         <v>data-testid="testWorkTypeCheckbox"</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7544,7 +7550,7 @@
         <v>data-testid="testBackLink"</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>data-testid="testNextLink"</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -7598,7 +7604,7 @@
         <v>data-testid="testMoveButton"</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>data-testid="testOrganizationSearchInputSelect"</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>195</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>data-testid="testYouHaveBeenMovedModal"</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>195</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>data-testid="testYouHaveBeenMovedToDiv"</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>data-testid="testMoveBackButton"</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>data-testid="testStayButton"</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>data-testid="testInviteNewUserButton"</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>data-testid="testInviteUserModal"</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>data-testid="testInviteTeammatesInstructionsDiv"</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>200</v>
       </c>
@@ -7841,7 +7847,7 @@
         <v>data-testid="testUserEmailsToInviteTextInput"</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -7868,7 +7874,7 @@
         <v>data-testid="testOrganizationSearchTextInput"</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -7922,7 +7928,7 @@
         <v>data-testid="testSubmitInvitesButton"</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>207</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>data-testid="testRequestRedeployButton"</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -7976,7 +7982,7 @@
         <v>data-testid="testShowRedeployModal"</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>207</v>
       </c>
@@ -8003,7 +8009,7 @@
         <v>data-testid="testChooseAnIncidentDiv"</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -8030,7 +8036,7 @@
         <v>data-testid="testSelectIncidentSelect"</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -8084,7 +8090,7 @@
         <v>data-testid="testSubmitButton"</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>213</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>data-testid="testManuallyEnterEmailsTextInput"</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -8138,7 +8144,7 @@
         <v>data-testid="testSearchEmailsSearch"</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -8165,7 +8171,7 @@
         <v>data-testid="testManuallyEnterPhonesTextInput"</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>data-testid="testSearchPhonesSearch"</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -8219,7 +8225,7 @@
         <v>data-testid="testAddMessageToInviteTextarea"</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>220</v>
       </c>
@@ -8246,7 +8252,7 @@
         <v>data-testid="testTermsConditionsTitleModal"</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>220</v>
       </c>
@@ -8273,7 +8279,7 @@
         <v>data-testid="testTermsmodalAcceptButton"</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>223</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>data-testid="testNewBadgeIcon"</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>223</v>
       </c>
@@ -8328,7 +8334,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>225</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>225</v>
       </c>
@@ -8383,7 +8389,7 @@
         <v>data-testid="testCrisiscleanupLogoIcon"</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>227</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>data-testid="testPewPewLogoIcon"</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>227</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>data-testid="testCrisiscleanupLogoIcon"</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>227</v>
       </c>
@@ -8465,7 +8471,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>227</v>
       </c>
@@ -8492,7 +8498,7 @@
         <v>data-testid="testRegisterButton"</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -8519,7 +8525,7 @@
         <v>data-testid="testIsConnectingDiv"</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>230</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>data-testid="testIsOnCallDiv"</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>230</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>data-testid="testIsInboundCallDiv"</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -8600,7 +8606,7 @@
         <v>data-testid="testIsOutboundCallDiv"</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>230</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>data-testid="testIsCompletedDiv"</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>230</v>
       </c>
@@ -8654,7 +8660,7 @@
         <v>data-testid="testCurrentScriptHeaderContent"</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>230</v>
       </c>
@@ -8681,7 +8687,7 @@
         <v>data-testid="testCurrentScriptValueContent"</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -8708,7 +8714,7 @@
         <v>data-testid="testCallerDiv"</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>230</v>
       </c>
@@ -8735,7 +8741,7 @@
         <v>data-testid="testCallerDnisContent"</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>data-testid="testCallerLocationNameStateNameContent"</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>230</v>
       </c>
@@ -8789,7 +8795,7 @@
         <v>data-testid="testNumberOfInboundCallsDiv"</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>230</v>
       </c>
@@ -8816,7 +8822,7 @@
         <v>data-testid="testExistingCasesDiv"</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -8843,7 +8849,7 @@
         <v>data-testid="testNewCaseContent"</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -8871,7 +8877,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>data-testid="testWorktypeSVGIcon"</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>230</v>
       </c>
@@ -8925,7 +8931,7 @@
         <v>data-testid="testCaseNumberDiv"</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>data-testid="testCaseNameDiv"</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -8979,7 +8985,7 @@
         <v>data-testid="testCaseAddressStateDiv"</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -9006,7 +9012,7 @@
         <v>data-testid="testHangupIcon"</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>249</v>
       </c>
@@ -9033,7 +9039,7 @@
         <v>data-testid="testCurrentUserMobileContent"</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -9060,7 +9066,7 @@
         <v>data-testid="testPhoneDashboardLanguagesDiv"</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>249</v>
       </c>
@@ -9087,7 +9093,7 @@
         <v>data-testid="testLanguageEditIcon"</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>data-testid="testIsOnCallButton"</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -9141,7 +9147,7 @@
         <v>data-testid="testIsNotTakingCallsButton"</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -9168,7 +9174,7 @@
         <v>data-testid="testIsNotOnCallButton"</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>249</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>data-testid="testServeOutboundCallsCheckbox"</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>data-testid="testHangupIcon"</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>256</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>data-testid="testInboundCountDiv"</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>256</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>data-testid="testOutboundCountDiv"</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>data-testid="testTotalLoginTimeDiv"</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>256</v>
       </c>
@@ -9330,7 +9336,7 @@
         <v>data-testid="testTotalCallTimeDiv"</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>261</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>data-testid="testUpdateAgentDiv"</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>261</v>
       </c>
@@ -9384,7 +9390,7 @@
         <v>data-testid="testPhoneNumberContent"</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>261</v>
       </c>
@@ -9411,7 +9417,7 @@
         <v>data-testid="testPhoneNumberTextInput"</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -9438,7 +9444,7 @@
         <v>data-testid="testLanguagesContent"</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>261</v>
       </c>
@@ -9465,7 +9471,7 @@
         <v>data-testid="testLanguagesSelect"</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>261</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>data-testid="testSaveButton"</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>266</v>
       </c>
@@ -9519,7 +9525,7 @@
         <v>data-testid="testAgentStatsTable"</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>266</v>
       </c>
@@ -9546,7 +9552,7 @@
         <v>data-testid="testIncidentdiv"</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -9573,7 +9579,7 @@
         <v>data-testid="testPhoneClassicicon"</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -9597,7 +9603,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>271</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>data-testid="testGeneralStatisticsContent"</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>271</v>
       </c>
@@ -9651,7 +9657,7 @@
         <v>data-testid="testStatsDelayedContent"</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>271</v>
       </c>
@@ -9678,7 +9684,7 @@
         <v>data-testid="testOnPhoneNowDiv"</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -9705,7 +9711,7 @@
         <v>data-testid="testRemainingCallbacksDiv"</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>data-testid="testShowOutboundsModalButton"</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>271</v>
       </c>
@@ -9759,7 +9765,7 @@
         <v>data-testid="testRemainingCalldownsDiv"</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>271</v>
       </c>
@@ -9786,7 +9792,7 @@
         <v>data-testid="testShowOutboundsModalCalldownButton"</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -9813,7 +9819,7 @@
         <v>data-testid="testAgentsOnlineDiv"</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -9841,7 +9847,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>data-testid="testLeaderboardDiv"</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>284</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>data-testid="testAvatarIcon"</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>284</v>
       </c>
@@ -9922,7 +9928,7 @@
         <v>data-testid="testUserInfoTooltip"</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -9949,7 +9955,7 @@
         <v>data-testid="testInboundCountDiv"</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>284</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>data-testid="testOutboundCountDiv"</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>284</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>data-testid="testTotalCountdiv"</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>284</v>
       </c>
@@ -10030,7 +10036,7 @@
         <v>data-testid="testPreviousButton"</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -10057,7 +10063,7 @@
         <v>data-testid="testNextButton"</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -10084,7 +10090,7 @@
         <v>data-testid="testManualDialerContent"</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -10111,7 +10117,7 @@
         <v>data-testid="testManualDialHiddenCallerIdContent"</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>285</v>
       </c>
@@ -10138,7 +10144,7 @@
         <v>data-testid="testCountryCodeSelect"</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>285</v>
       </c>
@@ -10165,7 +10171,7 @@
         <v>data-testid="testPhoneNumberTextInput"</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -10192,7 +10198,7 @@
         <v>data-testid="testDialingButton"</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>290</v>
       </c>
@@ -10219,7 +10225,7 @@
         <v>data-testid="testPhoneSystemActionButtonDiv"</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>data-testid="testPhoneSystemActionContentDiv"</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>290</v>
       </c>
@@ -10273,7 +10279,7 @@
         <v>data-testid="testPhoneSystemActionCloseIcon"</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>290</v>
       </c>
@@ -10300,7 +10306,7 @@
         <v>data-testid="testPhoneSystemActionIcon"</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>295</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>data-testid="testIsTakingCallsDiv"</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>295</v>
       </c>
@@ -10354,7 +10360,7 @@
         <v>data-testid="testIsTakingCallsIcon"</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>297</v>
       </c>
@@ -10381,7 +10387,7 @@
         <v>data-testid="testPhoneNewsDiv"</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -10408,7 +10414,7 @@
         <v>data-testid="testPhoneToolBarDiv"</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>301</v>
       </c>
@@ -10435,7 +10441,7 @@
         <v>data-testid="testStatusSelectorDiv"</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -10462,7 +10468,7 @@
         <v>data-testid="testCallNoteTextarea"</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>301</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>data-testid="testCompleteCallButton"</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>305</v>
       </c>
@@ -10516,7 +10522,7 @@
         <v>data-testid="testDatePickerInput"</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>305</v>
       </c>
@@ -10543,7 +10549,7 @@
         <v>data-testid="testOrganizationSearchSelect"</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -10570,7 +10576,7 @@
         <v>data-testid="testWorkTypesSelect"</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>305</v>
       </c>
@@ -10597,7 +10603,7 @@
         <v>data-testid="testLocationSelect"</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>305</v>
       </c>
@@ -10624,7 +10630,7 @@
         <v>data-testid="testPrintReportButton"</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -10651,7 +10657,7 @@
         <v>data-testid="testDownloadCSVButton"</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>305</v>
       </c>
@@ -10678,7 +10684,7 @@
         <v>data-testid="testApplyFiltersButton"</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>314</v>
       </c>
@@ -10705,7 +10711,7 @@
         <v>data-testid="testDownloadWidgetCsvButton"</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>314</v>
       </c>
@@ -10732,7 +10738,7 @@
         <v>data-testid="testPrintWidgetButton"</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>314</v>
       </c>
@@ -10759,7 +10765,7 @@
         <v>data-testid="testAddToDashboardCheckbox"</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>314</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>318</v>
       </c>
@@ -10815,7 +10821,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>319</v>
       </c>
@@ -10843,7 +10849,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>data-testid="testUserFullNameContent"</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>320</v>
       </c>
@@ -10897,7 +10903,7 @@
         <v>data-testid="testUserOrganizationDiv"</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>320</v>
       </c>
@@ -10924,7 +10930,7 @@
         <v>data-testid="testUserEmailDiv"</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>320</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>data-testid="testUserMobileDiv"</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>326</v>
       </c>
@@ -10978,7 +10984,7 @@
         <v>data-testid="testStepsDiv"</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>326</v>
       </c>
@@ -11005,7 +11011,7 @@
         <v>data-testid="testIncidentBuilderCompletedIcon"</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>326</v>
       </c>
@@ -11032,7 +11038,7 @@
         <v>data-testid="testPreviousStepButton"</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>326</v>
       </c>
@@ -11059,7 +11065,7 @@
         <v>data-testid="testSaveOrNextButton"</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>330</v>
       </c>
@@ -11086,7 +11092,7 @@
         <v>data-testid="testFlagDiv"</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>330</v>
       </c>
@@ -11113,7 +11119,7 @@
         <v>data-testid="testFlagChooseProblemSelect"</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>330</v>
       </c>
@@ -11140,7 +11146,7 @@
         <v>data-testid="testCurrentFlagIsHighPriorityCheckbox"</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>330</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>data-testid="testFlagPleaseDescribeWhyHighPriorityContent"</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>330</v>
       </c>
@@ -11194,7 +11200,7 @@
         <v>data-testid="testCurrentFlagIsHighPriorityNotesTextarea"</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>330</v>
       </c>
@@ -11221,7 +11227,7 @@
         <v>data-testid="testFlagNearbyOrganizationsContent"</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -11248,7 +11254,7 @@
         <v>data-testid="testFlagNearbyOrganizationsDiv"</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>330</v>
       </c>
@@ -11275,7 +11281,7 @@
         <v>data-testid="testFlagWorksiteWrongIncidentDiv"</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>330</v>
       </c>
@@ -11302,7 +11308,7 @@
         <v>data-testid="testFlagChooseCorrectIncidentContent"</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>330</v>
       </c>
@@ -11329,7 +11335,7 @@
         <v>data-testid="testFlagChooseCorrectIncidentSelect"</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>330</v>
       </c>
@@ -11356,7 +11362,7 @@
         <v>data-testid="testIncidentNotFoundCheckbox"</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>330</v>
       </c>
@@ -11383,7 +11389,7 @@
         <v>data-testid="testFlagWorksiteWrongLocationDiv"</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>330</v>
       </c>
@@ -11410,7 +11416,7 @@
         <v>data-testid="testFlagMoveCasePinContent"</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>330</v>
       </c>
@@ -11437,7 +11443,7 @@
         <v>data-testid="testFlagGoogleMapUrlTextInput"</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>330</v>
       </c>
@@ -11464,7 +11470,7 @@
         <v>data-testid="testFlagLocationUnknownButton"</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -11491,7 +11497,7 @@
         <v>data-testid="testFlagWorksiteUpsetClientDiv"</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>330</v>
       </c>
@@ -11518,7 +11524,7 @@
         <v>data-testid="testFlagExplainWhyClientUpsetDiv"</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>330</v>
       </c>
@@ -11545,7 +11551,7 @@
         <v>data-testid="testCurrentFlagNotesUpsetTextarea"</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11572,7 +11578,7 @@
         <v>data-testid="testFlagDoesIssueInvolveYouYesRadio"</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>330</v>
       </c>
@@ -11599,7 +11605,7 @@
         <v>data-testid="testFlagDoesIssueInvolveYouNoRadio"</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>330</v>
       </c>
@@ -11626,7 +11632,7 @@
         <v>data-testid="testOrganizationSearchInputSelect"</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -11653,7 +11659,7 @@
         <v>data-testid="testFlagWorksiteAbuseDiv"</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -11680,7 +11686,7 @@
         <v>data-testid="testFlagWorksiteAbuseContent"</v>
       </c>
     </row>
-    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>330</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>data-testid="testOrganizationSearch"</v>
       </c>
     </row>
-    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -11734,7 +11740,7 @@
         <v>data-testid="testMustContactOrgFirstContent"</v>
       </c>
     </row>
-    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -11761,7 +11767,7 @@
         <v>data-testid="testFlagHaveYouContactedOrgYesRadio"</v>
       </c>
     </row>
-    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -11788,7 +11794,7 @@
         <v>data-testid="testFlagHaveYouContactedOrgNoRadio"</v>
       </c>
     </row>
-    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>330</v>
       </c>
@@ -11815,7 +11821,7 @@
         <v>data-testid="testFlagOutcomeOfContactTextarea"</v>
       </c>
     </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>330</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>data-testid="testCurrentFlagNotesContactOrganizationTextarea"</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>330</v>
       </c>
@@ -11869,7 +11875,7 @@
         <v>data-testid="testFlagSuggestedOutcomeContactOrganizationTextarea"</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>330</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>330</v>
       </c>
@@ -11923,7 +11929,7 @@
         <v>data-testid="testUpdateLocationButton"</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>330</v>
       </c>
@@ -11950,7 +11956,7 @@
         <v>data-testid="testSubmitButton"</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -11977,7 +11983,7 @@
         <v>data-testid="testCloseWorksiteDiv"</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>357</v>
       </c>
@@ -12004,7 +12010,7 @@
         <v>data-testid="testNewCaseIcon"</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>357</v>
       </c>
@@ -12031,7 +12037,7 @@
         <v>data-testid="testNewCaseContent"</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>357</v>
       </c>
@@ -12058,7 +12064,7 @@
         <v>data-testid="testCaseDiv"</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>357</v>
       </c>
@@ -12085,7 +12091,7 @@
         <v>data-testid="testCloseWorksiteIcon"</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>357</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>data-testid="testIsNotMemberOfMyOrgIcon"</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>357</v>
       </c>
@@ -12139,7 +12145,7 @@
         <v>data-testid="testIsMemberOfMyOrgIcon"</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>357</v>
       </c>
@@ -12166,7 +12172,7 @@
         <v>data-testid="testIsHighPriorityIcon"</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>357</v>
       </c>
@@ -12193,7 +12199,7 @@
         <v>data-testid="testIsNotHighPriorityIcon"</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -12220,7 +12226,7 @@
         <v>data-testid="testFlagIcon"</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>357</v>
       </c>
@@ -12247,7 +12253,7 @@
         <v>data-testid="testJumpToCaseIcon"</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>357</v>
       </c>
@@ -12274,7 +12280,7 @@
         <v>data-testid="testHistoryIcon"</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -12301,7 +12307,7 @@
         <v>data-testid="testDownloadIcon"</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>357</v>
       </c>
@@ -12328,7 +12334,7 @@
         <v>data-testid="testShareIcon"</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>357</v>
       </c>
@@ -12355,7 +12361,7 @@
         <v>data-testid="testPrintIcon"</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -12382,7 +12388,7 @@
         <v>data-testid="testEditIcon"</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -12409,7 +12415,7 @@
         <v>data-testid="testNewCaseDiv"</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>372</v>
       </c>
@@ -12436,7 +12442,7 @@
         <v>data-testid="testCaseHistoryDiv"</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>372</v>
       </c>
@@ -12463,7 +12469,7 @@
         <v>data-testid="testDoNotShareContactWarningDiv"</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>375</v>
       </c>
@@ -12490,7 +12496,7 @@
         <v>data-testid="testHelpTooltip"</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -12517,7 +12523,7 @@
         <v>data-testid="testPdaHeatmapCheckbox"</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>377</v>
       </c>
@@ -12544,7 +12550,7 @@
         <v>data-testid="testPdaHeatmapIcon"</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>377</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>data-testid="testLayersButton"</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>377</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>data-testid="testBoundaryPoliticalUsStateDiv"</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>377</v>
       </c>
@@ -12625,7 +12631,7 @@
         <v>data-testid="testBoundaryPoliticalUsStateCheckbox"</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>377</v>
       </c>
@@ -12652,7 +12658,7 @@
         <v>data-testid="testBoundaryPoliticalUsCongressDiv"</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>377</v>
       </c>
@@ -12679,7 +12685,7 @@
         <v>data-testid="testBoundaryPoliticalUsCongressCheckbox"</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>377</v>
       </c>
@@ -12706,7 +12712,7 @@
         <v>data-testid="testBoundaryPoliticalUsCountyDiv"</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>377</v>
       </c>
@@ -12733,7 +12739,7 @@
         <v>data-testid="testBoundaryPoliticalUsCountyCheckbox"</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>377</v>
       </c>
@@ -12760,7 +12766,7 @@
         <v>data-testid="testIncidentDiv"</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>377</v>
       </c>
@@ -12787,7 +12793,7 @@
         <v>data-testid="testIncidentCheckbox"</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>377</v>
       </c>
@@ -12814,7 +12820,7 @@
         <v>data-testid="testPrimaryResponseAreaCheckbox"</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -12841,7 +12847,7 @@
         <v>data-testid="testSecondaryResponseAreaCheckbox"</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>377</v>
       </c>
@@ -12868,7 +12874,7 @@
         <v>data-testid="testFiltersButton"</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>377</v>
       </c>
@@ -12895,7 +12901,7 @@
         <v>data-testid="testWorksiteFiltersButton"</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -12922,7 +12928,7 @@
         <v>data-testid="testDownloadCsvButton"</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>388</v>
       </c>
@@ -12949,7 +12955,7 @@
         <v>data-testid="testFiltersModal"</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>388</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>388</v>
       </c>
@@ -13000,7 +13006,7 @@
         <v>data-testid="testClearFiltersButton"</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>388</v>
       </c>
@@ -13027,7 +13033,7 @@
         <v>data-testid="testGeneralSectionDiv"</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>388</v>
       </c>
@@ -13054,7 +13060,7 @@
         <v>data-testid="testPersonalSectionDiv"</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>388</v>
       </c>
@@ -13081,7 +13087,7 @@
         <v>data-testid="testFlagsSectionDiv"</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>388</v>
       </c>
@@ -13108,7 +13114,7 @@
         <v>data-testid="testWorkSectionDiv"</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -13135,7 +13141,7 @@
         <v>data-testid="testTeamsSectionDiv"</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>388</v>
       </c>
@@ -13162,7 +13168,7 @@
         <v>data-testid="testLocationsSectionDiv"</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>388</v>
       </c>
@@ -13189,7 +13195,7 @@
         <v>data-testid="testDateSectionDiv"</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -13216,7 +13222,7 @@
         <v>data-testid="testOrganizationPrimaryLocationCheckbox"</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -13243,7 +13249,7 @@
         <v>data-testid="testOrganizationSecondaryLocationCheckbox"</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>388</v>
       </c>
@@ -13270,7 +13276,7 @@
         <v>data-testid="testMyTeamCheckbox"</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -13297,7 +13303,7 @@
         <v>data-testid="testUnclaimedCheckbox"</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -13324,7 +13330,7 @@
         <v>data-testid="testClaimedByOrgCheckbox"</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -13351,7 +13357,7 @@
         <v>data-testid="testReportedByOrgCheckbox"</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>388</v>
       </c>
@@ -13378,7 +13384,7 @@
         <v>data-testid="testOpenCheckbox"</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>388</v>
       </c>
@@ -13405,7 +13411,7 @@
         <v>data-testid="testClosedCheckbox"</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>388</v>
       </c>
@@ -13429,7 +13435,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>388</v>
       </c>
@@ -13456,7 +13462,7 @@
         <v>data-testid="testFlagsCheckbox"</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>388</v>
       </c>
@@ -13483,7 +13489,7 @@
         <v>data-testid="testMemberOfMyOrganizationCheckbox"</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>388</v>
       </c>
@@ -13507,7 +13513,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>388</v>
       </c>
@@ -13534,7 +13540,7 @@
         <v>data-testid="testMissingWorkTypeCheckbox"</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>388</v>
       </c>
@@ -13558,7 +13564,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>388</v>
       </c>
@@ -13585,7 +13591,7 @@
         <v>data-testid="testOrganizationPrimaryLocation2Checkbox"</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>388</v>
       </c>
@@ -13612,7 +13618,7 @@
         <v>data-testid="testOrganizationSecondaryLocation2Checkbox"</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>388</v>
       </c>
@@ -13639,7 +13645,7 @@
         <v>data-testid="testMyLocationsDiv"</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>388</v>
       </c>
@@ -13663,7 +13669,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>388</v>
       </c>
@@ -13690,7 +13696,7 @@
         <v>data-testid="testCreatedDatePickerInput"</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>388</v>
       </c>
@@ -13717,7 +13723,7 @@
         <v>data-testid="testUpdatedDatePickerInput"</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>388</v>
       </c>
@@ -13744,7 +13750,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>388</v>
       </c>
@@ -13771,7 +13777,7 @@
         <v>data-testid="testApplyFiltersButton"</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>413</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>data-testid="testImageUploaderFile"</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>413</v>
       </c>
@@ -13825,7 +13831,7 @@
         <v>data-testid="testImageUploaderModal"</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>415</v>
       </c>
@@ -13852,7 +13858,7 @@
         <v>data-testid="testIntakeFormDiv"</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>415</v>
       </c>
@@ -13879,7 +13885,7 @@
         <v>data-testid="testNameTextInput"</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>415</v>
       </c>
@@ -13906,7 +13912,7 @@
         <v>data-testid="testPhone1TextInput"</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>415</v>
       </c>
@@ -13933,7 +13939,7 @@
         <v>data-testid="testPhone2TextInput"</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>415</v>
       </c>
@@ -13960,7 +13966,7 @@
         <v>data-testid="testAddPhoneLink"</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>415</v>
       </c>
@@ -13987,7 +13993,7 @@
         <v>data-testid="testEmailTextInput"</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>415</v>
       </c>
@@ -14014,7 +14020,7 @@
         <v>data-testid="testPrimaryLanguageTextInput"</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -14041,7 +14047,7 @@
         <v>data-testid="testAutoContactFrequencySelect"</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -14068,7 +14074,7 @@
         <v>data-testid="testLocationInstructionsIcon"</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>415</v>
       </c>
@@ -14095,7 +14101,7 @@
         <v>data-testid="testLocationIcon"</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>415</v>
       </c>
@@ -14122,7 +14128,7 @@
         <v>data-testid="testClearLocationIcon"</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>415</v>
       </c>
@@ -14149,7 +14155,7 @@
         <v>data-testid="testManuallyEditAddressIcon"</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>415</v>
       </c>
@@ -14176,7 +14182,7 @@
         <v>data-testid="testFullAddressTextInput"</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>415</v>
       </c>
@@ -14203,7 +14209,7 @@
         <v>data-testid="testWorksiteSearchInputInput"</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>415</v>
       </c>
@@ -14230,7 +14236,7 @@
         <v>data-testid="testCityTextInput"</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>415</v>
       </c>
@@ -14257,7 +14263,7 @@
         <v>data-testid="testCountyTextInput"</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>415</v>
       </c>
@@ -14284,7 +14290,7 @@
         <v>data-testid="testStateTextInput"</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -14311,7 +14317,7 @@
         <v>data-testid="testWhat3WordsTextInput"</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>415</v>
       </c>
@@ -14338,7 +14344,7 @@
         <v>data-testid="testUseMyLocationButton"</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>415</v>
       </c>
@@ -14365,7 +14371,7 @@
         <v>data-testid="testToggleSelectOnMapButton"</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>415</v>
       </c>
@@ -14392,7 +14398,7 @@
         <v>data-testid="testSaveNoteInput"</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>415</v>
       </c>
@@ -14419,7 +14425,7 @@
         <v>data-testid="testAddressProblemsCheckbox"</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>415</v>
       </c>
@@ -14446,7 +14452,7 @@
         <v>data-testid="testIsHighPriorityCheckbox"</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>415</v>
       </c>
@@ -14473,7 +14479,7 @@
         <v>data-testid="testMemberOfMyOrgCheckbox"</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>415</v>
       </c>
@@ -14501,7 +14507,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>415</v>
       </c>
@@ -14528,7 +14534,7 @@
         <v>data-testid="testWorksiteTotalTimeDiv"</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>415</v>
       </c>
@@ -14555,7 +14561,7 @@
         <v>data-testid="testWorksiteImageSectionDiv"</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>415</v>
       </c>
@@ -14582,7 +14588,7 @@
         <v>data-testid="testCloseWorksiteButton"</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>415</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>data-testid="testSaveButton"</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>415</v>
       </c>
@@ -14636,7 +14642,7 @@
         <v>data-testid="testSaveClaimButton"</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>415</v>
       </c>
@@ -14663,7 +14669,7 @@
         <v>data-testid="testPostalCodeTextInput"</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>441</v>
       </c>
@@ -14690,7 +14696,7 @@
         <v>data-testid="testWorksiteNotesDiv"</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>441</v>
       </c>
@@ -14717,7 +14723,7 @@
         <v>data-testid="testShowAllNotesButton"</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -14744,7 +14750,7 @@
         <v>data-testid="testShowNotesDiv"</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -14771,7 +14777,7 @@
         <v>data-testid="testAddNoteButton"</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>441</v>
       </c>
@@ -14798,7 +14804,7 @@
         <v>data-testid="testStickyNoteIcon"</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>441</v>
       </c>
@@ -14825,7 +14831,7 @@
         <v>data-testid="testCurrentNoteTextarea"</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>441</v>
       </c>
@@ -14852,7 +14858,7 @@
         <v>data-testid="testCancelNoteButton"</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>441</v>
       </c>
@@ -14879,7 +14885,7 @@
         <v>data-testid="testSaveNoteButton"</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>449</v>
       </c>
@@ -14906,7 +14912,7 @@
         <v>data-testid="testVolunteersToAddTextInput"</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>449</v>
       </c>
@@ -14933,7 +14939,7 @@
         <v>data-testid="testHoursPerVolunteerTextInput"</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -14960,7 +14966,7 @@
         <v>data-testid="testAddTimeButton"</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -14987,7 +14993,7 @@
         <v>data-testid="testTotalVolunteersDiv"</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>449</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>data-testid="testCurrentTimeEditIcon"</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>449</v>
       </c>
@@ -15041,7 +15047,7 @@
         <v>data-testid="testCurrentTimeSaveIcon"</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>456</v>
       </c>
@@ -15068,7 +15074,7 @@
         <v>data-testid="testWorksiteSearchInputSearch"</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>456</v>
       </c>
@@ -15095,7 +15101,7 @@
         <v>data-testid="testWorsiteSearchResultsDiv"</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>458</v>
       </c>
@@ -15122,7 +15128,7 @@
         <v>data-testid="testWorksiteTableDiv"</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>460</v>
       </c>
@@ -15150,7 +15156,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>460</v>
       </c>
@@ -15177,7 +15183,7 @@
         <v>data-testid="testWorksiteFormContentDiv"</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>460</v>
       </c>
@@ -15204,7 +15210,7 @@
         <v>data-testid="testWorksiteNotesContent"</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>460</v>
       </c>
@@ -15231,7 +15237,7 @@
         <v>data-testid="testNameContent"</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -15258,7 +15264,7 @@
         <v>data-testid="testPhoneDiv"</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -15285,7 +15291,7 @@
         <v>data-testid="testCallNumberButton"</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>460</v>
       </c>
@@ -15312,7 +15318,7 @@
         <v>data-testid="testAddressDiv"</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>460</v>
       </c>
@@ -15339,7 +15345,7 @@
         <v>data-testid="testClaimAllButton"</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>460</v>
       </c>
@@ -15366,7 +15372,7 @@
         <v>data-testid="testReleaseAllButton"</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>460</v>
       </c>
@@ -15393,7 +15399,7 @@
         <v>data-testid="testRequestAllButton"</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>460</v>
       </c>
@@ -15420,7 +15426,7 @@
         <v>data-testid="testWorkTypesClaimedByOthersDiv"</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>460</v>
       </c>
@@ -15447,7 +15453,7 @@
         <v>data-testid="test:SeveralCalculatedButton"</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>460</v>
       </c>
@@ -15474,7 +15480,7 @@
         <v>data-testid="testRequestButton"</v>
       </c>
     </row>
-    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>460</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>data-testid="testRequestedDiv"</v>
       </c>
     </row>
-    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>460</v>
       </c>
@@ -15528,7 +15534,7 @@
         <v>data-testid="testNextRecurrenceDiv"</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>460</v>
       </c>
@@ -15555,7 +15561,7 @@
         <v>data-testid="testWorksiteStatusDropdownSelect"</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>460</v>
       </c>
@@ -15582,7 +15588,7 @@
         <v>data-testid="testUnclaimButton"</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>460</v>
       </c>
@@ -15609,7 +15615,7 @@
         <v>data-testid="testWorksiteStatusDropdown2Div"</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>460</v>
       </c>
@@ -15636,7 +15642,7 @@
         <v>data-testid="testClaimButton"</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>460</v>
       </c>
@@ -15663,7 +15669,7 @@
         <v>data-testid="testNext_recurrence2Div"</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>460</v>
       </c>
@@ -15690,7 +15696,7 @@
         <v>data-testid="testUnclaim2Button"</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>460</v>
       </c>
@@ -15717,7 +15723,7 @@
         <v>data-testid="testClaim2Button"</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>460</v>
       </c>
@@ -15744,7 +15750,7 @@
         <v>data-testid="testRequest2Button"</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>460</v>
       </c>
@@ -15771,7 +15777,7 @@
         <v>data-testid="testCloseWorksiteButton"</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>481</v>
       </c>
@@ -15798,7 +15804,7 @@
         <v>data-testid="testWorkTypeRequestModal"</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -15825,7 +15831,7 @@
         <v>data-testid="testPleaseAddRespectfulNoteDiv"</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -15853,7 +15859,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>481</v>
       </c>
@@ -15880,7 +15886,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>481</v>
       </c>
@@ -15907,7 +15913,7 @@
         <v>data-testid="testRequestButton"</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -15934,7 +15940,7 @@
         <v>data-testid="testTableSearchTextInput"</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>484</v>
       </c>
@@ -15961,7 +15967,7 @@
         <v>data-testid="testTableContent"</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>488</v>
       </c>
@@ -15988,7 +15994,7 @@
         <v>data-testid="testAvatarIcon"</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -16015,7 +16021,7 @@
         <v>data-testid="testBadgeDiv"</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>491</v>
       </c>
@@ -16042,7 +16048,7 @@
         <v>data-testid="testBugTitleTextInput"</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>491</v>
       </c>
@@ -16069,7 +16075,7 @@
         <v>data-testid="testBugDescriptionTextInput"</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -16096,7 +16102,7 @@
         <v>data-testid="testBugUploadFile"</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -16123,7 +16129,7 @@
         <v>data-testid="testSubmitButton"</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>495</v>
       </c>
@@ -16150,7 +16156,7 @@
         <v>data-testid="testCapabilityTableDiv"</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>495</v>
       </c>
@@ -16178,7 +16184,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>497</v>
       </c>
@@ -16205,7 +16211,7 @@
         <v>data-testid="testCapabilityTooltip"</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>497</v>
       </c>
@@ -16233,7 +16239,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>499</v>
       </c>
@@ -16260,7 +16266,7 @@
         <v>data-testid="testCapabilityGridDiv"</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>499</v>
       </c>
@@ -16288,7 +16294,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>501</v>
       </c>
@@ -16315,7 +16321,7 @@
         <v>data-testid="testUserDetailsTooltip"</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>503</v>
       </c>
@@ -16342,7 +16348,7 @@
         <v>data-testid="testDeleteButton"</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>505</v>
       </c>
@@ -16369,7 +16375,7 @@
         <v>data-testid="testSurvivorContactDiv"</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>505</v>
       </c>
@@ -16396,7 +16402,7 @@
         <v>data-testid="testSpinnerLoadingIcon"</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>505</v>
       </c>
@@ -16423,7 +16429,7 @@
         <v>data-testid="testIncidentPhoneDiv"</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>505</v>
       </c>
@@ -16450,7 +16456,7 @@
         <v>data-testid="testNoPhoneDiv"</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>510</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>data-testid="testEditButton"</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>510</v>
       </c>
@@ -16504,7 +16510,7 @@
         <v>data-testid="testDeleteButton"</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>511</v>
       </c>
@@ -16531,7 +16537,7 @@
         <v>data-testid="testLoginTextContent"</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>511</v>
       </c>
@@ -16558,7 +16564,7 @@
         <v>data-testid="testSigninTextContent"</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>511</v>
       </c>
@@ -16585,7 +16591,7 @@
         <v>data-testid="testEmailTextInput"</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>511</v>
       </c>
@@ -16612,7 +16618,7 @@
         <v>data-testid="testPasswordTextInput"</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>511</v>
       </c>
@@ -16639,7 +16645,7 @@
         <v>data-testid="testRequestPasswordResetLink"</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>511</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>data-testid="testLoginButton"</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>511</v>
       </c>
@@ -16693,7 +16699,7 @@
         <v>data-testid="testRequestAccessButton"</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>518</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>data-testid="testModalCancelIcon"</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>518</v>
       </c>
@@ -16747,7 +16753,7 @@
         <v>data-testid="testModalCancel2Icon"</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>518</v>
       </c>
@@ -16774,7 +16780,7 @@
         <v>data-testid="testModalOkButton"</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>522</v>
       </c>
@@ -16801,7 +16807,7 @@
         <v>data-testid="testDownloadLink"</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>523</v>
       </c>
@@ -16828,7 +16834,7 @@
         <v>data-testid="testOrganizationNameSelect"</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>525</v>
       </c>
@@ -16855,7 +16861,7 @@
         <v>data-testid="testScheduleFrequencySelect"</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>525</v>
       </c>
@@ -16882,7 +16888,7 @@
         <v>data-testid="testDailyOptionRadio"</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>525</v>
       </c>
@@ -16909,7 +16915,7 @@
         <v>data-testid="testDayIntervalTextInput"</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>525</v>
       </c>
@@ -16936,7 +16942,7 @@
         <v>data-testid="testEveryWeekdayIntervalRadio"</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>525</v>
       </c>
@@ -16963,7 +16969,7 @@
         <v>data-testid="testCalendarIcon"</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>525</v>
       </c>
@@ -16990,7 +16996,7 @@
         <v>data-testid="testEndDatePickerInput"</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>525</v>
       </c>
@@ -17017,7 +17023,7 @@
         <v>data-testid="testAddScheduleButton"</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>534</v>
       </c>
@@ -17044,7 +17050,7 @@
         <v>data-testid="testSelectIncidentSelect"</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>534</v>
       </c>
@@ -17071,7 +17077,7 @@
         <v>data-testid="testRequestIncidentButton"</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>535</v>
       </c>
@@ -17098,7 +17104,7 @@
         <v>data-testid="testZoomInButton"</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>535</v>
       </c>
@@ -17125,7 +17131,7 @@
         <v>data-testid="testZoomOutButton"</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>535</v>
       </c>
@@ -17152,7 +17158,7 @@
         <v>data-testid="testZoomToMakeInteractiveButton"</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>535</v>
       </c>
@@ -17179,7 +17185,7 @@
         <v>data-testid="testZoomToIncidentButton"</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>535</v>
       </c>
@@ -17206,7 +17212,7 @@
         <v>data-testid="testShowLegendDiv"</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>544</v>
       </c>
@@ -17230,7 +17236,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>541</v>
       </c>
@@ -17257,7 +17263,7 @@
         <v>data-testid="testRandomEasterEggIcon"</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>541</v>
       </c>
@@ -17284,7 +17290,7 @@
         <v>data-testid="testIncidentImageIcon"</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>545</v>
       </c>
@@ -17311,7 +17317,7 @@
         <v>data-testid="testCancelIcon"</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>546</v>
       </c>
@@ -17338,7 +17344,7 @@
         <v>data-testid="testSetAllCheckedCheckbox"</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>546</v>
       </c>
@@ -17366,7 +17372,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>546</v>
       </c>
@@ -17393,7 +17399,7 @@
         <v>data-testid="testNoItemsFoundDiv"</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>546</v>
       </c>
@@ -17420,7 +17426,7 @@
         <v>data-testid="testPaginationPagesizeSelect"</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>546</v>
       </c>
@@ -17447,7 +17453,7 @@
         <v>data-testid="testPaginationPrevButton"</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>546</v>
       </c>
@@ -17474,7 +17480,7 @@
         <v>data-testid="testPaginationNextButton"</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>552</v>
       </c>
@@ -17502,7 +17508,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>553</v>
       </c>
@@ -17530,7 +17536,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>554</v>
       </c>
@@ -17557,7 +17563,7 @@
         <v>data-testid="testBulkUnclaimReassignStatusDiv"</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>554</v>
       </c>
@@ -17584,7 +17590,7 @@
         <v>data-testid="testBulkUnclaimNoChangeStatusCheckbox"</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>554</v>
       </c>
@@ -17611,7 +17617,7 @@
         <v>data-testid="testBulkUnclaimOpenUnassignedStatusCheckbox"</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>558</v>
       </c>
@@ -17638,7 +17644,7 @@
         <v>data-testid="testSelectStatusSelect"</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>560</v>
       </c>
@@ -17665,7 +17671,7 @@
         <v>data-testid="testUserRolesSelect"</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>562</v>
       </c>
@@ -17692,7 +17698,7 @@
         <v>data-testid="testUserSearchSelect"</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>564</v>
       </c>
@@ -17720,7 +17726,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>565</v>
       </c>
@@ -17747,7 +17753,7 @@
         <v>data-testid="testShowingLegendDiv"</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>565</v>
       </c>
@@ -17774,7 +17780,7 @@
         <v>data-testid="testHideLegendIcon"</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>568</v>
       </c>
@@ -17801,7 +17807,7 @@
         <v>data-testid="testCurrentWorkTypeStatusDiv"</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>568</v>
       </c>
@@ -17829,7 +17835,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>570</v>
       </c>
@@ -17856,7 +17862,7 @@
         <v>data-testid="testWorkTypeMapDiv"</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>572</v>
       </c>
@@ -17883,7 +17889,7 @@
         <v>data-testid="testSpinnerLoadingIcon"</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>573</v>
       </c>
@@ -17910,7 +17916,7 @@
         <v>data-testid="testIsAuthenticatedDiv"</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>573</v>
       </c>
@@ -17937,7 +17943,7 @@
         <v>data-testid="testAuthenticatedToggleIcon"</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>573</v>
       </c>
@@ -17964,7 +17970,7 @@
         <v>data-testid="testHamburgerIcon"</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>573</v>
       </c>
@@ -17991,7 +17997,7 @@
         <v>data-testid="testShowAcceptTermsModal"</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>573</v>
       </c>
@@ -18018,7 +18024,7 @@
         <v>data-testid="testCompletedTransferModal"</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>579</v>
       </c>
@@ -18045,7 +18051,7 @@
         <v>data-testid="testIsUnauthenticatedDiv"</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>581</v>
       </c>
@@ -18072,7 +18078,7 @@
         <v>data-testid="testLogoIcon"</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>581</v>
       </c>
@@ -18100,7 +18106,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>581</v>
       </c>
@@ -18127,7 +18133,7 @@
         <v>data-testid="testRegisterButton"</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>581</v>
       </c>
@@ -18154,7 +18160,7 @@
         <v>data-testid="testBottomSectionDiv"</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>581</v>
       </c>
@@ -18181,7 +18187,7 @@
         <v>data-testid="testAwsLink"</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>581</v>
       </c>
@@ -18208,7 +18214,7 @@
         <v>data-testid="testAwsImgIcon"</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>586</v>
       </c>
@@ -18235,7 +18241,7 @@
         <v>data-testid="testTitleTextInput"</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>586</v>
       </c>
@@ -18262,7 +18268,7 @@
         <v>data-testid="testContentTextInput"</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>586</v>
       </c>
@@ -18289,7 +18295,7 @@
         <v>data-testid="testToggleRegularAdvancedModeButton"</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>586</v>
       </c>
@@ -18316,7 +18322,7 @@
         <v>data-testid="testCmsHelpIcon"</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>586</v>
       </c>
@@ -18343,7 +18349,7 @@
         <v>data-testid="testPublishAtDatePickerInput"</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>586</v>
       </c>
@@ -18370,7 +18376,7 @@
         <v>data-testid="testListOrderTextInput"</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>586</v>
       </c>
@@ -18397,7 +18403,7 @@
         <v>data-testid="testAddTagsInput"</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>586</v>
       </c>
@@ -18424,7 +18430,7 @@
         <v>data-testid="testIsActiveCheckbox"</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>586</v>
       </c>
@@ -18451,7 +18457,7 @@
         <v>data-testid="testUploadThumbnailFile"</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>586</v>
       </c>
@@ -18478,7 +18484,7 @@
         <v>data-testid="testUploadThumbnailButton"</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>586</v>
       </c>
@@ -18505,7 +18511,7 @@
         <v>data-testid="testThumbnailFileLink"</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>586</v>
       </c>
@@ -18532,7 +18538,7 @@
         <v>data-testid="testClearItemButton"</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>586</v>
       </c>
@@ -18559,7 +18565,7 @@
         <v>data-testid="testShowPreviewButton"</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>586</v>
       </c>
@@ -18586,7 +18592,7 @@
         <v>data-testid="testSaveButton"</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>586</v>
       </c>
@@ -18613,7 +18619,7 @@
         <v>data-testid="testCmsTableTable"</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>586</v>
       </c>
@@ -18640,7 +18646,7 @@
         <v>data-testid="testActiveOnlyCheckbox"</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>586</v>
       </c>
@@ -18667,7 +18673,7 @@
         <v>data-testid="testDeleteIcon"</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -18694,7 +18700,7 @@
         <v>data-testid="testTagListContent"</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>601</v>
       </c>
@@ -18721,7 +18727,7 @@
         <v>data-testid="testGlobalSearch"</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>601</v>
       </c>
@@ -18748,7 +18754,7 @@
         <v>data-testid="testArcgisUploadButton"</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>601</v>
       </c>
@@ -18775,7 +18781,7 @@
         <v>data-testid="testPendingOrganizationsDiv"</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>601</v>
       </c>
@@ -18802,7 +18808,7 @@
         <v>data-testid="testRefreshPendingOrganizationsButton"</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>601</v>
       </c>
@@ -18829,7 +18835,7 @@
         <v>data-testid="testPendingOrganizationsActionRequiredButton"</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>601</v>
       </c>
@@ -18856,7 +18862,7 @@
         <v>data-testid="testPendingOrganizationsRecentlyApprovedButton"</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>601</v>
       </c>
@@ -18883,7 +18889,7 @@
         <v>data-testid="testPendingOrganizationsRecentlyRejectedButton"</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>601</v>
       </c>
@@ -18910,7 +18916,7 @@
         <v>data-testid="testRedeployRequestsDiv"</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>601</v>
       </c>
@@ -18937,7 +18943,7 @@
         <v>data-testid="testRedeployRequestsActionRequiredButton"</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>601</v>
       </c>
@@ -18964,7 +18970,7 @@
         <v>data-testid="testRedeployRequestsRecentlyApprovedButton"</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>601</v>
       </c>
@@ -18991,7 +18997,7 @@
         <v>data-testid="testRedeployRequestsRecentlyRejectedButton"</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>601</v>
       </c>
@@ -19018,7 +19024,7 @@
         <v>data-testid="testWorksiteImportDiv"</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>601</v>
       </c>
@@ -19045,7 +19051,7 @@
         <v>data-testid="testOrganizationsDiv"</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -19072,7 +19078,7 @@
         <v>data-testid="testOrganizationsSearch"</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -19099,7 +19105,7 @@
         <v>data-testid="testUsersDiv"</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>601</v>
       </c>
@@ -19126,7 +19132,7 @@
         <v>data-testid="testUsersSearch"</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>601</v>
       </c>
@@ -19153,7 +19159,7 @@
         <v>data-testid="testGhostUsersDiv"</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>601</v>
       </c>
@@ -19180,7 +19186,7 @@
         <v>data-testid="testGhostUsersSearch"</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>601</v>
       </c>
@@ -19207,7 +19213,7 @@
         <v>data-testid="testInvitationRequestsDiv"</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>601</v>
       </c>
@@ -19234,7 +19240,7 @@
         <v>data-testid="testInvitationRequestsSearch"</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>601</v>
       </c>
@@ -19261,7 +19267,7 @@
         <v>data-testid="testInvitationsDiv"</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>601</v>
       </c>
@@ -19288,7 +19294,7 @@
         <v>data-testid="testInvitationsSearch"</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>619</v>
       </c>
@@ -19315,7 +19321,7 @@
         <v>data-testid="testGeneralIncidentInfoDiv"</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>619</v>
       </c>
@@ -19342,7 +19348,7 @@
         <v>data-testid="testCreateButton"</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>622</v>
       </c>
@@ -19369,7 +19375,7 @@
         <v>data-testid="testDeleteAllButton"</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>622</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>data-testid="testClearLocalizationButton"</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>622</v>
       </c>
@@ -19423,7 +19429,7 @@
         <v>data-testid="testSaveLocalizationButton"</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>622</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>data-testid="testSaveAndClearButton"</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>622</v>
       </c>
@@ -19477,7 +19483,7 @@
         <v>data-testid="testGroupTextInput"</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>622</v>
       </c>
@@ -19504,7 +19510,7 @@
         <v>data-testid="testLabelTextInput"</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>622</v>
       </c>
@@ -19531,7 +19537,7 @@
         <v>data-testid="testGroupLabelTextInput"</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>622</v>
       </c>
@@ -19558,7 +19564,7 @@
         <v>data-testid="testAvailableFrontendCheckbox"</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>622</v>
       </c>
@@ -19585,7 +19591,7 @@
         <v>data-testid="testNewButton"</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>622</v>
       </c>
@@ -19612,7 +19618,7 @@
         <v>data-testid="testGenerateTranslationsButton"</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>622</v>
       </c>
@@ -19639,7 +19645,7 @@
         <v>data-testid="testLanguageSelect"</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>622</v>
       </c>
@@ -19666,7 +19672,7 @@
         <v>data-testid="testTextTextInput"</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>622</v>
       </c>
@@ -19693,7 +19699,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>622</v>
       </c>
@@ -19720,7 +19726,7 @@
         <v>data-testid="testEditIcon"</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>622</v>
       </c>
@@ -19747,7 +19753,7 @@
         <v>data-testid="testSearchGroupLabelTextSearch"</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>622</v>
       </c>
@@ -19774,7 +19780,7 @@
         <v>data-testid="testSearchLabelsOnlySearch"</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>622</v>
       </c>
@@ -19801,7 +19807,7 @@
         <v>data-testid="testFilterGroupsInput"</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>622</v>
       </c>
@@ -19828,7 +19834,7 @@
         <v>data-testid="testPreviewIcon"</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>639</v>
       </c>
@@ -19855,7 +19861,7 @@
         <v>data-testid="testTicketDashboardDiv"</v>
       </c>
     </row>
-    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>641</v>
       </c>
@@ -19882,7 +19888,7 @@
         <v>data-testid="testSaveOrganizationButton"</v>
       </c>
     </row>
-    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>641</v>
       </c>
@@ -19909,7 +19915,7 @@
         <v>data-testid="testApproveOrganizationButton"</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>641</v>
       </c>
@@ -19936,7 +19942,7 @@
         <v>data-testid="testRejectOrganizationButton"</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>641</v>
       </c>
@@ -19963,7 +19969,7 @@
         <v>data-testid="testNameTextInput"</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>641</v>
       </c>
@@ -19990,7 +19996,7 @@
         <v>data-testid="testEmailTextInput"</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>641</v>
       </c>
@@ -20017,7 +20023,7 @@
         <v>data-testid="testPhone1TextInput"</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>641</v>
       </c>
@@ -20044,7 +20050,7 @@
         <v>data-testid="testAddressTextInput"</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>641</v>
       </c>
@@ -20071,7 +20077,7 @@
         <v>data-testid="testUrlTextInput"</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>641</v>
       </c>
@@ -20098,7 +20104,7 @@
         <v>data-testid="testFacebookTextInput"</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>641</v>
       </c>
@@ -20125,7 +20131,7 @@
         <v>data-testid="testTwitterTextInput"</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>641</v>
       </c>
@@ -20152,7 +20158,7 @@
         <v>data-testid="testAdminNotesTextarea"</v>
       </c>
     </row>
-    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>641</v>
       </c>
@@ -20179,7 +20185,7 @@
         <v>data-testid="testAutomaticallyApproveUserDomainTextInput"</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>641</v>
       </c>
@@ -20206,7 +20212,7 @@
         <v>data-testid="testIsActiveCheckbox"</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>641</v>
       </c>
@@ -20233,7 +20239,7 @@
         <v>data-testid="testIsVerifiedCheckbox"</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>641</v>
       </c>
@@ -20260,7 +20266,7 @@
         <v>data-testid="testPublishCheckbox"</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>641</v>
       </c>
@@ -20287,7 +20293,7 @@
         <v>data-testid="testOrganizationTypeSelect"</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>641</v>
       </c>
@@ -20314,7 +20320,7 @@
         <v>data-testid="testRoleSelect"</v>
       </c>
     </row>
-    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>641</v>
       </c>
@@ -20341,7 +20347,7 @@
         <v>data-testid="testApproveRejectReasonTSelect"</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>641</v>
       </c>
@@ -20368,7 +20374,7 @@
         <v>data-testid="testGenerateApiKeyButton"</v>
       </c>
     </row>
-    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>641</v>
       </c>
@@ -20395,7 +20401,7 @@
         <v>data-testid="testOrganizationLogoFile"</v>
       </c>
     </row>
-    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>641</v>
       </c>
@@ -20422,7 +20428,7 @@
         <v>data-testid="testOrganizationLogoIcon"</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>641</v>
       </c>
@@ -20449,7 +20455,7 @@
         <v>data-testid="testUpdateLogoButton"</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>641</v>
       </c>
@@ -20476,7 +20482,7 @@
         <v>data-testid="testPrimaryContactsDiv"</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>641</v>
       </c>
@@ -20503,7 +20509,7 @@
         <v>data-testid="testGhostUsersDiv"</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>641</v>
       </c>
@@ -20530,7 +20536,7 @@
         <v>data-testid="testAllUsersDiv"</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>641</v>
       </c>
@@ -20557,7 +20563,7 @@
         <v>data-testid="testGeneralInfoContent"</v>
       </c>
     </row>
-    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>641</v>
       </c>
@@ -20584,7 +20590,7 @@
         <v>data-testid="testIncidentsDiv"</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>641</v>
       </c>
@@ -20611,7 +20617,7 @@
         <v>data-testid="testIncidentToAddSelect"</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>641</v>
       </c>
@@ -20638,7 +20644,7 @@
         <v>data-testid="testAddIncidentButton"</v>
       </c>
     </row>
-    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>641</v>
       </c>
@@ -20665,7 +20671,7 @@
         <v>data-testid="testPendingRequestsContent"</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>641</v>
       </c>
@@ -20692,7 +20698,7 @@
         <v>data-testid="testApproveIncidentButton"</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>641</v>
       </c>
@@ -20719,7 +20725,7 @@
         <v>data-testid="testRejectIncidentButton"</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>641</v>
       </c>
@@ -20746,7 +20752,7 @@
         <v>data-testid="testApprovedIncidentsDiv"</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>641</v>
       </c>
@@ -20773,7 +20779,7 @@
         <v>data-testid="testGroupToAddSelect"</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>641</v>
       </c>
@@ -20800,7 +20806,7 @@
         <v>data-testid="testGroupToAddButton"</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>641</v>
       </c>
@@ -20827,7 +20833,7 @@
         <v>data-testid="testDeleteGroupIcon"</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>641</v>
       </c>
@@ -20854,7 +20860,7 @@
         <v>data-testid="testPrimaryLocationDiv"</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>641</v>
       </c>
@@ -20881,7 +20887,7 @@
         <v>data-testid="testEditPrimaryResponseAreaButton"</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>641</v>
       </c>
@@ -20908,7 +20914,7 @@
         <v>data-testid="testAddPrimaryResponseAreaButton"</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>641</v>
       </c>
@@ -20935,7 +20941,7 @@
         <v>data-testid="testSecondaryLocationDiv"</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>641</v>
       </c>
@@ -20962,7 +20968,7 @@
         <v>data-testid="testEditSecondaryResponseAreaButton"</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>641</v>
       </c>
@@ -20989,7 +20995,7 @@
         <v>data-testid="testAddSecondaryResponseAreaButton"</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>641</v>
       </c>
@@ -21016,7 +21022,7 @@
         <v>data-testid="testOrgApiKeysModal"</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>641</v>
       </c>
@@ -21043,7 +21049,7 @@
         <v>data-testid="testApiKeyTextInput"</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>641</v>
       </c>
@@ -21070,7 +21076,7 @@
         <v>data-testid="testCopyKeyButton"</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>641</v>
       </c>
@@ -21097,7 +21103,7 @@
         <v>data-testid="testCapabilitiesDiv"</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>678</v>
       </c>
@@ -21124,7 +21130,7 @@
         <v>data-testid="testPaidForStatementDiv"</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -21151,7 +21157,7 @@
         <v>data-testid="testReportFiltersContent"</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>678</v>
       </c>
@@ -21178,7 +21184,7 @@
         <v>data-testid="testReportWidgetContent"</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>678</v>
       </c>
@@ -21206,7 +21212,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>682</v>
       </c>
@@ -21233,7 +21239,7 @@
         <v>data-testid="testShowRequestAccessModalModal"</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>684</v>
       </c>
@@ -21260,7 +21266,7 @@
         <v>data-testid="testAboutDiv"</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>684</v>
       </c>
@@ -21287,7 +21293,7 @@
         <v>data-testid="testAboutDescriptionDiv"</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>684</v>
       </c>
@@ -21314,7 +21320,7 @@
         <v>data-testid="testAboutVideoDiv"</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>684</v>
       </c>
@@ -21341,7 +21347,7 @@
         <v>data-testid="testAboutStatsDiv"</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>684</v>
       </c>
@@ -21368,7 +21374,7 @@
         <v>data-testid="testAboutPeopleDiv"</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>684</v>
       </c>
@@ -21395,7 +21401,7 @@
         <v>data-testid="testAboutMajorContributorsDiv"</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>684</v>
       </c>
@@ -21422,7 +21428,7 @@
         <v>data-testid="testAboutSupporterLogosDiv"</v>
       </c>
     </row>
-    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>684</v>
       </c>
@@ -21449,7 +21455,7 @@
         <v>data-testid="testAboutPhilosophiesDiv"</v>
       </c>
     </row>
-    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>684</v>
       </c>
@@ -21476,7 +21482,7 @@
         <v>data-testid="testAboutLegalStuffDiv"</v>
       </c>
     </row>
-    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>694</v>
       </c>
@@ -21503,7 +21509,7 @@
         <v>data-testid="testContributionsDiv"</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>696</v>
       </c>
@@ -21530,7 +21536,7 @@
         <v>data-testid="testGlobeIcon"</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>698</v>
       </c>
@@ -21557,7 +21563,7 @@
         <v>data-testid="testPrivacyDiv"</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>700</v>
       </c>
@@ -21584,7 +21590,7 @@
         <v>data-testid="testIncidentSelect"</v>
       </c>
     </row>
-    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>700</v>
       </c>
@@ -21611,7 +21617,7 @@
         <v>data-testid="testSimpleMapContent"</v>
       </c>
     </row>
-    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>702</v>
       </c>
@@ -21638,7 +21644,7 @@
         <v>data-testid="testIncidentSelect"</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>702</v>
       </c>
@@ -21665,7 +21671,7 @@
         <v>data-testid="testOrganizationNameSearch"</v>
       </c>
     </row>
-    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>702</v>
       </c>
@@ -21692,7 +21698,7 @@
         <v>data-testid="testOrganizationUrlTextInput"</v>
       </c>
     </row>
-    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>702</v>
       </c>
@@ -21719,7 +21725,7 @@
         <v>data-testid="testOrganizationFacebookTextInput"</v>
       </c>
     </row>
-    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>702</v>
       </c>
@@ -21746,7 +21752,7 @@
         <v>data-testid="testOrganizationTwitterTextInput"</v>
       </c>
     </row>
-    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>702</v>
       </c>
@@ -21773,7 +21779,7 @@
         <v>data-testid="testOrganizationWhereAreYouWorkingTextInput"</v>
       </c>
     </row>
-    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>702</v>
       </c>
@@ -21800,7 +21806,7 @@
         <v>data-testid="testOrganizationReferralTextInput"</v>
       </c>
     </row>
-    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>702</v>
       </c>
@@ -21827,7 +21833,7 @@
         <v>data-testid="testPrimaryContactFirstNameTextInput"</v>
       </c>
     </row>
-    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>702</v>
       </c>
@@ -21854,7 +21860,7 @@
         <v>data-testid="testPrimaryContactLastNameTextInput"</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>702</v>
       </c>
@@ -21881,7 +21887,7 @@
         <v>data-testid="testPrimaryContactEmailTextInput"</v>
       </c>
     </row>
-    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>702</v>
       </c>
@@ -21908,7 +21914,7 @@
         <v>data-testid="testPrimaryContactMobileTextInput"</v>
       </c>
     </row>
-    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>702</v>
       </c>
@@ -21935,7 +21941,7 @@
         <v>data-testid="testCapabilityMatrixInput"</v>
       </c>
     </row>
-    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>702</v>
       </c>
@@ -21962,7 +21968,7 @@
         <v>data-testid="testOrganizationPublishCheckbox"</v>
       </c>
     </row>
-    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>702</v>
       </c>
@@ -21989,7 +21995,7 @@
         <v>data-testid="testAcceptedTermsCheckbox"</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>702</v>
       </c>
@@ -22016,7 +22022,7 @@
         <v>data-testid="testSignUpButton"</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>716</v>
       </c>
@@ -22043,7 +22049,7 @@
         <v>data-testid="testRequestAccessJoinOrganizationDiv"</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>716</v>
       </c>
@@ -22070,7 +22076,7 @@
         <v>data-testid="testOrgAlreadyHasAccountDiv"</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>716</v>
       </c>
@@ -22097,7 +22103,7 @@
         <v>data-testid="testOrphanAlreadyRemovedEnterEmailForNewOrgContent"</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>716</v>
       </c>
@@ -22124,7 +22130,7 @@
         <v>data-testid="testExistingMemberEmailTextInput"</v>
       </c>
     </row>
-    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>716</v>
       </c>
@@ -22151,7 +22157,7 @@
         <v>data-testid="testYourEmailTextInput"</v>
       </c>
     </row>
-    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>716</v>
       </c>
@@ -22178,7 +22184,7 @@
         <v>data-testid="testFirstNameTextInput"</v>
       </c>
     </row>
-    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>716</v>
       </c>
@@ -22205,7 +22211,7 @@
         <v>data-testid="testLastNameTextInput"</v>
       </c>
     </row>
-    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>716</v>
       </c>
@@ -22232,7 +22238,7 @@
         <v>data-testid="testTitleTextInput"</v>
       </c>
     </row>
-    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>716</v>
       </c>
@@ -22259,7 +22265,7 @@
         <v>data-testid="testMobileTextInput"</v>
       </c>
     </row>
-    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>716</v>
       </c>
@@ -22286,7 +22292,7 @@
         <v>data-testid="testPw1TextInput"</v>
       </c>
     </row>
-    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>716</v>
       </c>
@@ -22313,7 +22319,7 @@
         <v>data-testid="testPw2TextInput"</v>
       </c>
     </row>
-    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>716</v>
       </c>
@@ -22340,7 +22346,7 @@
         <v>data-testid="testPrimaryLanguageSelect"</v>
       </c>
     </row>
-    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>716</v>
       </c>
@@ -22367,7 +22373,7 @@
         <v>data-testid="testRequestAccessButton"</v>
       </c>
     </row>
-    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>716</v>
       </c>
@@ -22394,7 +22400,7 @@
         <v>data-testid="testRequestAccessSuccessModal"</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>716</v>
       </c>
@@ -22421,7 +22427,7 @@
         <v>data-testid="testGotItButton"</v>
       </c>
     </row>
-    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>729</v>
       </c>
@@ -22448,7 +22454,7 @@
         <v>data-testid="testForgotYourPasswordOrResetDiv"</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>729</v>
       </c>
@@ -22475,7 +22481,7 @@
         <v>data-testid="testYourEmailTextInput"</v>
       </c>
     </row>
-    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>729</v>
       </c>
@@ -22502,7 +22508,7 @@
         <v>data-testid="testSendResetPasswordInstructionsButton"</v>
       </c>
     </row>
-    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -22529,7 +22535,7 @@
         <v>data-testid="testResetSuccessModal"</v>
       </c>
     </row>
-    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>729</v>
       </c>
@@ -22556,7 +22562,7 @@
         <v>data-testid="testGotItButton"</v>
       </c>
     </row>
-    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>733</v>
       </c>
@@ -22583,7 +22589,7 @@
         <v>data-testid="testInfoForSurvivorsDiv"</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>735</v>
       </c>
@@ -22610,7 +22616,7 @@
         <v>data-testid="testTermsDiv"</v>
       </c>
     </row>
-    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>737</v>
       </c>
@@ -22637,7 +22643,7 @@
         <v>data-testid="testTrainingDiv"</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>737</v>
       </c>
@@ -22661,7 +22667,7 @@
         <v>data-testid="testMandatoryTrainingVideoIframe"</v>
       </c>
     </row>
-    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>737</v>
       </c>
@@ -22689,7 +22695,7 @@
         <v>data-testid="testSupplimentPhoneTrainingIframe"</v>
       </c>
     </row>
-    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>737</v>
       </c>
@@ -22717,7 +22723,7 @@
         <v>data-testid="testCalldownTrainingIframe"</v>
       </c>
     </row>
-    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>737</v>
       </c>
@@ -22745,7 +22751,7 @@
         <v>data-testid="testCcuDuringCovidIframe"</v>
       </c>
     </row>
-    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>744</v>
       </c>
@@ -22772,7 +22778,7 @@
         <v>data-testid="testAddAffiliateButton"</v>
       </c>
     </row>
-    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>744</v>
       </c>
@@ -22799,7 +22805,7 @@
         <v>data-testid="testRequestAffiliateModal"</v>
       </c>
     </row>
-    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>744</v>
       </c>
@@ -22826,7 +22832,7 @@
         <v>data-testid="testSelectedAffiliateSearch"</v>
       </c>
     </row>
-    <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>744</v>
       </c>
@@ -22853,7 +22859,7 @@
         <v>data-testid="testRequestReasonTextArea"</v>
       </c>
     </row>
-    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>744</v>
       </c>
@@ -22880,7 +22886,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>744</v>
       </c>
@@ -22907,7 +22913,7 @@
         <v>data-testid="testInviteButton"</v>
       </c>
     </row>
-    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>744</v>
       </c>
@@ -22934,7 +22940,7 @@
         <v>data-testid="testAffiliatesTable"</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>744</v>
       </c>
@@ -22961,7 +22967,7 @@
         <v>data-testid="testUnaffiliateButton"</v>
       </c>
     </row>
-    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>744</v>
       </c>
@@ -22988,7 +22994,7 @@
         <v>data-testid="testAcceptButton"</v>
       </c>
     </row>
-    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>744</v>
       </c>
@@ -23015,7 +23021,7 @@
         <v>data-testid="testRejectButton"</v>
       </c>
     </row>
-    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>744</v>
       </c>
@@ -23043,7 +23049,7 @@
         <v>data-testid="test:SeveralCalculated"</v>
       </c>
     </row>
-    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>753</v>
       </c>
@@ -23070,7 +23076,7 @@
         <v>data-testid="testCreateTeamModal"</v>
       </c>
     </row>
-    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>753</v>
       </c>
@@ -23097,7 +23103,7 @@
         <v>data-testid="testTeamNameTextInput"</v>
       </c>
     </row>
-    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>753</v>
       </c>
@@ -23124,7 +23130,7 @@
         <v>data-testid="testSuggestNameButton"</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>753</v>
       </c>
@@ -23151,7 +23157,7 @@
         <v>data-testid="testTeamUsersDrag"</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>753</v>
       </c>
@@ -23178,7 +23184,7 @@
         <v>data-testid="testTeamUsers.DragIcon"</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>753</v>
       </c>
@@ -23205,7 +23211,7 @@
         <v>data-testid="testAddMembersButton"</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>753</v>
       </c>
@@ -23232,7 +23238,7 @@
         <v>data-testid="testTeamWorksitesDrag"</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>753</v>
       </c>
@@ -23259,7 +23265,7 @@
         <v>data-testid="testWorksitesDragIcon"</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>753</v>
       </c>
@@ -23286,7 +23292,7 @@
         <v>data-testid="testAssignCasesButton"</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>753</v>
       </c>
@@ -23313,7 +23319,7 @@
         <v>data-testid="testSearchDragMembersSearch"</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>753</v>
       </c>
@@ -23340,7 +23346,7 @@
         <v>data-testid="testUsersListDrag"</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>753</v>
       </c>
@@ -23367,7 +23373,7 @@
         <v>data-testid="testCurrentCaseSearchSearch"</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>753</v>
       </c>
@@ -23394,7 +23400,7 @@
         <v>data-testid="testWorksitesDrag"</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>753</v>
       </c>
@@ -23421,7 +23427,7 @@
         <v>data-testid="testCancelButton"</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>753</v>
       </c>
@@ -23448,7 +23454,7 @@
         <v>data-testid="testCreateButton"</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>768</v>
       </c>
@@ -23479,7 +23485,7 @@
         <v>:data-testid="`testExportInvitationRequests${}Button`"</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>768</v>
       </c>
@@ -23510,7 +23516,7 @@
         <v>:data-testid="`testInvitationRequests${}Table`"</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>768</v>
       </c>
@@ -23541,7 +23547,7 @@
         <v>:data-testid="`testIgnore${}Button`"</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>768</v>
       </c>
@@ -23572,7 +23578,7 @@
         <v>:data-testid="`testReject${}Button`"</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>768</v>
       </c>
@@ -23603,7 +23609,7 @@
         <v>:data-testid="`testAccept${}Button`"</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>768</v>
       </c>
@@ -23634,7 +23640,7 @@
         <v>:data-testid="`testExportInvitations${}Button`"</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>768</v>
       </c>
@@ -23665,7 +23671,7 @@
         <v>:data-testid="`testDeleteExpiredInvitations${}Button`"</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>768</v>
       </c>
@@ -23697,7 +23703,7 @@
         <v>:data-testid="`test:SeveralCalculated${}`"</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>768</v>
       </c>
@@ -23728,7 +23734,7 @@
         <v>:data-testid="`testInvitations${}Table`"</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>768</v>
       </c>
@@ -23759,7 +23765,7 @@
         <v>:data-testid="`testReInvite${}Button`"</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>768</v>
       </c>
@@ -23790,7 +23796,7 @@
         <v>:data-testid="`testDeleteInvitation${}Button`"</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>776</v>
       </c>
@@ -23821,7 +23827,7 @@
         <v>:data-testid="`testGetLocations${}Search`"</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>776</v>
       </c>
@@ -23852,7 +23858,7 @@
         <v>:data-testid="`testLocationTypeFilter${}Select`"</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>776</v>
       </c>
@@ -23883,7 +23889,7 @@
         <v>:data-testid="`testCreateLocation${}Button`"</v>
       </c>
     </row>
-    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>776</v>
       </c>
@@ -23914,7 +23920,7 @@
         <v>:data-testid="`testLocations${}Table`"</v>
       </c>
     </row>
-    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>781</v>
       </c>
@@ -23945,7 +23951,7 @@
         <v>:data-testid="`testInviteNewUser${}Button`"</v>
       </c>
     </row>
-    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>781</v>
       </c>
@@ -23976,7 +23982,7 @@
         <v>:data-testid="`testShowInvite${}Modal`"</v>
       </c>
     </row>
-    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>781</v>
       </c>
@@ -24007,7 +24013,7 @@
         <v>:data-testid="`testUsersToInvite${}TextInput`"</v>
       </c>
     </row>
-    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>781</v>
       </c>
@@ -24038,7 +24044,7 @@
         <v>:data-testid="`testOrganization${}Search`"</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>781</v>
       </c>
@@ -24069,7 +24075,7 @@
         <v>:data-testid="`testCancel${}Button`"</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>781</v>
       </c>
@@ -24100,7 +24106,7 @@
         <v>:data-testid="`testSubmitInvites${}Button`"</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>784</v>
       </c>
@@ -24131,7 +24137,7 @@
         <v>:data-testid="`testSave${}Button`"</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>784</v>
       </c>
@@ -24162,7 +24168,7 @@
         <v>:data-testid="`testOrganizationLogo${}File`"</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>784</v>
       </c>
@@ -24193,7 +24199,7 @@
         <v>:data-testid="`testOrganizationLogo${}Icon`"</v>
       </c>
     </row>
-    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>784</v>
       </c>
@@ -24224,7 +24230,7 @@
         <v>:data-testid="`testUpdateLogo${}Button`"</v>
       </c>
     </row>
-    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>784</v>
       </c>
@@ -24255,7 +24261,7 @@
         <v>:data-testid="`testOrganizationName${}TextInput`"</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>784</v>
       </c>
@@ -24286,7 +24292,7 @@
         <v>:data-testid="`testAddress${}TextInput`"</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>784</v>
       </c>
@@ -24317,7 +24323,7 @@
         <v>:data-testid="`testUrl${}TextInput`"</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>784</v>
       </c>
@@ -24348,7 +24354,7 @@
         <v>:data-testid="`testEmail${}TextInput`"</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>784</v>
       </c>
@@ -24379,7 +24385,7 @@
         <v>:data-testid="`testPhone${}TextInput`"</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>784</v>
       </c>
@@ -24410,7 +24416,7 @@
         <v>:data-testid="`testOrganizationType${}TextInput`"</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>784</v>
       </c>
@@ -24441,7 +24447,7 @@
         <v>:data-testid="`testPrimaryContacts${}Div`"</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>784</v>
       </c>
@@ -24472,7 +24478,7 @@
         <v>:data-testid="`testEmail${}Link`"</v>
       </c>
     </row>
-    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>784</v>
       </c>
@@ -24503,7 +24509,7 @@
         <v>:data-testid="`testMobile${}Link`"</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>784</v>
       </c>
@@ -24535,7 +24541,7 @@
         <v>:data-testid="`test:SeveralCalculated${}`"</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>784</v>
       </c>
@@ -24566,7 +24572,7 @@
         <v>:data-testid="`testDelete${}Button`"</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>784</v>
       </c>
@@ -24597,7 +24603,7 @@
         <v>:data-testid="`testAddPrimaryContacts${}Search`"</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>784</v>
       </c>
@@ -24628,7 +24634,7 @@
         <v>:data-testid="`testFacebook${}TextInput`"</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>784</v>
       </c>
@@ -24659,7 +24665,7 @@
         <v>:data-testid="`testTwitter${}TextInput`"</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>784</v>
       </c>
@@ -24690,7 +24696,7 @@
         <v>:data-testid="`testDonationUrl${}TextInput`"</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>784</v>
       </c>
@@ -24721,7 +24727,7 @@
         <v>:data-testid="`testCapabilitiesMatrix${}Input`"</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>784</v>
       </c>
@@ -24752,7 +24758,7 @@
         <v>:data-testid="`testCurrentIncidents${}Content`"</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>784</v>
       </c>
@@ -24783,7 +24789,7 @@
         <v>:data-testid="`testApprovedIncidents${}Div`"</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>784</v>
       </c>
@@ -24814,7 +24820,7 @@
         <v>:data-testid="`testPendingIncidents${}Div`"</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>784</v>
       </c>
@@ -24845,7 +24851,7 @@
         <v>:data-testid="`testEditPrimaryLocation${}Button`"</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>784</v>
       </c>
@@ -24876,7 +24882,7 @@
         <v>:data-testid="`testAddPrimaryLocation${}Button`"</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>784</v>
       </c>
@@ -24907,7 +24913,7 @@
         <v>:data-testid="`testContactHelpChangeResponse${}Button`"</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>784</v>
       </c>
@@ -24938,7 +24944,7 @@
         <v>:data-testid="`testEditSecondaryLocation${}Button`"</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>784</v>
       </c>
@@ -24969,7 +24975,7 @@
         <v>:data-testid="`testAddSecondaryLocation${}Button`"</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>784</v>
       </c>
@@ -25000,7 +25006,7 @@
         <v>:data-testid="`testContactHelpChangeResponse2${}Button`"</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>784</v>
       </c>
@@ -25031,7 +25037,7 @@
         <v>:data-testid="`testSelectLocation${}Modal`"</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>784</v>
       </c>
@@ -25062,7 +25068,7 @@
         <v>:data-testid="`testSave${}Button`"</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>784</v>
       </c>
@@ -25093,7 +25099,7 @@
         <v>:data-testid="`testCustomOpsMessage${}TextArea`"</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>784</v>
       </c>
@@ -25124,7 +25130,7 @@
         <v>:data-testid="`testAddCustomTos${}TextInput`"</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>784</v>
       </c>
@@ -25155,7 +25161,7 @@
         <v>:data-testid="`testDelete${}Icon`"</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>784</v>
       </c>
@@ -25186,7 +25192,7 @@
         <v>:data-testid="`testTermsOfService${}File`"</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>784</v>
       </c>
@@ -25217,7 +25223,7 @@
         <v>:data-testid="`testCustomLegalTos${}TextArea`"</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>784</v>
       </c>
@@ -25248,7 +25254,7 @@
         <v>:data-testid="`testAddCustomLiability${}Input`"</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>784</v>
       </c>
@@ -25279,7 +25285,7 @@
         <v>:data-testid="`testDeleteLiabilityWaiver${}Button`"</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>784</v>
       </c>
@@ -25310,7 +25316,7 @@
         <v>:data-testid="`testLiabilityWaiver${}File`"</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>784</v>
       </c>
@@ -25341,7 +25347,7 @@
         <v>:data-testid="`testCustomSurvivorWaiver${}Button`"</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>784</v>
       </c>
@@ -25372,7 +25378,7 @@
         <v>:data-testid="`testAddSurvivorWaiverText${}TextArea`"</v>
       </c>
     </row>
-    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>784</v>
       </c>
@@ -25385,7 +25391,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_logo2</v>
       </c>
       <c r="D827" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E827" t="s">
         <v>3</v>
@@ -25403,7 +25409,7 @@
         <v>:data-testid="`testOrganizationLogo2${}File`"</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>784</v>
       </c>
@@ -25416,7 +25422,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_terms</v>
       </c>
       <c r="D828" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E828" t="s">
         <v>15</v>
@@ -25436,89 +25442,96 @@
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B829" t="str">
         <f t="shared" si="57"/>
-        <v>TeamDetail.vue</v>
+        <v>Index.vue</v>
       </c>
       <c r="C829" t="str">
         <f t="shared" si="54"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vue</v>
-      </c>
-      <c r="E829" t="str">
-        <f>IF(COUNTIF(C$2:C828,C829)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Index.vuemyOrganizationDashboard</v>
+      </c>
+      <c r="D829" t="s">
+        <v>809</v>
+      </c>
+      <c r="E829" t="s">
+        <v>69</v>
       </c>
       <c r="F829" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>testMyOrganizationDashboardDiv</v>
       </c>
       <c r="G829" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>data-testid="testMyOrganizationDashboardDiv"</v>
       </c>
       <c r="H829" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>:data-testid="`testMyOrganizationDashboard${}Div`"</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="B830" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>Index.vue</v>
       </c>
       <c r="C830" t="str">
         <f t="shared" si="54"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E830" t="str">
-        <f>IF(COUNTIF(C$2:C829,C830)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Index.vuemyOrganizationNav</v>
+      </c>
+      <c r="D830" t="s">
+        <v>810</v>
+      </c>
+      <c r="E830" t="s">
+        <v>91</v>
       </c>
       <c r="F830" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>testMyOrganizationNavLink</v>
       </c>
       <c r="G830" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>data-testid="testMyOrganizationNavLink"</v>
       </c>
       <c r="H830" t="str">
         <f t="shared" ref="H830:H893" si="58">IF(D830="","",":data-testid=""`"&amp;SUBSTITUTE(F830,E830,"")&amp;"${}"&amp;E830&amp;"`""")</f>
-        <v/>
+        <v>:data-testid="`testMyOrganizationNav${}Link`"</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="B831" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>Index.vue</v>
       </c>
       <c r="C831" t="str">
         <f t="shared" si="54"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Index.vue:several_calculated</v>
+      </c>
+      <c r="D831" t="s">
+        <v>104</v>
       </c>
       <c r="E831" t="str">
         <f>IF(COUNTIF(C$2:C830,C831)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F831" t="str">
         <f t="shared" si="55"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G831" t="str">
         <f t="shared" si="56"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
       <c r="H831" t="str">
         <f t="shared" si="58"/>
-        <v/>
+        <v>:data-testid="`test:SeveralCalculated${}`"</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
@@ -25535,7 +25548,7 @@
       </c>
       <c r="E832" t="str">
         <f>IF(COUNTIF(C$2:C831,C832)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F832" t="str">
         <f t="shared" si="55"/>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF4252-6E9D-49CF-961A-28454BD06CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5365B592-6F80-4577-9AF1-84C70A519063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="869">
   <si>
     <t>Output</t>
   </si>
@@ -2260,9 +2260,6 @@
     <t>ccu_during_covid_iframe</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vue</t>
   </si>
   <si>
@@ -2606,6 +2603,39 @@
   </si>
   <si>
     <t>user_invited_by_results</t>
+  </si>
+  <si>
+    <t>user_profile_picture</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>user_chat</t>
+  </si>
+  <si>
+    <t>user_call</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vue</t>
+  </si>
+  <si>
+    <t>user_view</t>
+  </si>
+  <si>
+    <t>remove_user</t>
+  </si>
+  <si>
+    <t>user_details</t>
+  </si>
+  <si>
+    <t>user_roles</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\PhoneSystem.vue</t>
   </si>
 </sst>
 </file>
@@ -2960,8 +2990,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A892" sqref="A892"/>
+      <pane ySplit="1" topLeftCell="A896" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B911" sqref="B911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -22897,7 +22927,7 @@
     </row>
     <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B739" t="str">
         <f t="shared" si="45"/>
@@ -22908,7 +22938,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueadd_affiliate</v>
       </c>
       <c r="D739" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E739" t="s">
         <v>15</v>
@@ -22924,7 +22954,7 @@
     </row>
     <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B740" t="str">
         <f t="shared" si="45"/>
@@ -22935,7 +22965,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vuerequest_affiliate</v>
       </c>
       <c r="D740" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E740" t="s">
         <v>98</v>
@@ -22951,7 +22981,7 @@
     </row>
     <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B741" t="str">
         <f t="shared" si="45"/>
@@ -22962,7 +22992,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueselectedAffiliate</v>
       </c>
       <c r="D741" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E741" t="s">
         <v>216</v>
@@ -22978,7 +23008,7 @@
     </row>
     <row r="742" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B742" t="str">
         <f t="shared" si="45"/>
@@ -22989,10 +23019,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vuerequest_reason</v>
       </c>
       <c r="D742" t="s">
+        <v>747</v>
+      </c>
+      <c r="E742" t="s">
         <v>748</v>
-      </c>
-      <c r="E742" t="s">
-        <v>749</v>
       </c>
       <c r="F742" t="str">
         <f t="shared" si="47"/>
@@ -23005,7 +23035,7 @@
     </row>
     <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B743" t="str">
         <f t="shared" si="45"/>
@@ -23032,7 +23062,7 @@
     </row>
     <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B744" t="str">
         <f t="shared" si="45"/>
@@ -23043,7 +23073,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueinvite</v>
       </c>
       <c r="D744" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E744" t="s">
         <v>15</v>
@@ -23059,7 +23089,7 @@
     </row>
     <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B745" t="str">
         <f t="shared" si="45"/>
@@ -23070,7 +23100,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueaffiliates</v>
       </c>
       <c r="D745" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E745" t="s">
         <v>268</v>
@@ -23086,7 +23116,7 @@
     </row>
     <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B746" t="str">
         <f t="shared" si="45"/>
@@ -23097,7 +23127,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Affiliates.vueunaffiliate</v>
       </c>
       <c r="D746" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E746" t="s">
         <v>15</v>
@@ -23113,7 +23143,7 @@
     </row>
     <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B747" t="str">
         <f t="shared" si="45"/>
@@ -23140,7 +23170,7 @@
     </row>
     <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B748" t="str">
         <f t="shared" si="45"/>
@@ -23167,7 +23197,7 @@
     </row>
     <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B749" t="str">
         <f t="shared" si="45"/>
@@ -23195,7 +23225,7 @@
     </row>
     <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B750" t="str">
         <f t="shared" si="45"/>
@@ -23206,7 +23236,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuecreate_team</v>
       </c>
       <c r="D750" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E750" t="s">
         <v>98</v>
@@ -23222,7 +23252,7 @@
     </row>
     <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B751" t="str">
         <f t="shared" si="45"/>
@@ -23233,7 +23263,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteam_name</v>
       </c>
       <c r="D751" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E751" t="s">
         <v>68</v>
@@ -23249,7 +23279,7 @@
     </row>
     <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B752" t="str">
         <f t="shared" si="45"/>
@@ -23260,7 +23290,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuesuggest_name</v>
       </c>
       <c r="D752" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E752" t="s">
         <v>15</v>
@@ -23276,7 +23306,7 @@
     </row>
     <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B753" t="str">
         <f t="shared" si="45"/>
@@ -23287,10 +23317,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteam.users</v>
       </c>
       <c r="D753" t="s">
+        <v>756</v>
+      </c>
+      <c r="E753" t="s">
         <v>757</v>
-      </c>
-      <c r="E753" t="s">
-        <v>758</v>
       </c>
       <c r="F753" t="str">
         <f t="shared" si="50"/>
@@ -23303,7 +23333,7 @@
     </row>
     <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B754" t="str">
         <f t="shared" si="45"/>
@@ -23314,7 +23344,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteam.users.drag</v>
       </c>
       <c r="D754" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E754" t="s">
         <v>93</v>
@@ -23330,7 +23360,7 @@
     </row>
     <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B755" t="str">
         <f t="shared" si="45"/>
@@ -23341,7 +23371,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueadd_members</v>
       </c>
       <c r="D755" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E755" t="s">
         <v>15</v>
@@ -23357,7 +23387,7 @@
     </row>
     <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B756" t="str">
         <f t="shared" si="45"/>
@@ -23368,10 +23398,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueteamWorksites</v>
       </c>
       <c r="D756" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E756" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F756" t="str">
         <f t="shared" si="50"/>
@@ -23384,7 +23414,7 @@
     </row>
     <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B757" t="str">
         <f t="shared" si="45"/>
@@ -23395,7 +23425,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueworksites.drag</v>
       </c>
       <c r="D757" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E757" t="s">
         <v>93</v>
@@ -23411,7 +23441,7 @@
     </row>
     <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B758" t="str">
         <f t="shared" ref="B758:B821" si="52">IF(A758="","",MID(A758,FIND("@",SUBSTITUTE(A758,"\","@",LEN(A758)-LEN(SUBSTITUTE(A758,"\",""))))+1,LEN(A758)))</f>
@@ -23422,7 +23452,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueassign_cases</v>
       </c>
       <c r="D758" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E758" t="s">
         <v>15</v>
@@ -23438,7 +23468,7 @@
     </row>
     <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B759" t="str">
         <f t="shared" si="52"/>
@@ -23449,7 +23479,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuesearch_drag_members</v>
       </c>
       <c r="D759" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E759" t="s">
         <v>216</v>
@@ -23465,7 +23495,7 @@
     </row>
     <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B760" t="str">
         <f t="shared" si="52"/>
@@ -23476,10 +23506,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueusersList</v>
       </c>
       <c r="D760" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E760" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F760" t="str">
         <f t="shared" si="50"/>
@@ -23492,7 +23522,7 @@
     </row>
     <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B761" t="str">
         <f t="shared" si="52"/>
@@ -23503,7 +23533,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vuecurrentCaseSearch</v>
       </c>
       <c r="D761" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E761" t="s">
         <v>216</v>
@@ -23519,7 +23549,7 @@
     </row>
     <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B762" t="str">
         <f t="shared" si="52"/>
@@ -23530,10 +23560,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\CreateTeamModal.vueworksites</v>
       </c>
       <c r="D762" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E762" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F762" t="str">
         <f t="shared" si="50"/>
@@ -23546,7 +23576,7 @@
     </row>
     <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B763" t="str">
         <f t="shared" si="52"/>
@@ -23573,7 +23603,7 @@
     </row>
     <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B764" t="str">
         <f t="shared" si="52"/>
@@ -23600,7 +23630,7 @@
     </row>
     <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B765" t="str">
         <f t="shared" si="52"/>
@@ -23611,7 +23641,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueexportInvitationRequests</v>
       </c>
       <c r="D765" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E765" t="s">
         <v>15</v>
@@ -23631,7 +23661,7 @@
     </row>
     <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B766" t="str">
         <f t="shared" si="52"/>
@@ -23642,7 +23672,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueinvitationRequests</v>
       </c>
       <c r="D766" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E766" t="s">
         <v>268</v>
@@ -23662,7 +23692,7 @@
     </row>
     <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B767" t="str">
         <f t="shared" si="52"/>
@@ -23673,7 +23703,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueignore</v>
       </c>
       <c r="D767" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E767" t="s">
         <v>15</v>
@@ -23693,7 +23723,7 @@
     </row>
     <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B768" t="str">
         <f t="shared" si="52"/>
@@ -23724,7 +23754,7 @@
     </row>
     <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B769" t="str">
         <f t="shared" si="52"/>
@@ -23755,7 +23785,7 @@
     </row>
     <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B770" t="str">
         <f t="shared" si="52"/>
@@ -23766,7 +23796,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vueexportInvitations</v>
       </c>
       <c r="D770" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E770" t="s">
         <v>15</v>
@@ -23786,7 +23816,7 @@
     </row>
     <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B771" t="str">
         <f t="shared" si="52"/>
@@ -23797,7 +23827,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vuedeleteExpiredInvitations</v>
       </c>
       <c r="D771" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E771" t="s">
         <v>15</v>
@@ -23817,7 +23847,7 @@
     </row>
     <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B772" t="str">
         <f t="shared" si="52"/>
@@ -23849,7 +23879,7 @@
     </row>
     <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B773" t="str">
         <f t="shared" si="52"/>
@@ -23880,7 +23910,7 @@
     </row>
     <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B774" t="str">
         <f t="shared" si="52"/>
@@ -23911,7 +23941,7 @@
     </row>
     <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B775" t="str">
         <f t="shared" si="52"/>
@@ -23922,7 +23952,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Invitations.vuedelete_invitation</v>
       </c>
       <c r="D775" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E775" t="s">
         <v>15</v>
@@ -23942,7 +23972,7 @@
     </row>
     <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B776" t="str">
         <f t="shared" si="52"/>
@@ -23953,7 +23983,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuegetLocations</v>
       </c>
       <c r="D776" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E776" t="s">
         <v>216</v>
@@ -23973,7 +24003,7 @@
     </row>
     <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B777" t="str">
         <f t="shared" si="52"/>
@@ -23984,7 +24014,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuelocationTypeFilter</v>
       </c>
       <c r="D777" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E777" t="s">
         <v>87</v>
@@ -24004,7 +24034,7 @@
     </row>
     <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B778" t="str">
         <f t="shared" si="52"/>
@@ -24015,7 +24045,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuecreate_location</v>
       </c>
       <c r="D778" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E778" t="s">
         <v>15</v>
@@ -24035,7 +24065,7 @@
     </row>
     <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B779" t="str">
         <f t="shared" si="52"/>
@@ -24046,7 +24076,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Layers.vuelocations</v>
       </c>
       <c r="D779" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E779" t="s">
         <v>268</v>
@@ -24066,7 +24096,7 @@
     </row>
     <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B780" t="str">
         <f t="shared" si="52"/>
@@ -24097,7 +24127,7 @@
     </row>
     <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B781" t="str">
         <f t="shared" si="52"/>
@@ -24108,7 +24138,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vueshowInvite</v>
       </c>
       <c r="D781" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E781" t="s">
         <v>98</v>
@@ -24128,7 +24158,7 @@
     </row>
     <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B782" t="str">
         <f t="shared" si="52"/>
@@ -24139,7 +24169,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\InviteUsers.vueusersToInvite</v>
       </c>
       <c r="D782" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E782" t="s">
         <v>68</v>
@@ -24159,7 +24189,7 @@
     </row>
     <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B783" t="str">
         <f t="shared" si="52"/>
@@ -24190,7 +24220,7 @@
     </row>
     <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B784" t="str">
         <f t="shared" si="52"/>
@@ -24221,7 +24251,7 @@
     </row>
     <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B785" t="str">
         <f t="shared" si="52"/>
@@ -24252,7 +24282,7 @@
     </row>
     <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B786" t="str">
         <f t="shared" si="52"/>
@@ -24283,7 +24313,7 @@
     </row>
     <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B787" t="str">
         <f t="shared" si="52"/>
@@ -24314,7 +24344,7 @@
     </row>
     <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B788" t="str">
         <f t="shared" si="52"/>
@@ -24345,7 +24375,7 @@
     </row>
     <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B789" t="str">
         <f t="shared" si="52"/>
@@ -24376,7 +24406,7 @@
     </row>
     <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B790" t="str">
         <f t="shared" si="52"/>
@@ -24407,7 +24437,7 @@
     </row>
     <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B791" t="str">
         <f t="shared" si="52"/>
@@ -24438,7 +24468,7 @@
     </row>
     <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B792" t="str">
         <f t="shared" si="52"/>
@@ -24469,7 +24499,7 @@
     </row>
     <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B793" t="str">
         <f t="shared" si="52"/>
@@ -24500,7 +24530,7 @@
     </row>
     <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B794" t="str">
         <f t="shared" si="52"/>
@@ -24531,7 +24561,7 @@
     </row>
     <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B795" t="str">
         <f t="shared" si="52"/>
@@ -24562,7 +24592,7 @@
     </row>
     <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B796" t="str">
         <f t="shared" si="52"/>
@@ -24593,7 +24623,7 @@
     </row>
     <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B797" t="str">
         <f t="shared" si="52"/>
@@ -24624,7 +24654,7 @@
     </row>
     <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B798" t="str">
         <f t="shared" si="52"/>
@@ -24655,7 +24685,7 @@
     </row>
     <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B799" t="str">
         <f t="shared" si="52"/>
@@ -24687,7 +24717,7 @@
     </row>
     <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B800" t="str">
         <f t="shared" si="52"/>
@@ -24718,7 +24748,7 @@
     </row>
     <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B801" t="str">
         <f t="shared" si="52"/>
@@ -24729,7 +24759,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_primary_contacts</v>
       </c>
       <c r="D801" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E801" t="s">
         <v>216</v>
@@ -24749,7 +24779,7 @@
     </row>
     <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B802" t="str">
         <f t="shared" si="52"/>
@@ -24780,7 +24810,7 @@
     </row>
     <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B803" t="str">
         <f t="shared" si="52"/>
@@ -24811,7 +24841,7 @@
     </row>
     <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B804" t="str">
         <f t="shared" si="52"/>
@@ -24822,7 +24852,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuedonation_url</v>
       </c>
       <c r="D804" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E804" t="s">
         <v>68</v>
@@ -24842,7 +24872,7 @@
     </row>
     <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B805" t="str">
         <f t="shared" si="52"/>
@@ -24853,7 +24883,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecapabilitiesMatrix</v>
       </c>
       <c r="D805" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E805" t="s">
         <v>307</v>
@@ -24873,7 +24903,7 @@
     </row>
     <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B806" t="str">
         <f t="shared" si="52"/>
@@ -24884,7 +24914,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecurrent_incidents</v>
       </c>
       <c r="D806" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E806" t="s">
         <v>92</v>
@@ -24904,7 +24934,7 @@
     </row>
     <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B807" t="str">
         <f t="shared" si="52"/>
@@ -24935,7 +24965,7 @@
     </row>
     <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B808" t="str">
         <f t="shared" si="52"/>
@@ -24946,7 +24976,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuepending_incidents</v>
       </c>
       <c r="D808" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E808" t="s">
         <v>69</v>
@@ -24966,7 +24996,7 @@
     </row>
     <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B809" t="str">
         <f t="shared" si="52"/>
@@ -24977,7 +25007,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueedit_primary_location</v>
       </c>
       <c r="D809" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E809" t="s">
         <v>15</v>
@@ -24997,7 +25027,7 @@
     </row>
     <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B810" t="str">
         <f t="shared" si="52"/>
@@ -25008,7 +25038,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_primary_location</v>
       </c>
       <c r="D810" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E810" t="s">
         <v>15</v>
@@ -25028,7 +25058,7 @@
     </row>
     <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B811" t="str">
         <f t="shared" si="52"/>
@@ -25039,7 +25069,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecontact_help_change_response</v>
       </c>
       <c r="D811" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E811" t="s">
         <v>15</v>
@@ -25059,7 +25089,7 @@
     </row>
     <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B812" t="str">
         <f t="shared" si="52"/>
@@ -25070,7 +25100,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueedit_secondary_location</v>
       </c>
       <c r="D812" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E812" t="s">
         <v>15</v>
@@ -25090,7 +25120,7 @@
     </row>
     <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B813" t="str">
         <f t="shared" si="52"/>
@@ -25101,7 +25131,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_secondary_location</v>
       </c>
       <c r="D813" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E813" t="s">
         <v>15</v>
@@ -25121,7 +25151,7 @@
     </row>
     <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B814" t="str">
         <f t="shared" si="52"/>
@@ -25132,7 +25162,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecontact_help_change_response2</v>
       </c>
       <c r="D814" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E814" t="s">
         <v>15</v>
@@ -25152,7 +25182,7 @@
     </row>
     <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B815" t="str">
         <f t="shared" si="52"/>
@@ -25163,7 +25193,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueselect_location</v>
       </c>
       <c r="D815" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E815" t="s">
         <v>98</v>
@@ -25183,7 +25213,7 @@
     </row>
     <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B816" t="str">
         <f t="shared" si="52"/>
@@ -25214,7 +25244,7 @@
     </row>
     <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B817" t="str">
         <f t="shared" si="52"/>
@@ -25225,10 +25255,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecustom_ops_message</v>
       </c>
       <c r="D817" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E817" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F817" t="str">
         <f t="shared" si="55"/>
@@ -25245,7 +25275,7 @@
     </row>
     <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B818" t="str">
         <f t="shared" si="52"/>
@@ -25256,7 +25286,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_custom_tos</v>
       </c>
       <c r="D818" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E818" t="s">
         <v>68</v>
@@ -25276,7 +25306,7 @@
     </row>
     <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B819" t="str">
         <f t="shared" si="52"/>
@@ -25307,7 +25337,7 @@
     </row>
     <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B820" t="str">
         <f t="shared" si="52"/>
@@ -25318,7 +25348,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueterms_of_service</v>
       </c>
       <c r="D820" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E820" t="s">
         <v>3</v>
@@ -25338,7 +25368,7 @@
     </row>
     <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B821" t="str">
         <f t="shared" si="52"/>
@@ -25349,10 +25379,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecustom_legal_tos</v>
       </c>
       <c r="D821" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E821" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F821" t="str">
         <f t="shared" si="55"/>
@@ -25369,7 +25399,7 @@
     </row>
     <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B822" t="str">
         <f t="shared" ref="B822:B885" si="57">IF(A822="","",MID(A822,FIND("@",SUBSTITUTE(A822,"\","@",LEN(A822)-LEN(SUBSTITUTE(A822,"\",""))))+1,LEN(A822)))</f>
@@ -25380,7 +25410,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_custom_liability</v>
       </c>
       <c r="D822" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E822" t="s">
         <v>307</v>
@@ -25400,7 +25430,7 @@
     </row>
     <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B823" t="str">
         <f t="shared" si="57"/>
@@ -25411,7 +25441,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuedelete_liability_waiver</v>
       </c>
       <c r="D823" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E823" t="s">
         <v>15</v>
@@ -25431,7 +25461,7 @@
     </row>
     <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B824" t="str">
         <f t="shared" si="57"/>
@@ -25442,7 +25472,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueliability_waiver</v>
       </c>
       <c r="D824" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E824" t="s">
         <v>3</v>
@@ -25462,7 +25492,7 @@
     </row>
     <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B825" t="str">
         <f t="shared" si="57"/>
@@ -25473,7 +25503,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vuecustom_survivor_waiver</v>
       </c>
       <c r="D825" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E825" t="s">
         <v>15</v>
@@ -25493,7 +25523,7 @@
     </row>
     <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B826" t="str">
         <f t="shared" si="57"/>
@@ -25504,10 +25534,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_survivor_waiver_text</v>
       </c>
       <c r="D826" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E826" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F826" t="str">
         <f t="shared" si="55"/>
@@ -25524,7 +25554,7 @@
     </row>
     <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B827" t="str">
         <f t="shared" si="57"/>
@@ -25535,7 +25565,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueorganization_logo2</v>
       </c>
       <c r="D827" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E827" t="s">
         <v>3</v>
@@ -25555,7 +25585,7 @@
     </row>
     <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B828" t="str">
         <f t="shared" si="57"/>
@@ -25566,7 +25596,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Profile.vueadd_terms</v>
       </c>
       <c r="D828" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E828" t="s">
         <v>15</v>
@@ -25586,7 +25616,7 @@
     </row>
     <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B829" t="str">
         <f t="shared" si="57"/>
@@ -25597,7 +25627,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Index.vuemyOrganizationDashboard</v>
       </c>
       <c r="D829" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E829" t="s">
         <v>69</v>
@@ -25617,7 +25647,7 @@
     </row>
     <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B830" t="str">
         <f t="shared" si="57"/>
@@ -25628,7 +25658,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Index.vuemyOrganizationNav</v>
       </c>
       <c r="D830" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E830" t="s">
         <v>91</v>
@@ -25648,7 +25678,7 @@
     </row>
     <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B831" t="str">
         <f t="shared" si="57"/>
@@ -25680,7 +25710,7 @@
     </row>
     <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B832" t="str">
         <f t="shared" si="57"/>
@@ -25711,7 +25741,7 @@
     </row>
     <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B833" t="str">
         <f t="shared" si="57"/>
@@ -25722,7 +25752,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuedelete_team</v>
       </c>
       <c r="D833" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E833" t="s">
         <v>93</v>
@@ -25742,7 +25772,7 @@
     </row>
     <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B834" t="str">
         <f t="shared" si="57"/>
@@ -25753,7 +25783,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuerename_team</v>
       </c>
       <c r="D834" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E834" t="s">
         <v>93</v>
@@ -25773,7 +25803,7 @@
     </row>
     <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B835" t="str">
         <f t="shared" si="57"/>
@@ -25784,7 +25814,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueadd_members</v>
       </c>
       <c r="D835" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E835" t="s">
         <v>15</v>
@@ -25804,7 +25834,7 @@
     </row>
     <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B836" t="str">
         <f t="shared" si="57"/>
@@ -25815,7 +25845,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueremove_from_team</v>
       </c>
       <c r="D836" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E836" t="s">
         <v>15</v>
@@ -25835,7 +25865,7 @@
     </row>
     <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B837" t="str">
         <f t="shared" si="57"/>
@@ -25846,7 +25876,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueallTeamUsers</v>
       </c>
       <c r="D837" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E837" t="s">
         <v>268</v>
@@ -25866,7 +25896,7 @@
     </row>
     <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B838" t="str">
         <f t="shared" si="57"/>
@@ -25897,7 +25927,7 @@
     </row>
     <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B839" t="str">
         <f t="shared" si="57"/>
@@ -25929,7 +25959,7 @@
     </row>
     <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B840" t="str">
         <f t="shared" si="57"/>
@@ -25940,7 +25970,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueenvelope</v>
       </c>
       <c r="D840" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E840" t="s">
         <v>93</v>
@@ -25960,7 +25990,7 @@
     </row>
     <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B841" t="str">
         <f t="shared" si="57"/>
@@ -25991,7 +26021,7 @@
     </row>
     <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B842" t="str">
         <f t="shared" si="57"/>
@@ -26002,7 +26032,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueteams.settings</v>
       </c>
       <c r="D842" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E842" t="s">
         <v>93</v>
@@ -26022,7 +26052,7 @@
     </row>
     <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B843" t="str">
         <f t="shared" si="57"/>
@@ -26033,7 +26063,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueteams_emails</v>
       </c>
       <c r="D843" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E843" t="s">
         <v>69</v>
@@ -26053,7 +26083,7 @@
     </row>
     <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B844" t="str">
         <f t="shared" si="57"/>
@@ -26064,7 +26094,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuemove_to_another_team</v>
       </c>
       <c r="D844" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E844" t="s">
         <v>91</v>
@@ -26084,7 +26114,7 @@
     </row>
     <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B845" t="str">
         <f t="shared" si="57"/>
@@ -26095,7 +26125,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueeditUserProfile</v>
       </c>
       <c r="D845" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E845" t="s">
         <v>91</v>
@@ -26115,7 +26145,7 @@
     </row>
     <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B846" t="str">
         <f t="shared" si="57"/>
@@ -26126,7 +26156,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuesendUserEmail</v>
       </c>
       <c r="D846" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E846" t="s">
         <v>91</v>
@@ -26146,7 +26176,7 @@
     </row>
     <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B847" t="str">
         <f t="shared" si="57"/>
@@ -26157,7 +26187,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueremove_from_team</v>
       </c>
       <c r="D847" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E847" t="s">
         <v>91</v>
@@ -26177,7 +26207,7 @@
     </row>
     <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B848" t="str">
         <f t="shared" si="57"/>
@@ -26188,7 +26218,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueassigned_claimed_cases_plus</v>
       </c>
       <c r="D848" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E848" t="s">
         <v>15</v>
@@ -26208,7 +26238,7 @@
     </row>
     <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B849" t="str">
         <f t="shared" si="57"/>
@@ -26219,7 +26249,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueremove_from_team2</v>
       </c>
       <c r="D849" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E849" t="s">
         <v>15</v>
@@ -26239,7 +26269,7 @@
     </row>
     <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B850" t="str">
         <f t="shared" si="57"/>
@@ -26250,7 +26280,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuemap_view</v>
       </c>
       <c r="D850" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E850" t="s">
         <v>93</v>
@@ -26270,7 +26300,7 @@
     </row>
     <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B851" t="str">
         <f t="shared" si="57"/>
@@ -26281,7 +26311,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuetable_view</v>
       </c>
       <c r="D851" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E851" t="s">
         <v>93</v>
@@ -26301,7 +26331,7 @@
     </row>
     <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B852" t="str">
         <f t="shared" si="57"/>
@@ -26312,7 +26342,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueworksite</v>
       </c>
       <c r="D852" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E852" t="s">
         <v>268</v>
@@ -26332,7 +26362,7 @@
     </row>
     <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B853" t="str">
         <f t="shared" si="57"/>
@@ -26343,7 +26373,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueworksite_details</v>
       </c>
       <c r="D853" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E853" t="s">
         <v>69</v>
@@ -26363,7 +26393,7 @@
     </row>
     <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B854" t="str">
         <f t="shared" si="57"/>
@@ -26374,7 +26404,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueworkTypeStatus</v>
       </c>
       <c r="D854" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E854" t="s">
         <v>87</v>
@@ -26394,7 +26424,7 @@
     </row>
     <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B855" t="str">
         <f t="shared" si="57"/>
@@ -26425,7 +26455,7 @@
     </row>
     <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B856" t="str">
         <f t="shared" si="57"/>
@@ -26436,7 +26466,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueteams.settings2</v>
       </c>
       <c r="D856" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E856" t="s">
         <v>93</v>
@@ -26456,7 +26486,7 @@
     </row>
     <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B857" t="str">
         <f t="shared" si="57"/>
@@ -26467,7 +26497,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueremove_from_team3</v>
       </c>
       <c r="D857" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E857" t="s">
         <v>15</v>
@@ -26487,7 +26517,7 @@
     </row>
     <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B858" t="str">
         <f t="shared" si="57"/>
@@ -26498,7 +26528,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuemap_view2</v>
       </c>
       <c r="D858" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E858" t="s">
         <v>92</v>
@@ -26518,7 +26548,7 @@
     </row>
     <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B859" t="str">
         <f t="shared" si="57"/>
@@ -26529,7 +26559,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueteams.notes</v>
       </c>
       <c r="D859" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E859" t="s">
         <v>68</v>
@@ -26549,7 +26579,7 @@
     </row>
     <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B860" t="str">
         <f t="shared" si="57"/>
@@ -26560,7 +26590,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuemembers</v>
       </c>
       <c r="D860" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E860" t="s">
         <v>98</v>
@@ -26580,7 +26610,7 @@
     </row>
     <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B861" t="str">
         <f t="shared" si="57"/>
@@ -26591,7 +26621,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuechoose_members</v>
       </c>
       <c r="D861" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E861" t="s">
         <v>216</v>
@@ -26611,7 +26641,7 @@
     </row>
     <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B862" t="str">
         <f t="shared" si="57"/>
@@ -26622,7 +26652,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueuser_results</v>
       </c>
       <c r="D862" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E862" t="s">
         <v>69</v>
@@ -26642,7 +26672,7 @@
     </row>
     <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B863" t="str">
         <f t="shared" si="57"/>
@@ -26653,7 +26683,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueselect_user</v>
       </c>
       <c r="D863" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E863" t="s">
         <v>66</v>
@@ -26673,7 +26703,7 @@
     </row>
     <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B864" t="str">
         <f t="shared" si="57"/>
@@ -26704,7 +26734,7 @@
     </row>
     <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B865" t="str">
         <f t="shared" si="57"/>
@@ -26715,7 +26745,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueadd</v>
       </c>
       <c r="D865" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E865" t="s">
         <v>15</v>
@@ -26735,7 +26765,7 @@
     </row>
     <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B866" t="str">
         <f t="shared" si="57"/>
@@ -26746,7 +26776,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueAddCases</v>
       </c>
       <c r="D866" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E866" t="s">
         <v>98</v>
@@ -26766,7 +26796,7 @@
     </row>
     <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B867" t="str">
         <f t="shared" si="57"/>
@@ -26777,7 +26807,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuework_type_map</v>
       </c>
       <c r="D867" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E867" t="s">
         <v>69</v>
@@ -26797,7 +26827,7 @@
     </row>
     <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B868" t="str">
         <f t="shared" si="57"/>
@@ -26828,7 +26858,7 @@
     </row>
     <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B869" t="str">
         <f t="shared" si="57"/>
@@ -26839,7 +26869,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueassignable_worksite_detail</v>
       </c>
       <c r="D869" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E869" t="s">
         <v>69</v>
@@ -26859,7 +26889,7 @@
     </row>
     <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B870" t="str">
         <f t="shared" si="57"/>
@@ -26870,7 +26900,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueassignable_worksite</v>
       </c>
       <c r="D870" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E870" t="s">
         <v>66</v>
@@ -26890,7 +26920,7 @@
     </row>
     <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B871" t="str">
         <f t="shared" si="57"/>
@@ -26901,7 +26931,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuework_type_list</v>
       </c>
       <c r="D871" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E871" t="s">
         <v>69</v>
@@ -26921,7 +26951,7 @@
     </row>
     <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B872" t="str">
         <f t="shared" si="57"/>
@@ -26932,7 +26962,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuework_type_dropdown</v>
       </c>
       <c r="D872" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E872" t="s">
         <v>87</v>
@@ -26952,7 +26982,7 @@
     </row>
     <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B873" t="str">
         <f t="shared" si="57"/>
@@ -26963,7 +26993,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuecancel2</v>
       </c>
       <c r="D873" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E873" t="s">
         <v>15</v>
@@ -26983,7 +27013,7 @@
     </row>
     <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B874" t="str">
         <f t="shared" si="57"/>
@@ -26994,7 +27024,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueaddCases2</v>
       </c>
       <c r="D874" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E874" t="s">
         <v>15</v>
@@ -27014,7 +27044,7 @@
     </row>
     <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B875" t="str">
         <f t="shared" si="57"/>
@@ -27025,7 +27055,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vuerename_team2</v>
       </c>
       <c r="D875" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E875" t="s">
         <v>98</v>
@@ -27045,7 +27075,7 @@
     </row>
     <row r="876" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B876" t="str">
         <f t="shared" si="57"/>
@@ -27056,7 +27086,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\TeamDetail.vueteams.name</v>
       </c>
       <c r="D876" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E876" t="s">
         <v>68</v>
@@ -27076,7 +27106,7 @@
     </row>
     <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B877" t="str">
         <f t="shared" si="57"/>
@@ -27087,7 +27117,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserEditModal.vueuser_edit</v>
       </c>
       <c r="D877" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E877" t="s">
         <v>98</v>
@@ -27107,7 +27137,7 @@
     </row>
     <row r="878" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B878" t="str">
         <f t="shared" si="57"/>
@@ -27118,7 +27148,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserEditModal.vueprofile_picture</v>
       </c>
       <c r="D878" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E878" t="s">
         <v>93</v>
@@ -27138,7 +27168,7 @@
     </row>
     <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B879" t="str">
         <f t="shared" si="57"/>
@@ -27169,7 +27199,7 @@
     </row>
     <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B880" t="str">
         <f t="shared" si="57"/>
@@ -27200,7 +27230,7 @@
     </row>
     <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B881" t="str">
         <f t="shared" si="57"/>
@@ -27231,7 +27261,7 @@
     </row>
     <row r="882" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B882" t="str">
         <f t="shared" si="57"/>
@@ -27262,7 +27292,7 @@
     </row>
     <row r="883" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B883" t="str">
         <f t="shared" si="57"/>
@@ -27293,7 +27323,7 @@
     </row>
     <row r="884" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B884" t="str">
         <f t="shared" si="57"/>
@@ -27322,9 +27352,9 @@
         <v>:data-testid="`testSave${}Button`"</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B885" t="str">
         <f t="shared" si="57"/>
@@ -27335,7 +27365,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser</v>
       </c>
       <c r="D885" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E885" t="s">
         <v>216</v>
@@ -27353,9 +27383,9 @@
         <v>:data-testid="`testUser${}Search`"</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B886" t="str">
         <f t="shared" ref="B886:B949" si="62">IF(A886="","",MID(A886,FIND("@",SUBSTITUTE(A886,"\","@",LEN(A886)-LEN(SUBSTITUTE(A886,"\",""))))+1,LEN(A886)))</f>
@@ -27366,7 +27396,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_filters</v>
       </c>
       <c r="D886" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E886" t="s">
         <v>69</v>
@@ -27384,9 +27414,9 @@
         <v>:data-testid="`testUserFilters${}Div`"</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B887" t="str">
         <f t="shared" si="62"/>
@@ -27397,7 +27427,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vuefilter_role</v>
       </c>
       <c r="D887" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E887" t="s">
         <v>69</v>
@@ -27415,9 +27445,9 @@
         <v>:data-testid="`testFilterRole${}Div`"</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B888" t="str">
         <f t="shared" si="62"/>
@@ -27428,7 +27458,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vuefilter_invited_by</v>
       </c>
       <c r="D888" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E888" t="s">
         <v>69</v>
@@ -27446,9 +27476,9 @@
         <v>:data-testid="`testFilterInvitedBy${}Div`"</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B889" t="str">
         <f t="shared" si="62"/>
@@ -27459,7 +27489,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_role</v>
       </c>
       <c r="D889" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E889" t="s">
         <v>66</v>
@@ -27477,9 +27507,9 @@
         <v>:data-testid="`testUserRole${}Checkbox`"</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B890" t="str">
         <f t="shared" si="62"/>
@@ -27509,9 +27539,9 @@
         <v>:data-testid="`test:SeveralCalculated${}`"</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B891" t="str">
         <f t="shared" si="62"/>
@@ -27522,7 +27552,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_invited_by</v>
       </c>
       <c r="D891" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E891" t="s">
         <v>216</v>
@@ -27540,9 +27570,9 @@
         <v>:data-testid="`testUserInvitedBy${}Search`"</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B892" t="str">
         <f t="shared" si="62"/>
@@ -27553,7 +27583,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_invited_by_results</v>
       </c>
       <c r="D892" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E892" t="s">
         <v>69</v>
@@ -27571,360 +27601,393 @@
         <v>:data-testid="`testUserInvitedByResults${}Div`"</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>743</v>
+        <v>850</v>
       </c>
       <c r="B893" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>Users.vue</v>
       </c>
       <c r="C893" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E893" t="str">
-        <f>IF(COUNTIF(C$2:C892,C893)&gt;0,"Button","")</f>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser</v>
+      </c>
+      <c r="D893" t="s">
+        <v>851</v>
+      </c>
+      <c r="E893" t="s">
+        <v>268</v>
       </c>
       <c r="F893" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserTable</v>
       </c>
       <c r="G893" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserTable"</v>
       </c>
       <c r="H893" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-    </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUser${}Table`"</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>743</v>
+        <v>850</v>
       </c>
       <c r="B894" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>Users.vue</v>
       </c>
       <c r="C894" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E894" t="str">
-        <f>IF(COUNTIF(C$2:C893,C894)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_profile_picture</v>
+      </c>
+      <c r="D894" t="s">
+        <v>858</v>
+      </c>
+      <c r="E894" t="s">
+        <v>93</v>
       </c>
       <c r="F894" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserProfilePictureIcon</v>
       </c>
       <c r="G894" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserProfilePictureIcon"</v>
       </c>
       <c r="H894" t="str">
         <f t="shared" ref="H894:H957" si="63">IF(D894="","",":data-testid=""`"&amp;SUBSTITUTE(F894,E894,"")&amp;"${}"&amp;E894&amp;"`""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserProfilePicture${}Icon`"</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>743</v>
+        <v>850</v>
       </c>
       <c r="B895" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>Users.vue</v>
       </c>
       <c r="C895" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E895" t="str">
-        <f>IF(COUNTIF(C$2:C894,C895)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_email</v>
+      </c>
+      <c r="D895" t="s">
+        <v>859</v>
+      </c>
+      <c r="E895" t="s">
+        <v>69</v>
       </c>
       <c r="F895" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserEmailDiv</v>
       </c>
       <c r="G895" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserEmailDiv"</v>
       </c>
       <c r="H895" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserEmail${}Div`"</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>743</v>
+        <v>850</v>
       </c>
       <c r="B896" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>Users.vue</v>
       </c>
       <c r="C896" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E896" t="str">
-        <f>IF(COUNTIF(C$2:C895,C896)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_chat</v>
+      </c>
+      <c r="D896" t="s">
+        <v>860</v>
+      </c>
+      <c r="E896" t="s">
+        <v>93</v>
       </c>
       <c r="F896" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserChatIcon</v>
       </c>
       <c r="G896" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserChatIcon"</v>
       </c>
       <c r="H896" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserChat${}Icon`"</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>743</v>
+        <v>850</v>
       </c>
       <c r="B897" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>Users.vue</v>
       </c>
       <c r="C897" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E897" t="str">
-        <f>IF(COUNTIF(C$2:C896,C897)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\Users.vueuser_call</v>
+      </c>
+      <c r="D897" t="s">
+        <v>861</v>
+      </c>
+      <c r="E897" t="s">
+        <v>93</v>
       </c>
       <c r="F897" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserCallIcon</v>
       </c>
       <c r="G897" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserCallIcon"</v>
       </c>
       <c r="H897" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserCall${}Icon`"</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
       <c r="B898" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C898" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E898" t="str">
-        <f>IF(COUNTIF(C$2:C897,C898)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueuser_view</v>
+      </c>
+      <c r="D898" t="s">
+        <v>863</v>
+      </c>
+      <c r="E898" t="s">
+        <v>69</v>
       </c>
       <c r="F898" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserViewDiv</v>
       </c>
       <c r="G898" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserViewDiv"</v>
       </c>
       <c r="H898" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserView${}Div`"</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
       <c r="B899" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C899" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E899" t="str">
-        <f>IF(COUNTIF(C$2:C898,C899)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueedit</v>
+      </c>
+      <c r="D899" t="s">
+        <v>371</v>
+      </c>
+      <c r="E899" t="s">
+        <v>93</v>
       </c>
       <c r="F899" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testEditIcon</v>
       </c>
       <c r="G899" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testEditIcon"</v>
       </c>
       <c r="H899" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testEdit${}Icon`"</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
       <c r="B900" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C900" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E900" t="str">
-        <f>IF(COUNTIF(C$2:C899,C900)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueremove_user</v>
+      </c>
+      <c r="D900" t="s">
+        <v>864</v>
+      </c>
+      <c r="E900" t="s">
+        <v>93</v>
       </c>
       <c r="F900" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testRemoveUserIcon</v>
       </c>
       <c r="G900" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testRemoveUserIcon"</v>
       </c>
       <c r="H900" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testRemoveUser${}Icon`"</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
       <c r="B901" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C901" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E901" t="str">
-        <f>IF(COUNTIF(C$2:C900,C901)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueprofile_picture</v>
+      </c>
+      <c r="D901" t="s">
+        <v>849</v>
+      </c>
+      <c r="E901" t="s">
+        <v>93</v>
       </c>
       <c r="F901" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testProfilePictureIcon</v>
       </c>
       <c r="G901" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testProfilePictureIcon"</v>
       </c>
       <c r="H901" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testProfilePicture${}Icon`"</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>743</v>
+        <v>862</v>
       </c>
       <c r="B902" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C902" t="str">
         <f t="shared" si="59"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\</v>
-      </c>
-      <c r="E902" t="str">
-        <f>IF(COUNTIF(C$2:C901,C902)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueuser_details</v>
+      </c>
+      <c r="D902" t="s">
+        <v>865</v>
+      </c>
+      <c r="E902" t="s">
+        <v>69</v>
       </c>
       <c r="F902" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserDetailsDiv</v>
       </c>
       <c r="G902" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserDetailsDiv"</v>
       </c>
       <c r="H902" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserDetails${}Div`"</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>862</v>
+      </c>
       <c r="B903" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C903" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="E903" t="str">
-        <f>IF(COUNTIF(C$2:C902,C903)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueuser_roles</v>
+      </c>
+      <c r="D903" t="s">
+        <v>866</v>
+      </c>
+      <c r="E903" t="s">
+        <v>87</v>
       </c>
       <c r="F903" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserRolesSelect</v>
       </c>
       <c r="G903" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserRolesSelect"</v>
       </c>
       <c r="H903" t="str">
         <f t="shared" si="63"/>
-        <v/>
-      </c>
-    </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserRoles${}Select`"</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>862</v>
+      </c>
       <c r="B904" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>UserView.vue</v>
       </c>
       <c r="C904" t="str">
         <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="E904" t="str">
-        <f>IF(COUNTIF(C$2:C903,C904)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\organization\UserView.vueuser_edit</v>
+      </c>
+      <c r="D904" t="s">
+        <v>848</v>
+      </c>
+      <c r="E904" t="s">
+        <v>98</v>
       </c>
       <c r="F904" t="str">
         <f t="shared" si="60"/>
-        <v/>
+        <v>testUserEditModal</v>
       </c>
       <c r="G904" t="str">
         <f t="shared" si="61"/>
-        <v/>
+        <v>data-testid="testUserEditModal"</v>
       </c>
       <c r="H904" t="str">
         <f t="shared" si="63"/>
-        <v/>
+        <v>:data-testid="`testUserEdit${}Modal`"</v>
       </c>
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>868</v>
+      </c>
       <c r="B905" t="str">
         <f t="shared" si="62"/>
-        <v/>
+        <v>PhoneSystem.vue</v>
       </c>
       <c r="C905" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\PhoneSystem.vue</v>
       </c>
       <c r="E905" t="str">
         <f>IF(COUNTIF(C$2:C904,C905)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F905" t="str">
         <f t="shared" si="60"/>
@@ -27940,17 +28003,20 @@
       </c>
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>867</v>
+      </c>
       <c r="B906" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C906" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E906" t="str">
         <f>IF(COUNTIF(C$2:C905,C906)&gt;0,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F906" t="str">
         <f t="shared" si="60"/>
@@ -27966,13 +28032,16 @@
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>867</v>
+      </c>
       <c r="B907" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C907" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E907" t="str">
         <f>IF(COUNTIF(C$2:C906,C907)&gt;0,"Button","")</f>
@@ -27992,13 +28061,16 @@
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>867</v>
+      </c>
       <c r="B908" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C908" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E908" t="str">
         <f>IF(COUNTIF(C$2:C907,C908)&gt;0,"Button","")</f>
@@ -28018,13 +28090,16 @@
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>867</v>
+      </c>
       <c r="B909" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C909" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E909" t="str">
         <f>IF(COUNTIF(C$2:C908,C909)&gt;0,"Button","")</f>
@@ -28044,13 +28119,16 @@
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>867</v>
+      </c>
       <c r="B910" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C910" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E910" t="str">
         <f>IF(COUNTIF(C$2:C909,C910)&gt;0,"Button","")</f>
@@ -28070,13 +28148,16 @@
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>867</v>
+      </c>
       <c r="B911" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C911" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E911" t="str">
         <f>IF(COUNTIF(C$2:C910,C911)&gt;0,"Button","")</f>
@@ -28096,13 +28177,16 @@
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>867</v>
+      </c>
       <c r="B912" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C912" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E912" t="str">
         <f>IF(COUNTIF(C$2:C911,C912)&gt;0,"Button","")</f>
@@ -28121,14 +28205,17 @@
         <v/>
       </c>
     </row>
-    <row r="913" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>867</v>
+      </c>
       <c r="B913" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C913" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E913" t="str">
         <f>IF(COUNTIF(C$2:C912,C913)&gt;0,"Button","")</f>
@@ -28147,14 +28234,17 @@
         <v/>
       </c>
     </row>
-    <row r="914" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>867</v>
+      </c>
       <c r="B914" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="C914" t="str">
         <f t="shared" si="59"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\phone\</v>
       </c>
       <c r="E914" t="str">
         <f>IF(COUNTIF(C$2:C913,C914)&gt;0,"Button","")</f>
@@ -28173,7 +28263,7 @@
         <v/>
       </c>
     </row>
-    <row r="915" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B915" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28199,7 +28289,7 @@
         <v/>
       </c>
     </row>
-    <row r="916" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B916" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28225,7 +28315,7 @@
         <v/>
       </c>
     </row>
-    <row r="917" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B917" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28251,7 +28341,7 @@
         <v/>
       </c>
     </row>
-    <row r="918" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B918" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28277,7 +28367,7 @@
         <v/>
       </c>
     </row>
-    <row r="919" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B919" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28303,7 +28393,7 @@
         <v/>
       </c>
     </row>
-    <row r="920" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B920" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28329,7 +28419,7 @@
         <v/>
       </c>
     </row>
-    <row r="921" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B921" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28355,7 +28445,7 @@
         <v/>
       </c>
     </row>
-    <row r="922" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B922" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28381,7 +28471,7 @@
         <v/>
       </c>
     </row>
-    <row r="923" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B923" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28407,7 +28497,7 @@
         <v/>
       </c>
     </row>
-    <row r="924" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B924" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28433,7 +28523,7 @@
         <v/>
       </c>
     </row>
-    <row r="925" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B925" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28459,7 +28549,7 @@
         <v/>
       </c>
     </row>
-    <row r="926" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B926" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28485,7 +28575,7 @@
         <v/>
       </c>
     </row>
-    <row r="927" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B927" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -28511,7 +28601,7 @@
         <v/>
       </c>
     </row>
-    <row r="928" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B928" t="str">
         <f t="shared" si="62"/>
         <v/>
@@ -30549,7 +30639,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>

--- a/test/e2e/List of data-testids.xlsx
+++ b/test/e2e/List of data-testids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\test\e2e\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4878D49D-8FA3-48CF-8ACD-51EDEAF8C62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25262B73-270B-4B24-978A-00FC07FA8D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="1215" windowWidth="24330" windowHeight="12585" xr2:uid="{51F30F27-9EA9-4B4D-86A3-E32FA30758F4}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1041">
   <si>
     <t>Output</t>
   </si>
@@ -2710,9 +2710,6 @@
     <t>worksite_form</t>
   </si>
   <si>
-    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\</t>
-  </si>
-  <si>
     <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vue</t>
   </si>
   <si>
@@ -2942,6 +2939,219 @@
   </si>
   <si>
     <t>completion_rate</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vue</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>my_claimed_cases</t>
+  </si>
+  <si>
+    <t>total_claimed</t>
+  </si>
+  <si>
+    <t>in_progress</t>
+  </si>
+  <si>
+    <t>claimedWorksites</t>
+  </si>
+  <si>
+    <t>worksite_case_number</t>
+  </si>
+  <si>
+    <t>worksite_phone</t>
+  </si>
+  <si>
+    <t>worksite_full_address</t>
+  </si>
+  <si>
+    <t>worksite_name</t>
+  </si>
+  <si>
+    <t>worksite_actions</t>
+  </si>
+  <si>
+    <t>case_transfer_requests</t>
+  </si>
+  <si>
+    <t>inbound_requests</t>
+  </si>
+  <si>
+    <t>outbound_requests</t>
+  </si>
+  <si>
+    <t>archived_requests</t>
+  </si>
+  <si>
+    <t>worksiteRequests</t>
+  </si>
+  <si>
+    <t>worksite_organization</t>
+  </si>
+  <si>
+    <t>worksite_work_type</t>
+  </si>
+  <si>
+    <t>worksite_actions_inbound</t>
+  </si>
+  <si>
+    <t>UserTransferRequest</t>
+  </si>
+  <si>
+    <t>metric_card_my_claimed_cases</t>
+  </si>
+  <si>
+    <t>metric_card_total_claimed</t>
+  </si>
+  <si>
+    <t>metric_card_in_progress</t>
+  </si>
+  <si>
+    <t>metric_card_closed</t>
+  </si>
+  <si>
+    <t>worksite_wwtsp</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\NotFound.vue</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vue</t>
+  </si>
+  <si>
+    <t>new_location</t>
+  </si>
+  <si>
+    <t>edit_location</t>
+  </si>
+  <si>
+    <t>download_as_shapefile</t>
+  </si>
+  <si>
+    <t>share_location</t>
+  </si>
+  <si>
+    <t>location_type</t>
+  </si>
+  <si>
+    <t>search_for_organization</t>
+  </si>
+  <si>
+    <t>organization_results</t>
+  </si>
+  <si>
+    <t>related_incidents</t>
+  </si>
+  <si>
+    <t>clear_location_from_organization</t>
+  </si>
+  <si>
+    <t>clear_location_from_incident</t>
+  </si>
+  <si>
+    <t>location_notes</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>organization_incidents</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>save_location</t>
+  </si>
+  <si>
+    <t>save_and_new</t>
+  </si>
+  <si>
+    <t>incident_results</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Downloads.vue</t>
+  </si>
+  <si>
+    <t>downloads</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vue</t>
+  </si>
+  <si>
+    <t>do_not_share_public</t>
+  </si>
+  <si>
+    <t>organizations.search</t>
+  </si>
+  <si>
+    <t>organizations.data</t>
+  </si>
+  <si>
+    <t>approved_roles</t>
+  </si>
+  <si>
+    <t>overdue_count</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vue</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>first_name_avatar</t>
+  </si>
+  <si>
+    <t>profile_picture_upload</t>
+  </si>
+  <si>
+    <t>change_photo</t>
+  </si>
+  <si>
+    <t>view_id_badge</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>change_password</t>
+  </si>
+  <si>
+    <t>notification_settings</t>
+  </si>
+  <si>
+    <t>has_notifications_yes</t>
+  </si>
+  <si>
+    <t>has_notifications_no</t>
+  </si>
+  <si>
+    <t>notification_settings_key</t>
+  </si>
+  <si>
+    <t>reset_user_states</t>
+  </si>
+  <si>
+    <t>reset_user_preferences</t>
+  </si>
+  <si>
+    <t>enable_worksite_caching</t>
+  </si>
+  <si>
+    <t>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Work.vue</t>
   </si>
 </sst>
 </file>
@@ -3297,7 +3507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1039" sqref="A1003:XFD1039"/>
+      <selection pane="bottomLeft" activeCell="A1139" sqref="A1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29243,7 +29453,7 @@
     </row>
     <row r="936" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B936" t="str">
         <f t="shared" si="62"/>
@@ -29254,7 +29464,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vueprint_token</v>
       </c>
       <c r="D936" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E936" t="s">
         <v>69</v>
@@ -29274,7 +29484,7 @@
     </row>
     <row r="937" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B937" t="str">
         <f t="shared" si="62"/>
@@ -29285,7 +29495,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vueccu_logo</v>
       </c>
       <c r="D937" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E937" t="s">
         <v>93</v>
@@ -29305,7 +29515,7 @@
     </row>
     <row r="938" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B938" t="str">
         <f t="shared" si="62"/>
@@ -29316,7 +29526,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vuecase_number</v>
       </c>
       <c r="D938" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E938" t="s">
         <v>69</v>
@@ -29336,7 +29546,7 @@
     </row>
     <row r="939" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B939" t="str">
         <f t="shared" si="62"/>
@@ -29367,7 +29577,7 @@
     </row>
     <row r="940" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B940" t="str">
         <f t="shared" si="62"/>
@@ -29398,7 +29608,7 @@
     </row>
     <row r="941" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B941" t="str">
         <f t="shared" si="62"/>
@@ -29429,7 +29639,7 @@
     </row>
     <row r="942" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B942" t="str">
         <f t="shared" si="62"/>
@@ -29461,7 +29671,7 @@
     </row>
     <row r="943" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B943" t="str">
         <f t="shared" si="62"/>
@@ -29472,7 +29682,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vuestatus</v>
       </c>
       <c r="D943" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E943" t="s">
         <v>92</v>
@@ -29492,7 +29702,7 @@
     </row>
     <row r="944" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B944" t="str">
         <f t="shared" si="62"/>
@@ -29503,7 +29713,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vuestatus_notes</v>
       </c>
       <c r="D944" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E944" t="s">
         <v>748</v>
@@ -29523,7 +29733,7 @@
     </row>
     <row r="945" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B945" t="str">
         <f t="shared" si="62"/>
@@ -29534,7 +29744,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vuenum_volunteers</v>
       </c>
       <c r="D945" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E945" t="s">
         <v>68</v>
@@ -29554,7 +29764,7 @@
     </row>
     <row r="946" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B946" t="str">
         <f t="shared" si="62"/>
@@ -29565,7 +29775,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vuehours_per_volunteer</v>
       </c>
       <c r="D946" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E946" t="s">
         <v>68</v>
@@ -29585,7 +29795,7 @@
     </row>
     <row r="947" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B947" t="str">
         <f t="shared" si="62"/>
@@ -29616,7 +29826,7 @@
     </row>
     <row r="948" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B948" t="str">
         <f t="shared" si="62"/>
@@ -29627,7 +29837,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PrintToken.vuephotos</v>
       </c>
       <c r="D948" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E948" t="s">
         <v>3</v>
@@ -29647,7 +29857,7 @@
     </row>
     <row r="949" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B949" t="str">
         <f t="shared" si="62"/>
@@ -29678,7 +29888,7 @@
     </row>
     <row r="950" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B950" t="str">
         <f t="shared" ref="B950:B1013" si="67">IF(A950="","",MID(A950,FIND("@",SUBSTITUTE(A950,"\","@",LEN(A950)-LEN(SUBSTITUTE(A950,"\",""))))+1,LEN(A950)))</f>
@@ -29689,7 +29899,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuereset_password</v>
       </c>
       <c r="D950" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E950" t="s">
         <v>69</v>
@@ -29709,7 +29919,7 @@
     </row>
     <row r="951" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B951" t="str">
         <f t="shared" si="67"/>
@@ -29720,7 +29930,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vueenter_new_password</v>
       </c>
       <c r="D951" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E951" t="s">
         <v>69</v>
@@ -29740,7 +29950,7 @@
     </row>
     <row r="952" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B952" t="str">
         <f t="shared" si="67"/>
@@ -29751,7 +29961,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuechecking_link</v>
       </c>
       <c r="D952" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E952" t="s">
         <v>69</v>
@@ -29771,7 +29981,7 @@
     </row>
     <row r="953" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B953" t="str">
         <f t="shared" si="67"/>
@@ -29782,7 +29992,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vueinvalid_link_try_again</v>
       </c>
       <c r="D953" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E953" t="s">
         <v>69</v>
@@ -29802,7 +30012,7 @@
     </row>
     <row r="954" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B954" t="str">
         <f t="shared" si="67"/>
@@ -29813,7 +30023,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuego_to_login</v>
       </c>
       <c r="D954" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E954" t="s">
         <v>15</v>
@@ -29833,7 +30043,7 @@
     </row>
     <row r="955" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B955" t="str">
         <f t="shared" si="67"/>
@@ -29844,7 +30054,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuepassword_reset_form</v>
       </c>
       <c r="D955" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E955" t="s">
         <v>69</v>
@@ -29864,7 +30074,7 @@
     </row>
     <row r="956" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B956" t="str">
         <f t="shared" si="67"/>
@@ -29875,7 +30085,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuenewPassword</v>
       </c>
       <c r="D956" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E956" t="s">
         <v>68</v>
@@ -29895,7 +30105,7 @@
     </row>
     <row r="957" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B957" t="str">
         <f t="shared" si="67"/>
@@ -29906,7 +30116,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuenewPasswordConfirm</v>
       </c>
       <c r="D957" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E957" t="s">
         <v>68</v>
@@ -29926,7 +30136,7 @@
     </row>
     <row r="958" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B958" t="str">
         <f t="shared" si="67"/>
@@ -29937,7 +30147,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vueresetPassword</v>
       </c>
       <c r="D958" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E958" t="s">
         <v>15</v>
@@ -29957,7 +30167,7 @@
     </row>
     <row r="959" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B959" t="str">
         <f t="shared" si="67"/>
@@ -29968,7 +30178,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuepassword_reset_success</v>
       </c>
       <c r="D959" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E959" t="s">
         <v>98</v>
@@ -29988,7 +30198,7 @@
     </row>
     <row r="960" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B960" t="str">
         <f t="shared" si="67"/>
@@ -29999,7 +30209,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuesuccess</v>
       </c>
       <c r="D960" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E960" t="s">
         <v>92</v>
@@ -30019,7 +30229,7 @@
     </row>
     <row r="961" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B961" t="str">
         <f t="shared" si="67"/>
@@ -30030,7 +30240,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\ResetPassword.vuego_to_login2</v>
       </c>
       <c r="D961" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E961" t="s">
         <v>15</v>
@@ -30050,7 +30260,7 @@
     </row>
     <row r="962" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B962" t="str">
         <f t="shared" si="67"/>
@@ -30061,7 +30271,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vueinvitationTransferForm</v>
       </c>
       <c r="D962" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E962" t="s">
         <v>69</v>
@@ -30081,7 +30291,7 @@
     </row>
     <row r="963" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B963" t="str">
         <f t="shared" si="67"/>
@@ -30092,7 +30302,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vueinviting_to_transfer_confirm</v>
       </c>
       <c r="D963" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E963" t="s">
         <v>69</v>
@@ -30112,7 +30322,7 @@
     </row>
     <row r="964" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B964" t="str">
         <f t="shared" si="67"/>
@@ -30123,7 +30333,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vuetransferOption</v>
       </c>
       <c r="D964" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E964" t="s">
         <v>87</v>
@@ -30143,7 +30353,7 @@
     </row>
     <row r="965" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B965" t="str">
         <f t="shared" si="67"/>
@@ -30154,7 +30364,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vuetransfer</v>
       </c>
       <c r="D965" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E965" t="s">
         <v>15</v>
@@ -30174,7 +30384,7 @@
     </row>
     <row r="966" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B966" t="str">
         <f t="shared" si="67"/>
@@ -30185,7 +30395,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vueuser_invited_join_ccu</v>
       </c>
       <c r="D966" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E966" t="s">
         <v>69</v>
@@ -30205,7 +30415,7 @@
     </row>
     <row r="967" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B967" t="str">
         <f t="shared" si="67"/>
@@ -30236,7 +30446,7 @@
     </row>
     <row r="968" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B968" t="str">
         <f t="shared" si="67"/>
@@ -30267,7 +30477,7 @@
     </row>
     <row r="969" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B969" t="str">
         <f t="shared" si="67"/>
@@ -30298,7 +30508,7 @@
     </row>
     <row r="970" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B970" t="str">
         <f t="shared" si="67"/>
@@ -30329,7 +30539,7 @@
     </row>
     <row r="971" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B971" t="str">
         <f t="shared" si="67"/>
@@ -30360,7 +30570,7 @@
     </row>
     <row r="972" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B972" t="str">
         <f t="shared" si="67"/>
@@ -30371,7 +30581,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vueconfirmPassword</v>
       </c>
       <c r="D972" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E972" t="s">
         <v>68</v>
@@ -30391,7 +30601,7 @@
     </row>
     <row r="973" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B973" t="str">
         <f t="shared" si="67"/>
@@ -30402,7 +30612,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\InvitationSignup.vueaccept_invite</v>
       </c>
       <c r="D973" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E973" t="s">
         <v>15</v>
@@ -30422,7 +30632,7 @@
     </row>
     <row r="974" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B974" t="str">
         <f t="shared" si="67"/>
@@ -30433,7 +30643,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuesurvivors</v>
       </c>
       <c r="D974" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E974" t="s">
         <v>69</v>
@@ -30453,7 +30663,7 @@
     </row>
     <row r="975" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B975" t="str">
         <f t="shared" si="67"/>
@@ -30464,7 +30674,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueinvalidated_token</v>
       </c>
       <c r="D975" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E975" t="s">
         <v>69</v>
@@ -30484,7 +30694,7 @@
     </row>
     <row r="976" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B976" t="str">
         <f t="shared" si="67"/>
@@ -30495,7 +30705,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueccu_logo</v>
       </c>
       <c r="D976" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E976" t="s">
         <v>93</v>
@@ -30515,7 +30725,7 @@
     </row>
     <row r="977" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B977" t="str">
         <f t="shared" si="67"/>
@@ -30526,7 +30736,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuecase_number</v>
       </c>
       <c r="D977" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E977" t="s">
         <v>69</v>
@@ -30546,7 +30756,7 @@
     </row>
     <row r="978" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B978" t="str">
         <f t="shared" si="67"/>
@@ -30577,7 +30787,7 @@
     </row>
     <row r="979" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B979" t="str">
         <f t="shared" si="67"/>
@@ -30588,7 +30798,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuedo_you_need_help</v>
       </c>
       <c r="D979" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E979" t="s">
         <v>69</v>
@@ -30608,7 +30818,7 @@
     </row>
     <row r="980" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B980" t="str">
         <f t="shared" si="67"/>
@@ -30619,7 +30829,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuehelp_needed</v>
       </c>
       <c r="D980" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E980" t="s">
         <v>70</v>
@@ -30639,7 +30849,7 @@
     </row>
     <row r="981" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B981" t="str">
         <f t="shared" si="67"/>
@@ -30650,7 +30860,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuehelp_not_needed</v>
       </c>
       <c r="D981" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E981" t="s">
         <v>70</v>
@@ -30670,7 +30880,7 @@
     </row>
     <row r="982" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B982" t="str">
         <f t="shared" si="67"/>
@@ -30681,7 +30891,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuealready_helped</v>
       </c>
       <c r="D982" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E982" t="s">
         <v>70</v>
@@ -30701,7 +30911,7 @@
     </row>
     <row r="983" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B983" t="str">
         <f t="shared" si="67"/>
@@ -30712,7 +30922,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuealready_helped_help_needed</v>
       </c>
       <c r="D983" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E983" t="s">
         <v>70</v>
@@ -30732,7 +30942,7 @@
     </row>
     <row r="984" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B984" t="str">
         <f t="shared" si="67"/>
@@ -30743,7 +30953,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuework_type_help_needed</v>
       </c>
       <c r="D984" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E984" t="s">
         <v>66</v>
@@ -30763,7 +30973,7 @@
     </row>
     <row r="985" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B985" t="str">
         <f t="shared" si="67"/>
@@ -30795,7 +31005,7 @@
     </row>
     <row r="986" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B986" t="str">
         <f t="shared" si="67"/>
@@ -30806,7 +31016,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueunconfirmed_address</v>
       </c>
       <c r="D986" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E986" t="s">
         <v>69</v>
@@ -30826,7 +31036,7 @@
     </row>
     <row r="987" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B987" t="str">
         <f t="shared" si="67"/>
@@ -30857,7 +31067,7 @@
     </row>
     <row r="988" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B988" t="str">
         <f t="shared" si="67"/>
@@ -30868,7 +31078,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueconfirm_address</v>
       </c>
       <c r="D988" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E988" t="s">
         <v>15</v>
@@ -30888,7 +31098,7 @@
     </row>
     <row r="989" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B989" t="str">
         <f t="shared" si="67"/>
@@ -30899,7 +31109,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueedit_address</v>
       </c>
       <c r="D989" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E989" t="s">
         <v>15</v>
@@ -30919,7 +31129,7 @@
     </row>
     <row r="990" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B990" t="str">
         <f t="shared" si="67"/>
@@ -30950,7 +31160,7 @@
     </row>
     <row r="991" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B991" t="str">
         <f t="shared" si="67"/>
@@ -30981,7 +31191,7 @@
     </row>
     <row r="992" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B992" t="str">
         <f t="shared" si="67"/>
@@ -30992,7 +31202,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueLocationViewer</v>
       </c>
       <c r="D992" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E992" t="s">
         <v>69</v>
@@ -31012,7 +31222,7 @@
     </row>
     <row r="993" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B993" t="str">
         <f t="shared" si="67"/>
@@ -31023,7 +31233,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueaddress_confirmed</v>
       </c>
       <c r="D993" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E993" t="s">
         <v>93</v>
@@ -31043,7 +31253,7 @@
     </row>
     <row r="994" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B994" t="str">
         <f t="shared" si="67"/>
@@ -31054,7 +31264,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueupload_photos</v>
       </c>
       <c r="D994" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E994" t="s">
         <v>3</v>
@@ -31074,7 +31284,7 @@
     </row>
     <row r="995" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B995" t="str">
         <f t="shared" si="67"/>
@@ -31085,7 +31295,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueauto_contact_frequency_often</v>
       </c>
       <c r="D995" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E995" t="s">
         <v>69</v>
@@ -31105,7 +31315,7 @@
     </row>
     <row r="996" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B996" t="str">
         <f t="shared" si="67"/>
@@ -31116,7 +31326,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueauto_contact_frequency_not_often</v>
       </c>
       <c r="D996" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E996" t="s">
         <v>69</v>
@@ -31136,7 +31346,7 @@
     </row>
     <row r="997" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B997" t="str">
         <f t="shared" si="67"/>
@@ -31147,7 +31357,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueauto_contact_frequency_never</v>
       </c>
       <c r="D997" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E997" t="s">
         <v>69</v>
@@ -31167,7 +31377,7 @@
     </row>
     <row r="998" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B998" t="str">
         <f t="shared" si="67"/>
@@ -31198,7 +31408,7 @@
     </row>
     <row r="999" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B999" t="str">
         <f t="shared" si="67"/>
@@ -31209,7 +31419,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vueaccept_terms</v>
       </c>
       <c r="D999" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E999" t="s">
         <v>66</v>
@@ -31229,7 +31439,7 @@
     </row>
     <row r="1000" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1000" t="str">
         <f t="shared" si="67"/>
@@ -31260,7 +31470,7 @@
     </row>
     <row r="1001" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1001" t="str">
         <f t="shared" si="67"/>
@@ -31271,7 +31481,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\Survivors.vuefaq</v>
       </c>
       <c r="D1001" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E1001" t="s">
         <v>69</v>
@@ -31291,7 +31501,7 @@
     </row>
     <row r="1002" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B1002" t="str">
         <f t="shared" si="67"/>
@@ -31322,7 +31532,7 @@
     </row>
     <row r="1003" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1003" t="str">
         <f t="shared" si="67"/>
@@ -31333,7 +31543,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuepew_pew</v>
       </c>
       <c r="D1003" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E1003" t="s">
         <v>69</v>
@@ -31353,7 +31563,7 @@
     </row>
     <row r="1004" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1004" t="str">
         <f t="shared" si="67"/>
@@ -31364,10 +31574,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuepewPew.live</v>
       </c>
       <c r="D1004" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E1004" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F1004" t="str">
         <f t="shared" si="69"/>
@@ -31384,7 +31594,7 @@
     </row>
     <row r="1005" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1005" t="str">
         <f t="shared" si="67"/>
@@ -31395,10 +31605,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuecurrentEngagement</v>
       </c>
       <c r="D1005" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E1005" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F1005" t="str">
         <f t="shared" si="69"/>
@@ -31415,7 +31625,7 @@
     </row>
     <row r="1006" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1006" t="str">
         <f t="shared" si="67"/>
@@ -31426,10 +31636,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuesite_stats</v>
       </c>
       <c r="D1006" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E1006" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F1006" t="str">
         <f t="shared" si="69"/>
@@ -31446,7 +31656,7 @@
     </row>
     <row r="1007" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1007" t="str">
         <f t="shared" si="67"/>
@@ -31457,7 +31667,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuesite_stats</v>
       </c>
       <c r="D1007" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E1007" t="s">
         <v>69</v>
@@ -31477,7 +31687,7 @@
     </row>
     <row r="1008" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1008" t="str">
         <f t="shared" si="67"/>
@@ -31509,7 +31719,7 @@
     </row>
     <row r="1009" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1009" t="str">
         <f t="shared" si="67"/>
@@ -31520,7 +31730,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuesite_stats</v>
       </c>
       <c r="D1009" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E1009" t="s">
         <v>93</v>
@@ -31540,7 +31750,7 @@
     </row>
     <row r="1010" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1010" t="str">
         <f t="shared" si="67"/>
@@ -31551,7 +31761,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuesite_stats2</v>
       </c>
       <c r="D1010" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E1010" t="s">
         <v>93</v>
@@ -31571,7 +31781,7 @@
     </row>
     <row r="1011" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1011" t="str">
         <f t="shared" si="67"/>
@@ -31602,7 +31812,7 @@
     </row>
     <row r="1012" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1012" t="str">
         <f t="shared" si="67"/>
@@ -31613,7 +31823,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuepew_pew_banner</v>
       </c>
       <c r="D1012" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E1012" t="s">
         <v>69</v>
@@ -31633,7 +31843,7 @@
     </row>
     <row r="1013" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1013" t="str">
         <f t="shared" si="67"/>
@@ -31664,7 +31874,7 @@
     </row>
     <row r="1014" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1014" t="str">
         <f t="shared" ref="B1014:B1077" si="74">IF(A1014="","",MID(A1014,FIND("@",SUBSTITUTE(A1014,"\","@",LEN(A1014)-LEN(SUBSTITUTE(A1014,"\",""))))+1,LEN(A1014)))</f>
@@ -31695,7 +31905,7 @@
     </row>
     <row r="1015" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1015" t="str">
         <f t="shared" si="74"/>
@@ -31726,7 +31936,7 @@
     </row>
     <row r="1016" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1016" t="str">
         <f t="shared" si="74"/>
@@ -31737,7 +31947,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vueincident_selected</v>
       </c>
       <c r="D1016" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E1016" t="s">
         <v>69</v>
@@ -31757,7 +31967,7 @@
     </row>
     <row r="1017" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1017" t="str">
         <f t="shared" si="74"/>
@@ -31788,7 +31998,7 @@
     </row>
     <row r="1018" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1018" t="str">
         <f t="shared" si="74"/>
@@ -31799,7 +32009,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuedisaster</v>
       </c>
       <c r="D1018" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E1018" t="s">
         <v>93</v>
@@ -31819,7 +32029,7 @@
     </row>
     <row r="1019" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1019" t="str">
         <f t="shared" si="74"/>
@@ -31830,7 +32040,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuemap</v>
       </c>
       <c r="D1019" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E1019" t="s">
         <v>69</v>
@@ -31850,7 +32060,7 @@
     </row>
     <row r="1020" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1020" t="str">
         <f t="shared" si="74"/>
@@ -31861,7 +32071,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuemapLoading</v>
       </c>
       <c r="D1020" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E1020" t="s">
         <v>69</v>
@@ -31881,7 +32091,7 @@
     </row>
     <row r="1021" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1021" t="str">
         <f t="shared" si="74"/>
@@ -31892,7 +32102,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuesvi_slider</v>
       </c>
       <c r="D1021" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E1021" t="s">
         <v>69</v>
@@ -31912,7 +32122,7 @@
     </row>
     <row r="1022" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1022" t="str">
         <f t="shared" si="74"/>
@@ -31943,7 +32153,7 @@
     </row>
     <row r="1023" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1023" t="str">
         <f t="shared" si="74"/>
@@ -31974,7 +32184,7 @@
     </row>
     <row r="1024" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1024" t="str">
         <f t="shared" si="74"/>
@@ -31985,7 +32195,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuecurrent_event_incident_scroll</v>
       </c>
       <c r="D1024" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1024" t="s">
         <v>69</v>
@@ -32005,7 +32215,7 @@
     </row>
     <row r="1025" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1025" t="str">
         <f t="shared" si="74"/>
@@ -32036,7 +32246,7 @@
     </row>
     <row r="1026" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1026" t="str">
         <f t="shared" si="74"/>
@@ -32047,7 +32257,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vueshow_legend</v>
       </c>
       <c r="D1026" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E1026" t="s">
         <v>93</v>
@@ -32067,7 +32277,7 @@
     </row>
     <row r="1027" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1027" t="str">
         <f t="shared" si="74"/>
@@ -32078,7 +32288,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuelegend_svgs</v>
       </c>
       <c r="D1027" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E1027" t="s">
         <v>69</v>
@@ -32098,7 +32308,7 @@
     </row>
     <row r="1028" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1028" t="str">
         <f t="shared" si="74"/>
@@ -32109,7 +32319,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vueccu_logo</v>
       </c>
       <c r="D1028" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E1028" t="s">
         <v>93</v>
@@ -32129,7 +32339,7 @@
     </row>
     <row r="1029" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1029" t="str">
         <f t="shared" si="74"/>
@@ -32140,7 +32350,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuemap_stat_item</v>
       </c>
       <c r="D1029" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E1029" t="s">
         <v>69</v>
@@ -32160,7 +32370,7 @@
     </row>
     <row r="1030" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1030" t="str">
         <f t="shared" si="74"/>
@@ -32171,7 +32381,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuepauseGeneratePoints</v>
       </c>
       <c r="D1030" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E1030" t="s">
         <v>15</v>
@@ -32191,7 +32401,7 @@
     </row>
     <row r="1031" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1031" t="str">
         <f t="shared" si="74"/>
@@ -32202,7 +32412,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vueresumeGeneratePoints</v>
       </c>
       <c r="D1031" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E1031" t="s">
         <v>15</v>
@@ -32222,7 +32432,7 @@
     </row>
     <row r="1032" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1032" t="str">
         <f t="shared" si="74"/>
@@ -32233,7 +32443,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vueupdated_slider</v>
       </c>
       <c r="D1032" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E1032" t="s">
         <v>69</v>
@@ -32253,7 +32463,7 @@
     </row>
     <row r="1033" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1033" t="str">
         <f t="shared" si="74"/>
@@ -32264,7 +32474,7 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vueLiveOrganizationTable</v>
       </c>
       <c r="D1033" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E1033" t="s">
         <v>69</v>
@@ -32284,7 +32494,7 @@
     </row>
     <row r="1034" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1034" t="str">
         <f t="shared" si="74"/>
@@ -32295,10 +32505,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuestopChartTabCirculationTimer</v>
       </c>
       <c r="D1034" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E1034" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F1034" t="str">
         <f t="shared" si="69"/>
@@ -32315,7 +32525,7 @@
     </row>
     <row r="1035" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1035" t="str">
         <f t="shared" si="74"/>
@@ -32326,10 +32536,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuepp_call_volume</v>
       </c>
       <c r="D1035" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E1035" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F1035" t="str">
         <f t="shared" si="69"/>
@@ -32346,7 +32556,7 @@
     </row>
     <row r="1036" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1036" t="str">
         <f t="shared" si="74"/>
@@ -32357,10 +32567,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuepp_call_times</v>
       </c>
       <c r="D1036" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E1036" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F1036" t="str">
         <f t="shared" si="69"/>
@@ -32377,7 +32587,7 @@
     </row>
     <row r="1037" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1037" t="str">
         <f t="shared" si="74"/>
@@ -32388,10 +32598,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuetotalCases</v>
       </c>
       <c r="D1037" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E1037" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F1037" t="str">
         <f t="shared" si="69"/>
@@ -32408,7 +32618,7 @@
     </row>
     <row r="1038" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1038" t="str">
         <f t="shared" si="74"/>
@@ -32419,10 +32629,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuecompletion_rate</v>
       </c>
       <c r="D1038" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E1038" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F1038" t="str">
         <f t="shared" si="69"/>
@@ -32439,7 +32649,7 @@
     </row>
     <row r="1039" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B1039" t="str">
         <f t="shared" si="74"/>
@@ -32450,10 +32660,10 @@
         <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\PewPew.vuetotalCases</v>
       </c>
       <c r="D1039" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E1039" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F1039" t="str">
         <f t="shared" si="69"/>
@@ -32468,2569 +32678,3063 @@
         <v>:data-testid="`testTotalCases${}Tab`"</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>893</v>
+        <v>971</v>
       </c>
       <c r="B1040" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1040" t="str">
         <f t="shared" si="72"/>
-        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\unauthenticated\</v>
-      </c>
-      <c r="E1040" t="str">
-        <f t="shared" si="73"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuedashboard</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>972</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>178</v>
       </c>
       <c r="F1040" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testDashboarddiv</v>
       </c>
       <c r="G1040" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testDashboarddiv"</v>
       </c>
       <c r="H1040" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1041" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testDashboard${}div`"</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>971</v>
+      </c>
       <c r="B1041" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1041" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1041" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuemetric_card_my_claimed_cases</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>69</v>
       </c>
       <c r="F1041" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testMetricCardMyClaimedCasesDiv</v>
       </c>
       <c r="G1041" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testMetricCardMyClaimedCasesDiv"</v>
       </c>
       <c r="H1041" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1042" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMetricCardMyClaimedCases${}Div`"</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>971</v>
+      </c>
       <c r="B1042" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1042" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1042" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuemy_claimed_cases</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>93</v>
       </c>
       <c r="F1042" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testMyClaimedCasesIcon</v>
       </c>
       <c r="G1042" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testMyClaimedCasesIcon"</v>
       </c>
       <c r="H1042" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1043" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMyClaimedCases${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>971</v>
+      </c>
       <c r="B1043" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1043" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1043" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuemy_claimed_cases</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>973</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>69</v>
       </c>
       <c r="F1043" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testMyClaimedCasesDiv</v>
       </c>
       <c r="G1043" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testMyClaimedCasesDiv"</v>
       </c>
       <c r="H1043" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1044" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMyClaimedCases${}Div`"</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>971</v>
+      </c>
       <c r="B1044" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1044" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1044" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuetotal_claimed</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>974</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>93</v>
       </c>
       <c r="F1044" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testTotalClaimedIcon</v>
       </c>
       <c r="G1044" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testTotalClaimedIcon"</v>
       </c>
       <c r="H1044" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1045" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testTotalClaimed${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>971</v>
+      </c>
       <c r="B1045" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1045" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1045" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuetotal_claimed</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>974</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>69</v>
       </c>
       <c r="F1045" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testTotalClaimedDiv</v>
       </c>
       <c r="G1045" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testTotalClaimedDiv"</v>
       </c>
       <c r="H1045" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1046" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testTotalClaimed${}Div`"</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>971</v>
+      </c>
       <c r="B1046" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1046" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1046" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuein_progress</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>93</v>
       </c>
       <c r="F1046" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testInProgressIcon</v>
       </c>
       <c r="G1046" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testInProgressIcon"</v>
       </c>
       <c r="H1046" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1047" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testInProgress${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>971</v>
+      </c>
       <c r="B1047" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1047" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1047" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuein_progress</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>975</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>69</v>
       </c>
       <c r="F1047" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testInProgressDiv</v>
       </c>
       <c r="G1047" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testInProgressDiv"</v>
       </c>
       <c r="H1047" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1048" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testInProgress${}Div`"</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>971</v>
+      </c>
       <c r="B1048" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1048" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1048" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueclosed</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>93</v>
       </c>
       <c r="F1048" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testClosedIcon</v>
       </c>
       <c r="G1048" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testClosedIcon"</v>
       </c>
       <c r="H1048" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1049" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testClosed${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>971</v>
+      </c>
       <c r="B1049" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1049" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1049" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueclosed</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>69</v>
       </c>
       <c r="F1049" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testClosedDiv</v>
       </c>
       <c r="G1049" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testClosedDiv"</v>
       </c>
       <c r="H1049" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1050" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testClosed${}Div`"</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>971</v>
+      </c>
       <c r="B1050" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1050" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1050" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueclaimedWorksites</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>268</v>
       </c>
       <c r="F1050" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testClaimedWorksitesTable</v>
       </c>
       <c r="G1050" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testClaimedWorksitesTable"</v>
       </c>
       <c r="H1050" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1051" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testClaimedWorksites${}Table`"</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>971</v>
+      </c>
       <c r="B1051" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1051" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1051" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuework_type</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>69</v>
       </c>
       <c r="F1051" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorkTypeDiv</v>
       </c>
       <c r="G1051" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorkTypeDiv"</v>
       </c>
       <c r="H1051" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1052" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorkType${}Div`"</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>971</v>
+      </c>
       <c r="B1052" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1052" t="str">
         <f t="shared" si="72"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vue:several_calculated</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>104</v>
       </c>
       <c r="E1052" t="str">
         <f t="shared" si="73"/>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F1052" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G1052" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
       <c r="H1052" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1053" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`test:SeveralCalculated${}`"</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>971</v>
+      </c>
       <c r="B1053" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1053" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1053" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_case_number</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>91</v>
       </c>
       <c r="F1053" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksiteCaseNumberLink</v>
       </c>
       <c r="G1053" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksiteCaseNumberLink"</v>
       </c>
       <c r="H1053" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1054" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteCaseNumber${}Link`"</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>971</v>
+      </c>
       <c r="B1054" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1054" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1054" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_phone</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>978</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>91</v>
       </c>
       <c r="F1054" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksitePhoneLink</v>
       </c>
       <c r="G1054" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksitePhoneLink"</v>
       </c>
       <c r="H1054" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1055" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksitePhone${}Link`"</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>971</v>
+      </c>
       <c r="B1055" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1055" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1055" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_full_address</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>979</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>91</v>
       </c>
       <c r="F1055" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksiteFullAddressLink</v>
       </c>
       <c r="G1055" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksiteFullAddressLink"</v>
       </c>
       <c r="H1055" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1056" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteFullAddress${}Link`"</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>971</v>
+      </c>
       <c r="B1056" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1056" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1056" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_name</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>980</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>91</v>
       </c>
       <c r="F1056" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksiteNameLink</v>
       </c>
       <c r="G1056" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksiteNameLink"</v>
       </c>
       <c r="H1056" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1057" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteName${}Link`"</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>971</v>
+      </c>
       <c r="B1057" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1057" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1057" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_actions</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>91</v>
       </c>
       <c r="F1057" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksiteActionsLink</v>
       </c>
       <c r="G1057" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksiteActionsLink"</v>
       </c>
       <c r="H1057" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1058" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteActions${}Link`"</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>971</v>
+      </c>
       <c r="B1058" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1058" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1058" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuejump_to_case</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>93</v>
       </c>
       <c r="F1058" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testJumpToCaseIcon</v>
       </c>
       <c r="G1058" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testJumpToCaseIcon"</v>
       </c>
       <c r="H1058" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1059" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testJumpToCase${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>971</v>
+      </c>
       <c r="B1059" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1059" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1059" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueprint</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>93</v>
       </c>
       <c r="F1059" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testPrintIcon</v>
       </c>
       <c r="G1059" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testPrintIcon"</v>
       </c>
       <c r="H1059" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1060" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testPrint${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>971</v>
+      </c>
       <c r="B1060" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1060" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1060" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuecase_transfer_requests</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>69</v>
       </c>
       <c r="F1060" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testCaseTransferRequestsDiv</v>
       </c>
       <c r="G1060" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testCaseTransferRequestsDiv"</v>
       </c>
       <c r="H1060" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1061" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testCaseTransferRequests${}Div`"</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>971</v>
+      </c>
       <c r="B1061" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1061" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1061" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueinbound_requests</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>983</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>15</v>
       </c>
       <c r="F1061" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testInboundRequestsButton</v>
       </c>
       <c r="G1061" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testInboundRequestsButton"</v>
       </c>
       <c r="H1061" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1062" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testInboundRequests${}Button`"</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>971</v>
+      </c>
       <c r="B1062" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1062" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1062" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueoutbound_requests</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>984</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>15</v>
       </c>
       <c r="F1062" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testOutboundRequestsButton</v>
       </c>
       <c r="G1062" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testOutboundRequestsButton"</v>
       </c>
       <c r="H1062" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1063" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testOutboundRequests${}Button`"</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>971</v>
+      </c>
       <c r="B1063" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1063" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1063" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuearchived_requests</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>15</v>
       </c>
       <c r="F1063" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testArchivedRequestsButton</v>
       </c>
       <c r="G1063" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testArchivedRequestsButton"</v>
       </c>
       <c r="H1063" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1064" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testArchivedRequests${}Button`"</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>971</v>
+      </c>
       <c r="B1064" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1064" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1064" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksiteRequests</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>986</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>268</v>
       </c>
       <c r="F1064" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksiteRequestsTable</v>
       </c>
       <c r="G1064" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksiteRequestsTable"</v>
       </c>
       <c r="H1064" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1065" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteRequests${}Table`"</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>971</v>
+      </c>
       <c r="B1065" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1065" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1065" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_organization</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>987</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>69</v>
       </c>
       <c r="F1065" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>testWorksiteOrganizationDiv</v>
       </c>
       <c r="G1065" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>data-testid="testWorksiteOrganizationDiv"</v>
       </c>
       <c r="H1065" t="str">
         <f t="shared" si="71"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1066" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteOrganization${}Div`"</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>971</v>
+      </c>
       <c r="B1066" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1066" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1066" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_work_type</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>988</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>69</v>
       </c>
       <c r="F1066" t="str">
         <f t="shared" ref="F1066:F1129" si="75">IF(D1066="","","test"&amp;IF(ISNUMBER(SEARCH(".",D1066)),UPPER(LEFT(D1066,1))&amp;RIGHT(LEFT(D1066,SEARCH(".",D1066)-1),LEN(LEFT(D1066,SEARCH(".",D1066)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D1066,LEN(D1066)-SEARCH(".",D1066))),"_",""),IF(EXACT(LOWER(D1066),D1066),TRIM(SUBSTITUTE(PROPER(D1066),"_","")),UPPER(LEFT(D1066,1))&amp;RIGHT(D1066,LEN(D1066)-1)))&amp;E1066)</f>
-        <v/>
+        <v>testWorksiteWorkTypeDiv</v>
       </c>
       <c r="G1066" t="str">
         <f t="shared" ref="G1066:G1129" si="76">IF(D1066="","","data-testid="""&amp;F1066&amp;"""")</f>
-        <v/>
+        <v>data-testid="testWorksiteWorkTypeDiv"</v>
       </c>
       <c r="H1066" t="str">
         <f t="shared" ref="H1066:H1129" si="77">IF(D1066="","",":data-testid=""`"&amp;SUBSTITUTE(F1066,E1066,"")&amp;"${}"&amp;E1066&amp;"`""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1067" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteWorkType${}Div`"</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>971</v>
+      </c>
       <c r="B1067" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1067" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1067" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_actions_inbound</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>69</v>
       </c>
       <c r="F1067" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testWorksiteActionsInboundDiv</v>
       </c>
       <c r="G1067" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testWorksiteActionsInboundDiv"</v>
       </c>
       <c r="H1067" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1068" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteActionsInbound${}Div`"</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>971</v>
+      </c>
       <c r="B1068" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1068" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1068" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueaccept</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>15</v>
       </c>
       <c r="F1068" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testAcceptButton</v>
       </c>
       <c r="G1068" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testAcceptButton"</v>
       </c>
       <c r="H1068" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1069" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testAccept${}Button`"</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>971</v>
+      </c>
       <c r="B1069" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1069" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1069" t="str">
-        <f t="shared" si="73"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuereject</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>15</v>
       </c>
       <c r="F1069" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testRejectButton</v>
       </c>
       <c r="G1069" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testRejectButton"</v>
       </c>
       <c r="H1069" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1070" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testReject${}Button`"</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>971</v>
+      </c>
       <c r="B1070" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1070" t="str">
         <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="E1070" t="str">
-        <f t="shared" ref="E1070:E1133" si="78">IF(COUNTIF(C:C,C1070)&gt;1,"Button","")</f>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuecancel</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>15</v>
       </c>
       <c r="F1070" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testCancelButton</v>
       </c>
       <c r="G1070" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testCancelButton"</v>
       </c>
       <c r="H1070" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1071" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testCancel${}Button`"</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>971</v>
+      </c>
       <c r="B1071" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1071" t="str">
-        <f t="shared" ref="C1071:C1134" si="79">A1071&amp;D1071</f>
-        <v/>
-      </c>
-      <c r="E1071" t="str">
-        <f t="shared" si="78"/>
-        <v>Button</v>
+        <f t="shared" ref="C1071:C1134" si="78">A1071&amp;D1071</f>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueignore</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>769</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>15</v>
       </c>
       <c r="F1071" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testIgnoreButton</v>
       </c>
       <c r="G1071" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testIgnoreButton"</v>
       </c>
       <c r="H1071" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1072" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testIgnore${}Button`"</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>971</v>
+      </c>
       <c r="B1072" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1072" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1072" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuehistory</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>15</v>
       </c>
       <c r="F1072" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testHistoryButton</v>
       </c>
       <c r="G1072" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testHistoryButton"</v>
       </c>
       <c r="H1072" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1073" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testHistory${}Button`"</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>971</v>
+      </c>
       <c r="B1073" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1073" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1073" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueUserTransferRequest</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>990</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>268</v>
       </c>
       <c r="F1073" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testUserTransferRequestTable</v>
       </c>
       <c r="G1073" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testUserTransferRequestTable"</v>
       </c>
       <c r="H1073" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1074" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserTransferRequest${}Table`"</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>971</v>
+      </c>
       <c r="B1074" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1074" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1074" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuemetric_card_total_claimed</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>69</v>
       </c>
       <c r="F1074" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testMetricCardTotalClaimedDiv</v>
       </c>
       <c r="G1074" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testMetricCardTotalClaimedDiv"</v>
       </c>
       <c r="H1074" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1075" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMetricCardTotalClaimed${}Div`"</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>971</v>
+      </c>
       <c r="B1075" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1075" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1075" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuemetric_card_in_progress</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>993</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>69</v>
       </c>
       <c r="F1075" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testMetricCardInProgressDiv</v>
       </c>
       <c r="G1075" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testMetricCardInProgressDiv"</v>
       </c>
       <c r="H1075" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1076" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMetricCardInProgress${}Div`"</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>971</v>
+      </c>
       <c r="B1076" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1076" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1076" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vuemetric_card_closed</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>69</v>
       </c>
       <c r="F1076" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testMetricCardClosedDiv</v>
       </c>
       <c r="G1076" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testMetricCardClosedDiv"</v>
       </c>
       <c r="H1076" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1077" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMetricCardClosed${}Div`"</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>971</v>
+      </c>
       <c r="B1077" t="str">
         <f t="shared" si="74"/>
-        <v/>
+        <v>Dashboard.vue</v>
       </c>
       <c r="C1077" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1077" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Dashboard.vueworksite_wwtsp</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>69</v>
       </c>
       <c r="F1077" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testWorksiteWwtspDiv</v>
       </c>
       <c r="G1077" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testWorksiteWwtspDiv"</v>
       </c>
       <c r="H1077" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1078" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testWorksiteWwtsp${}Div`"</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>997</v>
+      </c>
       <c r="B1078" t="str">
-        <f t="shared" ref="B1078:B1141" si="80">IF(A1078="","",MID(A1078,FIND("@",SUBSTITUTE(A1078,"\","@",LEN(A1078)-LEN(SUBSTITUTE(A1078,"\",""))))+1,LEN(A1078)))</f>
-        <v/>
+        <f t="shared" ref="B1078:B1141" si="79">IF(A1078="","",MID(A1078,FIND("@",SUBSTITUTE(A1078,"\","@",LEN(A1078)-LEN(SUBSTITUTE(A1078,"\",""))))+1,LEN(A1078)))</f>
+        <v>Location.vue</v>
       </c>
       <c r="C1078" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1078" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuelocation</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>178</v>
       </c>
       <c r="F1078" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testLocationdiv</v>
       </c>
       <c r="G1078" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testLocationdiv"</v>
       </c>
       <c r="H1078" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1079" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testLocation${}div`"</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>997</v>
+      </c>
       <c r="B1079" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1079" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1079" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuenew_location</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>998</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>69</v>
       </c>
       <c r="F1079" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testNewLocationDiv</v>
       </c>
       <c r="G1079" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testNewLocationDiv"</v>
       </c>
       <c r="H1079" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1080" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testNewLocation${}Div`"</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>997</v>
+      </c>
       <c r="B1080" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1080" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1080" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueedit_location</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>69</v>
       </c>
       <c r="F1080" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testEditLocationDiv</v>
       </c>
       <c r="G1080" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testEditLocationDiv"</v>
       </c>
       <c r="H1080" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1081" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testEditLocation${}Div`"</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>997</v>
+      </c>
       <c r="B1081" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1081" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1081" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueedit_location</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>93</v>
       </c>
       <c r="F1081" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testEditLocationIcon</v>
       </c>
       <c r="G1081" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testEditLocationIcon"</v>
       </c>
       <c r="H1081" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1082" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testEditLocation${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>997</v>
+      </c>
       <c r="B1082" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1082" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1082" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuedownload_as_shapefile</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>93</v>
       </c>
       <c r="F1082" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testDownloadAsShapefileIcon</v>
       </c>
       <c r="G1082" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testDownloadAsShapefileIcon"</v>
       </c>
       <c r="H1082" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1083" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testDownloadAsShapefile${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>997</v>
+      </c>
       <c r="B1083" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1083" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1083" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueshare_location</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>93</v>
       </c>
       <c r="F1083" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testShareLocationIcon</v>
       </c>
       <c r="G1083" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testShareLocationIcon"</v>
       </c>
       <c r="H1083" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1084" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testShareLocation${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>997</v>
+      </c>
       <c r="B1084" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1084" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1084" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuedelete</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>504</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>93</v>
       </c>
       <c r="F1084" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testDeleteIcon</v>
       </c>
       <c r="G1084" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testDeleteIcon"</v>
       </c>
       <c r="H1084" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1085" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testDelete${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>997</v>
+      </c>
       <c r="B1085" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1085" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1085" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuecurrentLocation.name</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>68</v>
       </c>
       <c r="F1085" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testCurrentLocationNameTextInput</v>
       </c>
       <c r="G1085" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testCurrentLocationNameTextInput"</v>
       </c>
       <c r="H1085" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1086" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testCurrentLocationName${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>997</v>
+      </c>
       <c r="B1086" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1086" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1086" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuelocation_type</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>68</v>
       </c>
       <c r="F1086" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testLocationTypeTextInput</v>
       </c>
       <c r="G1086" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testLocationTypeTextInput"</v>
       </c>
       <c r="H1086" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1087" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testLocationType${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>997</v>
+      </c>
       <c r="B1087" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1087" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1087" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuesearch_for_organization</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>87</v>
       </c>
       <c r="F1087" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testSearchForOrganizationSelect</v>
       </c>
       <c r="G1087" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testSearchForOrganizationSelect"</v>
       </c>
       <c r="H1087" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1088" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testSearchForOrganization${}Select`"</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>997</v>
+      </c>
       <c r="B1088" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1088" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1088" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueincident</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>87</v>
       </c>
       <c r="F1088" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testIncidentSelect</v>
       </c>
       <c r="G1088" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testIncidentSelect"</v>
       </c>
       <c r="H1088" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1089" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testIncident${}Select`"</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>997</v>
+      </c>
       <c r="B1089" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1089" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1089" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueorganization_results</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>69</v>
       </c>
       <c r="F1089" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testOrganizationResultsDiv</v>
       </c>
       <c r="G1089" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testOrganizationResultsDiv"</v>
       </c>
       <c r="H1089" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1090" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testOrganizationResults${}Div`"</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>997</v>
+      </c>
       <c r="B1090" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1090" t="str">
-        <f t="shared" si="79"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vue:several_calculated</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>104</v>
       </c>
       <c r="E1090" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="E1070:E1133" si="80">IF(COUNTIF(C:C,C1090)&gt;1,"Button","")</f>
         <v>Button</v>
       </c>
       <c r="F1090" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>test:SeveralCalculatedButton</v>
       </c>
       <c r="G1090" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculatedButton"</v>
       </c>
       <c r="H1090" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1091" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`test:SeveralCalculated${}Button`"</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>997</v>
+      </c>
       <c r="B1091" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1091" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1091" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueclear_location_from_organization</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>93</v>
       </c>
       <c r="F1091" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testClearLocationFromOrganizationIcon</v>
       </c>
       <c r="G1091" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testClearLocationFromOrganizationIcon"</v>
       </c>
       <c r="H1091" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1092" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testClearLocationFromOrganization${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>997</v>
+      </c>
       <c r="B1092" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1092" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1092" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuerelated_incidents</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>69</v>
       </c>
       <c r="F1092" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testRelatedIncidentsDiv</v>
       </c>
       <c r="G1092" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testRelatedIncidentsDiv"</v>
       </c>
       <c r="H1092" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1093" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testRelatedIncidents${}Div`"</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>997</v>
+      </c>
       <c r="B1093" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1093" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1093" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueclear_location_from_incident</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>93</v>
       </c>
       <c r="F1093" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testClearLocationFromIncidentIcon</v>
       </c>
       <c r="G1093" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testClearLocationFromIncidentIcon"</v>
       </c>
       <c r="H1093" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1094" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testClearLocationFromIncident${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>997</v>
+      </c>
       <c r="B1094" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1094" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1094" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuelocation_notes</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>748</v>
       </c>
       <c r="F1094" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testLocationNotesTextArea</v>
       </c>
       <c r="G1094" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testLocationNotesTextArea"</v>
       </c>
       <c r="H1094" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1095" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testLocationNotes${}TextArea`"</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>997</v>
+      </c>
       <c r="B1095" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1095" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1095" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueshared</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>70</v>
       </c>
       <c r="F1095" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testSharedRadio</v>
       </c>
       <c r="G1095" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testSharedRadio"</v>
       </c>
       <c r="H1095" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1096" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testShared${}Radio`"</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>997</v>
+      </c>
       <c r="B1096" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1096" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1096" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueprivate</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>70</v>
       </c>
       <c r="F1096" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testPrivateRadio</v>
       </c>
       <c r="G1096" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testPrivateRadio"</v>
       </c>
       <c r="H1096" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1097" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testPrivate${}Radio`"</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>997</v>
+      </c>
       <c r="B1097" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1097" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1097" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuepublic</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>70</v>
       </c>
       <c r="F1097" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testPublicRadio</v>
       </c>
       <c r="G1097" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testPublicRadio"</v>
       </c>
       <c r="H1097" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1098" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testPublic${}Radio`"</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>997</v>
+      </c>
       <c r="B1098" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1098" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1098" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueorganization_incidents</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>69</v>
       </c>
       <c r="F1098" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testOrganizationIncidentsDiv</v>
       </c>
       <c r="G1098" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testOrganizationIncidentsDiv"</v>
       </c>
       <c r="H1098" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1099" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testOrganizationIncidents${}Div`"</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>997</v>
+      </c>
       <c r="B1099" t="str">
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
+      </c>
+      <c r="C1099" t="str">
+        <f t="shared" si="78"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vue:several_calculated</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1099" t="str">
         <f t="shared" si="80"/>
-        <v/>
-      </c>
-      <c r="C1099" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1099" t="str">
-        <f t="shared" si="78"/>
         <v>Button</v>
       </c>
       <c r="F1099" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>test:SeveralCalculatedButton</v>
       </c>
       <c r="G1099" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculatedButton"</v>
       </c>
       <c r="H1099" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1100" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`test:SeveralCalculated${}Button`"</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>997</v>
+      </c>
       <c r="B1100" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1100" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1100" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuereset</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>15</v>
       </c>
       <c r="F1100" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testResetButton</v>
       </c>
       <c r="G1100" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testResetButton"</v>
       </c>
       <c r="H1100" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testReset${}Button`"</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>997</v>
+      </c>
       <c r="B1101" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1101" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1101" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuesave_location</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>15</v>
       </c>
       <c r="F1101" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testSaveLocationButton</v>
       </c>
       <c r="G1101" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testSaveLocationButton"</v>
       </c>
       <c r="H1101" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testSaveLocation${}Button`"</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>997</v>
+      </c>
       <c r="B1102" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1102" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1102" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vuesave_and_new</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>15</v>
       </c>
       <c r="F1102" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testSaveAndNewButton</v>
       </c>
       <c r="G1102" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testSaveAndNewButton"</v>
       </c>
       <c r="H1102" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1103" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testSaveAndNew${}Button`"</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>997</v>
+      </c>
       <c r="B1103" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Location.vue</v>
       </c>
       <c r="C1103" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1103" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Location.vueincident_results</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>69</v>
       </c>
       <c r="F1103" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testIncidentResultsDiv</v>
       </c>
       <c r="G1103" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testIncidentResultsDiv"</v>
       </c>
       <c r="H1103" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1104" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testIncidentResults${}Div`"</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>996</v>
+      </c>
       <c r="B1104" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>NotFound.vue</v>
       </c>
       <c r="C1104" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1104" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\NotFound.vue404</v>
+      </c>
+      <c r="D1104">
+        <v>404</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>69</v>
       </c>
       <c r="F1104" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>test404Div</v>
       </c>
       <c r="G1104" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="test404Div"</v>
       </c>
       <c r="H1104" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1105" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`test404${}Div`"</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1017</v>
+      </c>
       <c r="B1105" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Downloads.vue</v>
       </c>
       <c r="C1105" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1105" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Downloads.vuedownloads</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>268</v>
       </c>
       <c r="F1105" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testDownloadsTable</v>
       </c>
       <c r="G1105" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testDownloadsTable"</v>
       </c>
       <c r="H1105" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1106" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testDownloads${}Table`"</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1017</v>
+      </c>
       <c r="B1106" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Downloads.vue</v>
       </c>
       <c r="C1106" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1106" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Downloads.vuedownloads</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>69</v>
       </c>
       <c r="F1106" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testDownloadsDiv</v>
       </c>
       <c r="G1106" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testDownloadsDiv"</v>
       </c>
       <c r="H1106" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1107" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testDownloads${}Div`"</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1019</v>
+      </c>
       <c r="B1107" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>OtherOrganizations.vue</v>
       </c>
       <c r="C1107" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1107" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vuedo_not_share_public</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>69</v>
       </c>
       <c r="F1107" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testDoNotSharePublicDiv</v>
       </c>
       <c r="G1107" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testDoNotSharePublicDiv"</v>
       </c>
       <c r="H1107" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1108" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testDoNotSharePublic${}Div`"</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1019</v>
+      </c>
       <c r="B1108" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>OtherOrganizations.vue</v>
       </c>
       <c r="C1108" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1108" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vueorganizations.search</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>68</v>
       </c>
       <c r="F1108" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testOrganizationsSearchTextInput</v>
       </c>
       <c r="G1108" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testOrganizationsSearchTextInput"</v>
       </c>
       <c r="H1108" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1109" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testOrganizationsSearch${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1019</v>
+      </c>
       <c r="B1109" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>OtherOrganizations.vue</v>
       </c>
       <c r="C1109" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1109" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vueorganizations.data</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>268</v>
       </c>
       <c r="F1109" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testOrganizationsDataTable</v>
       </c>
       <c r="G1109" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testOrganizationsDataTable"</v>
       </c>
       <c r="H1109" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1110" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testOrganizationsData${}Table`"</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1019</v>
+      </c>
       <c r="B1110" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>OtherOrganizations.vue</v>
       </c>
       <c r="C1110" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1110" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vueprimary_contacts</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>653</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>69</v>
       </c>
       <c r="F1110" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testPrimaryContactsDiv</v>
       </c>
       <c r="G1110" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testPrimaryContactsDiv"</v>
       </c>
       <c r="H1110" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1111" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testPrimaryContacts${}Div`"</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1019</v>
+      </c>
       <c r="B1111" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>OtherOrganizations.vue</v>
       </c>
       <c r="C1111" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1111" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vueapproved_roles</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>92</v>
       </c>
       <c r="F1111" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testApprovedRolesContent</v>
       </c>
       <c r="G1111" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testApprovedRolesContent"</v>
       </c>
       <c r="H1111" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1112" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testApprovedRoles${}Content`"</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1019</v>
+      </c>
       <c r="B1112" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>OtherOrganizations.vue</v>
       </c>
       <c r="C1112" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1112" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\OtherOrganizations.vueoverdue_count</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>15</v>
       </c>
       <c r="F1112" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testOverdueCountButton</v>
       </c>
       <c r="G1112" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testOverdueCountButton"</v>
       </c>
       <c r="H1112" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1113" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testOverdueCount${}Button`"</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1113" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1113" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1113" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueprofile</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>69</v>
       </c>
       <c r="F1113" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testProfileDiv</v>
       </c>
       <c r="G1113" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testProfileDiv"</v>
       </c>
       <c r="H1113" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1114" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testProfile${}Div`"</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1114" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1114" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1114" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuesave</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>15</v>
       </c>
       <c r="F1114" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testSaveButton</v>
       </c>
       <c r="G1114" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testSaveButton"</v>
       </c>
       <c r="H1114" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1115" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testSave${}Button`"</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1115" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1115" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1115" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuefirst_name_avatar</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>93</v>
       </c>
       <c r="F1115" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testFirstNameAvatarIcon</v>
       </c>
       <c r="G1115" t="str">
-        <f t="shared" si="76"/>
-        <v/>
+        <f>IF(D1115="","","data-testid="""&amp;F1115&amp;"""")</f>
+        <v>data-testid="testFirstNameAvatarIcon"</v>
       </c>
       <c r="H1115" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1116" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testFirstNameAvatar${}Icon`"</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1116" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1116" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1116" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueprofile_picture_upload</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>3</v>
       </c>
       <c r="F1116" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testProfilePictureUploadFile</v>
       </c>
       <c r="G1116" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testProfilePictureUploadFile"</v>
       </c>
       <c r="H1116" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1117" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testProfilePictureUpload${}File`"</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1117" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1117" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1117" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuechange_photo</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>15</v>
       </c>
       <c r="F1117" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testChangePhotoButton</v>
       </c>
       <c r="G1117" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testChangePhotoButton"</v>
       </c>
       <c r="H1117" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1118" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testChangePhoto${}Button`"</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1118" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1118" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1118" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueview_id_badge</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>15</v>
       </c>
       <c r="F1118" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testViewIdBadgeButton</v>
       </c>
       <c r="G1118" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testViewIdBadgeButton"</v>
       </c>
       <c r="H1118" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1119" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testViewIdBadge${}Button`"</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1119" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1119" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1119" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuefirst_name</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>68</v>
       </c>
       <c r="F1119" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testFirstNameTextInput</v>
       </c>
       <c r="G1119" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testFirstNameTextInput"</v>
       </c>
       <c r="H1119" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1120" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testFirstName${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1120" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1120" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1120" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuemobile</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>724</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>68</v>
       </c>
       <c r="F1120" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testMobileTextInput</v>
       </c>
       <c r="G1120" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testMobileTextInput"</v>
       </c>
       <c r="H1120" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1121" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testMobile${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1121" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1121" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1121" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuelast_name</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>68</v>
       </c>
       <c r="F1121" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testLastNameTextInput</v>
       </c>
       <c r="G1121" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testLastNameTextInput"</v>
       </c>
       <c r="H1121" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1122" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testLastName${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1122" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1122" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1122" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueemail</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>68</v>
       </c>
       <c r="F1122" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testEmailTextInput</v>
       </c>
       <c r="G1122" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testEmailTextInput"</v>
       </c>
       <c r="H1122" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1123" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testEmail${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1123" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1123" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1123" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueuser_roles</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>866</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>87</v>
       </c>
       <c r="F1123" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testUserRolesSelect</v>
       </c>
       <c r="G1123" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testUserRolesSelect"</v>
       </c>
       <c r="H1123" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1124" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testUserRoles${}Select`"</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1124" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1124" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1124" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueequipment</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>87</v>
       </c>
       <c r="F1124" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testEquipmentSelect</v>
       </c>
       <c r="G1124" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testEquipmentSelect"</v>
       </c>
       <c r="H1124" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1125" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testEquipment${}Select`"</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1125" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1125" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1125" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuelanguages</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>87</v>
       </c>
       <c r="F1125" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testLanguagesSelect</v>
       </c>
       <c r="G1125" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testLanguagesSelect"</v>
       </c>
       <c r="H1125" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1126" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testLanguages${}Select`"</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1126" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1126" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1126" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuefacebook</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>68</v>
       </c>
       <c r="F1126" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testFacebookTextInput</v>
       </c>
       <c r="G1126" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testFacebookTextInput"</v>
       </c>
       <c r="H1126" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1127" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testFacebook${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1127" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1127" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1127" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuetwitter</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>643</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>68</v>
       </c>
       <c r="F1127" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testTwitterTextInput</v>
       </c>
       <c r="G1127" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testTwitterTextInput"</v>
       </c>
       <c r="H1127" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1128" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testTwitter${}TextInput`"</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1128" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1128" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1128" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuechange_password</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>15</v>
       </c>
       <c r="F1128" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testChangePasswordButton</v>
       </c>
       <c r="G1128" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testChangePasswordButton"</v>
       </c>
       <c r="H1128" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1129" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testChangePassword${}Button`"</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1129" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1129" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1129" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuechange_organization</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>15</v>
       </c>
       <c r="F1129" t="str">
         <f t="shared" si="75"/>
-        <v/>
+        <v>testChangeOrganizationButton</v>
       </c>
       <c r="G1129" t="str">
         <f t="shared" si="76"/>
-        <v/>
+        <v>data-testid="testChangeOrganizationButton"</v>
       </c>
       <c r="H1129" t="str">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1130" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testChangeOrganization${}Button`"</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1130" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1130" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1130" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuenotification_settings</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>69</v>
       </c>
       <c r="F1130" t="str">
         <f t="shared" ref="F1130:F1193" si="81">IF(D1130="","","test"&amp;IF(ISNUMBER(SEARCH(".",D1130)),UPPER(LEFT(D1130,1))&amp;RIGHT(LEFT(D1130,SEARCH(".",D1130)-1),LEN(LEFT(D1130,SEARCH(".",D1130)-1))-1)&amp;SUBSTITUTE(PROPER(RIGHT(D1130,LEN(D1130)-SEARCH(".",D1130))),"_",""),IF(EXACT(LOWER(D1130),D1130),TRIM(SUBSTITUTE(PROPER(D1130),"_","")),UPPER(LEFT(D1130,1))&amp;RIGHT(D1130,LEN(D1130)-1)))&amp;E1130)</f>
-        <v/>
+        <v>testNotificationSettingsDiv</v>
       </c>
       <c r="G1130" t="str">
         <f t="shared" ref="G1130:G1193" si="82">IF(D1130="","","data-testid="""&amp;F1130&amp;"""")</f>
-        <v/>
+        <v>data-testid="testNotificationSettingsDiv"</v>
       </c>
       <c r="H1130" t="str">
         <f t="shared" ref="H1130:H1193" si="83">IF(D1130="","",":data-testid=""`"&amp;SUBSTITUTE(F1130,E1130,"")&amp;"${}"&amp;E1130&amp;"`""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1131" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testNotificationSettings${}Div`"</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1131" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1131" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1131" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuehas_notifications_yes</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>70</v>
       </c>
       <c r="F1131" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>testHasNotificationsYesRadio</v>
       </c>
       <c r="G1131" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="testHasNotificationsYesRadio"</v>
       </c>
       <c r="H1131" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1132" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testHasNotificationsYes${}Radio`"</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1132" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1132" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1132" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuehas_notifications_no</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>70</v>
       </c>
       <c r="F1132" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>testHasNotificationsNoRadio</v>
       </c>
       <c r="G1132" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="testHasNotificationsNoRadio"</v>
       </c>
       <c r="H1132" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1133" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testHasNotificationsNo${}Radio`"</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1133" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1133" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E1133" t="str">
         <f t="shared" si="78"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuenotification_settings_key</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>69</v>
       </c>
       <c r="F1133" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>testNotificationSettingsKeyDiv</v>
       </c>
       <c r="G1133" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="testNotificationSettingsKeyDiv"</v>
       </c>
       <c r="H1133" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1134" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testNotificationSettingsKey${}Div`"</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1134" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1134" t="str">
-        <f t="shared" si="79"/>
-        <v/>
+        <f t="shared" si="78"/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vue:several_calculated</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>104</v>
       </c>
       <c r="E1134" t="str">
         <f t="shared" ref="E1134:E1197" si="84">IF(COUNTIF(C:C,C1134)&gt;1,"Button","")</f>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F1134" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>test:SeveralCalculated</v>
       </c>
       <c r="G1134" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="test:SeveralCalculated"</v>
       </c>
       <c r="H1134" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1135" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`test:SeveralCalculated${}`"</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1135" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1135" t="str">
         <f t="shared" ref="C1135:C1198" si="85">A1135&amp;D1135</f>
-        <v/>
-      </c>
-      <c r="E1135" t="str">
-        <f t="shared" si="84"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuereset_user_states</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>15</v>
       </c>
       <c r="F1135" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>testResetUserStatesButton</v>
       </c>
       <c r="G1135" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="testResetUserStatesButton"</v>
       </c>
       <c r="H1135" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1136" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testResetUserStates${}Button`"</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1136" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1136" t="str">
         <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="E1136" t="str">
-        <f t="shared" si="84"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vuereset_user_preferences</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>15</v>
       </c>
       <c r="F1136" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>testResetUserPreferencesButton</v>
       </c>
       <c r="G1136" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="testResetUserPreferencesButton"</v>
       </c>
       <c r="H1136" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1137" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testResetUserPreferences${}Button`"</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1025</v>
+      </c>
       <c r="B1137" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Profile.vue</v>
       </c>
       <c r="C1137" t="str">
         <f t="shared" si="85"/>
-        <v/>
-      </c>
-      <c r="E1137" t="str">
-        <f t="shared" si="84"/>
-        <v>Button</v>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Profile.vueenable_worksite_caching</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>66</v>
       </c>
       <c r="F1137" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>testEnableWorksiteCachingCheckbox</v>
       </c>
       <c r="G1137" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>data-testid="testEnableWorksiteCachingCheckbox"</v>
       </c>
       <c r="H1137" t="str">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1138" spans="2:8" x14ac:dyDescent="0.25">
+        <v>:data-testid="`testEnableWorksiteCaching${}Checkbox`"</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1040</v>
+      </c>
       <c r="B1138" t="str">
-        <f t="shared" si="80"/>
-        <v/>
+        <f t="shared" si="79"/>
+        <v>Work.vue</v>
       </c>
       <c r="C1138" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\Work.vue</v>
       </c>
       <c r="E1138" t="str">
         <f t="shared" si="84"/>
-        <v>Button</v>
+        <v/>
       </c>
       <c r="F1138" t="str">
         <f t="shared" si="81"/>
@@ -35045,14 +35749,17 @@
         <v/>
       </c>
     </row>
-    <row r="1139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>970</v>
+      </c>
       <c r="B1139" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="C1139" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1139" t="str">
         <f t="shared" si="84"/>
@@ -35071,14 +35778,17 @@
         <v/>
       </c>
     </row>
-    <row r="1140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>970</v>
+      </c>
       <c r="B1140" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="C1140" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1140" t="str">
         <f t="shared" si="84"/>
@@ -35097,14 +35807,17 @@
         <v/>
       </c>
     </row>
-    <row r="1141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>970</v>
+      </c>
       <c r="B1141" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="C1141" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1141" t="str">
         <f t="shared" si="84"/>
@@ -35123,14 +35836,17 @@
         <v/>
       </c>
     </row>
-    <row r="1142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>970</v>
+      </c>
       <c r="B1142" t="str">
         <f t="shared" ref="B1142:B1205" si="86">IF(A1142="","",MID(A1142,FIND("@",SUBSTITUTE(A1142,"\","@",LEN(A1142)-LEN(SUBSTITUTE(A1142,"\",""))))+1,LEN(A1142)))</f>
         <v/>
       </c>
       <c r="C1142" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1142" t="str">
         <f t="shared" si="84"/>
@@ -35149,14 +35865,17 @@
         <v/>
       </c>
     </row>
-    <row r="1143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>970</v>
+      </c>
       <c r="B1143" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1143" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1143" t="str">
         <f t="shared" si="84"/>
@@ -35175,14 +35894,17 @@
         <v/>
       </c>
     </row>
-    <row r="1144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>970</v>
+      </c>
       <c r="B1144" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1144" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1144" t="str">
         <f t="shared" si="84"/>
@@ -35201,14 +35923,17 @@
         <v/>
       </c>
     </row>
-    <row r="1145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>970</v>
+      </c>
       <c r="B1145" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1145" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1145" t="str">
         <f t="shared" si="84"/>
@@ -35227,14 +35952,17 @@
         <v/>
       </c>
     </row>
-    <row r="1146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>970</v>
+      </c>
       <c r="B1146" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1146" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1146" t="str">
         <f t="shared" si="84"/>
@@ -35253,14 +35981,17 @@
         <v/>
       </c>
     </row>
-    <row r="1147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>970</v>
+      </c>
       <c r="B1147" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1147" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1147" t="str">
         <f t="shared" si="84"/>
@@ -35279,14 +36010,17 @@
         <v/>
       </c>
     </row>
-    <row r="1148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>970</v>
+      </c>
       <c r="B1148" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1148" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1148" t="str">
         <f t="shared" si="84"/>
@@ -35305,14 +36039,17 @@
         <v/>
       </c>
     </row>
-    <row r="1149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>970</v>
+      </c>
       <c r="B1149" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1149" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1149" t="str">
         <f t="shared" si="84"/>
@@ -35331,14 +36068,17 @@
         <v/>
       </c>
     </row>
-    <row r="1150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>970</v>
+      </c>
       <c r="B1150" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1150" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1150" t="str">
         <f t="shared" si="84"/>
@@ -35357,14 +36097,17 @@
         <v/>
       </c>
     </row>
-    <row r="1151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>970</v>
+      </c>
       <c r="B1151" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1151" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1151" t="str">
         <f t="shared" si="84"/>
@@ -35383,14 +36126,17 @@
         <v/>
       </c>
     </row>
-    <row r="1152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>970</v>
+      </c>
       <c r="B1152" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1152" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1152" t="str">
         <f t="shared" si="84"/>
@@ -35409,14 +36155,17 @@
         <v/>
       </c>
     </row>
-    <row r="1153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>970</v>
+      </c>
       <c r="B1153" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1153" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1153" t="str">
         <f t="shared" si="84"/>
@@ -35435,14 +36184,17 @@
         <v/>
       </c>
     </row>
-    <row r="1154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>970</v>
+      </c>
       <c r="B1154" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1154" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1154" t="str">
         <f t="shared" si="84"/>
@@ -35461,14 +36213,17 @@
         <v/>
       </c>
     </row>
-    <row r="1155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>970</v>
+      </c>
       <c r="B1155" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1155" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1155" t="str">
         <f t="shared" si="84"/>
@@ -35487,14 +36242,17 @@
         <v/>
       </c>
     </row>
-    <row r="1156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>970</v>
+      </c>
       <c r="B1156" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1156" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1156" t="str">
         <f t="shared" si="84"/>
@@ -35513,14 +36271,17 @@
         <v/>
       </c>
     </row>
-    <row r="1157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>970</v>
+      </c>
       <c r="B1157" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1157" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1157" t="str">
         <f t="shared" si="84"/>
@@ -35539,14 +36300,17 @@
         <v/>
       </c>
     </row>
-    <row r="1158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>970</v>
+      </c>
       <c r="B1158" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1158" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1158" t="str">
         <f t="shared" si="84"/>
@@ -35565,14 +36329,17 @@
         <v/>
       </c>
     </row>
-    <row r="1159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>970</v>
+      </c>
       <c r="B1159" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1159" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1159" t="str">
         <f t="shared" si="84"/>
@@ -35591,14 +36358,17 @@
         <v/>
       </c>
     </row>
-    <row r="1160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>970</v>
+      </c>
       <c r="B1160" t="str">
         <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="C1160" t="str">
         <f t="shared" si="85"/>
-        <v/>
+        <v>C:\Users\Aaron\Documents\GitHub\crisiscleanup-4-web\src\pages\</v>
       </c>
       <c r="E1160" t="str">
         <f t="shared" si="84"/>
@@ -35617,7 +36387,7 @@
         <v/>
       </c>
     </row>
-    <row r="1161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1161" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35643,7 +36413,7 @@
         <v/>
       </c>
     </row>
-    <row r="1162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1162" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35669,7 +36439,7 @@
         <v/>
       </c>
     </row>
-    <row r="1163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1163" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35695,7 +36465,7 @@
         <v/>
       </c>
     </row>
-    <row r="1164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1164" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35721,7 +36491,7 @@
         <v/>
       </c>
     </row>
-    <row r="1165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1165" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35747,7 +36517,7 @@
         <v/>
       </c>
     </row>
-    <row r="1166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1166" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35773,7 +36543,7 @@
         <v/>
       </c>
     </row>
-    <row r="1167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1167" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -35799,7 +36569,7 @@
         <v/>
       </c>
     </row>
-    <row r="1168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1168" t="str">
         <f t="shared" si="86"/>
         <v/>
@@ -38102,12 +38872,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
